--- a/result.xlsx
+++ b/result.xlsx
@@ -476,9 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>#[expect] attributes suppress the lint emission, but emit a warning, if
-the expectation is unfulfilled. This can be useful to be notified when the
-lint is no longer triggered.</t>
+          <t>#[expect]属性会抑制皮棉的发射，但如果预期未实现，则会发出警告。这对于在不再触发该命令时得到通知非常有用。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -517,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This ('a'..'z') is almost certainly a typo meant to include all letters.</t>
+          <t>这个（''..'z'）几乎可以肯定是一个包含所有字母的拼写错误。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,10 +545,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Usually, the definition in the standard library is more
-precise than what people come up with. If you find that your definition is
-actually more precise, please file a Rust
-issue.</t>
+          <t>通常，标准库中的定义比人们想出的更精确。如果你发现你的定义实际上更精确，请提交一份Rustsissue。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,8 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lint has been enabled to indicate a preference
-for AT&amp;T x86 assembly syntax.</t>
+          <t>lint已被启用，表示首选AT&amp;T x86程序集语法。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -623,8 +617,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The lint has been enabled to indicate a preference
-for Intel x86 assembly syntax.</t>
+          <t>lint已被启用，以指示英特尔x86程序集语法的首选项。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -664,8 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Will be optimized out by the compiler or should probably be replaced by a
-panic!() or unreachable!()</t>
+          <t>将被编译器优化，或者可能应该被apanic取代！（）或无法访问！（）</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -694,7 +686,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>An assertion failure cannot output an useful message of the error.</t>
+          <t>断言失败无法输出错误的有用消息。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,7 +715,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>An await is likely missing.</t>
+          <t>等待可能会丢失。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -763,10 +755,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>as conversions will perform many kinds of
-conversions, including silently lossy conversions and dangerous coercions.
-There are cases when it makes sense to use as, so the lint is
-Allow by default.</t>
+          <t>as转换将执行许多类型的转换，包括无声的有损转换和危险的强制转换。在某些情况下，使用as是有意义的，所以lint默认为Allow。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -800,12 +789,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>While there are valid uses of this annotation (and once
-you know when to use it, by all means allow this lint), it's a common
-newbie-mistake to pepper one's code with it.
-As a rule of thumb, before slapping #[inline(always)] on a function,
-measure if that additional function call really affects your runtime profile
-sufficiently to make up for the increase in compile time.</t>
+          <t>虽然这个注释有一些有效的用途（一旦你知道什么时候使用它，就一定要允许使用这个lint），但在代码中添加它是一个常见的新手错误。根据经验，在对函数进行#[inline（always）]操作之前，先测量一下这个额外的函数调用是否真的会有效地影响你的运行时配置文件，以弥补编译时间的增加。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -832,8 +816,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lint attributes have no effect on crate imports. Most
-likely a ! was forgotten.</t>
+          <t>绒毛属性对板条箱导入没有影响。大多数情况下！被遗忘了。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -870,8 +853,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>For checking the version of the deprecation, it must be
-a valid semver. Failing that, the contained information is useless.</t>
+          <t>为了检查弃用的版本，它必须是有效的semver。否则，包含的信息将毫无用处。</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -898,9 +880,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Most likely the attribute was meant to be an inner attribute using a '!'.
-If it was meant to be an outer attribute, then the following item
-should not be separated by empty lines.</t>
+          <t>该属性很可能是使用“！”的内部属性。如果它是一个外部属性，那么下面的项不应该用空行分隔。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -937,9 +917,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The documentation comment was most likely meant to be an inner attribute or regular comment.
-If it was intended to be a documentation comment, then the empty line should be removed to
-be more idiomatic.</t>
+          <t>文档注释很可能是一个内部属性或常规注释。如果它是一个文档注释，那么应该删除空行以使其更惯用。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -975,8 +953,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Restriction lints sometimes are in contrast with other lints or even go against idiomatic rust.
-These lints should only be enabled on a lint-by-lint basis and with careful consideration.</t>
+          <t>限制性短绒有时会与其他短绒形成对比，甚至会产生习惯性锈蚀。这些短绒只能在逐个短绒的基础上使用，并经过仔细考虑。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1006,8 +983,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Since tool_attributes (rust-lang/rust#44690)
-are stable now, they should be used instead of the old cfg_attr(rustfmt) attributes.</t>
+          <t>由于tool_attributes（rust-lang/rust#44690）现在是稳定的，所以应该使用它们来代替旧的cfg_attr（rustfmt）属性。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1039,8 +1015,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The configuration option will not be recognised and the related item will not be included
-by the conditional compilation engine.</t>
+          <t>配置选项将不会被识别，相关项目也不会被条件编译引擎包括在内。</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1078,8 +1053,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Allowing a lint should always have a reason. This reason should be documented to
-ensure that others understand the reasoning</t>
+          <t>允许棉绒总是有原因的。应记录此原因，以确保其他人理解其原因</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1111,7 +1085,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>If there is only one condition, no need to wrap it into any or all combinators.</t>
+          <t>如果只有一个条件，则无需将其封装到任何或所有组合子中。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1143,12 +1117,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The Mutex types found in std::sync and parking_lot
-are not designed to operate in an async context across await points.
-There are two potential solutions. One is to use an async-aware Mutex
-type. Many asynchronous foundation crates provide such a Mutex type. The
-other solution is to ensure the mutex is unlocked before calling await,
-either by introducing a scope or an explicit call to Drop::drop.</t>
+          <t>std:：sync和parking_lot中的Mutex类型并不是为了在等待点之间的异步上下文中操作而设计的。有两种潜在的解决方案。一种是使用异步感知Mutextype。许多异步基础板条箱都提供这种Mutex类型。另一种解决方案是通过引入作用域或显式调用Drop:：Drop来确保互斥锁在调用wait之前解锁。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1205,9 +1174,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RefCell refs only check for exclusive mutable access
-at runtime. Holding onto a RefCell ref across an await suspension point
-risks panics from a mutable ref shared while other refs are outstanding.</t>
+          <t>RefCell引用仅在运行时检查独占可变访问。在等待挂起点上保留一个RefCell引用可能会导致在其他引用未完成时共享的可变引用引发恐慌。</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1264,9 +1231,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>There are some types which are perfectly "safe" to be used concurrently
-from a memory access perspective but will cause bugs at runtime if they
-are held in such a way.</t>
+          <t>从内存访问的角度来看，有一些类型可以完全“安全”地同时使用，但如果以这种方式保存，则会在运行时引发错误。</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1305,7 +1270,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Style, using blocks in the condition makes it hard to read.</t>
+          <t>样式，在条件下使用块会使其难以阅读。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1340,8 +1305,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Readability of boolean expressions suffers from
-unnecessary duplication.</t>
+          <t>布尔表达式的可读性存在不必要的重复。</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1373,7 +1337,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>This is most likely a logic bug.</t>
+          <t>这很可能是一个逻辑错误。</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1404,7 +1368,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>It is shorter to use the equivalent.</t>
+          <t>使用等效项会更短。</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1435,9 +1399,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Coercion or from() is another way to convert bool to a number.
-Both methods are guaranteed to return 1 for true, and 0 for false.
-See https://doc.rust-lang.org/std/primitive.bool.html#impl-From%3Cbool%3E</t>
+          <t>Coercion或from（）是将bool转换为数字的另一种方法。这两种方法都保证返回1表示true，返回0表示false。请参阅https://doc.rust-lang.org/std/primitive.bool.html#impl-来自%3Bool%3E</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1476,7 +1438,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dereferencing and then borrowing a reference value has no effect in most cases.</t>
+          <t>在大多数情况下，取消引用然后借用引用值是无效的。</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1508,9 +1470,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>First, it's more complex, involving two calls instead of one.
-Second, Box::default() can be faster
-in certain cases.</t>
+          <t>首先，它更复杂，涉及两个调用而不是一个。其次，在某些情况下，Box:：default（）可以是faster。</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1540,7 +1500,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Reduces the readability of statements &amp; is error prone.</t>
+          <t>降低语句的可读性&amp;容易出错。</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1573,8 +1533,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Methods of high cognitive complexity tend to be hard to
-both read and maintain. Also LLVM will tend to optimize small methods better.</t>
+          <t>认知复杂度高的方法往往难以阅读和维护。LLVM也倾向于更好地优化小方法。</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1600,8 +1559,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Each if-statement adds one level of nesting, which
-makes code look more complex than it really is.</t>
+          <t>每个if语句都添加了一个嵌套级别，这使得代码看起来比实际情况更复杂。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1639,8 +1597,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Each if-statement adds one level of nesting, which
-makes code look more complex than it really is.</t>
+          <t>每个if语句都添加了一个嵌套级别，这使得代码看起来比实际情况更复杂。</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1680,10 +1637,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Putting effort into constructing a collection but then never querying it might indicate that
-the author forgot to do whatever they intended to do with the collection. Example: Clone
-a vector, sort it for iteration, but then mistakenly iterate the original vector
-instead.</t>
+          <t>努力构建一个集合，但从不查询它，这可能表明作者忘记了对集合做任何他们想做的事情。示例：克隆一个矢量，对其进行排序以进行迭代，但随后错误地迭代原始矢量头。</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1723,8 +1677,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>if is not guaranteed to be exhaustive and conditionals can get
-repetitive</t>
+          <t>if不能保证是详尽的，条件语句可能会重复</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1775,7 +1728,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>This is probably a copy &amp; paste error.</t>
+          <t>这可能是复制粘贴错误。</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1812,9 +1765,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>This is probably a copy &amp; paste error.
-Despite the fact that function can have side effects and if works as
-intended, such an approach is implicit and can be considered a "code smell".</t>
+          <t>这可能是一个复制粘贴错误。尽管函数可能会有副作用，而且如果工作不熟练，但这种方法是隐含的，可以被视为“代码气味”。</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1862,7 +1813,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>This is probably a copy &amp; paste error.</t>
+          <t>这可能是复制粘贴错误。</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1892,7 +1843,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Duplicate code is less maintainable.</t>
+          <t>重复的代码不太容易维护。</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1933,8 +1884,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Implicit copies can be confusing when working with
-iterator combinators.</t>
+          <t>在使用Terator组合子时，隐式副本可能会令人困惑。</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1966,9 +1916,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>crate refers to the macro call's crate, whereas $crate refers to the macro definition's
-crate. Rarely is the former intended. See:
-https://doc.rust-lang.org/reference/macros-by-example.html#hygiene</t>
+          <t>crate指宏调用的crate，而$crate指的是宏定义的crate。前者的意图很少。请参阅：https://doc.rust-lang.org/reference/macros-by-example.html#hygiene</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2014,7 +1962,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sometimes std::fs::create_dir is mistakenly chosen over std::fs::create_dir_all.</t>
+          <t>有时错误地选择std:：fs:：create_dir而不是std:：fs：：create_dir_all。</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2044,8 +1992,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The dbg! macro is intended as a debugging tool. It should not be present in released
-software or committed to a version control system.</t>
+          <t>dbg！宏是一个调试工具。它不应出现在已发布的软件中，也不应提交到版本控制系统中。</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2075,8 +2022,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>It's easier for the reader if the name of the type is used, rather than the
-generic Default.</t>
+          <t>如果使用类型的名称，而不是通用默认值，则对读者来说更容易。</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2106,7 +2052,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>///It's more idiomatic to use the functional update syntax.</t>
+          <t>///使用函数更新语法更为惯用。</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2144,7 +2090,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>This adds code complexity and an unnecessary function call.</t>
+          <t>这增加了代码的复杂性和不必要的函数调用。</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2187,7 +2133,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>std::iter::empty() is the more idiomatic way.</t>
+          <t>std:：iter:：empty（）是更惯用的方法。</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2219,8 +2165,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>For those who are very careful about types, default numeric fallback
-can be a pitfall that cause unexpected runtime behavior.</t>
+          <t>对于那些对类型非常谨慎的人来说，默认的数字回退可能会导致意外的运行时行为。</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2252,10 +2197,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Unions in Rust have unspecified layout by default, despite many people thinking that they
-lay out each field at the start of the union (like C does). That is, there are no guarantees
-about the offset of the fields for unions with multiple non-ZST fields without an explicitly
-specified layout. These cases may lead to undefined behavior in unsafe blocks.</t>
+          <t>Rust中的工会默认情况下有未指定的布局，尽管许多人认为他们在工会开始时就布局了每个字段（就像C一样）。也就是说，对于具有多个非ZST字段而没有明确指定布局的并集，无法保证字段的偏移量。这些情况可能导致不安全块中的未定义行为。</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2302,8 +2244,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dereferencing by &amp;*x or &amp;mut *x is clearer and more concise,
-when not part of a method chain.</t>
+          <t>当不是方法链的一部分时，通过&amp;*x或&amp;mut*x取消引用更清晰、更简洁。</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2338,8 +2279,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Suggests that the receiver of the expression borrows
-the expression.</t>
+          <t>暗示表达式的接收者借用该表达式。</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2373,7 +2313,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The address-of operator at the use site is clearer about the need for a reference.</t>
+          <t>使用现场操作员的地址更清楚地表明需要参考。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2409,7 +2349,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>This unnecessarily complicates the code.</t>
+          <t>这不必要地使代码复杂化。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2441,7 +2381,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>It is less concise.</t>
+          <t>它不那么简洁。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2483,11 +2423,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The implementation of these traits must agree (for
-example for use with HashMap) so it’s probably a bad idea to use a
-default-generated Hash implementation with an explicitly defined
-PartialEq. In particular, the following must hold for any type:
-k1 == k2 ⇒ hash(k1) == hash(k2)</t>
+          <t>这些特性的实现必须一致（例如与HashMap一起使用），因此使用带有明确定义的PartialEq的错误生成的Hash实现可能是个坏主意。特别是，对于任何类型，以下条件都必须成立：k1==k2⇒ hash（k1）==hash（k2）</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2517,12 +2453,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The implementation of these traits must agree (for
-example for use with sort) so it’s probably a bad idea to use a
-default-generated Ord implementation with an explicitly defined
-PartialOrd. In particular, the following must hold for any type
-implementing Ord:
-k1.cmp(&amp;k2) == k1.partial_cmp(&amp;k2).unwrap()</t>
+          <t>这些特性的实现必须一致（例如用于排序），因此使用默认生成的Ord实现与明确定义的PartialOrd可能是个坏主意。特别是，以下内容必须适用于任何实现Ord的类型：k1.cmp（&amp;k2）==k1.partial_cmp（&amp;k2）.unwrap（）</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2568,11 +2499,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>To avoid surprising behavior, these traits should
-agree and the behavior of Copy cannot be overridden. In almost all
-situations a Copy type should have a Clone implementation that does
-nothing more than copy the object, which is what #[derive(Copy, Clone)]
-gets you.</t>
+          <t>为了避免令人惊讶的行为，这些特征应该一致，并且不能覆盖Copy的行为。在几乎所有情况下，Copy类型都应该有一个Clone实现，它只不过是复制对象，而#[driven（Copy，Clone）]就是这样做的。</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2602,8 +2529,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Deriving serde::Deserialize will create a constructor
-that may violate invariants hold by another constructor.</t>
+          <t>派生serde:：Deserialize将创建一个构造函数，该构造函数可能会违反另一个构造函数持有的不变量。</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2641,10 +2567,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>If a type T derives PartialEq and all of its members implement Eq,
-then T can always implement Eq. Implementing Eq allows T to be used
-in APIs that require Eq types. It also allows structs containing T to derive
-Eq themselves.</t>
+          <t>如果类型T派生PartialEq，并且它的所有成员都实现Eq，那么T总是可以实现Eq。实现Eq允许T在需要Eq类型的API中使用。它还允许包含T的结构本身导出Eq。</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2682,8 +2605,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Some macros are undesirable in certain contexts, and it's beneficial to
-lint for them as needed.</t>
+          <t>有些宏在某些情况下是不受欢迎的，根据需要对它们进行移植是有益的。</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2728,8 +2650,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Some methods are undesirable in certain contexts, and it's beneficial to
-lint for them as needed.</t>
+          <t>有些方法在某些情况下是不可取的，根据需要使用它们是有益的。</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2777,8 +2698,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>These names are usually placeholder names and should be
-avoided.</t>
+          <t>这些名称通常是占位符名称，应作废。</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2804,10 +2724,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>It may be not desired to have many different scripts for
-identifiers in the codebase.
-Note that if you only want to allow plain English, you might want to use
-built-in non_ascii_idents lint instead.</t>
+          <t>可能不希望在代码库中有许多不同的标识符脚本。请注意，如果您只想使用纯英语，则可能需要使用内置的non_ascii_identits lint。</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2838,7 +2755,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Some types are undesirable in certain contexts.</t>
+          <t>某些类型在某些情况下是不可取的。</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2882,10 +2799,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rustdoc supports markdown formatting, _, :: and
-camel-case probably indicates some code which should be included between
-ticks. _ can also be used for emphasis in markdown, this lint tries to
-consider that.</t>
+          <t>Rustdoc支持markdown格式，_，：：和camel大小写可能表示一些应该包含在记号之间的代码也可以用于降价中的强调，这个lint试图考虑到这一点。</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2919,8 +2833,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Unsafe functions should document their safety
-preconditions, so that users can be sure they are using them safely.</t>
+          <t>不安全功能应记录其安全修复，以便用户能够确保他们安全使用它们。</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2958,8 +2871,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Documenting the type of errors that can be returned from a
-function can help callers write code to handle the errors appropriately.</t>
+          <t>记录可以从函数返回的错误类型可以帮助调用方编写适当处理错误的代码。</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2994,8 +2906,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Documenting the scenarios in which panicking occurs
-can help callers who do not want to panic to avoid those situations.</t>
+          <t>记录恐慌发生的场景可以帮助不想恐慌的来电者避免这些情况。</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3032,8 +2943,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The test can be shorter (and likely more readable)
-if the fn main() is left implicit.</t>
+          <t>如果将fn main（）保持为隐式，则测试可以更短（而且可能更可读）。</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3070,7 +2980,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>It is likely a typo when defining an intra-doc link</t>
+          <t>在定义文档内链接时，很可能是打字错误</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3102,8 +3012,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Safe functions and traits are safe to implement and therefore do not
-need to describe safety preconditions that users are required to uphold.</t>
+          <t>安全功能和特性实施起来是安全的，因此不需要描述用户必须遵守的安全前提条件。</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3142,8 +3051,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>This makes code harder to read and might indicate a
-mistake.</t>
+          <t>这会使代码更难阅读，并可能表明错误。</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3181,8 +3089,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Calling std::mem::drop is no different than dropping such a type. A different value may
-have been intended.</t>
+          <t>调用std:：mem:：drop与丢弃这样的类型没有什么不同。可能使用了不同的值。</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3210,8 +3117,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Calling std::mem::forget is no different than dropping such a type. A different value may
-have been intended.</t>
+          <t>调用std:：mem:：forget与丢弃这样的类型没有什么不同。可能使用了不同的值。</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3239,7 +3145,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The safe drop function does not drop the inner value of a ManuallyDrop.</t>
+          <t>安全丢弃功能不会丢弃ManualyDrop的内部值。</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3273,9 +3179,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Loading a file as a module more than once causes it to be compiled
-multiple times, taking longer and putting duplicate content into the
-module tree.</t>
+          <t>将文件作为模块多次加载会导致它被多次编译，耗时更长，并将重复的内容放入模块树中。</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3314,7 +3218,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Some coding guidelines require this (e.g., MISRA-C:2004 Rule 14.10).</t>
+          <t>一些编码指南要求这样做（例如，MISRA-C:2004规则14.10）。</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3360,9 +3264,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Empty Drop implementations have no effect when dropping an instance of the type. They are
-most likely useless. However, an empty Drop implementation prevents a type from being
-destructured, which might be the intention behind adding the implementation as a marker.</t>
+          <t>在删除类型的实例时，Empty Drop实现无效。它们很可能毫无用处。然而，一个空的Drop实现会阻止一个类型被重新构造，这可能是添加该实现作为标记的意图。</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3395,12 +3297,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>If you want to introduce a type which
-can't be instantiated, you should use ! (the primitive type "never"),
-or a wrapper around it, because ! has more extensive
-compiler support (type inference, etc...) and wrappers
-around it are the conventional way to define an uninhabited type.
-For further information visit never type documentation</t>
+          <t>如果你想引入一个不能实例化的类型，你应该使用！（基元类型“never”），或者它的包装器，因为！具有更广泛的编译器支持（类型推理等），并且概括它是定义无人居住类型的传统方法。有关更多信息，请访问never type文档</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3431,7 +3328,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Empty brackets after a struct declaration can be omitted.</t>
+          <t>结构声明后的空括号可以省略。</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3461,7 +3358,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Using entry is more efficient.</t>
+          <t>使用entry更有效。</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3501,8 +3398,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>This will truncate the variant value on 32 bit
-architectures, but works fine on 64 bit.</t>
+          <t>这将截断32位体系结构上的变量值，但在64位上效果良好。</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3533,8 +3429,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Enumeration variant names should specify their variant,
-not repeat the enumeration name.</t>
+          <t>枚举变体名称应指定其变体，而不是重复枚举名称。</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3572,7 +3467,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>It requires the user to type the module name twice.</t>
+          <t>它要求用户键入两次模块名称。</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3606,14 +3501,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A typical beginner mistake is to have mod foo; and
-again mod foo { .. } in foo.rs.
-The expectation is that items inside the inner mod foo { .. } are then
-available
-through foo::x, but they are only available through
-foo::foo::x.
-If this is done on purpose, it would be better to choose a more
-representative module name.</t>
+          <t>一个典型的初学者错误是拥有mod foo；andagain mod foo｛..｝在foo.rs中。期望的是，内部mod foo｛.｝中的项通过foo：：x可用，但它们只能通过foo:：foo:：x可用。如果这是故意的，最好选择一个更具代表性的模块名称。</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3644,11 +3532,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>It reads better and has less cognitive load because equality won't cause binding.
-It is a Yoda condition. Yoda conditions are widely
-criticized for increasing the cognitive load of reading the code.
-Equality is a simple bool expression and can be merged with &amp;&amp; and || and
-reuse if blocks</t>
+          <t>它读起来更好，认知负荷更小，因为平等不会引起束缚。这是尤达的一种条件。Yoda条件被广泛批评为增加阅读代码的认知负荷。Equality是一个简单的布尔表达式，可以与&amp;&amp;和||合并，并使用if块</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3682,9 +3566,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>This is an unnecessary allocation, and bad for
-performance. It is only necessary to allocate if you wish to move the box
-into something.</t>
+          <t>这是不必要的分配，对性能不利。只有当你想把盒子移到某个地方时，才需要进行分配。</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3714,8 +3596,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Needlessly creating a closure adds code for no benefit
-and gives the optimizer more work.</t>
+          <t>无需创建闭包就可以毫无益处地添加代码，并为优化器提供更多的工作。</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3746,7 +3627,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>It's unnecessary to create the closure.</t>
+          <t>没有必要创建闭包。</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3774,12 +3655,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Excessive bools in a struct
-is often a sign that it's used as a state machine,
-which is much better implemented as an enum.
-If it's not the case, excessive bools usually benefit
-from refactoring into two-variant enums for better
-readability and API.</t>
+          <t>结构中过多的bool通常表明它被用作状态机，而状态机更好地实现为enum。如果不是这样，过多的Bool通常受益于重构为两个变量enum以提高可读性和API。</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3817,12 +3693,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Calls to such functions
-are confusing and error prone, because it's
-hard to remember argument order and you have
-no type system support to back you up. Using
-two-variant enums instead of bools often makes
-API easier to use.</t>
+          <t>对此类函数的调用是令人困惑和容易出错的，因为它很难记住参数顺序，而且您没有类型系统支持来支持您。使用两个变体枚举而不是布尔通常会使API更易于使用。</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3860,9 +3731,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Exhaustive enums are typically fine, but a project which does
-not wish to make a stability commitment around exported enums may wish to
-disable them by default.</t>
+          <t>详尽枚举通常是可以的，但不希望围绕导出枚举做出稳定性承诺的项目可能希望在默认情况下禁用它们。</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3899,9 +3768,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Exhaustive structs are typically fine, but a project which does
-not wish to make a stability commitment around exported structs may wish to
-disable them by default.</t>
+          <t>详尽的结构通常是好的，但一个不希望围绕导出的结构做出稳定性承诺的项目可能希望在默认情况下禁用它们。</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3938,10 +3805,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Exit terminates the program at the location it is called. For unrecoverable
-errors panics should be used to provide a stacktrace and potentially other
-information. A normal termination or one with an error code should happen in
-the main function.</t>
+          <t>Exit在调用程序的位置终止程序。对于不可恢复的错误，应使用恐慌来提供堆栈跟踪和潜在的其他信息。正常终止或带有错误代码的终止应该发生在主函数中。</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3976,7 +3840,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Using `(e)println! is clearer and more concise</t>
+          <t>使用`e）println！更清晰简洁</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4012,8 +3876,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Functions cannot infer the value of unused type parameters; therefore, calling them
-requires using a turbofish, which serves no purpose but to satisfy the compiler.</t>
+          <t>函数无法推断未使用的类型参数的值；因此，调用它们需要使用一个turbofish，它除了满足编译器的要求之外没有任何用途。</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4047,7 +3910,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TryFrom should be used if there's a possibility of failure.</t>
+          <t>如果存在失败的可能性，则应使用TryFrom。</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4092,7 +3955,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Negatively impacts accuracy.</t>
+          <t>对准确性产生负面影响。</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4128,7 +3991,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Negatively impacts accuracy and performance.</t>
+          <t>对准确性和性能产生负面影响。</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4186,7 +4049,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rust will truncate the literal silently.</t>
+          <t>Rust将静默地截断文本。</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4218,8 +4081,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Rust will silently lose precision during
-conversion to a float.</t>
+          <t>Rust在转换为浮点值的过程中会默默地失去精度。</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4250,7 +4112,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Function pointers are assumed to not be null.</t>
+          <t>假定函数指针不为null。</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4282,10 +4144,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>There is no point of doing that. format!("foo") can
-be replaced by "foo".to_owned() if you really need a String. The even
-worse &amp;format!("foo") is often encountered in the wild. format!("{}", foo) can be replaced by foo.clone() if foo: String or foo.to_owned()
-if foo: &amp;str.</t>
+          <t>这样做毫无意义。总体安排（“foo”）可以替换为“foo“.to_owned（）”，如果您确实需要一个String。更糟糕的&amp;格式！（“foo”）经常出现在野外。总体安排（“｛｝”，foo）可以替换为foo.clone（）（如果foo:String）或foo.to_owned（如果foo:&amp;str）。</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4317,8 +4176,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>This is either a typo of *=, != or -= or
-confusing.</t>
+          <t>这要么是*=，！=的拼写错误或-=或冲突。</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4344,7 +4202,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>This is either a typo in the binary operator or confusing.</t>
+          <t>这要么是二进制运算符中的拼写错误，要么是令人困惑。</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4379,8 +4237,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>This is probably some refactoring remnant, even if the
-code is correct, it might look confusing.</t>
+          <t>这可能是一些重构的残余，即使代码是正确的，也可能看起来令人困惑。</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4419,7 +4276,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>This could lead to unexpected results.</t>
+          <t>这可能会导致意想不到的结果。</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4448,7 +4305,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>The recommended code is both shorter and avoids a temporary allocation.</t>
+          <t>推荐的代码既短又避免临时分配。</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4480,8 +4337,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Since the type implements Display, the use of to_string is
-unnecessary.</t>
+          <t>由于该类型实现了Display，因此不需要使用to_string。</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4513,9 +4369,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Non-inlined code is slightly more difficult to read and understand,
-as it requires arguments to be matched against the format string.
-The inlined syntax, where allowed, is simpler.</t>
+          <t>非内联代码稍微更难阅读和理解，因为它要求参数与格式字符串匹配。在允许的情况下，内联语法更简单。</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4553,8 +4407,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Shorter format specifiers are easier to read, it may also indicate that
-an expected formatting operation such as adding padding isn't happening.</t>
+          <t>较短的格式说明符更容易阅读，这也可能表明没有进行预期的格式化操作，如添加填充。</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4588,7 +4441,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>This will lead to infinite recursion and a stack overflow.</t>
+          <t>这将导致无限递归和堆栈溢出。</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4630,8 +4483,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Using a print macro is likely unintentional since formatting traits
-should write to the Formatter, not stdout/stderr.</t>
+          <t>使用打印宏可能是无意的，因为格式化Traits应该写入格式化程序，而不是stdout/stderr。</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4675,7 +4527,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Introduces an extra, avoidable heap allocation.</t>
+          <t>引入了一种额外的、可避免的堆分配。</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4709,7 +4561,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>According the std docs implementing From&lt;..&gt; is preferred since it gives you Into&lt;..&gt; for free where the reverse isn't true.</t>
+          <t>根据实现From&lt;..&gt;的std文档是首选，因为它可以让您进入&lt;..&gt;在相反的情况下免费。</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4749,9 +4601,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>When dealing with c_void raw pointers in FFI, it is easy to run into the pitfall of calling from_raw with the c_void pointer.
-The type signature of Box::from_raw is fn from_raw(raw: *mut T) -&gt; Box&lt;T&gt;, so if you pass a *mut c_void you will get a Box&lt;c_void&gt; (and similarly for Rc, Arc and Weak).
-For this to be safe, c_void would need to have the same memory layout as the original type, which is often not the case.</t>
+          <t>在处理FFI中的c_void原始指针时，很容易遇到用c_void指针调用from_raw的陷阱。Box:：from_law的类型签名是fn from_raw（raw:*mut T）-&gt;Box&lt;T&gt;，所以如果你传递一个*mut c_void，你会得到一个Box&lt;c_void&gt;（Rc、Arc和Weak也是如此）。为了安全起见，c_void需要与原始类型具有相同的内存布局，通常情况并非如此。</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4785,9 +4635,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>This specific common use case can be rewritten as s.parse::&lt;primitive&gt;()
-(and in most cases, the turbofish can be removed), which reduces code length
-and complexity.</t>
+          <t>这个特定的常见用例可以重写为s.parse：：＜primitive＞（）（在大多数情况下，可以删除Turbo fish），这减少了代码长度和复杂性。</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4819,18 +4667,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>A Future implementation captures some state that it
-needs to eventually produce its final value. When targeting a multithreaded
-executor (which is the norm on non-embedded devices) this means that this
-state may need to be transported to other threads, in other words the
-whole Future needs to implement the Send marker trait. If it does not,
-then the resulting Future cannot be submitted to a thread pool in the
-end user’s code.
-Especially for generic functions it can be confusing to leave the
-discovery of this problem to the end user: the reported error location
-will be far from its cause and can in many cases not even be fixed without
-modifying the library where the offending Future implementation is
-produced.</t>
+          <t>Future实现捕获了它最终产生其最终价值所需的一些状态。当以多线程执行器为目标时（这是非嵌入式设备上的标准），这意味着该状态可能需要传输到其他线程，换句话说，整个Future需要实现发送标记特性。如果没有，则生成的Future无法提交到最终用户代码中的线程池。特别是对于通用函数，将此问题的发现留给最终用户可能会令人困惑：报告的错误位置与原因相去甚远，在许多情况下，甚至无法通过对生成有问题的Future实现的库进行过度修改来修复。</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4860,8 +4697,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>The Mutex lock remains held for the whole
-if let ... else block and deadlocks.</t>
+          <t>Mutex锁将永远保持不变。。。否则会阻塞和死锁。</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4898,7 +4734,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Negations reduce the readability of statements.</t>
+          <t>否定会降低语句的可读性。</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4942,9 +4778,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Looks a little redundant. Using bool::then is more concise and incurs no loss of clarity.
-For simple calculations and known values, use bool::then_some, which is eagerly evaluated
-in comparison to bool::then.</t>
+          <t>看起来有点多余。使用bool:：then更简洁，也不会损失清晰度。对于简单的计算和已知值，请使用bool::：then_some，与bool:∶then相比，它会被急切地评估。</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4984,8 +4818,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HashMap or HashSet with custom hashers cannot be
-used with them.</t>
+          <t>带有自定义哈希器的HashMap或HashSet不能与它们一起使用。</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5021,11 +4854,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Actually omitting the return keyword is idiomatic Rust code. Programmers
-coming from other languages might prefer the expressiveness of return. It's possible to miss
-the last returning statement because the only difference is a missing ;. Especially in bigger
-code with multiple return paths having a return keyword makes it easier to find the
-corresponding statements.</t>
+          <t>实际上，省略return关键字是惯用的Rust代码。来自其他语言的程序员可能更喜欢return的表现力。上一次返回的语句可能有误，因为唯一的区别是缺少一个；。特别是在具有多个返回路径且带有return关键字的biggercode中，可以更容易地找到相应的语句。</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5057,7 +4886,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The built-in function is more readable and may be faster.</t>
+          <t>内置函数可读性更强，速度可能更快。</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5091,7 +4920,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Simplicity and readability. Instead we can easily use an builtin function.</t>
+          <t>简洁易读。相反，我们可以很容易地使用内置函数。</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5129,18 +4958,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Since the order of fields in a constructor doesn't affect the
-resulted instance as the below example indicates,
-#[derive(Debug, PartialEq, Eq)]
-struct Foo {
-    x: i32,
-    y: i32,
-}
-let x = 1;
-let y = 2;
-// This assertion never fails:
-assert_eq!(Foo { x, y }, Foo { y, x });
-inconsistent order can be confusing and decreases readability and consistency.</t>
+          <t>由于构造函数中字段的顺序不会影响结果实例，如下例所示，#[drivee（Debug，PartialEq，Eq）]struct Foo{x:i32，y:i32；}let x=1；设y=2；//这个断言永远不会失败：assert_eq！（Foo{x，y}，Foo{y，x}）；不一致的顺序可能会造成混乱，降低可读性和一致性。</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5182,7 +5000,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>This will always panic at runtime.</t>
+          <t>这在运行时总是会死机。</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5217,8 +5035,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Indexing and slicing can panic at runtime and there are
-safe alternatives.</t>
+          <t>索引和切片在运行时可能会死机，而且还有一些安全的替代方案。</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5261,9 +5078,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Accessing slice values using indices can lead to panics. Using refutable
-patterns can avoid these. Binding to individual values also improves the
-readability as they can be named.</t>
+          <t>使用索引访问切片值可能会导致恐慌。使用可退款模式可以避免这些情况。绑定到单个值也提高了可命名性。</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5299,8 +5114,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>While there may be places where this is acceptable
-(e.g., in event streams), in most cases this is simply an error.</t>
+          <t>虽然这可能在某些地方是可以接受的（例如，在事件流中），但在大多数情况下，这只是一个错误。</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5327,8 +5141,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>While there may be places where this is acceptable
-(e.g., in event streams), in most cases this is simply an error.</t>
+          <t>虽然这可能在某些地方是可以接受的（例如，在事件流中），但在大多数情况下，这只是一个错误。</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5356,7 +5169,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Splitting the implementation of a type makes the code harder to navigate.</t>
+          <t>拆分类型的实现会使代码更难导航。</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5396,7 +5209,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>This method is also implicitly defined if a type implements the Display trait. As the functionality of Display is much more versatile, it should be preferred.</t>
+          <t>如果一个类型实现了Display特性，则此方法也是隐式定义的。由于Display的功能更加通用，因此应优先选择它。</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5437,7 +5250,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>This method is also implicitly defined if a type implements the Display trait. The less versatile inherent method will then shadow the implementation introduced by Display.</t>
+          <t>如果一个类型实现了Display特性，则此方法也是隐式定义的。通用性较差的固有方法将掩盖Display引入的实现。</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5484,8 +5297,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>This may be confusing to the uninitiated and adds no
-benefit as opposed to tuple initializers</t>
+          <t>这可能会让不熟悉的人感到困惑，并添加了nobenefit，而不是元组初始化器</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5521,8 +5333,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Only implementations of trait methods may be inlined.
-The inline attribute is ignored for trait methods without bodies.</t>
+          <t>只能内联trait方法的实现。对于没有正文的trait方法，将忽略内联特性。</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5551,9 +5362,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>It is easy to accidentally write prev_instant - Instant::now(), which will always be 0ns
-as Instant subtraction saturates.
-prev_instant.elapsed() also more clearly signals intention.</t>
+          <t>很容易意外地写入prev_instant-instant:：now（），它将始终为0nsas。instant减法饱和。prev_intant.elapsed（）也更清楚地表示意图。</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5587,8 +5396,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Unchecked subtraction could cause underflow on certain platforms, leading to
-unintentional panics.</t>
+          <t>未经检查的减法可能会在某些平台上导致下溢，导致注意力不集中。</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5620,7 +5428,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Readability -- better to use &gt; y instead of &gt;= y + 1.</t>
+          <t>可读性--最好使用&gt;y，而不是&gt;=y+1。</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5654,9 +5462,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>An expression like let x : u8 = ...; (x as u32) &gt; 300
-will mistakenly imply that it is possible for x to be outside the range of
-u8.</t>
+          <t>一个类似于let x:u8=…的表达式。。。；（x为u32）&gt;300将错误地暗示x可能在u8的范围之外。</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5683,7 +5489,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Creating such a str would result in undefined behavior</t>
+          <t>创建这样的str会导致未定义的行为</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5712,9 +5518,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Items live for the entire scope they are declared
-in. But statements are processed in order. This might cause confusion as
-it's hard to figure out which item is meant in a statement.</t>
+          <t>项目在其解密的整个范围内有效。但语句是按顺序处理的。这可能会引起混乱，因为很难弄清楚声明中的哪一项是什么意思。</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5762,7 +5566,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Having items declared after the testing module is confusing and may lead to bad test coverage.</t>
+          <t>在测试模块之后声明项目是令人困惑的，可能会导致测试覆盖率不高。</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5804,7 +5608,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Methods named iter or iter_mut conventionally return an Iterator.</t>
+          <t>名为iter或iter_mut的方法通常返回一个Iterator。</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5846,8 +5650,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Performance: const variables are inlined upon use.
-Static items result in only one instance and has a fixed location in memory.</t>
+          <t>性能：常量变量在使用时是内联的。静态项只产生一个实例，并且在内存中有一个固定的位置。</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5877,8 +5680,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Enum size is bounded by the largest variant. Having one
-large variant can penalize the memory layout of that enum.</t>
+          <t>枚举大小受最大变量的限制。拥有一个较大的变体可能会惩罚该枚举的内存布局。</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5915,8 +5717,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Due to the current unideal implementation of Generator,
-large size of a Future may cause stack overflows.</t>
+          <t>由于Generator当前的统一实现，Future的大尺寸可能会导致堆栈溢出。</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5954,7 +5755,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Including large files can increase the size of the binary</t>
+          <t>包含大文件会增加二进制文件的大小</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5988,7 +5789,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Large local arrays may cause stack overflow.</t>
+          <t>大型本地数组可能会导致堆栈溢出。</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6014,10 +5815,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Some structures can answer .is_empty() much faster
-than calculating their length. So it is good to get into the habit of using
-.is_empty(), and having it is cheap.
-Besides, it makes the intent clearer than a manual comparison in some contexts.</t>
+          <t>有些结构可以比计算它们的长度更快地回答.is_empty（）。因此，养成使用.is_empty（）的习惯是很好的，而且使用它很便宜。此外，在某些情况下，它比手动比较更清晰。</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6055,11 +5853,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>It is good custom to have both methods, because for
-some data structures, asking about the length will be a costly operation,
-whereas .is_empty() can usually answer in constant time. Also it used to
-lead to false positives on the len_zero lint – currently that
-lint will ignore such entities.</t>
+          <t>两种方法都有是很好的自定义，因为对于某些数据结构，询问长度将是一项代价高昂的操作，而.is_empty（）通常可以在恒定时间内回答。此外，它曾在len_zero lint上导致误报——目前lint将忽略此类实体。</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6089,10 +5883,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Some structures can answer .is_empty() much faster
-than checking for equality. So it is good to get into the habit of using
-.is_empty(), and having it is cheap.
-Besides, it makes the intent clearer than a manual comparison in some contexts.</t>
+          <t>有些结构可以比检查相等性更快地回答.is_empty（）。因此，养成使用.is_empty（）的习惯是很好的，而且使用它很便宜。此外，在某些情况下，它比手动比较更清晰。</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6132,7 +5923,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>This is not idiomatic Rust.</t>
+          <t>这不是地道的Rust。</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6178,8 +5969,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>It's better to explicitly handle the value of a #[must_use]
-expr</t>
+          <t>最好显式处理#[must_use]expr的值</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6210,11 +6000,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>This statement immediately drops the lock instead of
-extending its lifetime to the end of the scope, which is often not intended.
-To extend lock lifetime to the end of the scope, use an underscore-prefixed
-name instead (i.e. _lock). If you want to explicitly drop the lock,
-std::mem::drop conveys your intention better and is less error-prone.</t>
+          <t>此语句会立即删除锁，而不是将其生存期延长到作用域的末尾，这通常不是有意的。要将锁的生存期延长至作用域的末端，请使用下划线前缀name（即_lock）。如果您想明确地解除锁定，std:：mem:：drop可以更好地传达您的意图，而且不太容易出错。</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6244,8 +6030,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Futures must be polled for work to be done. The original intention was most likely to await the future
-and ignore the resulting value.</t>
+          <t>必须对未来的工作进行调查。最初的意图很可能是等待未来，而忽略由此产生的价值。</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6283,9 +6068,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>The let _ = &lt;expr&gt; expression ignores the value of &lt;expr&gt; but will remain doing so even
-if the type were to change, thus potentially introducing subtle bugs. By supplying a type
-annotation, one will be forced to re-visit the decision to ignore the value in such cases.</t>
+          <t>let _=&lt;expr&gt;表达式忽略&lt;expr&gt;的值，但即使类型发生变化，它也会继续这样做，从而可能引入微妙的错误。在这种情况下，通过提供typeannotation，人们将被迫重新访问忽略值的决策。</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6324,7 +6107,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>It adds noise, : _ provides zero clarity or utility.</t>
+          <t>它增加了噪音，：_提供了零清晰度或实用性。</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6354,9 +6137,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>The additional lifetimes make the code look more
-complicated, while there is nothing out of the ordinary going on. Removing
-them leads to more readable code.</t>
+          <t>额外的生存期使代码看起来更加复杂，而没有什么异常。删除它们会使代码可读性更强。</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6391,9 +6172,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>The additional lifetimes make the code look more
-complicated, while there is nothing out of the ordinary going on. Removing
-them leads to more readable code.</t>
+          <t>额外的生存期使代码看起来更加复杂，而没有什么异常。删除它们会使代码可读性更强。</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6428,13 +6207,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Lines instances might produce a never-ending stream of Err, in which case
-filter_map(Result::ok) will enter an infinite loop while waiting for an
-Ok variant. Calling next() once is sufficient to enter the infinite loop,
-even in the absence of explicit loops in the user code.
-This situation can arise when working with user-provided paths. On some platforms,
-std::fs::File::open(path) might return Ok(fs) even when path is a directory,
-but any later attempt to read from fs will return an error.</t>
+          <t>Lines实例可能会产生一个永无止境的Err流，其中casefilter_map（Result:：ok）将在等待ok变量时进入一个无限循环。调用next（）一次就足以进入无限循环，即使在用户代码中没有显式循环的情况下也是如此。使用用户提供的路径时可能会出现这种情况。在某些平台上，std:：fs:：File:：open（path）可能会返回Ok（fs），即使path是一个目录，但以后任何从fs读取的尝试都会返回错误。</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6473,7 +6246,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Reading long numbers is difficult without separators.</t>
+          <t>没有分隔符，读取长数字很困难。</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6507,7 +6280,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>This is most probably a typo</t>
+          <t>这很可能是打字错误</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6534,8 +6307,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Readers may incorrectly interpret inconsistently
-grouped digits.</t>
+          <t>读者可能会错误地解读不一致的分组数字。</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6569,7 +6341,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Negatively impacts readability.</t>
+          <t>对可读性产生负面影响。</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6596,7 +6368,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Negatively impacts readability.</t>
+          <t>对可读性产生负面影响。</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6622,8 +6394,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Especially for big powers of 2 a hexadecimal representation is more
-readable than a decimal representation.</t>
+          <t>特别是对于2的幂，十六进制表示比十进制表示更可读。</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6651,8 +6422,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Since the Rust 2018 edition you can import
-macro's directly, this is considered idiomatic.</t>
+          <t>由于Rust 2018版可以直接导入macro，因此这被认为是惯用的。</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6679,8 +6449,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Apart from special setups (which we could detect following attributes like #![no_std]),
-recursing into main() seems like an unintuitive anti-pattern we should be able to detect.</t>
+          <t>除了特殊的设置（我们可以检测以下属性，如#！[no_std]）之外，递归到main（）似乎是一种我们应该能够检测到的非直觉反模式。</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6708,7 +6477,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>assert! is simpler than if-then-panic!.</t>
+          <t>明确肯定比如果那么恐慌更简单！。</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6742,7 +6511,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>It's more idiomatic to use the dedicated syntax.</t>
+          <t>使用专用语法更为惯用。</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6773,7 +6542,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Can be written as the shorter T::BITS.</t>
+          <t>可以写成较短的T:：BITS。</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6803,7 +6572,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>clamp is much shorter, easier to read, and doesn't use any control flow.</t>
+          <t>clamp更短，更容易阅读，并且不使用任何控制流程。</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6857,9 +6626,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Using the built-in functions is more readable and makes it
-clear that it's not a specific subset of characters, but all
-ASCII (lowercase|uppercase|digit) characters.</t>
+          <t>使用内置函数更具可读性，并清楚地表明它不是特定的字符子集，而是所有ASCII（小写|大写|数字）字符。</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6905,8 +6672,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>let...else provides a standard construct for this pattern
-that people can easily recognize. It's also more compact.</t>
+          <t>允许else为这种模式提供了一个标准结构，人们可以很容易地识别。它也更紧凑。</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6940,8 +6706,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>There exists a std::path::MAIN_SEPARATOR_STR which does not require
-an extra memory allocation.</t>
+          <t>存在一个std:：path:：MAIN_SEPARATOR_STR，它不需要额外的内存分配。</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6971,8 +6736,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Using the #[non_exhaustive] attribute expresses better the intent
-and allows possible optimizations when applied to enums.</t>
+          <t>使用#[non_exhaustive]属性可以更好地表达意图，并允许在应用于枚举时进行可能的优化。</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7024,7 +6788,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>It's simpler and more readable.</t>
+          <t>它更简单，可读性更强。</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7056,7 +6820,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>.retain() is simpler and avoids needless allocation.</t>
+          <t>.retain（）更简单，避免了不必要的分配。</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7089,12 +6853,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Shorter to write
-Removes the need for the human and the compiler to worry about overflow in the
-multiplication
-Potentially faster at runtime as rust emits special no-wrapping flags when it
-calculates the byte length
-Less turbofishing</t>
+          <t>写入时间更短消除了人员和编译器对多路复用中溢出的担忧在运行时可能会更快，因为rust在计算字节长度时会发出特殊的无包装标志减少了涡轮捕鱼</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7126,8 +6885,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Different ways of creating an empty string makes your code less standardized, which can
-be confusing.</t>
+          <t>创建空字符串的不同方法会降低代码的标准化程度，这可能会令人困惑。</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7159,10 +6917,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Using str:strip_{prefix,suffix} is safer and may have better performance as there is no
-slicing which may panic and the compiler does not need to insert this panic code. It is
-also sometimes more readable as it removes the need for duplicating or storing the pattern
-used by str::{starts,ends}_with and in the slicing.</t>
+          <t>使用str:strip_{prefix，suffix}更安全，并且可能具有更好的性能，因为存在可能死机的noslicing，并且编译器不需要插入此死机代码。它有时也更可读，因为它消除了在切片中复制或存储str:：{starts，ends}_with和使用的模式的需要。</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7198,8 +6953,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Readability, this can be written more clearly with
-an if let statement</t>
+          <t>可读性，这可以用iflet语句写得更清楚</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7245,8 +6999,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Readability, this can be written more clearly with
-an if let statement</t>
+          <t>可读性，这可以用iflet语句写得更清楚</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7292,8 +7045,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Calling ok() in while let is unnecessary, instead match
-on Ok(pat)</t>
+          <t>在let中调用ok（）是不必要的，而是匹配ok（pat）</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7333,8 +7085,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>std::mem::forget(t) prevents t from running its
-destructor, possibly causing leaks.</t>
+          <t>std:：mem:：forget（t）阻止t运行其析构函数，这可能会导致泄漏。</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7362,9 +7113,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Option already has the method take() for
-taking its current value (Some(..) or None) and replacing it with
-None.</t>
+          <t>Option已经有了方法take（）来调整其当前值（Some（..）或None），并将其替换为None。</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7395,9 +7144,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>This will lead to undefined behavior even if the
-value is overwritten later, because the uninitialized value may be
-observed in the case of a panic.</t>
+          <t>这将导致未定义的行为，即使稍后覆盖该值，因为在死机的情况下可能会观察到未初始化的值。</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7433,8 +7180,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>std::mem module already has the method take to
-take the current value and replace it with the default value of that type.</t>
+          <t>std:：mem模块已经有了获取当前值并将其替换为该类型的默认值的方法。</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7464,8 +7210,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>This is in all probability not the intended outcome. At
-the least it hurts readability of the code.</t>
+          <t>这很可能不是预期的结果。至少它会损害代码的可读性。</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7495,13 +7240,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>The ref declaration makes the function take an owned
-value, but turns the argument into a reference (which means that the value
-is destroyed when exiting the function). This adds not much value: either
-take a reference type, or take an owned value and create references in the
-body.
-For let bindings, let x = &amp;foo; is preferred over let ref x = foo. The
-type of x is more obvious with the former.</t>
+          <t>ref声明使函数采用ownedvalue，但将参数转换为引用（这意味着在退出函数时该值将被销毁）。这不会增加太多的值：要么采用引用类型，要么采用所拥有的值并在body中创建引用。对于let绑定，let x=&amp;foo；优先于let ref x=foo。x的类型在前者中更为明显。</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7531,9 +7270,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>A single leading underscore is usually used to indicate
-that a binding will not be used. Using such a binding breaks this
-expectation.</t>
+          <t>一个前导下划线通常用于表示不使用绑定。使用这样的绑定打破了这种期望。</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7561,9 +7298,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Using a short circuit boolean condition as a statement
-may hide the fact that the second part is executed or not depending on the
-outcome of the first part.</t>
+          <t>使用短路布尔条件作为语句可能会隐藏第二部分是否执行的事实，这取决于第一部分的结果。</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7589,8 +7324,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>This generally means null and is better expressed as
-{std, core}::ptr::{null, null_mut}.</t>
+          <t>这通常意味着null，最好用{std，core}：：ptr:：{null，null_mut}表示。</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7620,9 +7354,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Type parameters are determined by their position rather than name.
-Naming type parameters inconsistently may cause you to refer to the
-wrong type parameter.</t>
+          <t>类型参数是由它们的位置而不是名称决定的。命名类型参数不一致可能会导致引用错误的类型参数。</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7661,9 +7393,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Without a good custom message, it'd be hard to understand what went wrong when the assertion fails.
-A good custom message should be more about why the failure of the assertion is problematic
-and not what is failed because the assertion already conveys that.</t>
+          <t>如果没有一个好的自定义消息，就很难理解断言失败时出了什么问题。一个好自定义消息应该更多地说明为什么断言失败是有问题的，而不是什么失败了，因为断言已经传达了这一点。</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7699,7 +7429,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Not having the function const prevents callers of the function from being const as well.</t>
+          <t>没有函数const也会阻止函数的调用方成为const。</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7741,10 +7471,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Doc is good. rustc has a MISSING_DOCS
-allowed-by-default lint for
-public members, but has no way to enforce documentation of private items.
-This lint fixes that.</t>
+          <t>Doc很好。rustc为公共成员提供了一个MISSING_DOCSallowed-by-default lint，但无法强制执行私有项的文档。这个lint解决了这个问题。</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -7766,9 +7493,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Consistency is important, if a project has defined import
-renames they should be followed. More practically, some item names are too
-vague outside of their defining scope this can enforce a more meaningful naming.</t>
+          <t>一致性很重要，如果一个项目已经定义了importrename，则应该遵循它们。更实际的是，有些项目名称在其定义范围之外过于模糊，这可以强制执行更有意义的命名。</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7801,13 +7526,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>In general, it is not. Functions can be inlined across
-crates when that's profitable as long as any form of LTO is used. When LTO is disabled,
-functions that are not #[inline] cannot be inlined across crates. Certain types of crates
-might intend for most of the methods in their public API to be able to be inlined across
-crates even when LTO is disabled. For these types of crates, enabling this lint might make
-sense. It allows the crate to require all exported methods to be #[inline] by default, and
-then opt out for specific methods where this might not make sense.</t>
+          <t>总的来说，事实并非如此。只要使用任何形式的LTO，只要有利可图，函数就可以跨脚本内联。当LTO被禁用时，非#[inline]的函数不能跨板条箱内联。某些类型的cratesmith打算使其公共API中的大多数方法能够跨crates内联，即使LTO被禁用。对于这些类型的板条箱，启用这种棉绒可能是有意义的。它允许机箱默认要求所有导出的方法都是#[inline]，然后在可能没有意义的情况下选择退出特定的方法。</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7856,7 +7575,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Indicates that a method is missing.</t>
+          <t>指示缺少方法。</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7903,8 +7622,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>It is often confusing to read. As described here,
-the operands of these expressions are evaluated before applying the effects of the expression.</t>
+          <t>阅读起来常常令人困惑。如本文所述，在应用表达式的效果之前，对这些表达式的操作数进行求值。</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7944,8 +7662,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>It is often confusing to read. In addition, the
-sub-expression evaluation order for Rust is not well documented.</t>
+          <t>阅读起来常常令人困惑。此外，Rust的子表达式评估顺序没有得到很好的记录。</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7976,7 +7693,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Having multiple module layout styles in a project can be confusing.</t>
+          <t>在一个项目中拥有多个模块布局样式可能会令人困惑。</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8014,7 +7731,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Having multiple module layout styles in a project can be confusing.</t>
+          <t>在一个项目中拥有多个模块布局样式可能会令人困惑。</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8052,10 +7769,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Combined with undocumented_unsafe_blocks,
-this lint ensures that each unsafe operation must be independently justified.
-Combined with unused_unsafe, this lint also ensures
-elimination of unnecessary unsafe blocks through refactoring.</t>
+          <t>该lint与undocumented_unsaf.blocks相结合，确保每个不安全的操作都必须独立证明。与unused_unsafe相结合，该lint还确保通过重构消除不必要的不安全块。</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8110,9 +7824,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>While this is in most cases already a type mismatch,
-the result of an assignment being () can throw off people coming from languages like python or C,
-where such assignments return a copy of the assigned value.</t>
+          <t>虽然在大多数情况下，这已经是一种类型不匹配，但赋值为（）的结果可能会让来自python或C等语言的人感到困惑，在这些语言中，此类赋值返回赋值的副本。</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8145,10 +7857,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>In release builds debug_assert! macros are optimized out by the
-compiler.
-Therefore mutating something in a debug_assert! macro results in different behavior
-between a release and debug build.</t>
+          <t>在发布版本中debug_assert！宏是由编译器优化出来的。因此，在debug_assert中更改一些东西！宏在发布版本和调试版本之间会导致不同的行为。</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8178,13 +7887,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Using a mutex just to make access to a plain bool or
-reference sequential is shooting flies with cannons.
-std::sync::atomic::AtomicBool and std::sync::atomic::AtomicPtr are leaner and
-faster.
-On the other hand, Mutexes are, in general, easier to
-verify correctness. An atomic does not behave the same as
-an equivalent mutex. See this issue's commentary for more details.</t>
+          <t>使用互斥体只是为了访问一个普通的布尔或引用序列，这是在用大炮射击苍蝇。std:：sync:：atomic:：AtomicBool和std:：同步：：AtomicPtr更精简、更快。另一方面，互斥体通常更容易验证正确性。原子的行为与等价的互斥锁不同。有关更多详细信息，请参阅本期的评论。</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8218,9 +7921,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Using a mutex just to make access to a plain integer
-sequential is
-shooting flies with cannons. std::sync::atomic::AtomicUsize is leaner and faster.</t>
+          <t>使用互斥锁只是为了访问一个普通的整数序列，这会让大炮飞起来。std:：sync:：atomic:：AtomicUsize更精简、更快。</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8252,9 +7953,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>All of HashMap, HashSet, BTreeMap and
-BtreeSet rely on either the hash or the order of keys be unchanging,
-so having types with interior mutability is a bad idea.</t>
+          <t>所有的HashMap、HashSet、BTreeMap和BtreeSet都依赖于哈希或键的顺序不变，因此使用具有内部可变性的类型是个坏主意。</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8301,9 +8000,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Multiple muts don't add anything meaningful to the
-source. This is either a copy'n'paste error, or it shows a fundamental
-misunderstanding of references.</t>
+          <t>多个mut不会为源添加任何有意义的内容。这要么是一个复制粘贴错误，要么显示了对引用的基本理解。</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8330,8 +8027,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>The mutable reference rules out all other references to
-the value. Also the code misleads about the intent of the call site.</t>
+          <t>可变引用排除了对值的所有其他引用。此外，该代码误导了呼叫站点的意图。</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8365,7 +8061,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Increases the amount and decreases the readability of code</t>
+          <t>增加代码的数量并降低代码的可读性</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8419,7 +8115,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Redundant code.</t>
+          <t>冗余代码。</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8457,7 +8153,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Unnecessary code.</t>
+          <t>不必要的代码。</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8487,7 +8183,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Redundant code.</t>
+          <t>冗余代码。</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8527,7 +8223,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>This pattern has no effect in almost all cases.</t>
+          <t>这种模式几乎在所有情况下都没有效果。</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8561,11 +8257,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Having explicit else blocks for if statements
-containing continue in their THEN branch adds unnecessary branching and
-nesting to the code. Having an else block containing just continue can
-also be better written by grouping the statements following the whole if
-statement within the THEN block and omitting the else block completely.</t>
+          <t>在其THEN分支中为if语句包含continue设置显式else块会给代码添加不必要的分支和嵌套。如果有一个包含continue的else块，那么通过将语句分组在THEN块中的整个if语句之后，并完全省略else块可以更好地编写。</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -8632,10 +8324,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>for_each may be used after applying iterator transformers like
-filter for better readability and performance. It may also be used to fit a simple
-operation on one line.
-But when none of these apply, a simple for loop is more idiomatic.</t>
+          <t>for_each可以在应用迭代器转换器（如filter）之后使用，以获得更好的可读性和性能。它也可以用于将simple操作放在一行中。但当这些都不适用时，简单的for循环更为惯用。</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8671,7 +8360,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Assigning in the let statement is less repetitive.</t>
+          <t>let语句中的赋值较少重复。</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8724,8 +8413,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Having superfluous parenthesis makes the code less readable
-overhead when reading.</t>
+          <t>有多余的括号可以减少代码在阅读时的可读开销。</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -8759,9 +8447,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Taking arguments by reference is more flexible and can
-sometimes avoid
-unnecessary allocations.</t>
+          <t>引用论点更灵活，有时可以避免必要的分配。</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -8793,7 +8479,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>There's no reason to use ? to short-circuit when execution of the body will end there anyway.</t>
+          <t>没有理由使用？短路时，身体的执行无论如何都会结束。</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -8845,8 +8531,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>This will cost resources (because the base has to be
-somewhere), and make the code less readable.</t>
+          <t>这将耗费资源（因为基础必须显示在哪里），并降低代码的可读性。</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -8892,9 +8577,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>These operators make it easy to forget that the underlying types actually allow not only three
-potential Orderings (Less, Equal, Greater) but also a fourth one (Uncomparable). This is
-especially easy to miss if the operator based comparison result is negated.</t>
+          <t>这些运算符很容易让人忘记，底层类型实际上不仅允许三个潜在的Order（Less、Equal、Greater），而且还允许第四个Order（Uncomparable）。如果基于运算符的比较结果被否定，则特别容易忽略这一点。</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -8932,7 +8615,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>It's more readable to just negate.</t>
+          <t>否定更容易阅读。</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -8962,9 +8645,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>The user might expect to be able to use
-Default as the
-type can be constructed without arguments.</t>
+          <t>用户可能希望能够使用Default，因为可以在没有参数的情况下构造类型。</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9002,8 +8683,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>This is mostly a consistency lint although using () or []
-doesn't give you a semicolon in item position, which can be unexpected.</t>
+          <t>这主要是一个一致性lint，尽管使用（）或[]不会在项位置给您一个分号，这可能是出乎意料的。</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9033,12 +8713,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Consts are copied everywhere they are referenced, i.e.,
-every time you refer to the const a fresh instance of the Cell or Mutex
-or AtomicXxxx will be created, which defeats the whole purpose of using
-these types in the first place.
-The const should better be replaced by a static item if a global
-variable is wanted, or replaced by a const fn if a constructor is wanted.</t>
+          <t>const被复制到引用的任何地方，也就是说，每次引用const时，都会创建一个新的Cell或Mutemor AtomicXxxx实例，这从一开始就违背了使用这些类型的全部目的。如果需要全局变量，const最好用静态项替换，如果需要构造函数，则最好用const fn替换。</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9074,11 +8749,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Consts are copied everywhere they are referenced, i.e.,
-every time you refer to the const a fresh instance of the Cell or Mutex
-or AtomicXxxx will be created, which defeats the whole purpose of using
-these types in the first place.
-The const value should be stored inside a static item.</t>
+          <t>const被复制到引用的任何地方，也就是说，每次引用const时，都会创建一个新的Cell或Mutemor AtomicXxxx实例，这从一开始就违背了使用这些类型的全部目的。const值应该存储在静态项中。</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -9115,8 +8786,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>It's hard to distinguish between names that differ only
-by a single character.</t>
+          <t>很难区分只相差一个字符的名字。</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -9143,8 +8813,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>It's hard to memorize what a variable means without a
-descriptive name.</t>
+          <t>如果没有一个恰当的名字，很难记住变量的含义。</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9170,8 +8839,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>It's hard to memorize what a variable means without a
-descriptive name.</t>
+          <t>如果没有一个恰当的名字，很难记住变量的含义。</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -9199,8 +8867,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>They will be converted into octal, creating potentially
-unintended file permissions.</t>
+          <t>它们将被转换为八进制，从而可能会创建预期的文件权限。</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -9236,13 +8903,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Sending the struct to another thread effectively sends all of its fields,
-and the fields that do not implement Send can lead to soundness bugs
-such as data races when accessed in a thread
-that is different from the thread that created it.
-See:
-The Rustonomicon about Send and Sync
-The documentation of Send</t>
+          <t>将结构发送到另一个线程可以有效地发送其所有字段，而不实现Send的字段可能会导致健全性错误，例如在与创建它的线程不同的线程中访问数据时会发生争用。请参阅：关于Send和Sync的Rustonomicon Send文档</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9275,9 +8936,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Unlike dead code, these statements are actually
-executed. However, as they have no effect, all they do is make the code less
-readable.</t>
+          <t>与死代码不同，这些语句实际上是执行的。然而，由于它们没有任何效果，它们所做的只是降低代码的可读性。</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -9303,9 +8962,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Unlike dead code, these bindings are actually
-executed. However, as they have no effect and shouldn't be used further on, all they
-do is make the code less readable.</t>
+          <t>与死代码不同，这些绑定实际上是执行的。然而，由于它们没有任何效果，也不应该进一步使用，它们所做的只是降低代码的可读性。</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -9331,8 +8988,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Expressions by themselves often have no side-effects.
-Having such expressions reduces readability.</t>
+          <t>表达式本身通常没有任何副作用。拥有这样的表达式会降低可读性。</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9358,10 +9014,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>The Rust ABI is not stable, but in many simple cases matches
-enough with the C ABI that it is possible to forget to add
-extern "C" to a function called from C. Changes to the
-Rust ABI can break this at any point.</t>
+          <t>Rust ABI并不稳定，但在许多简单的情况下，与C ABI相匹配，可能会忘记将外部“C”添加到从C调用的函数中。对Rust ABI的更改可以在任何时候打破这种局面。</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -9393,13 +9046,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>C and other languages support octal character escapes in strings, where
-a backslash is followed by up to three octal digits. For example, \033
-stands for the ASCII character 27 (ESC). Rust does not support this
-notation, but has the escape code \0 which stands for a null
-byte/character, and any following digits do not form part of the escape
-sequence. Therefore, \033 is not a compiler error but the result may
-be surprising.</t>
+          <t>C和其他语言支持字符串中的八进制字符转义，其中反斜杠后面最多跟三个八进制数字。例如，\033代表ASCII字符27（ESC）。Rust不支持这种表示法，但其转义码\0代表一个空字节/字符，并且后面的任何数字都不构成转义序列的一部分。因此，\033不是编译器错误，但结果可能令人惊讶。</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9431,10 +9078,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>It could contain a useless calculation and can make function simpler.
-The arguments can be involved in calculations and assignments but as long as
-the calculations have no side-effects (function calls or mutating dereference)
-and the assigned variables are also only in recursion, it is useless.</t>
+          <t>它可能包含无用的计算，并可以使函数更简单。参数可以参与计算和赋值，但只要计算没有副作用（函数调用或变异解引用），并且赋值的变量也只是递归，它就没有用。</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -9482,9 +9126,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Unwrapping the result of option_env! will panic
-at run-time if the environment variable doesn't exist, whereas env!
-catches it at compile-time.</t>
+          <t>正在展开option_env的结果！如果环境变量不存在，将在运行时恐慌，而env！在编译时捕获它。</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -9512,8 +9154,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Using the dedicated functions of the Option type is clearer and
-more concise than an if let expression.</t>
+          <t>使用Option类型的专用函数比iflet表达式更清晰、更简洁。</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -9564,8 +9205,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Most classic C underflow/overflow checks will fail in
-Rust. Users can use functions like overflowing_* and wrapping_* instead.</t>
+          <t>在Rust中，大多数经典的C下溢/溢出检查都会失败。用户可以使用overrowing_*和wrappeng_*等函数。</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -9593,7 +9233,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>For some codebases, it is desirable for functions of type result to return an error instead of crashing. Hence panicking macros should be avoided.</t>
+          <t>对于某些代码库，result类型的函数最好返回错误，而不是崩溃。因此，应该避免恐慌的宏。</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -9628,7 +9268,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>panic! will stop the execution of the executable</t>
+          <t>惊恐将停止执行可执行文件</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -9654,7 +9294,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>This macro should not be present in production code</t>
+          <t>此宏不应出现在生产代码中</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -9680,7 +9320,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>This macro should not be present in production code</t>
+          <t>此宏不应出现在生产代码中</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -9706,7 +9346,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>This macro can cause code to panic</t>
+          <t>此宏可能导致代码死机</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -9732,10 +9372,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>PartialEq::ne is required to always return the
-negated result of PartialEq::eq, which is exactly what the default
-implementation does. Therefore, there should never be any need to
-re-implement it.</t>
+          <t>PartialEq:：ne需要始终返回PartialEq：：eq的门控结果，这正是默认实现所做的。因此，永远不应该有任何需要来实现它。</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -9765,11 +9402,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>A programmer checking if some foo is None via a comparison foo == None
-is usually inspired from other programming languages (e.g. foo is None
-in Python).
-Checking if a value of type Option&lt;T&gt; is (not) equal to None in that
-way relies on T: PartialEq to do the comparison, which is unneeded.</t>
+          <t>程序员通过比较来检查某个foo是否为None foo==Noneis通常受到其他编程语言的启发（例如foo在Python中为None）。通过这种方式检查Option＜T＞类型的值是否（不）等于None依赖于T:PartialEq来进行比较，这是不必要的。</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9803,10 +9436,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Most types should either be:
-Abstract data types: complex objects with opaque implementation which guard
-interior invariants and expose intentionally limited API to the outside world.
-Data: relatively simple objects which group a bunch of related attributes together.</t>
+          <t>大多数类型应该是：抽象数据类型：具有不透明实现的复杂对象，这些对象保护了参数不变量并将有意限制的API暴露给外部世界。数据： 将一组相关属性组合在一起的相对简单的对象。</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9844,9 +9474,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>In many calling conventions instances of structs will
-be passed through registers if they fit into two or less general purpose
-registers.</t>
+          <t>在许多调用约定中，如果结构的实例适合两个或更少的通用寄存器，则它们将通过寄存器传递。</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9876,9 +9504,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Arguments passed by value might result in an unnecessary
-shallow copy, taking up more space in the stack and requiring a call to
-memcpy, which can be expensive.</t>
+          <t>按值传递的参数可能会导致不必要的hallow副本，占用堆栈中更多的空间，并需要调用tomempy，这可能会很昂贵。</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9912,9 +9538,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>It isn't bad in general. But in some contexts it can be desirable
-because it increases ownership hints in the code, and will guard against some changes
-in ownership.</t>
+          <t>总的来说还不错。但在某些情况下，它可能是可取的，因为它增加了代码中的所有权提示，并将防止所有权的一些变化。</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9968,8 +9592,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>On Unix platforms this results in the file being world writable,
-equivalent to chmod a+w &lt;file&gt;.</t>
+          <t>在Unix平台上，这导致文件是可全局写入的，相当于chmod a+w＜file＞。</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9999,9 +9622,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Not everyone knows the precedence of those operators by
-heart, so expressions like these may trip others trying to reason about the
-code.</t>
+          <t>并不是每个人都知道这些运算符的优先级，所以像这样的表达可能会让其他试图推理代码的人感到困惑。</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -10028,9 +9649,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Requiring the argument to be of the specific size
-makes the function less useful for no benefit; slices in the form of &amp;[T]
-or &amp;str usually suffice and can be obtained from other types, too.</t>
+          <t>要求参数具有特定的大小会降低函数的有用性，而没有任何好处；&amp;[T]或&amp;str形式的切片通常就足够了，也可以从其他类型中获得。</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -10060,9 +9679,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>It's easier and more readable to use the inherent
-.is_null()
-method instead</t>
+          <t>使用固有的.is_ull（）方法更容易，可读性更强</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -10097,11 +9714,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Creating a mutable reference which can be repeatably derived from an
-immutable reference is unsound as it allows creating multiple live
-mutable references to the same object.
-This error actually
-lead to an interim Rust release 1.15.1.</t>
+          <t>创建一个可以从animmutable引用重复派生的可变引用是不合理的，因为它允许创建对同一对象的多个livemutable引用。这个错误实际上导致了Rust 1.15.1版的临时版本。</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -10127,7 +9740,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>This causes undefined behavior.</t>
+          <t>这会导致未定义的行为。</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -10158,8 +9771,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>If we’re always increasing the pointer address, we can avoid the numeric
-cast by using the add method instead.</t>
+          <t>如果我们总是增加指针地址，我们可以通过使用add方法来避免numericast。</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -10199,8 +9811,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>pub use is usually fine, but a project may wish to limit pub use instances to prevent
-unintentional exports or to encourage placing exported items directly in public modules</t>
+          <t>pub的使用通常是可以的，但项目可能希望限制pub使用实例，以防止意外导出或鼓励将导出的项直接放置在公共模块中</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -10239,7 +9850,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Question mark usage is more idiomatic.</t>
+          <t>问号的用法更为地道。</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -10271,9 +9882,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Sometimes code wants to avoid the question mark operator because for instance a local
-block requires a macro to re-throw errors to attach additional information to the
-error.</t>
+          <t>有时，代码希望避免使用问号运算符，因为例如，localblock需要一个宏来重新抛出错误，以便将附加信息附加到该错误。</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -10303,8 +9912,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>The code is more readable with an inclusive range
-like x..=y.</t>
+          <t>该代码具有像x.=y这样的包容性范围，可读性更强。</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -10342,8 +9950,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>The code is more readable with an exclusive range
-like x..y.</t>
+          <t>使用像x.y这样的排他范围，代码可读性更强。</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -10381,8 +9988,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Empty ranges yield no values so iterating them is a no-op.
-Moreover, trying to use a reversed range to index a slice will panic at run-time.</t>
+          <t>空范围不会产生任何值，因此迭代它们是不可行的。此外，试图使用反向范围对切片进行索引会在运行时引发恐慌。</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10420,8 +10026,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>contains expresses the intent better and has less
-failure modes (such as fencepost errors or using || instead of &amp;&amp;).</t>
+          <t>contains更好地表达了意图，并且具有较少的失败模式（例如fencepost错误或使用||而不是&amp;&amp;）。</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -10454,9 +10059,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>This will create elem once and clone it len times - doing so with Arc/Rc/Weak
-is a bit misleading, as it will create references to the same pointer, rather
-than different instances.</t>
+          <t>这将创建一次elem并克隆len次-使用Arc/Rc/Weak这样做有点误导，因为它将创建对同一指针的引用，而不是对不同实例的引用。</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10489,7 +10092,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Reading zero bytes is almost certainly not the intended behavior.</t>
+          <t>读取零字节几乎可以肯定不是预期的行为。</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10528,7 +10131,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>It is simpler and more efficient to use the future directly.</t>
+          <t>直接使用未来更简单、更高效。</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10566,8 +10169,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>It is not always possible for the compiler to eliminate useless
-allocations and deallocations generated by redundant clone()s.</t>
+          <t>编译器并不总是能够消除冗余clone（）生成的无用分配和释放。</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -10606,8 +10208,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>It is unnecessarily adding to the expression's
-complexity.</t>
+          <t>它不必要地增加了表达的复杂性。</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -10637,7 +10238,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>The else block adds unnecessary indentation and verbosity.</t>
+          <t>else块添加了不必要的缩进和冗长。</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10680,8 +10281,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>If the field and variable names are the same,
-the field name is redundant.</t>
+          <t>如果字段和变量名称相同，则字段名称是多余的。</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10713,8 +10313,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Writing pub(crate) is misleading when it's redundant due to the parent
-module's visibility.</t>
+          <t>由于父模块的可见性，当pub（crate）是多余的时，编写pub（clate）会产生误导。</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10747,7 +10346,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>It unnecessarily adds complexity to the expression.</t>
+          <t>它不必要地增加了表达式的复杂性。</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10781,7 +10380,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Some people may prefer to dereference rather than slice.</t>
+          <t>有些人可能更喜欢取消引用而不是切片。</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10813,8 +10412,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Adding 'static to every reference can create very
-complicated types.</t>
+          <t>在每个引用中添加“static”可以创建非常复杂的类型。</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -10846,8 +10444,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Immediately dereferencing a reference is no-op and
-makes the code less clear.</t>
+          <t>立即取消引用引用是不可行的，而且会降低代码的清晰度。</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -10879,8 +10476,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Since &amp; is Copy, it's useless to have a
-reference on Option&lt;&amp;T&gt;.</t>
+          <t>由于&amp;is Copy，对Option&lt;&amp;T&gt;进行引用是没有用的。</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -10910,8 +10506,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>The ref keyword can be confusing for people unfamiliar with it, and often
-it is more concise to use &amp; instead.</t>
+          <t>ref关键字可能会让不熟悉它的人感到困惑，而且通常使用起来更简洁&amp;。</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10943,7 +10538,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>This will lead to a runtime panic.</t>
+          <t>这将导致运行时死机。</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -10969,9 +10564,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Matching the regex can likely be replaced by == or
-str::starts_with, str::ends_with or std::contains or other str
-methods.</t>
+          <t>匹配正则表达式可能会被==orstr:：starts_with、str:：ends_with或std:：contains或其他strmethods替换。</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10997,8 +10590,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>It is just extraneous code. Remove it to make your code
-more rusty.</t>
+          <t>这只是多余的代码。删除它会使代码更加生疏。</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11031,8 +10623,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Removing the return and semicolon will make the code
-more rusty.</t>
+          <t>删除return和分号会使代码更加生疏。</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -11064,11 +10655,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Methods returning Self often create new values, having the #[must_use] attribute
-prevents users from "forgetting" to use the newly created value.
-The #[must_use] attribute can be added to the type itself to ensure that instances
-are never forgotten. Functions returning a type marked with #[must_use] will not be
-linted, as the usage is already enforced by the type attribute.</t>
+          <t>返回Self的方法通常会创建新值，具有#[must_use]属性可以防止用户“忘记”使用新创建的值。可以将#[must_use]属性添加到类型本身，以确保实例永远不会被忘记。返回带有#[must_use]标记的类型的函数不会被信任，因为type属性已经强制使用了该用法。</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -11123,7 +10710,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Confusing.</t>
+          <t>令人困惑</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -11158,7 +10745,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Repeating the name of the type is redundant.</t>
+          <t>重复类型的名称是多余的。</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -11198,9 +10785,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>For consistency it's best to have the semicolon inside/outside the block. Either way is fine
-and this lint suggests inside the block.
-Take a look at semicolon_outside_block for the other alternative.</t>
+          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，这个lint建议在块内部。看看另一种选择的分号outside_block。</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -11234,9 +10819,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>For consistency it's best to have the semicolon inside/outside the block. Either way is fine
-and this lint suggests outside the block.
-Take a look at semicolon_inside_block for the other alternative.</t>
+          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，这个lint建议在块外。看看另一种选择的分号_inside_block。</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -11270,8 +10853,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>The semicolon might be optional but when extending the block with new
-code, it doesn't require a change in previous last line.</t>
+          <t>分号可能是可选的，但当使用newcode扩展块时，不需要更改前一行的最后一行。</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -11305,8 +10887,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Serde is very finnicky about how its API should be
-used, but the type system can't be used to enforce it (yet?).</t>
+          <t>Serde对如何使用其API非常挑剔，但类型系统还不能用来强制执行它（现在？）。</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11333,9 +10914,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Not much, in fact it's a very common pattern in Rust
-code. Still, some may opt to avoid it in their code base, they can set this
-lint to Warn.</t>
+          <t>不多，事实上这是Rustcode中非常常见的模式。尽管如此，有些人可能会选择在他们的代码库中避免它，他们可以将thislint设置为Warn。</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11367,10 +10946,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Not too much, in fact it's a common pattern in Rust
-code. Still, some argue that name shadowing like this hurts readability,
-because a value may be bound to different things depending on position in
-the code.</t>
+          <t>不算太多，事实上这是Rustcode中的一种常见模式。尽管如此，一些人认为这样的名称阴影会损害可读性，因为一个值可能会根据代码中的位置绑定到不同的东西。</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11400,10 +10976,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Name shadowing can hurt readability, especially in
-large code bases, because it is easy to lose track of the active binding at
-any place in the code. This can be alleviated by either giving more specific
-names to bindings or introducing more scopes to contain the bindings.</t>
+          <t>名称隐藏会损害可读性，尤其是在大型代码库中，因为它很容易丢失对代码中任何位置的活动绑定的跟踪。可以通过为绑定提供更多特定名称或引入更多包含绑定的作用域来缓解这种情况。</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -11439,9 +11012,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Elements marked with #[clippy::has_significant_drop] are generally synchronizing
-primitives that manage shared resources, as such, it is desired to release them as soon as
-possible to avoid unnecessary resource contention.</t>
+          <t>标有#[clippy:：has_significant_drop]的元素通常是管理共享资源的同步原语，因此，希望尽快释放它们，以避免不必要的资源争用。</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -11479,10 +11050,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>A single character is likely not enough to express the
-purpose of a lifetime. Using a longer name can make code
-easier to understand, especially for those who are new to
-Rust.</t>
+          <t>一个字符可能不足以表达一生的目的。使用更长的名称可以使代码更容易理解，尤其是对于那些刚接触Rust的人来说。</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11516,8 +11084,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Import with single component use path such as use cratename;
-is not necessary, and thus should be removed.</t>
+          <t>使用单一组件使用路径导入，如使用cratename；是不必要的，因此应该移除。</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11550,8 +11117,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>These functions expect a count
-of T and not a number of bytes</t>
+          <t>这些函数需要计数T，而不是字节数</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11582,9 +11148,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Calling size_of_val() with a reference to a reference as the argument
-yields the size of the reference-type, not the size of the value behind
-the reference.</t>
+          <t>以引用作为参数调用size_of_val（）将产生引用类型的大小，而不是引用后面的值的大小。</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -11633,8 +11197,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>These structures are non-idiomatic and less efficient than simply using
-vec![0; len].</t>
+          <t>这些结构不是惯用的，而且比简单地使用vec效率更低！[0；len]。</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -11673,9 +11236,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Crates which have no_std compatibility may wish to ensure types are imported from core to ensure
-disabling std does not cause the crate to fail to compile. This lint is also useful for crates
-migrating to become no_std compatible.</t>
+          <t>具有no-std兼容性的机箱可能希望确保从核心导入类型，以确保重新编译std不会导致机箱编译失败。这种皮棉也有助于板条箱迁移，使其与no-std兼容。</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11705,9 +11266,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Crates which have no_std compatibility and require alloc may wish to ensure types are imported from
-alloc to ensure disabling std does not cause the crate to fail to compile. This lint is also useful
-for crates migrating to become no_std compatible.</t>
+          <t>具有no-std兼容性并需要alloc的机箱可能希望确保从alloc导入类型，以确保禁用std不会导致机箱编译失败。这种皮棉也适用于迁移到no-std兼容的板条箱。</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11738,9 +11297,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Crates which have no_std compatibility and may optionally require alloc may wish to ensure types are
-imported from core to ensure disabling alloc does not cause the crate to fail to compile. This lint
-is also useful for crates migrating to become no_std compatible.</t>
+          <t>具有no-std兼容性并可能需要alloc的机箱可能希望确保从核心导入类型，以确保禁用alloc不会导致机箱编译失败。这种短绒也适用于迁移到no-std兼容的板条箱。</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11771,8 +11328,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>It's not really bad, but some people think that the
-.push_str(_) method is more readable.</t>
+          <t>这还不错，但有些人认为.push_str（_）方法可读性更强。</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -11802,14 +11358,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>It's not bad in and of itself. However, this particular
-Add implementation is asymmetric (the other operand need not be String,
-but x does), while addition as mathematically defined is symmetric, also
-the String::push_str(_) function is a perfectly good replacement.
-Therefore, some dislike it and wish not to have it in their code.
-That said, other people think that string addition, having a long tradition
-in other languages is actually fine, which is why we decided to make this
-particular lint allow by default.</t>
+          <t>它本身还不错。然而，这个特殊的Add实现是不对称的（另一个操作数不一定是String，但x是），而数学定义的加法是对称的，而且String:：push_str（_）函数是一个非常好的替代。因此，有些人不喜欢它，希望不在他们的代码中使用它。也就是说，其他人认为字符串加法，在其他语言中有很长的传统实际上是可以的，这就是为什么我们决定默认允许这个特定的lint。</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -11841,8 +11390,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Byte string literals (e.g., b"foo") can be used
-instead. They are shorter but less discoverable than as_bytes().</t>
+          <t>可以使用字节字符串文字（例如，b“foo”）。它们比as_bytes（）更短，但不太容易被发现。</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -11872,10 +11420,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>UTF-8 characters span multiple bytes, and it is easy to inadvertently confuse character
-counts and string indices. This may lead to panics, and should warrant some test cases
-containing wide UTF-8 characters. This lint is most useful in code that should avoid
-panics at all costs.</t>
+          <t>UTF-8字符跨越多个字节，很容易在不经意间混淆字符数和字符串索引。这可能会导致恐慌，并且应该保证一些测试用例包含宽UTF-8字符。这个lint在应该不惜一切代价避免恐慌的代码中最有用。</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -11901,7 +11446,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>It's unnecessary, the string can be used directly.</t>
+          <t>没有必要，字符串可以直接使用。</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -11931,9 +11476,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>The to_string method is also used on other types to convert them to a string.
-When called on a &amp;str it turns the &amp;str into the owned variant String, which can be better
-expressed with .to_owned().</t>
+          <t>to_string方法也用于其他类型，将它们转换为字符串。当在&amp;str上调用时，它会将&amp;str转换为所拥有的变量string，可以用.to_owned（）更好地表达。</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -11965,8 +11508,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>The to_string method is also used on other types to convert them to a string.
-When called on a String it only clones the String, which can be better expressed with .clone().</t>
+          <t>to_string方法也用于其他类型，将它们转换为字符串。当在string上调用时，它只克隆string，可以用.clone（）更好地表达。</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -12000,7 +11542,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>split_whitespace already ignores leading and trailing whitespace.</t>
+          <t>split_whitespace已经忽略了前导空格和尾随空格。</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12030,8 +11572,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>This avoids calling an unsafe libc function.
-Currently, it also avoids calculating the length.</t>
+          <t>这避免了调用不安全的libc函数。目前，它还避免了计算长度。</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12065,11 +11606,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Triple-slash comments (known as "outer doc comments") apply to items that follow it.
-An outer doc comment followed by a bang (i.e. ///!) has no specific meaning.
-The user most likely meant to write an inner doc comment (//!, /*!), which
-applies to the parent item (i.e. the item that the comment is contained in,
-usually a module or crate).</t>
+          <t>三斜杠注释（称为“外部文档注释”）适用于后面的项。外部文档注释后面跟着一个bang（即///！）没有特定含义。用户很可能想写一个内部文档注释（//！，/*！），它适用于父项（即注释所在的项，通常是模块或板条箱）。</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -12106,9 +11643,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>They are probably bugs and if they aren't then they look like bugs
-and you should add a comment explaining why you are doing such an
-odd set of operations.</t>
+          <t>它们可能是错误，如果不是，那么它们看起来就像错误，你应该添加一条注释，解释你为什么要做这样一组乏味的操作。</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12160,7 +11695,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>This is probably a typo or copy-and-paste error and not intended.</t>
+          <t>这可能是打字错误或复制粘贴错误，并非故意。</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12191,7 +11726,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>This is probably a typo or copy-and-paste error and not intended.</t>
+          <t>这可能是打字错误或复制粘贴错误，并非故意。</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12221,7 +11756,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>It's most probably a typo and may lead to unexpected behaviours.</t>
+          <t>这很可能是一个拼写错误，可能会导致意想不到的行为。</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12251,8 +11786,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>The std::mem::swap function exposes the intent better
-without deinitializing or copying either variable.</t>
+          <t>std:：mem:：swap函数在不初始化或复制任何一个变量的情况下更好地公开意图。</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -12286,7 +11820,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>This looks like a failed attempt to swap.</t>
+          <t>这看起来像是一次失败的交换尝试。</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12321,8 +11855,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>When at least one parameter to swap is derived from a pointer it may overlap with the
-other. This would then lead to undefined behavior.</t>
+          <t>当至少有一个要交换的参数是从指针派生的时，它可能会与另一个重叠。这将导致未定义的行为。</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12360,10 +11893,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>The rust style-guide promotes spaces instead of tabs for indentation.
-To keep a consistent view on the source, also doc comments should not have tabs.
-Also, explaining ascii-diagrams containing tabs can get displayed incorrectly when the
-display settings of the author and reader differ.</t>
+          <t>铁锈风格指南提倡使用空格而不是制表符进行缩进。为了保持对源代码的一致看法，文档注释也不应该有制表符。此外，当作者和读者的显示设置不同时，解释包含制表符的ascii图可能会显示不正确。</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12417,8 +11947,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Readability. If the structure is only created to be
-updated, why not write the structure you want in the first place?</t>
+          <t>可读性。如果结构只是为了更新而创建的，为什么不首先编写您想要的结构呢？</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12444,8 +11973,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>The idiomatic (and more performant) way of writing tests is inside a testing module (flagged with #[cfg(test)]),
-having test functions outside of this module is confusing and may lead to them being "hidden".</t>
+          <t>编写测试的惯用（更具性能）方式是在测试模块内（标记为#[cfg（test）]），在该模块外具有测试功能会令人困惑，并可能导致它们被“隐藏”。</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12488,8 +12016,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>This is a convoluted way of checking if a char is a digit. It's
-more straight forward to use the dedicated is_digit method.</t>
+          <t>这是一种复杂的检查字符是否为数字的方法。使用专用的is_digit方法更直接。</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12523,7 +12050,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Zero-sized arrays aren't very useful in Rust itself, so such a struct is likely being created to pass to C code or in some other situation where control over memory layout matters (for example, in conjunction with manual allocation to make it easy to compute the offset of the array). Either way, #[repr(C)] (or another repr attribute) is needed.</t>
+          <t>零大小的数组在Rust本身中不是很有用，因此创建这样的结构很可能是为了传递给C代码，或者在其他对内存布局的控制很重要的情况下（例如，结合手动分配，可以轻松计算数组的偏移量）。无论哪种方式，都需要#[repr（C）]（或另一个repr属性）。</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12560,8 +12087,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Repeating the type for every bound makes the code
-less readable than combining the bounds</t>
+          <t>为每个边界重复类型使代码比组合边界更不可读</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -12591,8 +12117,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Duplicate bounds makes the code
-less readable than specifying them only once.</t>
+          <t>与只指定一次边界相比，重复边界使代码可读性降低。</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -12622,9 +12147,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Undocumented unsafe blocks and impls can make it difficult to
-read and maintain code, as well as uncover unsoundness
-and bugs.</t>
+          <t>无文档的不安全块和impl可能会使代码的读取和维护变得困难，也会发现不安全和错误。</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -12659,8 +12182,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Safe code has no safety requirements, so there is no need to
-describe safety invariants.</t>
+          <t>安全代码没有安全要求，所以没有必要描述安全不变量。</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -12695,8 +12217,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Having an invisible character in the code makes for all
-sorts of April fools, but otherwise is very much frowned upon.</t>
+          <t>在代码中有一个看不见的字符会让人觉得各种愚人节，但除此之外，这是非常令人反感的。</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -12723,11 +12244,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Yeah, we know, the 90's called and wanted their charset
-back. Even so, there still are editors and other programs out there that
-don't work well with Unicode. So if the code is meant to be used
-internationally, on multiple operating systems, or has other portability
-requirements, activating this lint could be useful.</t>
+          <t>是的，我们知道，90年代打电话想要回他们的角色。即便如此，仍然有一些编辑器和其他程序不能很好地使用Unicode。因此，如果代码要在国际上、多个操作系统上使用，或者有其他便携性要求，激活这个lint可能会很有用。</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12757,8 +12274,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>If such a string is compared to another, the results
-may be surprising.</t>
+          <t>如果将这样的字符串与另一个字符串进行比较，结果可能会令人惊讶。</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12785,11 +12301,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>It creates a Vec with uninitialized data, which leads to
-undefined behavior with most safe operations. Notably, uninitialized
-Vec&lt;u8&gt; must not be used with generic Read.
-Moreover, calling set_len() on a Vec created with new() or default()
-creates out-of-bound values that lead to heap memory corruption when used.</t>
+          <t>它用未初始化的数据创建了一个Vec，这导致了大多数安全操作的未定义行为。值得注意的是，uninitializedVec＜u8＞不能与泛型Read一起使用。此外，在使用new（）或default（）创建的Vec上调用set_len（）会创建越界值，这些值在使用时会导致堆内存损坏。</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -12817,10 +12329,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Likely, returning the unit type is unintentional, and
-could simply be caused by an extra semi-colon. Since () implements Ord
-it doesn't cause a compilation error.
-This is the same reasoning behind the unit_cmp lint.</t>
+          <t>很可能，返回单元类型是无意的，可能只是由额外的分号引起的。由于（）实现了Ordit，因此不会导致编译错误。这与unit_cmp lint背后的推理相同。</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -12847,9 +12356,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Function item address is not guaranteed to be unique and could vary
-between different code generation units. Furthermore different function items could have
-the same address after being merged together.</t>
+          <t>函数项地址不能保证是唯一的，并且可能在不同的代码生成单元之间发生变化。此外，不同的功能项在合并在一起后可以具有相同的地址。</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -12880,10 +12387,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Comparing trait objects pointers compares an vtable addresses which
-are not guaranteed to be unique and could vary between different code generation units.
-Furthermore vtables for different types could have the same address after being merged
-together.</t>
+          <t>比较特征对象指针比较vtable地址，这些地址不能保证是唯一的，并且可能在不同的代码生成单元之间变化。此外，不同类型的vtable在合并在一起后可能具有相同的地址。</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -12913,9 +12417,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>It's better to just return T in these cases. The caller may not need
-the value to be boxed, and it's expensive to free the memory once the
-Box&lt;T&gt; been dropped.</t>
+          <t>在这种情况下最好只返回T。调用方可能不需要对该值进行装箱，并且在删除Box＜T＞后释放内存的成本很高。</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -12949,7 +12451,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>This results in longer and less readable code</t>
+          <t>这会导致代码更长、可读性更低</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -12979,7 +12481,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>In most cases, this can be written much more cleanly by omitting ::{self}.</t>
+          <t>在大多数情况下，可以通过省略：：｛self｝来更干净地编写。</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -13009,7 +12511,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Readability suffers from unnecessary struct building.</t>
+          <t>可读性受到不必要的结构构建的影响。</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -13043,7 +12545,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>It is not meaningful to wrap values when no None or Err is returned.</t>
+          <t>当没有返回None或Err时，包装值是没有意义的。</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -13091,7 +12593,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>In the example above, Some is repeated, which unnecessarily complicates the pattern.</t>
+          <t>在上面的例子中，重复了一些，这不必要地使模式复杂化。</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -13125,8 +12627,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Renaming makes it less clear which traits and
-structures are unsafe.</t>
+          <t>重命名使哪些特征和结构不安全变得不那么清楚。</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -13154,9 +12655,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Async functions with no async code create overhead, both mentally and computationally.
-Callers of async methods either need to be calling from an async function themselves or run it on an executor, both of which
-causes runtime overhead and hassle for the caller.</t>
+          <t>没有异步代码的异步函数在心理和计算上都会产生开销。异步方法的调用方要么需要自己从异步函数调用，要么在执行器上运行，这两者都会给调用方带来运行时开销和麻烦。</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -13192,19 +12691,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>io::Write::write(_vectored) and
-io::Read::read(_vectored) are not guaranteed to
-process the entire buffer. They return how many bytes were processed, which
-might be smaller
-than a given buffer's length. If you don't need to deal with
-partial-write/read, use
-write_all/read_exact instead.
-When working with asynchronous code (either with the futures
-crate or with tokio), a similar issue exists for
-AsyncWriteExt::write() and AsyncReadExt::read() : these
-functions are also not guaranteed to process the entire
-buffer.  Your code should either handle partial-writes/reads, or
-call the write_all/read_exact methods on those traits instead.</t>
+          <t>io:：Write:：Write（_vectored）和io:：Read：：Read（_vectered）不能保证处理整个缓冲区。它们返回处理的字节数，可能小于给定缓冲区的长度。如果您不需要处理部分写/读，请使用write_all/read_exact。当使用异步代码（无论是使用futurescorate还是使用tokio）时，AsyncWriteExt:：write（）和AsyncReadExt:：read（）也存在类似的问题：这些函数也不能保证处理整个缓冲区。您的代码应该处理部分写入/读取，或者对这些特征调用write_all/read_exact方法。</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -13235,8 +12722,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Creating a peekable iterator without using any of its methods is likely a mistake,
-or just a leftover after a refactor.</t>
+          <t>在不使用任何方法的情况下创建可窥视迭代器可能是一个错误，或者只是重构后的遗留问题。</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -13274,7 +12760,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>This is unnecessary and confusing to the reader. Doing this is probably a mistake.</t>
+          <t>这对读者来说是不必要的和令人困惑的。这样做可能是个错误。</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -13304,8 +12790,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>It may be clearer to define the method as an associated function instead
-of an instance method if it doesn't require self.</t>
+          <t>如果方法不需要self，那么将其定义为关联函数而不是实例方法可能会更清楚。</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -13341,9 +12826,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Such expressions add no value, but can make the code
-less readable. Depending on formatting they can make a break or return
-statement look like a function call.</t>
+          <t>这样的表达式不会增加任何值，但可以使代码变得无代码可读。根据格式，它们可以使break或return语句看起来像函数调用。</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -13373,7 +12856,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Using if let or match is more idiomatic.</t>
+          <t>使用if let或match更为惯用。</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -13411,7 +12894,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>If panicking is desired, an explicit panic!() should be used.</t>
+          <t>如果想要恐慌，那就是明显的恐慌！（）。</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -13442,7 +12925,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>These functions promote recoverable errors to non-recoverable errors which may be undesirable in code bases which wish to avoid panics.</t>
+          <t>这些函数将可恢复错误提升为不可恢复错误，这在希望避免恐慌的代码库中可能是不可取的。</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -13489,12 +12972,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>In CamelCase, acronyms count as one word.
-See naming conventions
-for more.
-By default, the lint only triggers on fully-capitalized names.
-You can use the upper-case-acronyms-aggressive: true config option to enable linting
-on all camel case names</t>
+          <t>在CamelCase中，首字母缩略词算作一个单词。有关更多信息，请参阅命名惯例。默认情况下，lint仅在全大写名称上触发。您可以使用大写首字母缩写词aggressive：true config选项在所有camel大小写名称上启用lintin</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -13524,7 +13002,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Redundant code.</t>
+          <t>冗余代码。</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -13555,9 +13033,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Unnecessary repetition. Mixed use of Self and struct
-name
-feels inconsistent.</t>
+          <t>不必要的重复。Self和structname的混合使用感觉不一致。</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -13595,7 +13071,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>This is less efficient.</t>
+          <t>这效率较低。</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -13627,8 +13103,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>The vec![] macro is both more performant and easier to read than
-multiple push calls.</t>
+          <t>vec！[]宏比多个推送调用更具性能，也更易于读取。</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -13659,8 +13134,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>It is usually better style to use the prefixed name of
-an enumeration variant, rather than importing variants.</t>
+          <t>使用枚举变量的前缀名称通常比导入变量更好。</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -13694,13 +13168,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>wildcard imports can pollute the namespace. This is especially bad if
-you try to import something through a wildcard, that already has been imported by name from
-a different source:
-use crate1::foo; // Imports a function named foo
-use crate2::*; // Has a function named foo
-foo(); // Calls crate1::foo
-This can lead to confusing error messages at best and to unexpected behavior at worst.</t>
+          <t>通配符导入可能会污染命名空间。如果您试图通过通配符导入某些内容，而该通配符已按名称从其他源导入：use crate1:：foo；//，则情况尤其糟糕导入名为foouse crate2:：*；//的函数有一个名为foofoo（）的函数；//调用crate1:：foo这往好里说可能会导致错误消息混乱，往坏里说可能导致意外行为。</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -13732,7 +13200,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>You should use println!(), which is simpler.</t>
+          <t>你应该使用println！（），这更简单。</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -13762,8 +13230,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>You should use println!() instead, which appends the
-newline.</t>
+          <t>你应该使用println！（），它会附加换行符。</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -13793,8 +13260,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>People often print on stdout while debugging an
-application and might forget to remove those prints afterward.</t>
+          <t>人们在调试应用程序时经常在stdout上打印，之后可能会忘记删除这些打印。</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -13820,8 +13286,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>People often print on stderr while debugging an
-application and might forget to remove those prints afterward.</t>
+          <t>人们在调试应用程序时经常在stderr上打印，之后可能会忘记删除这些打印。</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -13847,8 +13312,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>The purpose of the Debug trait is to facilitate
-debugging Rust code. It should not be used in user-facing output.</t>
+          <t>Debug特性的目的是便于调试Rust代码。它不应用于面向用户的输出。</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -13875,9 +13339,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Using literals as println! args is inefficient
-(c.f., https://github.com/matthiaskrgr/rust-str-bench) and unnecessary
-(i.e., just put the literal in the format string)</t>
+          <t>使用文字作为println！args是低效的（c.f。，https://github.com/matthiaskrgr/rust-str-bench)和不必要的（即，只需将文本放在格式字符串中）</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -13905,7 +13367,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>You should use writeln!(buf), which is simpler.</t>
+          <t>你应该使用writeln！（buf），这更简单。</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -13939,8 +13401,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>You should use writeln!() instead, which appends the
-newline.</t>
+          <t>你应该使用writeln！（），它会附加换行符。</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -13976,9 +13437,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Using literals as writeln! args is inefficient
-(c.f., https://github.com/matthiaskrgr/rust-str-bench) and unnecessary
-(i.e., just put the literal in the format string)</t>
+          <t>使用文字作为writeln！args是低效的（c.f。，https://github.com/matthiaskrgr/rust-str-bench)和不必要的（即，只需将文本放在格式字符串中）</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -14012,7 +13471,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>It's less readable than f32::NAN or f64::NAN.</t>
+          <t>它的可读性不如f32:：NAN或f64:：NAN。</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -14042,9 +13501,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Since there is only a single value for a zero-sized type, a map
-containing zero sized values is effectively a set. Using a set in that case improves
-readability and communicates intent more clearly.</t>
+          <t>由于零大小的类型只有一个值，因此包含零大小值的映射实际上是一个集。在这种情况下使用集合可以提高可读性，并更清晰地传达意图。</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -14080,8 +13537,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>It will be more difficult for users to discover the
-purpose of the crate, and key information related to it.</t>
+          <t>用户将更难发现板条箱的用途以及与之相关的关键信息。</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -14126,7 +13582,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>These prefixes and suffixes have no significant meaning.</t>
+          <t>这些前缀和后缀没有重要意义。</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -14165,7 +13621,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Features are supposed to be additive, and negatively-named features violate it.</t>
+          <t>特征应该是加性的，而负面命名的特征违反了加性。</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -14202,9 +13658,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>This bloats the size of targets, and can lead to
-confusing error messages when structs or traits are used interchangeably
-between different versions of a crate.</t>
+          <t>当结构或特征在不同版本的机箱之间可互换使用时，这会增加目标的大小，并可能导致冲突错误消息。</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -14233,9 +13687,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>As the edition guide says,
-it is highly unlikely that you work with any possible version of your dependency,
-and wildcard dependencies would cause unnecessary breakage in the ecosystem.</t>
+          <t>正如版本指南所说，您不太可能使用任何可能版本的依赖项，通配符依赖项会导致生态系统中不必要的破坏。</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -14262,9 +13714,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>It's not bad at all. But in some applications it can be
-helpful to know where precision loss can take place. This lint can help find
-those places in the code.</t>
+          <t>一点也不坏。但在某些应用中，很难知道精度损失发生在哪里。这个lint可以帮助在代码中找到这些位置。</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -14291,8 +13741,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Possibly surprising results. You can activate this lint
-as a one-time check to see where numerical wrapping can arise.</t>
+          <t>可能会有令人惊讶的结果。您可以将此过梁激活为一次性检查，以查看在哪里可以出现数字包裹。</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -14319,9 +13768,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>In some problem domains, it is good practice to avoid
-truncation. This lint can be activated to help assess where additional
-checks could be beneficial.</t>
+          <t>在某些问题领域，避免截断是一种很好的做法。这种棉绒可以被激活，以帮助评估额外检查可能有益的地方。</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -14364,9 +13811,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>While such a cast is not bad in itself, the results can
-be surprising when this is not the intended behavior, as demonstrated by the
-example below.</t>
+          <t>虽然这样的演员阵容本身并不坏，但当这不是预期行为时，结果可能会令人惊讶，如下例所示。</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -14392,12 +13837,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Rust's as keyword will perform many kinds of
-conversions, including silently lossy conversions. Conversion functions such
-as i32::from will only perform lossless conversions. Using the conversion
-functions prevents conversions from turning into silent lossy conversions if
-the types of the input expressions ever change, and make it easier for
-people reading the code to know that the conversion is lossless.</t>
+          <t>Rust的as关键字将执行许多类型的转换，包括无声的有损转换。诸如i32:：from之类的转换函数将只执行无损转换。如果输入表达式的类型发生变化，使用conversion函数可以防止转换变成无声的有损转换，并使阅读代码的人更容易知道转换是无损的。</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -14429,7 +13869,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>It's just unnecessary.</t>
+          <t>这是没有必要的。</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -14461,8 +13901,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Dereferencing the resulting pointer may be undefined
-behavior.</t>
+          <t>取消引用结果指针可能是不可定义的行为。</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -14491,11 +13930,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Casting a function pointer to anything other than usize/isize is not portable across
-architectures, because you end up losing bits if the target type is too small or end up with a
-bunch of extra bits that waste space and add more instructions to the final binary than
-strictly necessary for the problem
-Casting to isize also doesn't make sense since there are no signed addresses.</t>
+          <t>将函数指针投射到usinze/isize以外的任何东西都不能跨体系结构移植，因为如果目标类型太小，最终会丢失比特，或者最终会有大量额外的比特，这些比特会浪费空间，并在最终二进制文件中添加比问题所需的更多指令。</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -14527,9 +13962,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Such a cast discards some bits of the function's address. If this is intended, it would be more
-clearly expressed by casting to usize first, then casting the usize to the intended type (with
-a comment) to perform the truncation.</t>
+          <t>这样的强制转换会丢弃函数地址的某些位。如果这是有意的，那么可以通过先将usinze强制转换为usinze，然后将usinize强制转换为预期类型（带有注释）来执行截断，从而更清楚地表达这一点。</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -14567,11 +14000,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Casting a function pointer to an integer can have surprising results and can occur
-accidentally if parentheses are omitted from a function call. If you aren't doing anything
-low-level with function pointers then you can opt-out of casting functions to integers in
-order to avoid mistakes. Alternatively, you can use this lint to audit all uses of function
-pointer casts in your code.</t>
+          <t>将函数指针强制转换为整数可能会产生令人惊讶的结果，如果函数调用中省略了括号，则可能会意外发生这种情况。如果你没有用函数指针做任何低级的事情，那么为了避免错误，你可以选择不将函数强制转换为整数。或者，您可以使用此lint来审核代码中函数指针强制转换的所有使用。</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -14615,9 +14044,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>It’s basically guaranteed to be undefined behavior.
-UnsafeCell is the only way to obtain aliasable data that is considered
-mutable.</t>
+          <t>它基本上保证是未定义的行为。nsafeCell是获得被认为是可变的可别名数据的唯一方法。</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -14654,11 +14081,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>In general, casting values to smaller types is
-error-prone and should be avoided where possible. In the particular case of
-converting a character literal to u8, it is easy to avoid by just using a
-byte literal instead. As an added bonus, b'a' is even slightly shorter
-than 'a' as u8.</t>
+          <t>通常，将值强制转换为较小的类型容易出错，应尽可能避免。在将字符文字转换为u8的特殊情况下，只需使用abyte文字就可以很容易地避免。作为一个额外的奖励，b'a'甚至比u8中的a'略短。</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -14686,8 +14109,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Though as casts between raw pointers is not terrible, pointer::cast is safer because
-it cannot accidentally change the pointer's mutability nor cast the pointer to other types like usize.</t>
+          <t>虽然原始指针之间的强制转换并不可怕，但pointer:：强制转换更安全，因为它不会意外更改指针的可变性，也不会将指针强制转换为其他类型，如usinze。</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -14723,7 +14145,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>The resulting integral value will not match the value of the variant it came from.</t>
+          <t>生成的积分值将与它所来自的变量的值不匹配。</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -14750,11 +14172,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>The produced raw pointer to a slice does not update its length metadata. The produced
-pointer will point to a different number of bytes than the original pointer because the
-length metadata of a raw slice pointer is in elements rather than bytes.
-Producing a slice reference from the raw pointer will either create a slice with
-less data (which can be surprising) or create a slice with more data and cause Undefined Behavior.</t>
+          <t>生成的指向切片的原始指针不会更新其长度元数据。生成的指针将指向与原始指针不同的字节数，因为原始切片指针的长度元数据以元素而非字节为单位。从原始指针生成切片引用将创建数据较少的切片（这可能令人惊讶），或者创建数据较多的切片并导致“未定义行为”。</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -14800,7 +14218,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>The cast is easily confused with casting a c-like enum value to an integer.</t>
+          <t>强制转换很容易与将类似c的枚举值强制转换为整数混淆。</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -14827,7 +14245,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>The unsigned_abs() method avoids panic when called on the MIN value.</t>
+          <t>unsigned_abs（）方法在对MIN值进行调用时可以避免死机。</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -14859,9 +14277,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>The conversion might include lossy conversion and dangerous cast that might go
-undetected due to the type being inferred.
-The lint is allowed by default as using _ is less wordy than always specifying the type.</t>
+          <t>转换可能包括有损转换和危险的强制转换，这些转换可能由于推断的类型而被检测到。默认情况下允许使用lint，因为使用_比总是指定类型更不冗长。</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -14895,9 +14311,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>This would improve readability and avoid creating a reference
-that points to an uninitialized value or unaligned place.
-Read the ptr::addr_of docs for more information.</t>
+          <t>这将提高可读性，避免创建指向未初始化值或未对齐位置的引用。有关详细信息，请阅读文档的ptr:：addr_of。</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -14933,10 +14347,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>This can result in multiple &amp;mut references to the same location when only a pointer is
-required.
-ptr::slice_from_raw_parts is a safe alternative that doesn't require
-the same safety requirements to be upheld.</t>
+          <t>当只需要一个指针时，这可能会导致对同一位置的多个&amp;mut引用。ptr:：slice_from_raw_parts是一种安全的替代方案，不需要维护相同的安全要求。</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -14968,8 +14379,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Since as_ptr takes a &amp;self, the pointer won't have write permissions unless interior
-mutability is used, making it unlikely that having it as a mutable pointer is correct.</t>
+          <t>由于as_ptr采用了&amp;self，除非使用了interormutability，否则指针将没有写入权限，因此将其作为可变指针不太可能是正确的。</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -15003,8 +14413,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>NaNs are cast into zero, so one could simply use this and make the
-code more readable. The lint could also hint at a programmer error.</t>
+          <t>NaN被强制转换为零，所以可以简单地使用它，使代码更可读。lint也可能提示程序员出错。</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -15034,9 +14443,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Functions with lots of parameters are considered bad
-style and reduce readability (“what does the 5th parameter mean?”). Consider
-grouping some parameters into a new type.</t>
+          <t>带有大量参数的函数被认为是不良风格，会降低可读性（“第五个参数是什么意思？”）。考虑将一些参数分组为一个新类型。</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -15065,10 +14472,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Functions with a lot of lines are harder to understand
-due to having to look at a larger amount of code to understand what the
-function is doing. Consider splitting the body of the function into
-multiple functions.</t>
+          <t>有很多行的函数很难理解，因为必须查看大量的代码才能理解函数的作用。考虑将函数体拆分为多个函数。</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -15098,13 +14502,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>The function should almost definitely be marked unsafe, since for an
-arbitrary raw pointer, there is no way of telling for sure if it is valid.
-In general, this lint should never be disabled unless it is definitely a
-false positive (please submit an issue if so) since it breaks Rust's
-soundness guarantees, directly exposing API users to potentially dangerous
-program behavior. This is also true for internal APIs, as it is easy to leak
-unsoundness.</t>
+          <t>该函数几乎肯定应该被标记为不安全，因为对于一个rbitrary原始指针，没有办法确定它是否有效。通常，除非它是肯定的（如果是，请提交一个问题），否则永远不应该禁用此lint，因为它破坏了Rust的健全性保证，直接使API用户面临潜在的危险程序行为。对于内部API也是如此，因为它很容易泄漏。</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -15144,8 +14542,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Unit values are useless. The attribute is likely
-a remnant of a refactoring that removed the return type.</t>
+          <t>单位值是无用的。该属性很像是删除了返回类型的重构的残余。</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -15172,9 +14569,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>The attribute isn't needed. Not using the result
-will already be reported. Alternatively, one can add some text to the
-attribute to improve the lint message.</t>
+          <t>不需要该属性。未使用结果将被报告。或者，可以在属性中添加一些文本来改进lint消息。</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -15203,8 +14598,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Not bad at all, this lint just shows places where
-you could add the attribute.</t>
+          <t>一点也不坏，这个lint只是显示了可以添加属性的地方。</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -15231,8 +14625,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Unit does not implement Error and carries no
-further information about what went wrong.</t>
+          <t>该单元不实现Error，并且不携带关于出错原因的更多信息。</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -15274,14 +14667,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>A Result is at least as large as the Err-variant. While we
-expect that variant to be seldomly used, the compiler needs to reserve
-and move that much memory every single time.
-Furthermore, errors are often simply passed up the call-stack, making
-use of the ?-operator and its type-conversion mechanics. If the
-Err-variant further up the call-stack stores the Err-variant in
-question (as library code often does), it itself needs to be at least
-as large, propagating the problem.</t>
+          <t>Result至少与Err变量一样大。虽然我们希望该变体能被少量使用，但编译器每次都需要保留和移动那么多内存。此外，错误通常只是简单地传递到调用堆栈中，从而利用-运算符及其类型转换机制。如果调用堆栈中更靠上的Err变量存储了Err变量查询（就像库代码经常做的那样），那么它本身至少需要同样大，从而传播问题。</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -15323,7 +14709,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>It is most likely that such a  method is a bug caused by a typo or by copy-pasting.</t>
+          <t>这种方法很可能是由拼写错误或复制粘贴引起的错误。</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -15369,7 +14755,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Turbofish syntax (::&lt;&gt;) cannot be used when impl Trait is being used, making impl Trait less powerful. Readability may also be a factor.</t>
+          <t>在使用impl-Trait时，不能使用Turbofish语法（：：＜＞），这会降低impl Trait的功能。可读性也可能是一个因素。</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -15405,7 +14791,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>It is not as fast as a memcpy.</t>
+          <t>它没有记忆那么快。</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -15441,9 +14827,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Just iterating the collection itself makes the intent
-more clear and is probably faster because it eliminates
-the bounds check that is done when indexing.</t>
+          <t>只需迭代集合本身就可以使意图更加清晰，而且可能更快，因为它消除了索引时进行的边界检查。</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -15479,7 +14863,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Readability.</t>
+          <t>可读性。</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -15516,7 +14900,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Readability.</t>
+          <t>可读性。</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -15551,12 +14935,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>next() returns either Some(value) if there was a
-value, or None otherwise. The insidious thing is that Option&lt;_&gt;
-implements IntoIterator, so that possibly one value will be iterated,
-leading to some hard to find bugs. No one will want to write such code
-except to win an Underhanded Rust
-Contest.</t>
+          <t>next（）返回Some（值）（如果存在），或者返回None（无）（否则）。阴险的是Option&lt;_&gt;实现了IntoIdeator，因此可能会迭代一个值，从而导致一些难以找到的错误。没有人会想写这样的代码，除非赢得一个落后的乡村比赛。</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -15584,8 +14963,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>The while let loop is usually shorter and more
-readable.</t>
+          <t>while let循环通常更短，可读性更强。</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -15622,8 +15000,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Using .enumerate() makes the intent more clear,
-declutters the code and may be faster in some instances.</t>
+          <t>使用.enumeter（）可以使意图更加清晰，清理代码，在某些情况下可能会更快。</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -15661,21 +15038,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>These busy loops burn CPU cycles without doing
-anything. It is almost always a better idea to panic! than to have
-a busy loop.
-If panicking isn't possible, think of the environment and either:
-block on something
-sleep the thread for some microseconds
-yield or pause the thread
-For std targets, this can be done with
-std::thread::sleep
-or std::thread::yield_now.
-For no_std targets, doing this is more complicated, especially because
-#[panic_handler]s can't panic. To stop/pause the thread, you will
-probably need to invoke some target-specific intrinsic. Examples include:
-x86_64::instructions::hlt
-cortex_m::asm::wfi</t>
+          <t>这些繁忙的循环在不做任何事情的情况下消耗CPU周期。恐慌几乎总是一个更好的主意！如果恐慌是不可能的，考虑一下环境，要么：阻塞一些东西，让线程休眠几微秒，要么暂停线程。对于std目标，这可以承受：：thread:：sleep或std:：thread：：yield_now。对于no-std目标，这样做更复杂，尤其是因为#[pacil_handler]s不能恐慌。要停止/暂停线程，您可能需要调用一些特定于目标的内在函数。示例包括：x86_64:：instructions:：hltcortex_m:：asm:：wfi</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -15701,8 +15064,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Readability. A simple for loop is shorter and conveys
-the intent better.</t>
+          <t>可读性。简单的for循环更短，并且更好地传达意图。</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -15736,8 +15098,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Readability. There are keys and values methods that
-can be used to express that don't need the values or keys.</t>
+          <t>可读性。有一些键和值方法可以用来表达不需要值或键的内容。</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -15769,8 +15130,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>This loop never loops, all it does is obfuscating the
-code.</t>
+          <t>这个循环从不循环，它所做的只是混淆代码。</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -15799,7 +15159,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>One might think that modifying the mutable variable changes the loop bounds</t>
+          <t>有人可能认为修改可变变量会改变循环边界</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -15829,8 +15189,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>If the condition is unchanged, entering the body of the loop
-will lead to an infinite loop.</t>
+          <t>如果条件不变，则进入循环体将导致无限循环。</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -15859,9 +15218,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>This kind of operation can be expressed more succinctly with
-vec![item; SIZE] or vec.resize(NEW_SIZE, item) and using these alternatives may also
-have better performance.</t>
+          <t>用vec可以更简洁地表达这种操作！[item；SIZE]或vec.resize（NEW_SIZE，item），并且使用这些替代方案也可能具有更好的性能。</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -15902,8 +15259,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>There is no reason to have a loop of a
-single element.</t>
+          <t>没有理由有一个单一元素的循环。</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -15938,8 +15294,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>It is verbose and can be simplified
-by first calling the flatten method on the Iterator.</t>
+          <t>它很冗长，可以通过首先在Iterator上调用flat方法来简化。</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -15977,9 +15332,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>The loop body should have something like thread::park() or at least
-std::hint::spin_loop() to avoid needlessly burning cycles and conserve
-energy. Perhaps even better use an actual lock, if possible.</t>
+          <t>循环体应该有类似thread:：park（）或至少std:：hint:：spin_loop（）的东西，以避免不必要的燃烧循环并节省能源。如果可能的话，也许最好使用真正的锁。</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -16016,7 +15369,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>It doesn't affect performance, but using find is shorter and easier to read.</t>
+          <t>它不会影响性能，但使用find更短，更容易阅读。</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -16055,8 +15408,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Such loops can be written in a more idiomatic way by using a while-let loop and directly
-pattern matching on the return value of Vec::pop().</t>
+          <t>通过在Vec:：pop（）的返回值上使用while let循环和directlypattern匹配，可以用更惯用的方式编写这样的循环。</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -16093,7 +15445,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Just readability – if let nests less than a match.</t>
+          <t>只是可读性——如果让嵌套不匹配。</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -16132,7 +15484,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Just readability – if let nests less than a match.</t>
+          <t>只是可读性——如果让嵌套不匹配。</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -16174,8 +15526,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>It just makes the code less readable. That reference
-destructuring adds nothing to the code.</t>
+          <t>这只会降低代码的可读性。这种引用结构对代码没有任何添加。</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -16213,7 +15564,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>It makes the code less readable.</t>
+          <t>这会降低代码的可读性。</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -16256,8 +15607,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>It is likely to be an error and if not, makes the code
-less obvious.</t>
+          <t>这很可能是一个错误，如果不是，就会使代码变得不明显。</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -16288,8 +15638,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>It is generally a bad practice, similar to
-catching all exceptions in java with catch(Exception)</t>
+          <t>这通常是一种糟糕的做法，类似于用catch（Exception）在java中捕获所有异常</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -16319,7 +15668,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Using as_ref() or as_mut() instead is shorter.</t>
+          <t>使用as_ref（）或as_mut（）会更短。</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -16354,7 +15703,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>New enum variants added by library updates can be missed.</t>
+          <t>库更新添加的新枚举变体可能会丢失。</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -16394,7 +15743,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>New enum variants added by library updates can be missed.</t>
+          <t>库更新添加的新枚举变体可能会丢失。</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -16436,8 +15785,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Wildcard pattern already covers any other pattern as it will match anyway.
-It makes the code less readable, especially to spot wildcard pattern use in match arm.</t>
+          <t>通配符模式已经覆盖了任何其他模式，因为它无论如何都会匹配。这会降低代码的可读性，尤其是在匹配臂中使用通配符模式时。</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -16475,7 +15823,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Just readability – let doesn't nest, whereas a match does.</t>
+          <t>只是可读性——让它不嵌套，而匹配则嵌套。</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -16515,7 +15863,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Readability and needless complexity.</t>
+          <t>可读性和不必要的复杂性。</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -16553,8 +15901,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Correctness and readability. It's like having a wildcard pattern after
-matching all enum variants explicitly.</t>
+          <t>正确性和可读性。这就像在显式匹配所有枚举变体后使用通配符模式一样。</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -16594,8 +15941,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>It's more concise and clear to just use the proper
-utility function</t>
+          <t>只使用propertility函数更简洁明了</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -16648,7 +15994,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Readability and needless complexity.</t>
+          <t>可读性和不必要的复杂性。</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -16688,9 +16034,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>This is probably a copy &amp; paste error. If arm bodies
-are the same on purpose, you can factor them
-using |.</t>
+          <t>这可能是复制粘贴错误。如果手臂的身体故意是一样的，你可以用|来考虑它们。</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -16731,7 +16075,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>This match block does nothing and might not be what the coder intended.</t>
+          <t>这个匹配块什么也不做，可能不是编码器想要的。</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -16776,7 +16120,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>It is unnecessarily verbose and complex.</t>
+          <t>它过于冗长和复杂。</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -16819,7 +16163,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Concise code helps focusing on behavior instead of boilerplate.</t>
+          <t>简洁的代码有助于关注行为，而不是样板文件。</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -16854,7 +16198,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>This can panic at runtime.</t>
+          <t>这可能会在运行时引发恐慌。</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -16896,7 +16240,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>The arm is unreachable, which is likely a mistake</t>
+          <t>手臂够不着，这可能是个错误</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -16936,15 +16280,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>The clippy::has_significant_drop attribute can be added to types whose Drop impls have
-an important side-effect, such as unlocking a mutex, making it important for users to be
-able to accurately understand their lifetimes. When a temporary is returned in a function
-call in a match scrutinee, its lifetime lasts until the end of the match block, which may
-be surprising.
-For Mutexes this can lead to a deadlock. This happens when the match scrutinee uses a
-function call that returns a MutexGuard and then tries to lock again in one of the match
-arms. In that case the MutexGuard in the scrutinee will not be dropped until the end of
-the match block and thus will not unlock.</t>
+          <t>clippy:：has_significant_drop属性可以添加到drop impls具有重要副作用的类型中，例如解锁互斥锁，这使得用户能够准确地了解其生存期非常重要。当在匹配检查器的函数调用中返回一个临时时，它的生存期将持续到匹配块结束，这可能会令人惊讶。对于Mutex来说，这可能导致死锁。当比赛监票人使用返回MutexGuard的函数调用，然后试图再次锁定其中一个比赛武器时，就会发生这种情况。在这种情况下，监票人中的MutexGuard直到比赛区块结束才会被丢弃，因此不会解锁。</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -17005,10 +16341,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>The ? operator is designed to allow calls that
-can fail to be easily chained. For example, foo()?.bar() or
-foo(bar()?). Because Err(x)? can't be used that way (it will
-always return), it is more clear to write return Err(x).</t>
+          <t>这个运营商的设计目的是允许那些可能无法轻松链接的呼叫。例如，foo（）？。bar（）或foo（bar（）？）。因为Err（x）？不能以这种方式使用（它将始终返回），写返回Err（x）更清楚。</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -17048,7 +16381,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Using the map method is clearer and more concise.</t>
+          <t>使用地图法更清晰、更简洁。</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -17081,7 +16414,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Using the filter method is clearer and more concise.</t>
+          <t>使用过滤方法更清晰、更简洁。</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -17118,8 +16451,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>copied() is better because it guarantees that the type being cloned
-implements Copy.</t>
+          <t>copied（）更好，因为它保证了要克隆的类型是implements Copy。</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -17149,8 +16481,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Consecutive str::replace calls scan the string multiple times
-with repetitive code.</t>
+          <t>连续的str:：replace调用使用重复的代码多次扫描字符串。</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -17183,8 +16514,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>It's often inefficient to clone all elements of an iterator, when eventually, only some
-of them will be consumed.</t>
+          <t>克隆迭代器的所有元素通常效率很低，但最终只会消耗其中的一部分。</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -17218,8 +16548,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>When applicable, filter_map() is more clear since it shows that
-Option is used to produce 0 or 1 items.</t>
+          <t>如果适用，filter_map（）会更清楚，因为它显示Option用于生成0或1项。</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -17249,16 +16578,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>It is better to handle the None or Err case,
-or at least call .expect(_) with a more helpful message. Still, for a lot of
-quick-and-dirty code, unwrap is a good choice, which is why this lint is
-Allow by default.
-result.unwrap() will let the thread panic on Err values.
-Normally, you want to implement more sophisticated error handling,
-and propagate errors upwards with ? operator.
-Even if you want to panic on errors, not all Errors implement good
-messages on display. Therefore, it may be beneficial to look at the places
-where they may get displayed. Activate this lint to do just that.</t>
+          <t>最好处理None或Err的情况，或者至少调用.expect（_）并返回更有用的消息。尽管如此，对于许多快速且肮脏的代码，unwrap是一个不错的选择，这就是为什么这个lint默认为Allow.result.unwrap（）会让线程对Err值感到恐慌。通常，你想实现更复杂的错误处理，并用？操作员。即使你想对错误感到恐慌，也不是所有的错误都能在显示中实现好消息。因此，查看它们可能显示的位置可能是有益的。激活这个棉绒就可以做到这一点。</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -17295,12 +16615,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Usually it is better to handle the None or Err case.
-Still, for a lot of quick-and-dirty code, expect is a good choice, which is why
-this lint is Allow by default.
-result.expect() will let the thread panic on Err
-values. Normally, you want to implement more sophisticated error handling,
-and propagate errors upwards with ? operator.</t>
+          <t>通常最好处理None或Err的情况。不过，对于许多快速且脏的代码，expect是一个不错的选择，这就是为什么lint默认为Allow的原因。result.expect（）会让线程在Errvalues上死机。通常，您希望实现更复杂的错误处理，并使用向上传播错误？操作人员</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -17337,11 +16652,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Implementing the traits improve ergonomics for users of
-the code, often with very little cost. Also people seeing a mul(...)
-method
-may expect * to work equally, so you should have good reason to disappoint
-them.</t>
+          <t>实现这些特性可以改善代码用户的人机工程学，通常只需很少的成本。此外，看到mul（…）方法的人可能希望*同样有效，所以你应该有充分的理由让他们失望。</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -17373,9 +16684,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Consistency breeds readability. If you follow the
-conventions, your users won't be surprised that they, e.g., need to supply a
-mutable reference to a as_.. function.</t>
+          <t>一致性孕育可读性。如果你遵循惯例，你的用户不会感到惊讶，例如，他们需要提供对as_的可复制引用。。作用</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -17407,8 +16716,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Because you usually call expect() on the Result
-directly to get a better error message.</t>
+          <t>因为您通常直接对Result调用expect（）来获得更好的错误消息。</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -17440,7 +16748,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>.expect_err() can be called directly to avoid the extra type conversion from err().</t>
+          <t>可以直接调用.expect_err（），以避免从err（）进行额外的类型转换。</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -17472,8 +16780,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Readability, these can be written as _.unwrap_or_default, which is
-simpler and more concise.</t>
+          <t>可读性，这些可以写为_.unwrap_or_default，这更简单、更简洁。</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -17506,8 +16813,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Readability, these can be written more concisely (resp.) as
-option.map_or(_, _), option.map_or_else(_, _) and result.map_or_else(_, _).</t>
+          <t>可读性，这些可以更简洁地写（分别）为option.map_or（_，_）、option.map_or_else（_，_]）和result.map_or-else（_，_）。</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -17545,8 +16851,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.and_then(_).</t>
+          <t>可读性，可以更简洁地写成_.and_then（_）。</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -17578,8 +16883,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.ok().</t>
+          <t>可读性，可以更简洁地写成_.ok（）。</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -17611,8 +16915,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.map(|x| y) or _.map_err(|x| y).</t>
+          <t>可读性，可以更简洁地写成_.map（|x|y）或_.map_err（|x| y）。</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -17650,8 +16953,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.find(_).</t>
+          <t>可读性，可以更简洁地写成_.find（_）。</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -17683,8 +16985,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.find(!condition).</t>
+          <t>可读性，可以更简洁地写成_.find（！condition）。</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -17716,8 +17017,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.flat_map(_) for Iterator or _.and_then(_) for Option</t>
+          <t>可读性，这可以更简洁地写成Iterator的_.flat_map（_）或Option的_.and_then（_）</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -17753,8 +17053,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Redundant code in the filter and map operations is poor style and
-less performant.</t>
+          <t>过滤器和映射操作中的冗余代码风格差，性能差。</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -17788,8 +17087,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Redundant code in the find and map operations is poor style and
-less performant.</t>
+          <t>查找和映射操作中的冗余代码风格较差，性能较差。</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -17821,8 +17119,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.find_map(_).</t>
+          <t>可读性，可以更简洁地写成_.find_map（_）。</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -17850,7 +17147,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely by using flatten.</t>
+          <t>可读性，这可以通过使用flatten写得更简洁。</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -17912,8 +17209,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.starts_with(_).</t>
+          <t>可读性，可以更简洁地写成_.starts_with（_）。</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -17945,8 +17241,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>The function will always be called. This is only bad if it allocates or
-does some non-trivial amount of work.</t>
+          <t>函数将始终被调用。只有当它分配了一些不琐碎的工作量时，这才是糟糕的。</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -17978,7 +17273,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>You should use .unwrap_or(…) instead for clarity.</t>
+          <t>为了清楚起见，应该使用.unwrap_or（…）。</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -18021,7 +17316,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>The function will always be called.</t>
+          <t>函数将始终被调用。</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -18060,8 +17355,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>The only reason Copy types implement Clone is for
-generics, not for using the clone method on a concrete type.</t>
+          <t>复制类型实现克隆的唯一原因是伪造，而不是在具体类型上使用克隆方法。</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -18087,9 +17381,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Calling '.clone()' on an Rc, Arc, or Weak
-can obscure the fact that only the pointer is being cloned, not the underlying
-data.</t>
+          <t>对Rc、Arc或Weak调用“.clone（）”可能会掩盖这样一个事实，即只有指针被克隆，而不是基础数据。</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -18123,9 +17415,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>This bypasses the specialized implementation of
-ToString and instead goes through the more expensive string formatting
-facilities.</t>
+          <t>这绕过了ToString的专门实现，而是通过更昂贵的字符串格式化工具。</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -18154,8 +17444,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>As a convention, new methods are used to make a new
-instance of a type.</t>
+          <t>按照惯例，新方法用于生成类型的新实例。</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -18213,8 +17502,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Performing these methods using a char is faster than
-using a str.</t>
+          <t>使用char执行这些方法比使用str更快。</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -18244,8 +17532,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>This very much looks like an oversight. Use panic!() instead if you
-actually intend to panic.</t>
+          <t>这看起来很像是一个疏忽。使用恐慌！（）如果你真的打算恐慌。</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -18273,8 +17560,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Option is like a collection of 0-1 things, so flatten
-automatically does this without suspicious-looking unwrap calls.</t>
+          <t>Option就像一个0-1事物的集合，所以它可以在没有可疑的打开调用的情况下自动完成。</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -18304,9 +17590,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>iter.next() is equivalent to
-iter.nth(0), as they both consume the next element,
-but is more readable.</t>
+          <t>iter.next（）相当于iter.nth（0），因为它们都使用下一个元素，但可读性更强。</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -18342,8 +17626,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>.get() and .get_mut() are more efficient and more
-readable.</t>
+          <t>.get（）和.get_mut（）更高效，可读性更强。</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -18377,7 +17660,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>.nth(x) is cleaner</t>
+          <t>.nth（x）更干净</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -18411,7 +17694,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>.into_iter() is simpler with better performance.</t>
+          <t>.into_iter（）更简单，性能更好。</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -18445,13 +17728,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Using x.last() is easier to read and has the same
-result.
-Note that using x[x.len() - 1] is semantically different from
-x.last().  Indexing into the array will panic on out-of-bounds
-accesses, while x.get() and x.last() will return None.
-There is another lint (get_unwrap) that covers the case of using
-x.get(index).unwrap() instead of x[index].</t>
+          <t>使用x.last（）更容易阅读，并且具有相同的结果。注意，使用x[x.len（）-1]在语义上与x.last。</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -18483,8 +17760,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Using the Index trait ([]) is more clear and more
-concise.</t>
+          <t>使用Index trait（[]）更清晰、更简洁。</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -18518,7 +17794,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Using append instead of extend is more concise and faster</t>
+          <t>使用append而不是extend更简洁、更快</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -18552,7 +17828,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>.push_str(s) is clearer</t>
+          <t>.push_str（s）更清晰</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -18590,7 +17866,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>.to_vec() is clearer</t>
+          <t>.to_vec（）更清晰</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -18622,8 +17898,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.ends_with(_).</t>
+          <t>可读性，可以更简洁地写成_.ends_with（_）。</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -18655,7 +17930,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>The call is unnecessary.</t>
+          <t>这个电话没有必要。</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -18689,7 +17964,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Readability.</t>
+          <t>可读性。</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -18720,8 +17995,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Complexity. The intent is also clearer if only a single
-operation is being performed.</t>
+          <t>复杂性如果只进行一次操作，其意图也会更加明确。</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -18752,8 +18026,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Complexity. The intent is also clearer if only a single
-operation is being performed.</t>
+          <t>复杂性如果只进行一次操作，其意图也会更加明确。</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -18784,9 +18057,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Readability. Calling into_iter on a reference will not move out its
-content into the resulting iterator, which is confusing. It is better just call iter or
-iter_mut directly.</t>
+          <t>可读性。对引用调用into_iter不会将其内容移出到生成的迭代器中，这很令人困惑。最好直接调用iter oriter_mut。</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -18818,10 +18089,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>It looks suspicious. Maybe map was confused with filter.
-If the map call is intentional, this should be rewritten
-using inspect. Or, if you intend to drive the iterator to
-completion, you can just use for_each instead.</t>
+          <t>看起来可疑。也许map和filter混淆了。如果map调用是有意的，应该用inspect重写。或者，如果您打算驱动迭代器实现，您可以只使用for_each。</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -18847,7 +18115,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>For most types, this is undefined behavior.</t>
+          <t>对于大多数类型，这是未定义的行为。</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -18880,7 +18148,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>These can be written simply with saturating_add/sub methods.</t>
+          <t>这些可以简单地使用saturating_ad/sub方法编写。</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -18916,7 +18184,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>This is a no-op, and likely unintended</t>
+          <t>这是一个没有行动，可能是无意的</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -18942,10 +18210,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>When people testing a file type with FileType::is_file
-they are testing whether a path is something they can get bytes from. But
-is_file doesn't cover special file types in unix-like systems, and doesn't cover
-symlink in windows. Using !FileType::is_dir() is a better way to that intention.</t>
+          <t>当人们使用FileType:：is_file测试文件类型时，他们正在测试路径是否是可以从中获取字节的路径。但是is_file不包括类unix系统中的特殊文件类型，也不包括windows中的符号链接。正在使用！FileType:：is_dir（）是实现此目的的更好方法。</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -18989,8 +18254,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely as
-_.as_deref().</t>
+          <t>可读性，可以更简洁地写成_.as_def（）。</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -19022,7 +18286,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>These can be shortened into .get()</t>
+          <t>这些可以缩写为.get（）</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -19058,7 +18322,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>It's less clear that we are pushing a single character.</t>
+          <t>不太清楚的是，我们正在推动一个单一的角色。</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -19092,7 +18356,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Using eager evaluation is shorter and simpler in some cases.</t>
+          <t>在某些情况下，使用热切评估会更短、更简单。</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -19125,7 +18389,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Using try_for_each instead is more readable and idiomatic.</t>
+          <t>使用try_for_each更具可读性和惯用性。</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -19155,8 +18419,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>It is recommended style to use collect. See
-FromIterator documentation</t>
+          <t>建议使用collect样式。请参阅Iterator文档</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -19190,8 +18453,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>It is the same as performing the computation
-inside inspect at the beginning of the closure in for_each.</t>
+          <t>这与在for_each中的闭包开始时执行计算内部检查相同。</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -19227,7 +18489,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely by using flatten.</t>
+          <t>可读性，这可以通过使用flatten写得更简洁。</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -19259,7 +18521,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>It can be written more concisely without the call to map.</t>
+          <t>它可以写得更简洁，而不需要调用map。</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -19291,8 +18553,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>.as_bytes().get() is more efficient and more
-readable.</t>
+          <t>.as_bytes（）.get（）更高效，可读性更强。</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -19324,8 +18585,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>These methods do the same thing as _.clone() but may be confusing as
-to why we are calling to_vec on something that is already a Vec or calling to_owned on something that is already owned.</t>
+          <t>这些方法的作用与_.clone（）相同，但可能会混淆我们为什么对已经是vec的东西调用to_vec或对已经拥有的东西调用to_owned。</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -19359,8 +18619,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>.len() is more efficient and more
-readable.</t>
+          <t>.len（）更高效，可读性更强。</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -19395,15 +18654,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Calling to_owned() on a Cow creates a clone of the Cow
-itself, without taking ownership of the Cow contents (i.e.
-it's equivalent to calling Cow::clone).
-The similarly named into_owned method, on the other hand,
-clones the Cow contents, effectively turning any Cow::Borrowed
-into a Cow::Owned.
-Given the potential ambiguity, consider replacing to_owned
-with clone for better readability or, if getting a Cow::Owned
-was the original intent, using into_owned instead.</t>
+          <t>对Cow调用to_owned（）会创建Cow本身的克隆，而不会获得Cow内容的所有权（即，它相当于调用Cow:：clone）。另一方面，类似名称的into_owned方法会克隆Cow内容，有效地将任何Cow::Borrowed变成Cow:，如果得到一头牛：：owned作为最初的意图，则使用into_owned。</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -19446,8 +18697,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>These calls don't actually split the value and are
-likely to be intended as a different number.</t>
+          <t>这些调用实际上并没有分割值，很可能是作为一个不同的数字。</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -19483,7 +18733,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>These are both harder to read, as well as less performant.</t>
+          <t>这两本书都很难阅读，而且表现力也较差。</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -19513,7 +18763,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>split_once is both clearer in intent and slightly more efficient.</t>
+          <t>split_once的意图更清晰，效率也略高。</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -19551,8 +18801,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>The function split is simpler and there is no performance difference in these cases, considering
-that both functions return a lazy iterator.</t>
+          <t>考虑到两个函数都返回一个惰性迭代器，函数拆分更简单，在这些情况下没有性能差异。</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -19584,7 +18833,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>The unnecessary calls result in useless allocations.</t>
+          <t>不必要的调用会导致无用的分配。</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -19618,7 +18867,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>.collect::&lt;String&gt;() is more concise and might be more performant</t>
+          <t>.collect：：＜String＞（）更简洁，可能更具性能</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -19652,7 +18901,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Redundant code and improving readability.</t>
+          <t>冗余代码和提高可读性。</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -19684,7 +18933,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>is_digit(..) is slower and requires specifying the radix.</t>
+          <t>is_digit（..）较慢，需要指定基数。</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -19718,8 +18967,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Redundant code. take writes None to its argument.
-In this case the modification is useless as it's a temporary that cannot be read from afterwards.</t>
+          <t>冗余代码。take在其参数中写入None。在这种情况下，修改是无用的，因为它是临时的，以后无法读取。</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -19751,7 +18999,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>It's either a mistake or confusing.</t>
+          <t>这要么是一个错误，要么是令人困惑。</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -19778,7 +19026,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>This can be written more clearly with if .. else ..</t>
+          <t>这可以用if写得更清楚。。其他的</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -19810,7 +19058,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>It is simpler to use the once function from the standard library:</t>
+          <t>使用标准库中的once函数更简单：</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -19843,7 +19091,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>It is simpler to use the empty function from the standard library:</t>
+          <t>使用标准库中的空函数更简单：</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -19877,8 +19125,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>The bytecount
-crate has methods to count your bytes faster, especially for large slices.</t>
+          <t>字节计数箱有一些方法可以更快地计算字节，尤其是对于大的切片。</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -19910,8 +19157,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>str::bytes().count() is longer and may not be as performant as using
-str::len().</t>
+          <t>str:：bytes（）.count（）较长，可能不如使用str:：len（）那样具有性能。</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -19943,7 +19189,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>ends_with is case-sensitive and may not detect files with a valid extension.</t>
+          <t>ends_with区分大小写，可能无法检测到具有有效扩展名的文件。</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -19979,8 +19225,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Using x.first() is easier to read and has the same
-result.</t>
+          <t>使用x.first（）更容易阅读，并且具有相同的结果。</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -20012,7 +19257,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Concise code helps focusing on behavior instead of boilerplate.</t>
+          <t>简洁的代码有助于关注行为，而不是样板文件。</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -20044,7 +19289,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Readability, this can be written more concisely</t>
+          <t>可读性，可以写得更简洁</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -20078,7 +19323,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>This map_err throws away the original error rather than allowing the enum to contain and report the cause of the error</t>
+          <t>此map_err丢弃原始错误，而不允许枚举包含并报告错误原因</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -20178,10 +19423,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Mutex::lock is less efficient than
-calling Mutex::get_mut. In addition you also have a statically
-guarantee that the mutex isn't locked, instead of just a runtime
-guarantee.</t>
+          <t>互斥：：锁的效率不如调用互斥：：get_mut。此外，您还有一个静态保证，即互斥对象没有被锁定，而不仅仅是一个运行时保证。</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -20219,8 +19461,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>In the best case, the code will be harder to read than
-necessary. I don't know the worst case.</t>
+          <t>在最好的情况下，代码将比必要的更难阅读。我不知道最坏的情况。</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -20247,8 +19488,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Calling push with a root path at the start can overwrite the
-previous defined path.</t>
+          <t>在开始时使用根路径调用push可以覆盖以前定义的路径。</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -20284,7 +19524,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>The code is better expressed with .enumerate().</t>
+          <t>代码最好用.enumeter（）表示。</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -20316,8 +19556,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>For example, String.repeat(1) is equivalent to .clone(). If cloning
-the string is the intention behind this, clone() should be used.</t>
+          <t>例如，String.reeat（1）相当于.clone（）。如果克隆字符串是这背后的意图，则应该使用clone（）。</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -20351,10 +19590,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Typically, using a stable sort consumes more memory and cpu cycles.
-Because values which compare equal are identical, preserving their
-relative order (the guarantee that a stable sort provides) means
-nothing, while the extra costs still apply.</t>
+          <t>通常，使用稳定排序会消耗更多的内存和cpu周期。因为比较相等的值是相同的，所以保留它们的相对顺序（稳定排序提供的保证）并不意味着什么，而额外的成本仍然适用。</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -20386,7 +19622,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Hashing a unit value doesn't do anything as the implementation of Hash for () is a no-op.</t>
+          <t>对单位值进行哈希处理没有任何作用，因为Hash for（）的实现是不可行的。</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -20434,9 +19670,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>It is more clear to use Vec::sort_by_key (or Vec::sort if
-possible) than to use Vec::sort_by and a more complicated
-closure.</t>
+          <t>使用Vec:：sort_by-key（或者如果可能的话，使用Vec:；sort）比使用Vec：sort_by和更复杂的闭包更清楚。</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -20472,7 +19706,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>This is probably an argument inversion mistake.</t>
+          <t>这可能是一个论点倒置错误。</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -20502,8 +19736,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>fs::{read, read_to_string} provide the same functionality when buf is empty with fewer imports and no intermediate values.
-See also: fs::read docs, fs::read_to_string docs</t>
+          <t>fs:：｛read，read_to_string｝在buf为空且导入较少且没有中间值时提供相同的功能。另请参阅：fs:：read-docs，fs:：read_to_string docs</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -20536,8 +19769,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Readability. There are keys and values methods that
-can be used to express that we only need the keys or the values.</t>
+          <t>可读性。有一些键和值方法可以用来表示我们只需要键或值。</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -20571,7 +19803,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Readability. Use dedicated method.</t>
+          <t>可读性。使用专用方法。</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -20615,8 +19847,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Readability. There is a specific method that was implemented for
-this exact scenario.</t>
+          <t>可读性。对于这个确切的场景，有一种具体的方法可以实现。</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -20652,8 +19883,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>collect causes the allocation of a new data structure,
-when this allocation may not be needed.</t>
+          <t>collect导致分配新的数据结构，而这种分配可能不需要。</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -20685,9 +19915,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Command::arg() does not split arguments by space. An argument like arg("-t ext2")
-will be passed as a single argument to the command,
-which is likely not what was intended.</t>
+          <t>命令：：arg（）不按空格分隔参数。像arg（“-t ext2”）这样的参数将作为单个参数传递给命令，这可能不是预期的。</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -20717,8 +19945,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>This creates an unnecessary iterator that is dropped immediately.
-Calling .clear() also makes the intent clearer.</t>
+          <t>这会创建一个不必要的迭代器，并立即将其删除。调用.clear（）也会使意图更加清晰。</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -20750,7 +19977,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>.next_back() is cleaner.</t>
+          <t>.next_back（）更干净。</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -20782,8 +20009,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Using .. instead is shorter and leaves the focus on
-the fields that are actually bound.</t>
+          <t>使用。。相反，它更短，并将重点放在实际绑定的字段上。</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -20831,7 +20057,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>It affects code readability.</t>
+          <t>它会影响代码的可读性。</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -20861,8 +20087,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>It can mislead C/C++ programmers to think x was
-decremented.</t>
+          <t>它可能会误导C/C++程序员认为x已经减少了。</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -20889,7 +20114,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>It looks confusing.</t>
+          <t>这看起来令人困惑。</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -20923,7 +20148,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Suffix style should be consistent.</t>
+          <t>后缀样式应该一致。</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -20957,7 +20182,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Suffix style should be consistent.</t>
+          <t>后缀样式应该一致。</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -20991,11 +20216,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>In some languages (including the infamous C language
-and most of its
-family), this marks an octal constant. In Rust however, this is a decimal
-constant. This could
-be confusing for both the writer and a reader of the constant.</t>
+          <t>在某些语言中（包括臭名昭著的C语言及其家族的大多数语言），这标志着八进制常数。然而，在Rust中，这是一个小数常量。这可能会让常数的作者和读者感到困惑。</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -21032,7 +20253,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>This gives surprising type errors.</t>
+          <t>这会产生令人惊讶的类型错误。</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -21062,8 +20283,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>It's almost always more readable to just use direct
-bindings.</t>
+          <t>只使用directbindings几乎总是可读性更强。</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -21101,8 +20321,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>The wildcard pattern is unneeded as the rest pattern
-can match that element as well.</t>
+          <t>通配符模式是不需要的，因为rest模式也可以匹配该元素。</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -21142,9 +20361,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>An expression like min &lt;= x may misleadingly imply
-that it is possible for x to be less than the minimum. Expressions like
-max &lt; x are probably mistakes.</t>
+          <t>像min&lt;=x这样的表达式可能会误导性地暗示x可能小于最小值。像max＜x这样的表达式可能是错误的。</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -21172,9 +20389,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>For integers, overflow will trigger a panic in debug builds or wrap the result in
-release mode; division by zero will cause a panic in either mode. As a result, it is
-desirable to explicitly call checked, wrapping or saturating arithmetic methods.</t>
+          <t>对于整数，溢出将在调试构建中触发死机，或者在释放模式中包装结果；除以零在任何一种模式下都会引起恐慌。因此，可以显式调用checked、wrappeng或saturating算术方法。</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -21208,8 +20423,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>For some embedded systems or kernel development, it
-can be useful to rule out floating-point numbers.</t>
+          <t>对于某些嵌入式系统或内核开发，排除浮点数可能很有用。</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -21236,7 +20450,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>These can be written as the shorter a op= b.</t>
+          <t>这些可以写成a op=b越短。</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -21272,7 +20486,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Most likely these are bugs where one meant to write a op= b.</t>
+          <t>最有可能的是，这些错误意味着要写一个op=b。</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -21301,12 +20515,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>If the bits that the comparison cares about are always
-set to zero or one by the bit mask, the comparison is constant true or
-false (depending on mask, compared value, and operators).
-So the code is actively misleading, and the only reason someone would write
-this intentionally is to win an underhanded Rust contest or create a
-test-case for this lint.</t>
+          <t>如果比较关心的比特总是被比特掩码设置为零或一，则比较是恒定的true或false（取决于掩码、被比较的值和运算符）。因此，代码具有误导性，而有人故意写这篇文章的唯一原因是赢得一场秘密的Rust竞赛，或者为这个lint创建一个最佳案例。</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -21333,8 +20542,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Not equally evil as bad_bit_mask,
-but still a bit misleading, because the bit mask is ineffective.</t>
+          <t>虽然没有bad_bit_mask那么邪恶，但仍然有点误导，因为比特掩码是无效的。</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -21361,7 +20569,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>x.trailing_zeros() &gt; 4 is much clearer than x &amp; 15 == 0</t>
+          <t>x.trailing_zeros（）&gt;4比x&amp;15==0清晰得多</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -21388,7 +20596,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Readability.</t>
+          <t>可读性。</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -21422,8 +20630,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>It's more concise to call Duration::subsec_micros() or
-Duration::subsec_millis() than to calculate them.</t>
+          <t>调用Duration:：subsec_mics（）或Duration::subsec_millis（）比计算它们更简洁。</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -21459,7 +20666,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>This is usually just a typo or a copy and paste error.</t>
+          <t>这通常只是一个打字错误或复制粘贴错误。</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -21490,7 +20697,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>It is more idiomatic to dereference the other argument.</t>
+          <t>取消引用另一个论点更为习惯。</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -21520,9 +20727,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>The whole expression can be replaced by zero.
-This is most likely not the intended outcome and should probably be
-corrected</t>
+          <t>整个表达式可以用零代替。这很可能不是预期的结果，应该进行更正</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -21551,7 +20756,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>The code without .abs() is more likely to have a bug.</t>
+          <t>没有.abs（）的代码更有可能出现错误。</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -21585,8 +20790,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>This code can be removed without changing the
-meaning. So it just obscures what's going on. Delete it mercilessly.</t>
+          <t>此代码可以在不更改其含义的情况下删除。所以它只是掩盖了正在发生的事情。无情地删除它。</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -21613,9 +20817,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>When outside of some very specific algorithms,
-integer division is very often a mistake because it discards the
-remainder.</t>
+          <t>在一些非常具体的算法之外，整数除法往往是一个错误，因为它会丢弃剩余的整数。</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -21647,8 +20849,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>NaN does not compare meaningfully to anything – not
-even itself – so those comparisons are simply wrong.</t>
+          <t>NaN并不能与任何东西进行有意义的比较——甚至不能与它本身进行比较——所以这些比较根本是错误的。</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -21680,9 +20881,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>The comparison can operate on a reference, so creating
-an owned value effectively throws it away directly afterwards, which is
-needlessly consuming code and heap space.</t>
+          <t>比较可以对引用进行操作，因此创建一个所拥有的值可以有效地在之后直接将其丢弃，这无需消耗代码和堆空间。</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -21716,10 +20915,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Floating point calculations are usually imprecise, so
-asking if two values are exactly equal is asking for trouble. For a good
-guide on what to do, see the floating point
-guide.</t>
+          <t>浮点计算通常是不精确的，如果两个值完全相等，那就麻烦了。有关如何操作的良好指南，请参阅浮点指南。</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -21758,10 +20954,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Floating point calculations are usually imprecise, so
-asking if two values are exactly equal is asking for trouble. For a good
-guide on what to do, see the floating point
-guide.</t>
+          <t>浮点计算通常是不精确的，如果两个值完全相等，那就麻烦了。有关如何操作的良好指南，请参阅浮点指南。</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -21798,11 +20991,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>The result for a divisor of one can only ever be zero; for
-minus one it can cause panic/overflow (if the left operand is the minimal value of
-the respective integer type) or results in zero. No one will write such code
-deliberately, unless trying to win an Underhanded Rust Contest. Even for that
-contest, it's probably a bad idea. Use something more underhanded.</t>
+          <t>除数为1的结果只能是零；如果为1，则可能导致死机/溢出（如果左操作数是相应整数类型的最小值）或导致零。没有人会故意写这样的代码，除非试图赢得一场“地下铁锈大赛”。即使是那场比赛，这也可能是个坏主意。使用更隐蔽的东西。</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -21830,11 +21019,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>The results of modulo (%) operation might differ
-depending on the language, when negative numbers are involved.
-If you interop with different languages it might be beneficial
-to double check all places that use modulo arithmetic.
-For example, in Rust 17 % -3 = 2, but in Python 17 % -3 = -1.</t>
+          <t>当涉及负数时，模（%）运算的结果可能会因语言而异。如果你与不同的语言进行互操作，那么仔细检查所有使用模运算的地方可能是有益的。例如，在Rust中，17%-3=2，但在Python中，17%/3=-1。</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -21860,8 +21045,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>The bitwise operators do not support short-circuiting, so it may hinder code performance.
-Additionally, boolean logic "masked" as bitwise logic is not caught by lints like unnecessary_fold</t>
+          <t>位运算符不支持短路，因此可能会阻碍代码性能。此外，布尔逻辑“屏蔽”为位逻辑不会被unnecessary_fold等lint捕获</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -21893,9 +21077,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>ptr::eq can be used to compare &amp;T references
-(which coerce to *const T implicitly) by their address rather than
-comparing the values they point to.</t>
+          <t>ptr:：eq可用于根据地址比较&amp;T引用（隐式强制为*const T），而不是比较它们所指向的值。</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -21929,8 +21111,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Self-assignments are redundant and unlikely to be
-intentional.</t>
+          <t>自我分配是多余的，不太可能是临时的。</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -21968,7 +21149,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>It's basically guaranteed to be undefined behavior.</t>
+          <t>它基本上保证是未定义的行为。</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -21994,8 +21175,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Readability. The code tricks people into thinking that
-something complex is going on.</t>
+          <t>可读性。该代码诱使人们认为正在发生复杂的事情。</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -22021,8 +21201,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Readability. The code tricks people into thinking that
-something complex is going on.</t>
+          <t>可读性。该代码诱使人们认为正在发生复杂的事情。</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -22054,8 +21233,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>It's easy to mistakenly transmute between a type and a
-pointer to that type.</t>
+          <t>很容易错误地在一种类型和apointer之间转换为该类型。</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -22082,7 +21260,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>This can always be rewritten with &amp; and *.</t>
+          <t>这总是可以用&amp;和*重写。</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -22114,7 +21292,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Not every integer is a Unicode scalar value.</t>
+          <t>并非每个整数都是Unicode标量值。</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -22147,7 +21325,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Not every byte slice is a valid UTF-8 string.</t>
+          <t>并非每个字节片都是有效的UTF-8字符串。</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -22180,7 +21358,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>This might result in an invalid in-memory representation of a bool.</t>
+          <t>这可能会导致bool在内存中的表示形式无效。</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -22213,8 +21391,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Transmutes are dangerous and error-prone, whereas from_bits is intuitive
-and safe.</t>
+          <t>Transmutes是危险的并且容易出错，而from_bits是直观的并且安全的。</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -22246,8 +21423,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Transmutes work on any types and thus might cause unsoundness when those types change
-elsewhere. new_unchecked only works for the appropriate types instead.</t>
+          <t>Transmute适用于任何类型，因此当这些类型在其他地方发生变化时，可能会导致不稳定。new_unchecked只适用于适当的类型。</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -22279,8 +21455,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Transmutes are dangerous and error-prone, whereas to_bits is intuitive
-and safe.</t>
+          <t>Transmutes是危险的并且容易出错，而to_bits是直观的并且安全的。</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -22312,8 +21487,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Transmutes are dangerous and error-prone, whereas to_ne_bytes
-is intuitive and safe.</t>
+          <t>Transmutes是危险的并且容易出错，而to_ne_bytesis是直观的并且安全的。</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -22345,8 +21519,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Transmutes are dangerous, and these can instead be
-written as casts.</t>
+          <t>变性人是危险的，他们可以被写成演员阵容。</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -22383,7 +21556,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>This is undefined behavior.</t>
+          <t>这是未定义的行为。</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -22417,7 +21590,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>The results of such a transmute are not defined.</t>
+          <t>这种转化的结果是没有定义的。</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -22450,7 +21623,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Transmuting a null pointer is undefined behavior.</t>
+          <t>转换空指针是未定义的行为。</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -22476,8 +21649,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Creating a null function pointer is undefined behavior.
-More info: https://doc.rust-lang.org/nomicon/ffi.html#the-nullable-pointer-optimization</t>
+          <t>创建空函数指针是未定义的行为。详细信息：https://doc.rust-lang.org/nomicon/ffi.html#the-可为null的指针优化</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -22507,9 +21679,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Collections already keeps their contents in a separate area on
-the heap. So if you Box them, you just add another level of indirection
-without any benefit whatsoever.</t>
+          <t>集合已经将其内容保存在堆上的一个单独区域中。因此，如果你把它们装箱，你只需要添加另一个间接级别，而没有任何好处。</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -22543,8 +21713,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Vec already keeps its contents in a separate area on
-the heap. So if you Box its contents, you just add another level of indirection.</t>
+          <t>Vec已经将其内容保存在堆上的一个单独区域中。因此，如果您对其内容进行装箱，您只需添加另一个间接级别。</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -22578,11 +21747,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Option&lt;_&gt; represents an optional value. Option&lt;Option&lt;_&gt;&gt;
-represents an optional value which itself wraps an optional. This is logically the
-same thing as an optional value but has an unneeded extra level of wrapping.
-If you have a case where Some(Some(_)), Some(None) and None are distinct cases,
-consider a custom enum instead, with clear names for each case.</t>
+          <t>选项&lt;_&gt;表示一个可选值。Option＜Option＜_＞表示一个可选值，该值本身封装了一个可选。这在逻辑上与可选值相同，但有一个不必要的额外包装级别。如果您的案例中Some（Some（_））、Some（None）和None是不同的案例，请考虑使用自定义枚举，每个案例都有明确的名称。</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -22621,22 +21786,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Gankra says:
-The TL;DR of LinkedList is that it's built on a massive amount of
-pointers and indirection.
-It wastes memory, it has terrible cache locality, and is all-around slow.
-RingBuf, while
-"only" amortized for push/pop, should be faster in the general case for
-almost every possible
-workload, and isn't even amortized at all if you can predict the capacity
-you need.
-LinkedLists are only really good if you're doing a lot of merging or
-splitting of lists.
-This is because they can just mangle some pointers instead of actually
-copying the data. Even
-if you're doing a lot of insertion in the middle of the list, RingBuf
-can still be better
-because of how expensive it is to seek to the middle of a LinkedList.</t>
+          <t>Gankra说：TL；LinkedList的缺点是它建立在大量的指针和间接性之上。它浪费内存，缓存位置很糟糕，而且速度很慢。虽然“只”为推送/弹出摊销，但在一般情况下，对于几乎所有可能的工作负载，RingBuf应该更快，如果你能预测你需要的容量，它甚至不会摊销。只有当你对列表进行大量合并或拆分时，LinkedList才是真正好的。这是因为它们只会破坏一些指针，而不是实际复制数据。即使你在列表的中间插入了很多内容，RingBufcan仍然会更好，因为寻找LinkedList的中间位置是非常昂贵的。</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -22663,9 +21813,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>A &amp;Box&lt;T&gt; parameter requires the function caller to box T first before passing it to a function.
-Using &amp;T defines a concrete type for the parameter and generalizes the function, this would also
-auto-deref to &amp;T at the function call site if passed a &amp;Box&lt;T&gt;.</t>
+          <t>&amp;Box&lt;T&gt;参数要求函数调用方在将T传递给函数之前先将其框起来。使用&amp;T定义参数的具体类型并泛化函数，如果传递了&amp;Box&lt;T，这也会在函数调用站点自动取消引用到&amp;T。</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -22695,8 +21843,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Expressions such as Rc&lt;&amp;T&gt;, Rc&lt;Rc&lt;T&gt;&gt;, Rc&lt;Arc&lt;T&gt;&gt;, Rc&lt;Box&lt;T&gt;&gt;, Arc&lt;&amp;T&gt;, Arc&lt;Rc&lt;T&gt;&gt;,
-Arc&lt;Arc&lt;T&gt;&gt;, Arc&lt;Box&lt;T&gt;&gt;, Box&lt;&amp;T&gt;, Box&lt;Rc&lt;T&gt;&gt;, Box&lt;Arc&lt;T&gt;&gt;, Box&lt;Box&lt;T&gt;&gt;, add an unnecessary level of indirection.</t>
+          <t>表达式，如Rc&lt;&amp;T&gt;、Rc&lt;Rc&lt;T&gt;&gt;、Rc&lt;Arc＜T＞&gt;、Rc＜Box＜T＞、Arc&lt;Rc＜T＞＞、Arc＜Arc＜T&gt;&gt;、Arc＞Box＜T&gt;&gt;、Box＜&amp;T＞、Box＜Rc＜T&gt;&gt;、Box＜Arc＞T&gt;&gt;，会添加不必要的间接级别。</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -22727,13 +21874,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Expressions such as Rc&lt;String&gt; usually have no advantage over Rc&lt;str&gt;, since
-it is larger and involves an extra level of indirection, and doesn't implement Borrow&lt;str&gt;.
-While mutating a buffer type would still be possible with Rc::get_mut(), it only
-works if there are no additional references yet, which usually defeats the purpose of
-enclosing it in a shared ownership type. Instead, additionally wrapping the inner
-type with an interior mutable container (such as RefCell or Mutex) would normally
-be used.</t>
+          <t>Rc&lt;String&gt;这样的表达式通常比Rc&lt;str&gt;没有优势，因为它更大，涉及额外的间接级别，并且不实现Borrow&lt;str&gt;。虽然使用Rc:：get_mut（）仍然可以更改缓冲区类型，但它只有在没有额外引用的情况下才起作用，这通常会破坏在共享所有权类型中关闭它的目的。相反，通常会使用一个内部可变容器（如RefCell或Mutex）来额外包装innertype。</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -22764,8 +21905,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Too complex types make the code less readable. Consider
-using a type definition to simplify them.</t>
+          <t>过于复杂的类型会降低代码的可读性。考虑取消类型定义以简化它们。</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -22794,8 +21934,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Rc is used in single thread and Mutex is used in multi thread.
-Consider using Rc&lt;RefCell&lt;T&gt;&gt; in single thread or Arc&lt;Mutex&lt;T&gt;&gt; in multi thread.</t>
+          <t>Rc用于单线程，Mutex用于多线程。考虑在单线程中使用Rc&lt;RefCell&lt;T&gt;&gt;或在多线程中使用Arc&lt;Mutex&lt;T&gt;&gt;。</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -22829,8 +21968,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>A unit value cannot usefully be used anywhere. So
-binding one is kind of pointless.</t>
+          <t>单位价值不能在任何地方使用。清醒一点是没有意义的。</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -22858,9 +21996,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Unit is always equal to itself, and thus is just a
-clumsily written constant. Mostly this happens when someone accidentally
-adds semicolons at the end of the operands.</t>
+          <t>单位总是等于它自己，因此它只是一个简单的常量。大多数情况下，当有人不小心在操作数的末尾添加分号时，就会发生这种情况。</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -22909,7 +22045,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>This is likely the result of an accidental semicolon.</t>
+          <t>这很可能是意外使用分号的结果。</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -22938,12 +22074,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Since Rust 1.53, arrays implement IntoIterator. However, to avoid
-breakage, array.into_iter() in Rust 2015 and 2018 code will still
-behave as (&amp;array).into_iter(), returning an iterator over
-references, just like in Rust 1.52 and earlier.
-This only applies to the method call syntax array.into_iter(), not to
-any other syntax such as for _ in array or IntoIterator::into_iter(array).</t>
+          <t>自Rust 1.53以来，阵列实现了IntoIdeator。然而，为了避免破坏，Rust 2015和2018代码中的array.into_iter（。</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -22970,9 +22101,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>while true should be replaced with loop. A loop expression is
-the preferred way to write an infinite loop because it more directly
-expresses the intent of the loop.</t>
+          <t>而true应替换为循环。循环表达式是编写无限循环的首选方式，因为它更直接地表达了循环的意图。</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -22999,9 +22128,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>This lint is mostly historical, and not particularly useful. Box&lt;T&gt;
-used to be built into the language, and the only way to do heap
-allocation. Today's Rust can call into other allocators, etc.</t>
+          <t>这种皮棉大多是历史性的，并不是特别有用。Box＜T＞曾经被内置到该语言中，也是进行堆分配的唯一方法。今天的Rust可以调用其他分配器等。</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -23030,8 +22157,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>The preferred style is to avoid the repetition of specifying both the
-field name and the binding name if both identifiers are the same.</t>
+          <t>首选样式是避免重复指定字段名称和绑定名称（如果两个标识符相同）。</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -23069,8 +22195,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>This lint is intended to restrict the usage of unsafe, which can be
-difficult to use correctly.</t>
+          <t>这种棉绒旨在限制不安全的使用，这可能会使正确使用变得困难。</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -23100,11 +22225,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>This lint is intended to ensure that a library is well-documented.
-Items without documentation can be difficult for users to understand
-how to use properly.
-This lint is "allow" by default because it can be noisy, and not all
-projects may want to enforce everything to be documented.</t>
+          <t>此lint旨在确保库具有良好的文档。没有文档的项目可能很难让用户理解如何正确使用。此lint默认为“允许”，因为它可能会发出噪音，并且并非所有项目都希望强制所有内容都要文档化。</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -23131,14 +22252,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Historically (before 1.0), types were automatically marked as Copy
-if possible. This was changed so that it required an explicit opt-in
-by implementing the Copy trait. As part of this change, a lint was
-added to alert if a copyable type was not marked Copy.
-This lint is "allow" by default because this code isn't bad; it is
-common to write newtypes like this specifically so that a Copy type
-is no longer Copy. Copy types can result in unintended copies of
-large data which can impact performance.</t>
+          <t>历史上（在1.0之前），如果可能的话，类型会自动标记为Copy。这一点已经改变，因此它需要一个明确的选择加入来实现复制特性。作为此更改的一部分，如果可复制类型没有标记为Copy，则添加了一个lint以提醒。此lint默认为“允许”，因为此代码还不错；通常会专门编写这样的新类型，这样Copy类型就不再是Copy了。复制类型可能会导致意外复制大数据，从而影响性能。</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -23168,14 +22282,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Having a Debug implementation on all types can assist with
-debugging, as it provides a convenient way to format and display a
-value. Using the #[derive(Debug)] attribute will automatically
-generate a typical implementation, or a custom implementation can be
-added by manually implementing the Debug trait.
-This lint is "allow" by default because adding Debug to all types can
-have a negative impact on compile time and code size. It also requires
-boilerplate to be added to every type, which can be an impediment.</t>
+          <t>在所有类型上都有一个Debug实现可以帮助调试，因为它提供了一种方便的格式化和显示avaue的方法。使用#[drivee（Debug）]属性将自动生成一个典型的实现，或者可以通过手动实现Debug特性来实现自定义实现。默认情况下，此lint是“允许”的，因为将Debug添加到所有类型可能会对编译时间和代码大小产生负面影响。它还要求在每种类型中都添加一块白板，这可能是一个障碍。</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -23203,19 +22310,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>This syntax is mostly a historical accident, and can be worked around
-quite easily by adding an _ pattern or a descriptive identifier:
-trait Foo {
-    fn foo(_: usize);
-}
-This syntax is now a hard error in the 2018 edition. In the 2015
-edition, this lint is "warn" by default. This lint
-enables the cargo fix tool with the --edition flag to
-automatically transition old code from the 2015 edition to 2018. The
-tool will run this lint and automatically apply the
-suggested fix from the compiler (which is to add _ to each
-parameter). This provides a completely automated way to update old
-code for a new edition. See issue #41686 for more details.</t>
+          <t>这种语法大多是历史上的意外，可以通过添加_模式或描述性标识符来轻松解决：trait Foo｛fn Foo（_:usize）；｝这种语法现在在2018版中是一个严重错误。在2015版中，此lint默认为“警告”。此Lint使带有--edition标志的货物修复工具能够自动将旧代码从2015版转换到2018版。该工具将运行此lint并自动应用编译器建议的修复程序（即向每个参数添加_）。这提供了一种完全自动化的方式来为新版本更新旧代码。有关更多详细信息，请参阅第41686期。</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -23246,8 +22341,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Constants do not have their symbols exported, and therefore, this
-probably means you meant to use a static, not a const.</t>
+          <t>常量没有导出其符号，因此，这可能意味着您打算使用静态，而不是常量。</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -23274,9 +22368,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>A function with generics must have its symbol mangled to accommodate
-the generic parameter. The no_mangle attribute has no effect in
-this situation, and should be removed.</t>
+          <t>具有泛型的函数必须修改其符号以适应泛型参数。no_mangle属性在这种情况下没有影响，应该删除。</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -23304,8 +22396,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Certain assumptions are made about aliasing of data, and this transmute
-violates those assumptions. Consider using UnsafeCell instead.</t>
+          <t>对数据的混叠进行了某些假设，而这种转换违反了这些假设。请考虑改用UnsafeCell。</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -23351,9 +22442,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>The attribute must be used in conjunction with the
-closure_track_caller feature flag. Otherwise, the #[track_caller]
-annotation will function as a no-op.</t>
+          <t>该属性必须与Close_track_caller功能标志一起使用。否则，#[track_caller]注释将起到no-op的作用。</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -23380,13 +22469,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>A bare pub visibility may be misleading if the item is not actually
-publicly exported from the crate. The pub(crate) visibility is
-recommended to be used instead, which more clearly expresses the intent
-that the item is only visible within its own crate.
-This lint is "allow" by default because it will trigger for a large
-amount existing Rust code, and has some false-positives. Eventually it
-is desired for this to become warn-by-default.</t>
+          <t>如果商品实际上不是从板条箱中公开出口的，那么裸露的酒吧可见性可能会产生误导。建议使用pub（板条箱）可见性，这更清楚地表达了物品只在自己的板条箱中可见的意图。该lint默认为“允许”，因为它会触发大量现有的Rust代码，并且有一些误报。最终，它希望在默认情况下成为警告。</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -23416,9 +22499,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>The trait bounds in a type alias are currently ignored, and should not
-be included to avoid confusion. This was previously allowed
-unintentionally; this may become a hard error in the future.</t>
+          <t>类型别名中的特征边界当前被忽略，不应包括在内以避免混淆。这以前是故意允许的；这在未来可能会成为一个严重的错误。</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -23444,17 +22525,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Usually you would not write a trait bound that you know is always
-true, or never true. However, when using macros, the macro may not
-know whether or not the constraint would hold or not at the time when
-generating the code. Currently, the compiler does not alert you if the
-constraint is always true, and generates an error if it is never true.
-The trivial_bounds feature changes this to be a warning in both
-cases, giving macros more freedom and flexibility to generate code,
-while still providing a signal when writing non-macro code that
-something is amiss.
-See RFC 2056 for more details. This feature is currently only
-available on the nightly channel, see tracking issue #48214.</t>
+          <t>通常情况下，你不会写一个你知道永远都是错误的或永远都不是真的特质。但是，当使用宏时，宏可能不知道在生成代码时约束是否成立。目前，如果约束始终为真，编译器不会提醒您，如果约束从不为真，则会生成错误。trivial_bounds功能在这两种情况下都会将其更改为警告，使宏在生成代码时具有更大的自由度和灵活性，同时在编写非宏代码时仍会发出出错的信号。有关更多详细信息，请参阅RFC 2056。此功能目前仅在夜间频道可用，请参阅跟踪问题#48214。</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -23481,8 +22552,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>The ... range pattern syntax was changed to ..= to avoid potential
-confusion with the .. range expression. Use the new form instead.</t>
+          <t>这个范围模式语法已更改为..=以避免与..发生潜在冲突。。范围表达式。请改用新表单。</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -23512,13 +22582,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>In order for the test harness to run a test, the test function must be
-located in a position where it can be accessed from the crate root.
-This generally means it must be defined in a module, and not anywhere
-else such as inside another function. The compiler previously allowed
-this without an error, so a lint was added as an alert that a test is
-not being used. Whether or not this should be allowed has not yet been
-decided, see RFC 2471 and issue #36629.</t>
+          <t>为了让测试线束运行测试，测试函数必须位于可以从机箱根访问的位置。这通常意味着它必须在模块中定义，而不是在其他任何地方，例如在另一个函数中。编译器以前允许这样做而没有错误，因此添加了一个lint作为没有使用测试的警告。这是否应该被允许还没有决定，请参阅RFC 2471和问题#36629。</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -23550,19 +22614,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Rust editions allow the language to evolve without breaking
-backwards compatibility. This lint catches code that uses new keywords
-that are added to the language that are used as identifiers (such as a
-variable name, function name, etc.). If you switch the compiler to a
-new edition without updating the code, then it will fail to compile if
-you are using a new keyword as an identifier.
-You can manually change the identifiers to a non-keyword, or use a
-raw identifier, for example r#dyn, to transition to a new edition.
-This lint solves the problem automatically. It is "allow" by default
-because the code is perfectly valid in older editions. The cargo fix tool with the --edition flag will switch this lint to "warn"
-and automatically apply the suggested fix from the compiler (which is
-to use a raw identifier). This provides a completely automated way to
-update old code for a new edition.</t>
+          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。这个lint捕获使用新关键字的代码，这些关键字被添加到用作标识符的语言中（如可用名称、函数名称等）。如果你在不更新代码的情况下将编译器切换到新版本，那么如果你使用新关键字作为标识符，它将无法编译。你可以手动将标识符更改为非关键字，或者使用araw标识符，例如r#dyn，转换到新版本。这个lint自动解决了问题。默认情况下它是“允许”的，因为代码在旧版本中完全有效。带有--edition标志的货物修复工具将把这个lint切换到“warn”，并自动应用编译器建议的修复（它将使用原始标识符）。这提供了一种为新版本更新旧代码的完全自动化的方式。</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -23590,10 +22642,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Although it is encouraged for people to experiment with unstable
-features, some of them are known to be incomplete or faulty. This lint
-is a signal that the feature has not yet been finished, and you may
-experience problems with it.</t>
+          <t>尽管鼓励人们尝试不稳定的特征，但其中一些特征是不完整或有缺陷的。此lint表示该功能尚未完成，您可能会遇到问题。</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -23619,13 +22668,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>In some situations the compiler can detect that the code is creating
-an invalid value, which should be avoided.
-In particular, this lint will check for improper use of
-mem::zeroed, mem::uninitialized, mem::transmute, and
-MaybeUninit::assume_init that can cause undefined behavior. The
-lint should provide extra information to indicate what the problem is
-and a possible solution.</t>
+          <t>在某些情况下，编译器可以检测到代码创建了一个无效值，这应该避免。特别是，此lint将检查是否使用了可能导致未定义行为的mem:：zered、mem:：uninitialized、mem：：transmite和MaybeUninit:：assume_init。lint应该提供额外的信息来说明问题所在以及可能的解决方案。</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -23654,18 +22697,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Because two symbols of the same name cannot be resolved to two
-different functions at link time, and one function cannot possibly
-have two types, a clashing extern declaration is almost certainly a
-mistake. Check to make sure that the extern definitions are correct
-and equivalent, and possibly consider unifying them in one location.
-This lint does not run between crates because a project may have
-dependencies which both rely on the same extern function, but declare
-it in a different (but valid) way. For example, they may both declare
-an opaque type for one or more of the arguments (which would end up
-distinct types), or use types that are valid conversions in the
-language the extern fn is defined in. In these cases, the compiler
-can't say that the clashing declaration is incorrect.</t>
+          <t>由于同一名称的两个符号在链接时无法解析为两个不同的函数，并且一个函数不可能具有两种类型，因此几乎可以肯定，使用冲突的外部声明是错误的。检查以确保外部定义是正确和等效的，并可能考虑将它们统一在一个位置。此lint不会在板条箱之间运行，因为一个项目可能具有依赖项，它们都依赖于相同的外部函数，但以不同的（但有效的）方式解密。例如，它们既可以为一个或多个参数声明不透明类型（这将结束更新类型），也可以使用在定义extern fn的语言中有效转换的类型。在这些情况下，编译器不会说冲突声明是不正确的。</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -23698,8 +22730,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Dereferencing a null pointer causes undefined behavior even as a place expression,
-like &amp;*(0 as *const i32) or addr_of!(*(0 as *const i32)).</t>
+          <t>取消引用空指针会导致未定义的行为，即使是作为位置表达式，如&amp;*（0作为*const i32）或addr_of！（*（0作为*const i32））。</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -23731,11 +22762,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>LLVM is allowed to duplicate inline assembly blocks for any
-reason, for example when it is in a function that gets inlined. Because
-of this, GNU assembler local labels must be used instead of labels
-with a name. Using named labels might cause assembler or linker errors.
-See the explanation in Rust By Example for more details.</t>
+          <t>LLVM可以出于任何原因复制内联程序集块，例如当它位于内联的函数中时。因此，必须使用GNU汇编程序本地标签，而不是带有名称的标签。使用命名标签可能会导致汇编程序或链接器错误。有关详细信息，请参阅Rust By Example中的解释。</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -23767,22 +22794,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Cargo recognizes lib.rs and main.rs as the root of a
-library or binary crate, so declaring them as modules
-will lead to miscompilation of the crate unless configured
-explicitly.
-To access a library from a binary target within the same crate,
-use your_crate_name:: as the path instead of lib:::
-// bar/src/lib.rs
-fn run() {
-    // ...
-}
-// bar/src/main.rs
-fn main() {
-    bar::run();
-}
-Binary targets cannot be used as libraries and so declaring
-one as a module is not allowed.</t>
+          <t>Cargo将lib.rs和main.rs识别为alibrary或二进制机箱的根，因此除非配置正确，否则将它们声明为模块将导致机箱编译错误。要从同一机箱内的二进制目标访问库，使用your_crate_name:：作为路径，而不是lib:：//bar/src/lib.rsfn run（）｛//…｝//bar/src/main.rsfn main（）｛bar:：run（）；｝二进制目标不能用作库，因此不允许将declarginone作为模块。</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -23811,8 +22823,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>The dyn upcasting coercion feature adds new coercion rules, taking priority
-over certain other coercion rules, which will cause some behavior change.</t>
+          <t>dyn upcasting强制功能添加了新的强制规则，优先于某些其他强制规则，这将导致一些行为变化。</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -23852,10 +22863,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Calling drop on a reference will only drop the
-reference itself, which is a no-op. It will not call the drop method (from
-the Drop trait implementation) on the underlying referenced value, which
-is likely what was intended.</t>
+          <t>对引用调用drop只会删除引用本身，这是一个no-op。它不会对底层引用值调用drop方法（来自drop特性实现），这很可能是预期的。</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -23886,9 +22894,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Calling forget on a reference will only forget the
-reference itself, which is a no-op. It will not forget the underlying
-referenced value, which is likely what was intended.</t>
+          <t>对引用调用forget只会忘记引用本身，这是一个no-op。它不会忘记潜在的参考值，这很可能是预期的。</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -23915,9 +22921,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Calling std::mem::drop does nothing for types that
-implement Copy, since the
-value will be copied and moved into the function on invocation.</t>
+          <t>调用std:：mem:：drop对实现Copy的类型没有任何作用，因为值将在调用时被复制并移动到函数中。</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -23945,12 +22949,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Calling std::mem::forget does nothing for types that
-implement Copy since the
-value will be copied and moved into the function on invocation.
-An alternative, but also valid, explanation is that Copy types do not
-implement the Drop trait, which means they have no destructors. Without a
-destructor, there is nothing for std::mem::forget to ignore.</t>
+          <t>调用std:：mem:：forget对实现Copy的类型没有任何作用，因为值将在调用时被复制并移动到函数中。另一种但也是有效的解释是，Copy类型没有实现Drop特性，这意味着它们没有析构函数。没有构造函数，std:：mem:：就不会忘记忽略。</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -23978,11 +22977,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>In order to accept any enum, the mem::discriminant and
-mem::variant_count functions are generic over a type T.
-This makes it technically possible for T to be a non-enum,
-in which case the return value is unspecified.
-This lint prevents such incorrect usage of these functions.</t>
+          <t>为了接受任何枚举，mem:：differential和mem:：variant_count函数在类型T上是泛型的。这使得T在技术上可以是非枚举，在这种情况下返回值是未指定的。此lint可以防止这些函数的错误使用。</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -24009,15 +23004,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Both Option and Result implement IntoIterator trait, which allows using them in a for loop.
-for loop over Option or Result will iterate either 0 (if the value is None/Err(_))
-or 1 time (if the value is Some(_)/Ok(_)). This is not very useful and is more clearly expressed
-via if let.
-for loop can also be accidentally written with the intention to call a function multiple times,
-while the function returns Some(_), in these cases while let loop should be used instead.
-The "intended" use of IntoIterator implementations for Option and Result is passing them to
-generic code that expects something implementing IntoIterator. For example using .chain(option)
-to optionally add a value to an iterator.</t>
+          <t>Option和Result都实现了IntoIdeator特性，这允许在for循环中使用它们。对于Option或Result的循环，将迭代0（如果值为None/Err（_））或1次（如果值是Some（_）/Ok（_）。如果let.for循环也可能是为了多次调用函数而意外编写的，而函数返回Some（_），在这些情况下，应该使用while let循环。Option和Result的IntoIdeator实现的“预期”用途是将它们传递给期望实现IntoIderator的泛型代码。例如，使用.chain（选项）向迭代器选择性地添加值。</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -24044,13 +23031,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>The unicode characters \u{202A}, \u{202B}, \u{202D}, \u{202E}, \u{2066},
-\u{2067}, \u{2068}, \u{202C} and \u{2069} make the flow of text on screen change
-its direction on software that supports these codepoints. This makes the text "abc" display
-as "cba" on screen. By leveraging software that supports these, people can write specially
-crafted literals that make the surrounding code seem like it's performing one action, when
-in reality it is performing another. Because of this, we proactively lint against their
-presence to avoid surprises.</t>
+          <t>unicode字符\u 202A｝、\u 202B｝、/u 202D｝、\u 202E｝、\ u 2066｝、\\u 2067｝、\\ u 2068｝、%u 202C｝和\u 2069｝使屏幕上的文本流在支持这些代码点的软件上改变了方向。这使得文本“abc”在屏幕上显示为“cba”。通过利用支持这些功能的软件，人们可以编写专门编写的文字，使周围的代码看起来像是在执行一个动作，而实际上它正在执行另一个动作。正因为如此，我们主动抵制他们的出现，以避免意外。</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -24079,16 +23060,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Statements which assign an expression to an underscore causes the
-expression to immediately drop instead of extending the expression's
-lifetime to the end of the scope. This is usually unintended,
-especially for types like MutexGuard, which are typically used to
-lock a mutex for the duration of an entire scope.
-If you want to extend the expression's lifetime to the end of the scope,
-assign an underscore-prefixed name (such as _foo) to the expression.
-If you do actually want to drop the expression immediately, then
-calling std::mem::drop on the expression is clearer and helps convey
-intent.</t>
+          <t>将表达式分配给下划线的语句会导致表达式立即删除，而不是将表达式的生存期延长到作用域的末尾。这通常是无意的，尤其是对于像MutexGuard这样的类型，它们通常用于在整个作用域的持续时间内锁定互斥。如果您想将表达式的生存期延长到作用域的末尾，请为表达式指定一个带下划线前缀的名称（如_foo）。如果您确实想立即删除表达式，然后对表达式调用std:：mem:：drop会更清晰，并有助于传递意图。</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -24128,16 +23100,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Statements which assign an expression to an underscore causes the
-expression to immediately drop instead of extending the expression's
-lifetime to the end of the scope. This is usually unintended,
-especially for types like MutexGuard, which are typically used to
-lock a mutex for the duration of an entire scope.
-If you want to extend the expression's lifetime to the end of the scope,
-assign an underscore-prefixed name (such as _foo) to the expression.
-If you do actually want to drop the expression immediately, then
-calling std::mem::drop on the expression is clearer and helps convey
-intent.</t>
+          <t>将表达式分配给下划线的语句会导致表达式立即删除，而不是将表达式的生存期延长到作用域的末尾。这通常是无意的，尤其是对于像MutexGuard这样的类型，它们通常用于在整个作用域的持续时间内锁定互斥。如果您想将表达式的生存期延长到作用域的末尾，请为表达式指定一个带下划线前缀的名称（如_foo）。如果您确实想立即删除表达式，然后对表达式调用std:：mem:：drop会更清晰，并有助于传递意图。</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -24173,7 +23136,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Mapping to () is almost always a mistake.</t>
+          <t>映射到（）几乎总是一个错误。</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -24208,11 +23171,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>The inner pointer of a CString lives only as long as the CString it
-points to. Getting the inner pointer of a temporary CString allows the CString
-to be dropped at the end of the statement, as it is not being referenced as far as the typesystem
-is concerned. This means outside of the statement the pointer will point to freed memory, which
-causes undefined behavior if the pointer is later dereferenced.</t>
+          <t>CString的内部指针只与它所指向的CString一样长。获取临时CString内部指针允许在语句末尾丢弃CString，因为就类型系统而言，它没有被引用。这意味着在语句之外，指针将指向释放的内存，如果以后取消引用指针，则会导致未定义的行为。</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -24240,10 +23199,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>To support upcasting with multiple supertraits, we need to store multiple vtables and this
-can result in extra space overhead, even if no code actually uses upcasting.
-This lint allows users to identify when such scenarios occur and to decide whether the
-additional overhead is justified.</t>
+          <t>为了支持具有多个超特性的上行，我们需要存储多个vtable，这可能会导致额外的空间开销，即使没有代码实际使用上行。这个lint允许用户识别何时发生这种情况，并决定额外的开销是否合理。</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -24272,11 +23228,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>The preferred style for these identifiers is to use "camel case", such
-as MyStruct, where the first letter should not be lowercase, and
-should not use underscores between letters. Underscores are allowed at
-the beginning and end of the identifier, as well as between
-non-letters (such as X86_64).</t>
+          <t>这些标识符的首选样式是使用“驼色大小写”，例如MyStruct，其中第一个字母不应为小写，并且字母之间不应使用下划线。允许在标识符的开头和结尾以及非字母之间使用下划线（如X86_64）。</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -24302,9 +23254,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>The preferred style for these identifiers is to use "snake case",
-where all the characters are in lowercase, with words separated with a
-single underscore, such as my_value.</t>
+          <t>这些标识符的首选样式是使用“snake case”，其中所有字符都是小写的，单词用一个下划线分隔，例如my_value。</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -24330,8 +23280,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>The preferred style is for static item names to use all uppercase
-letters such as MAX_POINTS.</t>
+          <t>静态项目名称的首选样式是使用所有大写字母，如MAX_POINTS。</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -24357,10 +23306,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>This lint allows projects that wish to retain the limit of only using
-ASCII characters to switch this lint to "forbid" (for example to ease
-collaboration or for security reasons).
-See RFC 2457 for more details.</t>
+          <t>此lint允许希望保留仅使用ASCII字符的限制的项目将此lint切换为“禁止”（例如，为了便于协作或出于安全原因）。有关更多详细信息，请参阅RFC 2457。</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -24390,15 +23336,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>This lint warns about using characters which are not commonly used, and may
-cause visual confusion.
-This lint is triggered by identifiers that contain a codepoint that is
-not part of the set of "Allowed" codepoints as described by Unicode®
-Technical Standard #39 Unicode Security Mechanisms Section 3.1 General
-Security Profile for Identifiers.
-Note that the set of uncommon codepoints may change over time. Beware
-that if you "forbid" this lint that existing code may fail in the
-future.</t>
+          <t>该lint警告不要使用不常用的字符，和可能导致视觉混乱。此lint是由包含不属于Unicode®技术标准#39 Unicode安全机制第3.1节标识符的通用安全配置文件所述的“允许”代码点集的代码点的标识符触发的。请注意，不常见代码点集可能会随时间变化。请注意，如果你“禁止”这个lint，那么现有的代码将来可能会失败。</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -24425,18 +23363,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>This lint warns when different identifiers may appear visually similar,
-which can cause confusion.
-The confusable detection algorithm is based on Unicode® Technical
-Standard #39 Unicode Security Mechanisms Section 4 Confusable
-Detection. For every distinct identifier X execute
-the function skeleton(X). If there exist two distinct identifiers X
-and Y in the same crate where skeleton(X) = skeleton(Y) report it.
-The compiler uses the same mechanism to check if an identifier is too
-similar to a keyword.
-Note that the set of confusable characters may change over time.
-Beware that if you "forbid" this lint that existing code may fail in
-the future.</t>
+          <t>当不同的标识符在视觉上可能相似时，此lint会发出警告，这可能会导致混淆。可混淆检测算法基于Unicode®技术标准#39 Unicode安全机制第4节可混淆检测。对于每个不同的标识符X，执行函数骨架（X）。如果在同一个机箱中存在两个不同的标识符Xan和Y，其中skeleton（X）=skeleton。</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -24465,17 +23392,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>This lint warns when characters between different scripts may appear
-visually similar, which can cause confusion.
-If the crate contains other identifiers in the same script that have
-non-confusable characters, then this lint will not be issued. For
-example, if the example given above has another identifier with
-katakana characters (such as let カタカナ = 123;), then this indicates
-that you are intentionally using katakana, and it will not warn about
-it.
-Note that the set of confusable characters may change over time.
-Beware that if you "forbid" this lint that existing code may fail in
-the future.</t>
+          <t>当不同脚本之间的字符看起来可能相似时，此lint会发出警告，这可能会导致混淆。如果板条箱在同一脚本中包含具有不可混淆字符的其他标识符，则不会发出此lint。例如，如果上面给出的例子有另一个带有片假名字符的标识符（例如letカタカナ = 123；），那么这表明你有意使用片假名，它不会对此发出警告。注意，易混淆的字符集可能会随着时间的推移而变化。注意，如果你“禁止”这个lint，现有的代码将来可能会失败。</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -24502,11 +23419,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>In Rust 2018 and earlier, panic!(x) directly uses x as the message.
-That means that panic!("{}") panics with the message "{}" instead
-of using it as a formatting string, and panic!(123) will panic with
-an i32 as message.
-Rust 2021 always interprets the first argument as format string.</t>
+          <t>在Rust 2018和更早的时候，恐慌！（x） 直接使用x作为消息。这意味着恐慌！（“｛｝”）对消息“｛}”感到恐慌，而不是将其用作格式化字符串，并且恐慌！（123）将以i32作为消息而死机。Rust 2021总是将第一个参数解释为格式字符串。</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -24533,11 +23446,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Some method calls are noops meaning that they do nothing. Usually such methods
-are the result of blanket implementations that happen to create some method invocations
-that end up not doing anything. For instance, Clone is implemented on all &amp;T, but
-calling clone on a &amp;T where T does not implement clone, actually doesn't do anything
-as references are copy. This lint detects these calls and warns the user about them.</t>
+          <t>有些方法调用是noop，这意味着它们什么都不做。通常，这样的方法是一揽子实现的结果，这些实现碰巧创建了一些方法调用，但最终什么都不做。例如，克隆在所有&amp;T上都实现了，但在一个&amp;T上调用克隆，其中T没有实现克隆，实际上什么都不做，因为引用是复制的。此lint检测到这些呼叫并向用户发出警告。</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -24567,8 +23476,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Since Foo doesn't implement Clone, running .clone() only dereferences the double
-reference, instead of cloning the inner type which should be what was intended.</t>
+          <t>由于Foo没有实现Clone，因此运行.Clone（）只会取消引用双引用，而不是克隆内部类型，这应该是预期的类型。</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -24597,11 +23505,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>This functionality was removed in #97346, but then rolled back in #99860
-because it caused regressions.
-We plan on reintroducing this as a hard error, but in the mean time,
-this lint serves to warn and suggest fixes for any use-cases which rely
-on this behavior.</t>
+          <t>这个功能在#97346中被删除，但后来在#99860中被回滚，因为它导致了倒退。我们计划将其作为一个硬错误重新引入，但同时，这个lint可以警告并建议修复任何依赖此行为的用例。</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -24646,8 +23550,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Extra semicolons are not needed, and may be removed to avoid confusion
-and visual clutter.</t>
+          <t>不需要额外的分号，可以删除分号以避免混淆和视觉混乱。</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -24673,22 +23576,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>A generic trait bound of the form T: Drop is most likely misleading
-and not what the programmer intended (they probably should have used
-std::mem::needs_drop instead).
-Drop bounds do not actually indicate whether a type can be trivially
-dropped or not, because a composite type containing Drop types does
-not necessarily implement Drop itself. Naïvely, one might be tempted
-to write an implementation that assumes that a type can be trivially
-dropped while also supplying a specialization for T: Drop that
-actually calls the destructor. However, this breaks down e.g. when T
-is String, which does not implement Drop itself but contains a
-Vec, which does implement Drop, so assuming T can be trivially
-dropped would lead to a memory leak here.
-Furthermore, the Drop trait only contains one method, Drop::drop,
-which may not be called explicitly in user code (E0040), so there is
-really no use case for using Drop in trait bounds, save perhaps for
-some obscure corner cases, which can use #[allow(drop_bounds)].</t>
+          <t>形式为T:Drop的泛型特征边界很可能是误导性的，而不是程序员想要的（他们可能应该使用std:：mem:：needs_Drop）。Drop边界实际上并不能指示一个类型是否可以被平凡地加氢，因为包含Drop类型的复合类型不一定实现Drop本身。天真的是，人们可能会被要求编写一个实现，该实现假设一个类型可以被平凡地水解，同时还为实际调用析构函数的T:Drop提供一个专门化。然而，这会崩溃，例如，当Tis-String本身不实现Drop，但包含aVec时，它确实实现了Drop，因此假设T可以被平凡地提取将导致这里的内存泄漏。此外，Drop特性只包含一个方法Drop:：Drop，它可能不会在用户代码（E0040）中显式调用，因此在特性边界中使用Drop实际上没有用例，也许可以为一些模糊的角点案例保存，它们可以使用#[allow（drop_bounds）]。</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -24714,20 +23602,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>A trait object bound of the form dyn Drop is most likely misleading
-and not what the programmer intended.
-Drop bounds do not actually indicate whether a type can be trivially
-dropped or not, because a composite type containing Drop types does
-not necessarily implement Drop itself. Naïvely, one might be tempted
-to write a deferred drop system, to pull cleaning up memory out of a
-latency-sensitive code path, using dyn Drop trait objects. However,
-this breaks down e.g. when T is String, which does not implement
-Drop, but should probably be accepted.
-To write a trait object bound that accepts anything, use a placeholder
-trait with a blanket implementation.
-trait Placeholder {}
-impl&lt;T&gt; Placeholder for T {}
-fn foo(_x: Box&lt;dyn Placeholder&gt;) {}</t>
+          <t>形式为dyn Drop的特征对象边界很可能是误导性的，而不是程序员想要的。Drop边界实际上并不能指示一个类型是否可以被平凡地加氢，因为包含Drop类型的复合类型不一定实现Drop本身。天真的是，人们可能会被要求编写一个延迟丢弃系统，使用dyn-drop特性对象将清理内存从对漏洞敏感的代码路径中取出。然而，这会崩溃，例如当T是String时，它没有实现Drop，但可能应该被接受。要编写一个接受任何东西的trait对象绑定，请使用一个带有一揽子实现的占位符trait</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -24753,8 +23628,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>A useless comparison may indicate a mistake, and should be fixed or
-removed.</t>
+          <t>一个无用的比较可能表明一个错误，应该修正或删除。</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -24782,9 +23656,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>It is usually a mistake to use a literal that overflows the type where
-it is used. Either use a literal that is within range, or change the
-type to be within the range of the literal.</t>
+          <t>使用溢出所用类型的文字通常是错误的。请使用在范围内的文字，或者将类型更改为在文字的范围内。</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -24810,16 +23682,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>It can be a mistake to add a variant to an enum that is much larger
-than the other variants, bloating the overall size required for all
-variants. This can impact performance and memory usage. This is
-triggered if one variant is more than 3 times larger than the
-second-largest variant.
-Consider placing the large variant's contents on the heap (for example
-via Box) to keep the overall size of the enum itself down.
-This lint is "allow" by default because it can be noisy, and may not be
-an actual problem. Decisions about this should be guided with
-profiling and benchmarking.</t>
+          <t>将一个变体添加到比其他变体大得多的枚举中可能是错误的，这会使所有变体所需的总体大小膨胀。这可能会影响性能和内存使用率。如果一个变量比第二大变量大3倍以上，就会触发这种情况。可以考虑将大变量的内容放在堆上（例如，levia Box），以保持枚举本身的整体大小。默认情况下，这个lint是“允许”的，因为它可能有噪声，并且可能不会产生实际问题。有关这方面的决策应以分析和基准测试为指导。</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -24849,12 +23712,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>The compiler has several checks to verify that types used in extern
-blocks are safe and follow certain rules to ensure proper
-compatibility with the foreign interfaces. This lint is issued when it
-detects a probable mistake in a definition. The lint usually should
-provide a description of the issue, along with possibly a hint on how
-to resolve it.</t>
+          <t>编译器有几个检查来验证外部块中使用的类型是否安全，并遵循某些规则以确保与外部接口的适当兼容性。当检测到定义中可能存在错误时，就会发出此lint。lint通常应该提供问题的描述，并可能提供如何解决问题的提示。</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -24882,11 +23740,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>There are many parameter and return types that may be specified in an
-extern function that are not compatible with the given ABI. This
-lint is an alert that these types should not be used. The lint usually
-should provide a description of the issue, along with possibly a hint
-on how to resolve it.</t>
+          <t>外部函数中可能指定了许多与给定ABI不兼容的参数和返回类型。Thislint是一个警告，不应使用这些类型。lint通常应该提供问题的描述，并可能提示如何解决问题。</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -24913,21 +23767,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Some atomic operations are only supported for a subset of the
-atomic::Ordering variants. Passing an unsupported variant will cause
-an unconditional panic at runtime, which is detected by this lint.
-This lint will trigger in the following cases: (where AtomicType is an
-atomic type from core::sync::atomic, such as AtomicBool,
-AtomicPtr, AtomicUsize, or any of the other integer atomics).
-Passing Ordering::Acquire or Ordering::AcqRel to
-AtomicType::store.
-Passing Ordering::Release or Ordering::AcqRel to
-AtomicType::load.
-Passing Ordering::Relaxed to core::sync::atomic::fence or
-core::sync::atomic::compiler_fence.
-Passing Ordering::Release or Ordering::AcqRel as the failure
-ordering for any of AtomicType::compare_exchange,
-AtomicType::compare_exchange_weak, or AtomicType::fetch_update.</t>
+          <t>某些原子操作仅支持atomic:：Ordering变体的一个子集。传递不受支持的变体将在运行时引发无条件的恐慌，此lint检测到的。此lint将在以下情况下触发：core:：sync:：atomic:：fence或core:：同步：：atomic：：compiler_fence。将排序：Release或排序：AcqRel作为AtomicType:：compare_exchange、AtomicType：：compare_exchange_weak或AtomicType:：fetch_update中任何一个的失败排序。</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -24956,8 +23796,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>The #[must_use] attribute is an indicator that it is a mistake to
-ignore the value. See the reference for more details.</t>
+          <t>#[must_use]属性表示忽略该值是错误的。有关更多详细信息，请参阅参考资料。</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -24988,17 +23827,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Ignoring the return value of a function may indicate a mistake. In
-cases were it is almost certain that the result should be used, it is
-recommended to annotate the function with the must_use attribute.
-Failure to use such a return value will trigger the unused_must_use
-lint which is warn-by-default. The unused_results lint is
-essentially the same, but triggers for all return values.
-This lint is "allow" by default because it can be noisy, and may not be
-an actual problem. For example, calling the remove method of a Vec
-or HashMap returns the previous value, which you may not care about.
-Using this lint would require explicitly ignoring or discarding such
-values.</t>
+          <t>忽略函数的返回值可能表示错误。如果几乎可以确定应该使用结果，建议使用must_use属性对函数进行注释。如果不使用这样的返回值，将触发unused_must_userint，默认情况下会发出警告。unused_results lint本质上是相同的，但会触发所有返回值。默认情况下，这个lint是“允许”的，因为它可能有噪音，而且可能不是真正的问题。例如，调用VecorHashMap的remove方法会返回上一个值，您可能不关心这个值。使用这个lint需要显式忽略或丢弃这些值。</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -25028,7 +23857,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>It is usually a mistake to have a statement that has no effect.</t>
+          <t>发表一个没有效果的声明通常是错误的。</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -25055,8 +23884,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>The parentheses are not needed, and should be removed. This is the
-preferred style for writing these expressions.</t>
+          <t>括号是不需要的，应该删除。这是编写这些表达式的首选样式。</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -25082,8 +23910,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>The braces are not needed, and should be removed. This is the
-preferred style for writing these expressions.</t>
+          <t>不需要支架，应将其拆下。这是编写这些表达式的首选样式。</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -25111,10 +23938,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>If there is only a single item, then remove the braces (use test::A;
-for example).
-This lint is "allow" by default because it is only enforcing a
-stylistic choice.</t>
+          <t>如果只有一个项目，那么删除大括号（例如，使用test:：a）。这个lint默认为“允许”，因为它只是强制执行astylistic选项。</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -25145,9 +23969,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>When a box expression is immediately coerced to a reference, then
-the allocation is unnecessary, and a reference (using &amp; or &amp;mut)
-should be used instead to avoid the allocation.</t>
+          <t>当一个box表达式被立即强制到一个引用时，那么分配是不必要的，应该使用一个引用（使用&amp;或&amp;mut）来避免分配。</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -25175,10 +23997,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Due to a compiler bug, applying forbid to lint groups
-previously had no effect. The bug is now fixed but instead of
-enforcing forbid we issue this future-compatibility warning
-to avoid breaking existing crates.</t>
+          <t>由于编译器的错误，对lint组应用禁止显然没有效果。这个错误现在已经修复，但我们没有强制禁止，而是发布这个未来的兼容性警告，以避免破坏现有的板条箱。</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -25206,13 +24025,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Previously, inputs for many built-in attributes weren't validated and
-nonsensical attribute inputs were accepted. After validation was
-added, it was determined that some existing projects made use of these
-invalid forms. This is a future-incompatible lint to transition this
-to a hard error in the future. See issue #57571 for more details.
-Check the attribute reference for details on the valid inputs for
-attributes.</t>
+          <t>以前，许多内置属性的输入没有经过验证，并且接受了无意义的属性输入。经过验证后，确定一些现有项目使用了这些无效表格。这是一个未来不兼容的皮棉，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第57571期。有关属性的有效输入，请查看属性引用。</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -25239,10 +24052,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>The compiler incorrectly accepted these conflicting representations in
-the past. This is a future-incompatible lint to transition this to a
-hard error in the future. See issue #68585 for more details.
-To correct the issue, remove one of the conflicting hints.</t>
+          <t>编译器过去错误地接受了这些相互冲突的表示。这是一个未来不兼容的lint，以便在未来将其转换为一个hard错误。有关更多详细信息，请参阅问题#68585。若要更正此问题，请删除其中一个冲突提示。</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -25271,12 +24081,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>There are quite a few different ways a macro_rules macro can be
-improperly defined. Many of these errors were previously only detected
-when the macro was expanded or not at all. This lint is an attempt to
-catch some of these problems when the macro is defined.
-This lint is "allow" by default because it may have false positives
-and other issues. See issue #61053 for more details.</t>
+          <t>macro_rules宏有很多不同的定义方式。这些错误中的许多以前只有在宏被扩展或根本没有被扩展时才被检测到。此lint是在定义宏时尝试发现其中一些问题。此lint默认为“允许”，因为它可能存在误报和其他问题。有关更多详细信息，请参阅第61053期。</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -25309,20 +24114,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>The include! macro is currently only intended to be used to
-include a single expression or multiple items. Historically it
-would ignore any contents after the first expression, but that can be
-confusing. In the example above, the println! expression ends just
-before the semicolon, making the semicolon "extra" information that is
-ignored. Perhaps even more surprising, if the included file had
-multiple print statements, the subsequent ones would be ignored!
-One workaround is to place the contents in braces to create a block
-expression. Also consider alternatives, like using functions to
-encapsulate the expressions, or use proc-macros.
-This is a lint instead of a hard error because existing projects were
-found to hit this error. To be cautious, it is a lint for now. The
-future semantics of the include! macro are also uncertain, see
-issue #35560.</t>
+          <t>包括！宏当前仅用于包含单个表达式或多个项。从历史上看，它会忽略第一个表达式之后的任何内容，但这可能会造成混淆。在上面的例子中，println！表达式在分号之前结束，使分号成为被忽略的“额外”信息。也许更令人惊讶的是，如果包含的文件有多个print语句，那么后面的语句将被忽略！一种解决方法是将内容放在大括号中以创建块表达式。还要考虑其他选择，比如使用函数来封装表达式，或者使用proc-macros。这是一个lint错误，而不是一个硬错误，因为发现现有项目遇到了这个错误。需要谨慎的是，这只是暂时的问题。include的未来语义！宏观经济也不确定，见第35560号问题。</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -25360,11 +24152,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>It is very likely a mistake to perform an arithmetic operation that
-overflows its value. If the compiler is able to detect these kinds of
-overflows at compile-time, it will trigger this lint. Consider
-adjusting the expression to avoid overflow, or use a data type that
-will not overflow.</t>
+          <t>执行溢出其值的算术运算很可能是错误的。若编译器能够在编译时检测到这些类型的溢出，它将触发这个lint。考虑调整表达式以避免溢出，或者使用不会溢出的数据类型。</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -25390,10 +24178,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>This lint detects code that is very likely incorrect because it will
-always panic, such as division by zero and out-of-bounds array
-accesses. Consider adjusting your code if this is a bug, or using the
-panic! or unreachable! macro instead in case the panic is intended.</t>
+          <t>这个lint检测到很可能不正确的代码，因为它总是会死机，比如除以零和越界数组处理。如果这是一个bug，请考虑调整您的代码，或者使用anic！或无法访问！宏，以防恐慌。</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -25420,10 +24205,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Unused imports may signal a mistake or unfinished code, and clutter
-the code, and should be removed. If you intended to re-export the item
-to make it available outside of the module, add a visibility modifier
-like pub.</t>
+          <t>未使用的导入可能表示错误或未完成的代码，并扰乱代码，因此应该删除。如果您打算重新导出项以使其在模块之外可用，请添加一个可见性修饰符，如pub。</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -25449,13 +24231,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>The must_not_suspend lint detects values that are marked with the #[must_not_suspend]
-attribute being held across suspend points. A "suspend" point is usually a .await in an async
-function.
-This attribute can be used to mark values that are semantically incorrect across suspends
-(like certain types of timers), values that have async alternatives, and values that
-regularly cause problems with the Send-ness of async fn's returned futures (like
-MutexGuard's)</t>
+          <t>must_not_suspend lint检测标记有#[must_not_suspend]属性的值，该属性在挂起点之间保持。“suspend”点通常是asyncfunction中的.await。此属性可用于标记在suspend中语义不正确的值（如某些类型的计时器）、具有异步替代项的值以及经常导致async-fn返回的futures的发送性问题的值（例如MutexGuard）</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -25489,17 +24265,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>extern crate items that are unused have no effect and should be
-removed. Note that there are some cases where specifying an extern crate is desired for the side effect of ensuring the given crate is
-linked, even though it is not otherwise directly referenced. The lint
-can be silenced by aliasing the crate to an underscore, such as
-extern crate foo as _. Also note that it is no longer idiomatic to
-use extern crate in the 2018 edition, as extern crates are now
-automatically added in scope.
-This lint is "allow" by default because it can be noisy, and produce
-false-positives. If a dependency is being removed from a project, it
-is recommended to remove it from the build configuration (such as
-Cargo.toml) to ensure stale build entries aren't left behind.</t>
+          <t>未使用的外部板条箱物品没有任何影响，应予以移除。请注意，在某些情况下，为了确保给定的板条箱被链接的副作用，即使没有直接引用，也需要指定外部板条箱。lint可以通过将crate别名为下划线来静音，例如_之类的xtern crate foo。还要注意的是，在2018年的版本中，它不再是惯用的外部板条箱，因为外部板条箱现在自动添加到范围中。默认情况下，这个皮棉是“允许”的，因为它可能会发出噪音，并产生假阳性。如果要从项目中删除依赖项，建议将其从构建配置（如Cargo.toml）中删除，以确保不会留下过时的构建条目。</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -25527,20 +24293,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>After removing the code that uses a dependency, this usually also
-requires removing the dependency from the build configuration.
-However, sometimes that step can be missed, which leads to time wasted
-building dependencies that are no longer used. This lint can be
-enabled to detect dependencies that are never used (more specifically,
-any dependency passed with the --extern command-line flag that is
-never referenced via use, extern crate, or in any path).
-This lint is "allow" by default because it can provide false positives
-depending on how the build system is configured. For example, when
-using Cargo, a "package" consists of multiple crates (such as a
-library and a binary), but the dependencies are defined for the
-package as a whole. If there is a dependency that is only used in the
-binary, but not the library, then the lint will be incorrectly issued
-in the library.</t>
+          <t>删除使用依赖项的代码后，通常还需要从生成配置中删除依赖项。但是，有时可能会错过这一步骤，从而导致生成不再使用的依赖项，从而浪费时间。此lint可以检测从未使用过的依赖项（更具体地说，任何通过use、extern crate或任何路径引用的带有--extern命令行标志的依赖项）。此lint默认为“允许”，因为它可以根据构建系统的配置方式提供假阳性。例如，当使用Cargo时，一个“包裹”由多个板条箱组成（例如不合格品和二进制），但依赖关系是为整个包裹定义的。如果有一个依赖项只在二进制中使用，而在库中没有使用，那么lint将在库中错误地发出。</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -25574,12 +24327,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>If an item from another module is already brought into scope, then
-there is no need to qualify it in this case. You can call bar()
-directly, without the foo::.
-This lint is "allow" by default because it is somewhat pedantic, and
-doesn't indicate an actual problem, but rather a stylistic choice, and
-can be noisy when refactoring or moving around code.</t>
+          <t>如果来自另一个模块的项目已经进入范围，那么在这种情况下就不需要对其进行限定。你可以直接调用bar（），不需要foo:：。这个lint在默认情况下是“允许”的，因为它有点迂腐，并不表示实际的问题，而是一种风格选择，并且在重构或移动代码时可能会很吵。</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -25612,10 +24360,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>It is usually a mistake to specify a lint that does not exist. Check
-the spelling, and check the lint listing for the correct name. Also
-consider if you are using an old version of the compiler, and the lint
-is only available in a newer version.</t>
+          <t>指定不存在的皮棉通常是错误的。检查拼写，并检查lint列表中的正确名称。如果您使用的是旧版本的编译器，而lint仅在新版本中可用，则使用Alsoconsider。</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -25641,15 +24386,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>It was expected that the marked code would emit a lint. This expectation
-has not been fulfilled.
-The expect attribute can be removed if this is intended behavior otherwise
-it should be investigated why the expected lint is no longer issued.
-In rare cases, the expectation might be emitted at a different location than
-shown in the shown code snippet. In most cases, the #[expect] attribute
-works when added to the outer scope. A few lints can only be expected
-on a crate level.
-Part of RFC 2383. The progress is being tracked in #54503</t>
+          <t>预计标记的代码会发出一个lint。此预期尚未实现。如果这是预期行为，则可以删除expect属性，否则应调查不再发出预期lint的原因。在极少数情况下，预期可能会在与所示代码段中显示的位置不同的位置发出。在大多数情况下，#[expect]属性在添加到外部作用域时起作用。在一个板条箱级别上只能预期几个短绒。RFC 2383的一部分。54503号中正在跟踪进度</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -25678,9 +24415,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Unused variables may signal a mistake or unfinished code. To silence
-the warning for the individual variable, prefix it with an underscore
-such as _x.</t>
+          <t>未使用的变量可能表示错误或代码未完成。要使单个变量的警告静音，请在其前面加一个下划线，如_x。</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -25706,10 +24441,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Unused assignments may signal a mistake or unfinished code. If the
-variable is never used after being assigned, then the assignment can
-be removed. Variables with an underscore prefix such as _x will not
-trigger this lint.</t>
+          <t>未使用的赋值可能表示错误或代码未完成。如果变量在赋值后从未使用过，则可以删除赋值。带有下划线前缀的变量（如_x）不会触发此lint。</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -25736,11 +24468,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Dead code may signal a mistake or unfinished code. To silence the
-warning for individual items, prefix the name with an underscore such
-as _foo. If it was intended to expose the item outside of the crate,
-consider adding a visibility modifier like pub. Otherwise consider
-removing the unused code.</t>
+          <t>死代码可能表示一个错误或未完成的代码。要使单个项目的警告静音，请在名称前面加下划线，如_foo。如果打算将物品暴露在板条箱之外，可以考虑添加一个可见性修饰符，如pub。否则，请考虑删除未使用的代码。</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -25766,13 +24494,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Unused attributes may indicate the attribute is placed in the wrong
-position. Consider removing it, or placing it in the correct position.
-Also consider if you intended to use an inner attribute (with a !
-such as #![allow(unused)]) which applies to the item the attribute
-is within, or an outer attribute (without a ! such as
-#[allow(unused)]) which applies to the item following the
-attribute.</t>
+          <t>未使用的属性可能表明该属性被放置在错误的位置。请考虑将其删除或放置在正确的位置。还要考虑您是打算使用应用于属性所在项的内部属性（带！，如#！[allow（unused）]），还是要使用应用于该属性后面项的外部属性（不带！，例如#[allow）]）。</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -25798,10 +24520,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Tuple struct fields that are never read anywhere may indicate a
-mistake or unfinished code. To silence this warning, consider
-removing the unused field(s) or, to preserve the numbering of the
-remaining fields, change the unused field(s) to have unit type.</t>
+          <t>从不在任何地方读取的元组结构字段可能指示错误或未完成的代码。若要使此警告静音，请考虑移动未使用的字段，或者，若要保留保留字段的编号，请将未使用字段更改为单位类型。</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -25830,8 +24549,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Unreachable code may signal a mistake or unfinished code. If the code
-is no longer in use, consider removing it.</t>
+          <t>无法访问的代码可能是错误或未完成代码的信号。如果该代码不再使用，请考虑将其删除。</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -25858,10 +24576,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>This usually indicates a mistake in how the patterns are specified or
-ordered. In this example, the y pattern will always match, so the
-five is impossible to reach. Remember, match arms match in order, you
-probably wanted to put the 5 case above the y case.</t>
+          <t>这通常表明图案的指定或排列方式存在错误。在本例中，y模式将始终匹配，因此无法达到ve。记住，按顺序匹配武器，你可能想把5号箱子放在y号箱子上方。</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -25891,9 +24606,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>It is likely a mistake to have range patterns in a match expression that overlap in this
-way. Check that the beginning and end values are what you expect, and keep in mind that
-with ..= the left and right bounds are inclusive.</t>
+          <t>匹配表达式中的范围模式以这种方式重叠可能是错误的。检查起始值和结束值是否符合您的期望，并记住使用..=左边界和右边界是包含的。</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
@@ -25923,16 +24636,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>It is usually a mistake to specify an enum variant name as an
-identifier pattern. In the example above, the match arms are
-specifying a variable name to bind the value of x to. The second arm
-is ignored because the first one matches all values. The likely
-intent is that the arm was intended to match on the enum variant.
-Two possible solutions are:
-Specify the enum variant using a path pattern, such as
-Enum::Foo.
-Bring the enum variants into local scope, such as adding use Enum::*; to the beginning of the foo function in the example
-above.</t>
+          <t>将枚举变体名称指定为标识符模式通常是错误的。在上面的例子中，匹配arms指定了一个变量名来将x值绑定到。第二个armis被忽略，因为第一个armis匹配所有值。可能的意图是arm打算在枚举变体上匹配。两种可能的解决方案是：使用路径模式指定枚举变体，例如enum:：Foo。将枚举变体绑定到本地范围，例如添加use enum:；到上面示例中foo函数的开头。</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -25967,10 +24671,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Unused macros may signal a mistake or unfinished code. To silence the
-warning for the individual macro, prefix the name with an underscore
-such as _my_macro. If you intended to export the macro to make it
-available outside of the crate, use the macro_export attribute.</t>
+          <t>未使用的宏可能表示错误或代码未完成。要使单个宏的警告静音，请在名称前面加一个下划线，如_my_macro。如果要导出宏以使其在机箱外可用，请使用macro_export属性。</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -26000,12 +24701,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Unused macro rules may signal a mistake or unfinished code. Furthermore,
-they slow down compilation. Right now, silencing the warning is not
-supported on a single rule level, so you have to add an allow to the
-entire macro definition.
-If you intended to export the macro to make it
-available outside of the crate, use the macro_export attribute.</t>
+          <t>未使用的宏规则可能表示错误或代码未完成。此外，它们会减慢编译速度。目前，在单个规则级别上不支持静音警告，因此您必须在整个宏定义中添加一个allow。如果您打算导出宏以使其在机箱外可用，请使用macro_export属性。</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -26038,10 +24734,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>The warnings lint is a bit special; by changing its level, you
-change every other warning that would produce a warning to whatever
-value you'd like. As such, you won't ever trigger this lint in your
-code directly.</t>
+          <t>警告lint有点特别；通过更改其级别，您可以将每一个会产生警告的警告更改为您想要的任何值。因此，您永远不会直接在代码中触发此lint。</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -26086,9 +24779,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>When a feature is stabilized, it is no longer necessary to include a
-#![feature] attribute for it. To fix, simply remove the
-#![feature] attribute.</t>
+          <t>当功能稳定后，就不再需要包含#！[feature]属性。要修复此问题，只需删除#！[feature]属性。</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -26115,8 +24806,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>An unknown value give to the crate_type attribute is almost
-certainly a mistake.</t>
+          <t>给crate_type属性一个未知的值几乎肯定是一个错误。</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -26143,17 +24833,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>A trivial cast is a cast e as T where e has type U and U is a
-subtype of T. This type of cast is usually unnecessary, as it can be
-usually be inferred.
-This lint is "allow" by default because there are situations, such as
-with FFI interfaces or complex type aliases, where it triggers
-incorrectly, or in situations where it will be more difficult to
-clearly express the intent. It may be possible that this will become a
-warning in the future, possibly with an explicit syntax for coercions
-providing a convenient way to work around the current issues.
-See RFC 401 (coercions), RFC 803 (type ascription) and
-RFC 3307 (remove type ascription) for historical context.</t>
+          <t>琐碎的强制转换是将e强制转换为T，其中e的类型为U，U的类型为T。通常可以推断出，这种类型的强制转换通常是不必要的。默认情况下，这个lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂类型别名时，它会正确触发，或者在更难清楚地表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -26181,16 +24861,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>A trivial numeric cast is a cast of a numeric type to the same numeric
-type. This type of cast is usually unnecessary.
-This lint is "allow" by default because there are situations, such as
-with FFI interfaces or complex type aliases, where it triggers
-incorrectly, or in situations where it will be more difficult to
-clearly express the intent. It may be possible that this will become a
-warning in the future, possibly with an explicit syntax for coercions
-providing a convenient way to work around the current issues.
-See RFC 401 (coercions), RFC 803 (type ascription) and
-RFC 3307 (remove type ascription) for historical context.</t>
+          <t>琐碎的数字强制转换是将一个数字类型强制转换为相同的数字类型。这种类型的强制转换通常是不必要的。默认情况下，此lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂类型别名时，它会正确触发，或者在更难清楚地表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -26217,10 +24888,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>The visibility rules are intended to prevent exposing private items in
-public interfaces. This is a future-incompatible lint to transition
-this to a hard error in the future. See issue #34537 for more
-details.</t>
+          <t>可见性规则旨在防止在公共接口中暴露私有项。这是一个未来不兼容的lint，它将在未来转变为一个硬错误。有关更多详细信息，请参阅第34537期。</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -26254,12 +24922,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>The compiler allowed dereferencing raw pointers irrespective of alignment
-during const eval due to the const evaluator at the time not making it easy
-or cheap to check. Now that it is both, this is not accepted anymore.
-Since it was undefined behaviour to begin with, this breakage does not violate
-Rust's stability guarantees. Using undefined behaviour can cause arbitrary
-behaviour, including failure to build.</t>
+          <t>编译器允许在常量求值期间取消引用原始指针，而不考虑对齐，因为当时的常量计算器不便于检查或检查成本低。既然两者都是，这就不再被接受了。由于一开始这是一种未定义的行为，这种破坏并不违反Rust的稳定性保证。使用未定义的行为可能导致任意行为，包括构建失败。</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -26292,16 +24955,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Dependencies can be marked as "private" to indicate that they are not
-exposed in the public interface of a crate. This can be used by Cargo
-to independently resolve those dependencies because it can assume it
-does not need to unify them with other packages using that same
-dependency. This lint is an indication of a violation of that
-contract.
-To fix this, avoid exposing the dependency in your public interface.
-Or, switch the dependency to a public dependency.
-Note that support for this is only available on the nightly channel.
-See RFC 1977 for more details, as well as the Cargo documentation.</t>
+          <t>依赖项可以标记为“私有”，表示它们不会在机箱的公共接口中导出。货航可以使用它来独立解决这些依赖关系，因为它可以假设不需要将它们与使用相同依赖关系的其他包统一。此lint表示违反了该约定。要解决此问题，请避免在公共接口中暴露依赖项。或者，将依赖项切换为公共依赖项。请注意，仅在夜间频道上提供对此的支持。有关更多详细信息，请参阅RFC 1977以及Cargo文档。</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -26337,12 +24991,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>A public use declaration should not be used to publicly re-export a
-private extern crate. pub extern crate should be used instead.
-This was historically allowed, but is not the intended behavior
-according to the visibility rules. This is a future-incompatible
-lint to transition this to a hard error in the future. See issue
-#34537 for more details.</t>
+          <t>公共用途声明不应用于公开再出口aprivate外部板条箱。应该使用pub-externate。这在历史上是允许的，但根据可见性规则，这不是预期的行为。这是一个不可兼容的未来，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第34537期。</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -26369,10 +25018,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Default type parameters were only intended to be allowed in certain
-situations, but historically the compiler allowed them everywhere.
-This is a future-incompatible lint to transition this to a hard
-error in the future. See issue #36887 for more details.</t>
+          <t>默认类型参数只在某些情况下被允许，但从历史上看，编译器在任何地方都允许它们。这是一个未来不兼容的lint，将来会将其转换为硬错误。有关更多详细信息，请参阅第36887期。</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -26398,9 +25044,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>To fix this, either remove the lint or use the new name. This can help
-avoid confusion about lints that are no longer valid, and help
-maintain consistency for renamed lints.</t>
+          <t>要解决此问题，请删除皮棉或使用新名称。这有助于避免对不再有效的lint产生混淆，并有助于保持重命名的lint的一致性。</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -26426,36 +25070,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Trying to directly mutate a const item is almost always a mistake.
-What is happening in the example above is that a temporary copy of the
-const is mutated, but the original const is not. Each time you
-refer to the const by name (such as FOO in the example above), a
-separate copy of the value is inlined at that location.
-This lint checks for writing directly to a field (FOO.field = some_value) or array entry (FOO[0] = val), or taking a mutable
-reference to the const item (&amp;mut FOO), including through an
-autoderef (FOO.some_mut_self_method()).
-There are various alternatives depending on what you are trying to
-accomplish:
-First, always reconsider using mutable globals, as they can be
-difficult to use correctly, and can make the code more difficult to
-use or understand.
-If you are trying to perform a one-time initialization of a global:
-If the value can be computed at compile-time, consider using
-const-compatible values (see Constant Evaluation).
-For more complex single-initialization cases, consider using a
-third-party crate, such as lazy_static or once_cell.
-If you are using the [nightly channel], consider the new
-lazy module in the standard library.
-If you truly need a mutable global, consider using a static,
-which has a variety of options:
-Simple data types can be directly defined and mutated with an
-atomic type.
-More complex types can be placed in a synchronization primitive
-like a Mutex, which can be initialized with one of the options
-listed above.
-A mutable static is a low-level primitive, requiring unsafe.
-Typically This should be avoided in preference of something
-higher-level like one of the above.</t>
+          <t>试图直接变异const项几乎总是一个错误。上面的例子中发生的情况是，const的临时副本发生了变异，但原始const没有。每次按名称引用const（如上例中的FOO）时，该值的一个单独副本都会在该位置内联。此lint检查是否直接写入字段（FOO.field=some_value）或数组项（FOO[0]=val），或获取const项的可变引用（&amp;mut FOO），包括通过anautoderef（FOO.some_mut_self_method（））。根据您试图实现的内容，有各种替代方案：首先，始终重新考虑使用可变全局变量，因为它们很难正确使用，并且会使代码更难使用或理解。如果您试图对全局变量执行一次性初始化：如果值可以在编译时计算，考虑使用const兼容的值（请参阅Constant Evaluation）。对于更复杂的单次初始化情况，请考虑使用第三方机箱，如lazy_static或once_cell。如果您使用的是夜间通道，请考虑标准库中的newlazy模块。如果您真的需要一个可变的全局，它有多种选项：简单的数据类型可以直接定义，并与解剖类型一起突变。更复杂的类型可以放在同步原语中，如Mutex，可以用上面列出的选项之一初始化。可变静态是一种低级原语，需要不安全。通常，应该避免这种情况，而不是像上面列出的更高级别的类型。</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -26486,23 +25101,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>To fix this, remove mut from the parameter in the trait definition;
-it can be used in the implementation. That is, the following is OK:
-trait Trait {
-    fn foo(arg: u8); // Removed `mut` here
-}
-impl Trait for i32 {
-    fn foo(mut arg: u8) { // `mut` here is OK
-    }
-}
-Trait definitions can define functions without a body to specify a
-function that implementors must define. The parameter names in the
-body-less functions are only allowed to be _ or an identifier for
-documentation purposes (only the type is relevant). Previous versions
-of the compiler erroneously allowed identifier patterns with the
-mut keyword, but this was not intended to be allowed. This is a
-future-incompatible lint to transition this to a hard error in the
-future. See issue #35203 for more details.</t>
+          <t>要解决此问题，请从特征定义中的参数中删除mut；它可以在实现中使用。也就是说，以下内容是可以的：trait trait{fn foo（arg:u8）；//删除了i32的impl trait{fn foo。无正文函数中的参数名称只能是_或用于文档目的的标识符（只有类型是相关的）。以前版本的编译器错误地允许使用out关键字的标识符模式，但这是不允许的。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第35203期。</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -26530,13 +25129,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>To fix this, remove the unused pattern from the macro_rules! macro definition:
-macro_rules! foo {
-    () =&gt; {};
-}
-fn main() {
-    foo!();
-}</t>
+          <t>要解决此问题，请从macro_rules中删除未使用的模式！宏定义：macro_rules！foo｛（）=&gt;｛｝；｝fn main（）｛foo！（）；｝</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -26568,14 +25161,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>It is not clear how to provide arguments for early-bound lifetime
-parameters if they are intermixed with late-bound parameters in the
-same list. For now, providing any explicit arguments will trigger this
-lint if late-bound parameters are present, so in the future a solution
-can be adopted without hitting backward compatibility issues. This is
-a future-incompatible lint to transition this to a hard error in the
-future. See issue #42868 for more details, along with a description
-of the difference between early and late-bound parameters.</t>
+          <t>如果早期绑定的lifetime参数与同一列表中的后期绑定参数混合，则不清楚如何为它们提供参数。目前，如果存在后期绑定参数，提供任何显式参数都会触发thislint，因此在未来可以采用解决方案，而不会遇到向后兼容性问题。这是未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第42868期，以及早期和晚期绑定参数之间的差异说明。</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -26607,12 +25193,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>A previous bug caused the compiler to interpret traits with different
-orders (such as Send + Sync and Sync + Send) as distinct types
-when they were intended to be treated the same. This allowed code to
-define separate trait implementations when there should be a coherence
-error. This is a future-incompatible lint to transition this to a
-hard error in the future. See issue #56484 for more details.</t>
+          <t>以前的一个错误导致编译器将具有不同标识符的特征（如Send+Sync和Sync+Send）解释为不同的类型，而它们本应被相同对待。这允许代码在出现一致性错误时定义单独的特征实现。这是一个未来不兼容的lint，以便在未来将其转换为一个hard错误。有关更多详细信息，请参阅第56484期。</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -26640,15 +25221,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>In the past, the compiler would accept trait implementations for
-identical functions that differed only in where the lifetime binder
-appeared. Due to a change in the borrow checker implementation to fix
-several bugs, this is no longer allowed. However, since this affects
-existing code, this is a future-incompatible lint to transition this
-to a hard error in the future.
-Code relying on this pattern should introduce "newtypes",
-like struct Foo(for&lt;'a&gt; fn(&amp;'a u8)).
-See issue #56105 for more details.</t>
+          <t>在过去，编译器会接受相同函数的特征实现，这些函数的不同之处仅在于存在生存期绑定。由于借用检查器实现中的更改修复了几个错误，因此不再允许这样做。然而，由于这影响了代码的性别，这是一个未来不兼容的lint，将其转换为未来的一个硬错误。依赖于此模式的代码应该引入“新类型”，如structFoo（用于&lt;'a&gt;fn（&amp;'au8））。有关更多详细信息，请参阅第56105期。</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -26676,10 +25249,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Items may be marked "deprecated" with the deprecated attribute to
-indicate that they should no longer be used. Usually the attribute
-should include a note on what to use instead, or check the
-documentation.</t>
+          <t>项目可以用“弃用”属性标记为“弃用”，以表示不应再使用它们。通常，属性应该包括一个关于使用什么的注释，或者检查文档。</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -26709,8 +25279,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>If nothing within the block requires unsafe, then remove the
-unsafe marker because it is not required and may cause confusion.</t>
+          <t>如果块中没有任何内容要求不安全，则删除不安全标记，因为它不是必需的，可能会造成混乱。</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -26736,8 +25305,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>The preferred style is to only mark variables as mut if it is
-required.</t>
+          <t>首选样式是仅在需要时将变量标记为mut。</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -26763,9 +25331,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>It is usually a mistake to have a recursive call that does not have
-some condition to cause it to terminate. If you really intend to have
-an infinite loop, using a loop expression is recommended.</t>
+          <t>如果递归调用不具有导致其终止的条件，则通常是错误的。如果您真的想要一个无限循环，建议使用循环表达式。</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -26793,15 +25359,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Specifying an explicit lifetime like 'a in a function or impl
-should only be used to link together two things. Otherwise, you should
-just use '_ to indicate that the lifetime is not linked to anything,
-or elide the lifetime altogether if possible.
-This lint is "allow" by default because it was introduced at a time
-when '_ and elided lifetimes were first being introduced, and this
-lint would be too noisy. Also, there are some known false positives
-that it produces. See RFC 2115 for historical context, and issue
-#44752 for more details.</t>
+          <t>在函数或impl中指定类似“a”的显式生存期只能用于将两件事链接在一起。否则，你应该只使用'_来表示生存期与任何东西都没有关联，或者如果可能的话，完全取消生存期。这个lint默认为“允许”，因为它是在首次引入'_和取消的生存期时引入的，而这个lint太吵了。此外，它还产生了一些已知的假阳性。有关历史上下文，请参阅RFC 2115，有关更多详细信息，请参阅#44752。</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -26828,8 +25386,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Unused lifetime parameters may signal a mistake or unfinished code.
-Consider removing the parameter.</t>
+          <t>未使用的生存期参数可能表示错误或代码未完成。请考虑删除该参数。</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -26856,14 +25413,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>This kind of inference was previously allowed, but with the future
-arrival of arbitrary self types, this can introduce ambiguity. To
-resolve this, use an explicit type instead of relying on type
-inference.
-This is a future-incompatible lint to transition this to a hard
-error in the 2018 edition. See issue #46906 for more details. This
-is currently a hard-error on the 2018 edition, and is "warn" by
-default in the 2015 edition.</t>
+          <t>这种推理以前是允许的，但由于未来任意自我类型的竞争对手，这可能会引入歧义。为了解决这个问题，请使用显式类型，而不是依赖类型推理。这是一个未来不兼容的lint，可以在2018年版本中将其转换为硬错误。有关更多详细信息，请参阅第46906期。这在2018版中是一个严重错误，在2015版中默认为“警告”。</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -26892,12 +25442,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Elided lifetime parameters can make it difficult to see at a glance
-that borrowing is occurring. This lint ensures that lifetime
-parameters are always explicitly stated, even if it is the '_
-placeholder lifetime.
-This lint is "allow" by default because it has some known issues, and
-may require a significant transition for old code.</t>
+          <t>被排除的寿命参数可能会使人们很难在一个节点上看到借款的发生。此lint确保始终显式声明lifetimeparameters，即使它是“_placeholder lifetime”。此lint默认为“允许”，因为它存在一些已知问题，并且可能需要对旧代码进行重大转换。</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -26929,10 +25474,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Without the dyn indicator, it can be ambiguous or confusing when
-reading code as to whether or not you are looking at a trait object.
-The dyn keyword makes it explicit, and adds a symmetry to contrast
-with impl Trait.</t>
+          <t>如果没有dyn指示符，在阅读代码时，你是否在看一个trait对象可能会感到模糊或困惑。dyn关键字使其明确，并增加了与impl trait对比的对称性。</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -26960,22 +25502,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Rust editions allow the language to evolve without breaking
-backwards compatibility. This lint catches code that uses absolute
-paths in the style of the 2015 edition. In the 2015 edition, absolute
-paths (those starting with ::) refer to either the crate root or an
-external crate. In the 2018 edition it was changed so that they only
-refer to external crates. The path prefix crate:: should be used
-instead to reference items from the crate root.
-If you switch the compiler from the 2015 to 2018 edition without
-updating the code, then it will fail to compile if the old style paths
-are used. You can manually change the paths to use the crate::
-prefix to transition to the 2018 edition.
-This lint solves the problem automatically. It is "allow" by default
-because the code is perfectly valid in the 2015 edition. The cargo fix tool with the --edition flag will switch this lint to "warn"
-and automatically apply the suggested fix from the compiler. This
-provides a completely automated way to update old code to the 2018
-edition.</t>
+          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。这个lint捕获了2015年版本风格中使用绝对值的代码。在2015年的版本中，absolutepaths（以：开头的）指的是板条箱根或外部板条箱。在2018年的版本中，它被更改为仅指外部板条箱。应该使用路径前缀crate:：来引用来自crate根目录的项。如果您在不更新代码的情况下将编译器从2015版切换到2018版，那么如果使用旧式路径，它将无法编译。您可以手动更改路径以使用crate:：前缀转换到2018版本。此lint自动解决了问题。默认情况下它是“允许”的，因为该代码在2015版本中完全有效。带有--edition标志的货物修复工具会将此lint切换为“warn”，并自动应用编译器建议的修复。这提供了一种完全自动化的方式来将旧代码更新到2018版。</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -27007,18 +25534,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Previous versions of the compiler accepted floating-point literals in
-patterns, but it was later determined this was a mistake. The
-semantics of comparing floating-point values may not be clear in a
-pattern when contrasted with "structural equality". Typically you can
-work around this by using a match guard, such as:
-# let x = 42.0;
-match x {
-    y if y == 5.0 =&gt; {}
-    _ =&gt; {}
-}
-This is a future-incompatible lint to transition this to a hard
-error in the future. See issue #41620 for more details.</t>
+          <t>以前版本的编译器接受模式中的浮点文字，但后来确定这是一个错误。与“结构相等”相比，比较浮点值的要求在模式中可能不明确。通常，您可以使用火柴保护来解决此问题，例如：#let x=42.0；match x｛y if y==5.0=&gt;｛｝_=&gt;｛}｝这是一个未来不兼容的lint，将来会将其转换为硬错误。有关更多详细信息，请参阅第41620期。</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -27048,16 +25564,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>When new methods are added to traits in the standard library, they are
-usually added in an "unstable" form which is only available on the
-nightly channel with a feature attribute. If there is any
-preexisting code which extends a trait to have a method with the same
-name, then the names will collide. In the future, when the method is
-stabilized, this will cause an error due to the ambiguity. This lint
-is an early-warning to let you know that there may be a collision in
-the future. This can be avoided by adding type annotations to
-disambiguate which trait method you intend to call, such as
-MyIterator::is_sorted(my_iter) or renaming or removing the method.</t>
+          <t>当新方法被添加到标准库中的特征中时，它们通常以“不稳定”的形式添加，这种形式仅在具有特征属性的漂亮通道上可用。如果有任何预先存在的代码将特性扩展为具有相同名称的方法，那么名称将发生冲突。将来，当该方法被稳定时，这将由于模糊性而导致错误。这是一个预警，让你知道未来可能会发生碰撞。可以通过添加类型注释来消除要调用的特征方法的歧义，例如MyIterator:：is_sorted（my_iter）或重命名或删除该方法来避免这种情况。</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
@@ -27089,15 +25596,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>There usually isn't a reason to have an irrefutable pattern in an
-if let or while let statement, because the pattern will always match
-successfully. A let or loop statement will suffice. However,
-when generating code with a macro, forbidding irrefutable patterns
-would require awkward workarounds in situations where the macro
-doesn't know if the pattern is refutable or not. This lint allows
-macros to accept this form, while alerting for a possibly incorrect
-use in normal code.
-See RFC 2086 for more details.</t>
+          <t>通常没有理由在anif-let或while let语句中使用无可辩驳的模式，因为该模式总是能够成功匹配。let或loop语句就足够了。然而，当使用宏生成代码时，在宏不知道模式是否可拒绝的情况下，禁止无可辩驳的模式将需要尴尬的解决方案。这个lint允许小程序接受这个表单，同时警告正常代码中可能存在的错误。有关更多详细信息，请参阅RFC 2086。</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -27125,9 +25624,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>Unused labels may signal a mistake or unfinished code. To silence the
-warning for the individual label, prefix it with an underscore such as
-'_my_label:.</t>
+          <t>未使用的标签可能表示代码有错误或未完成。要使单个标签的警告静音，请在其前面加一个下划线，如'_my_label:。</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -27153,9 +25650,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>The compiler previously allowed these object-unsafe bounds, which was
-incorrect. This is a future-incompatible lint to transition this to
-a hard error in the future. See issue #51443 for more details.</t>
+          <t>编译器以前允许这些对象的不安全边界，这是不正确的。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第51443期。</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
@@ -27186,11 +25681,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>If a proc-macro generates a module, the compiler unintentionally
-allowed items in that module to refer to items in the crate root
-without importing them. This is a future-incompatible lint to
-transition this to a hard error in the future. See issue #50504 for
-more details.</t>
+          <t>如果proc宏生成了一个模块，编译器会意外地允许该模块中的项引用机箱根中的项，而不导入它们。这是一个未来不兼容的lint，将其转换为未来的一个硬错误。有关详细信息，请参阅第50504期。</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -27241,14 +25732,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>The macro_use attribute on an [extern crate] item causes
-macros in that external crate to be brought into the prelude of the
-crate, making the macros in scope everywhere. As part of the efforts
-to simplify handling of dependencies in the [2018 edition], the use of
-extern crate is being phased out. To bring macros from extern crates
-into scope, it is recommended to use a use import.
-This lint is "allow" by default because this is a stylistic choice
-that has not been settled, see issue #52043 for more information.</t>
+          <t>[extern crate]项上的macro_use属性导致该外部板条箱中的宏被带到速率的前奏中，从而使宏无处不在。作为【2018年版】中简化依赖关系处理的努力的一部分，外部机箱的使用正在逐步取消。要将外部cratesi中的宏放入作用域，建议使用use导入。此lint默认为“允许”，因为这是一种尚未解决的风格选择，请参阅问题#52043以了解更多信息。</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -27291,12 +25775,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>The intent is that all macros marked with the #[macro_export]
-attribute are made available in the root of the crate. However, when a
-macro_rules! definition is generated by another macro, the macro
-expansion is unable to uphold this rule. This is a
-future-incompatible lint to transition this to a hard error in the
-future. See issue #53495 for more details.</t>
+          <t>其目的是使所有标有#[mmacro_export]属性的宏在机箱的根目录中可用。然而，当amacro_rules！定义是由另一个宏生成的，宏扩展无法维护这一规则。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第53495期。</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -27333,19 +25812,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>If a struct contains a reference, such as &amp;'a T, the compiler
-requires that T outlives the lifetime 'a. This historically
-required writing an explicit lifetime bound to indicate this
-requirement. However, this can be overly explicit, causing clutter and
-unnecessary complexity. The language was changed to automatically
-infer the bound if it is not specified. Specifically, if the struct
-contains a reference, directly or indirectly, to T with lifetime
-'x, then it will infer that T: 'x is a requirement.
-This lint is "allow" by default because it can be noisy for existing
-code that already had these requirements. This is a stylistic choice,
-as it is still valid to explicitly state the bound. It also has some
-false positives that can cause confusion.
-See RFC 2093 for more details.</t>
+          <t>如果一个结构包含引用，如&amp;‘a T，则compiler要求T的寿命超过生存期‘a。这在历史上要求写一个明确的生命周期来表明这一要求。然而，这可能过于明确，导致混乱和不必要的复杂性。如果未指定绑定，语言已更改为自动推断绑定。具体地说，如果该结构包含对具有lifetime'x的T的直接或间接引用，那么它将推断出T:'x是一个需求。该lint默认为“允许”，因为对于已经具有这些需求的现有代码来说，它可能是有噪声的。这是一种风格上的选择，因为明确地说明界限仍然有效。它也有一些可能引起混淆的误报。请参阅RFC 2093了解更多详细信息。</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -27379,10 +25846,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>The compiler unintentionally accepted this form in the past. This is a
-future-incompatible lint to transition this to a hard error in the
-future. See issue #62411 for a complete description of the problem,
-and some possible solutions.</t>
+          <t>编译器过去无意中接受了这种形式。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关问题的完整描述以及一些可能的解决方案，请参阅第62411期。</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -27438,13 +25902,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Previous versions of Rust allowed function pointers and wide raw pointers in patterns.
-While these work in many cases as expected by users, it is possible that due to
-optimizations pointers are "not equal to themselves" or pointers to different functions
-compare as equal during runtime. This is because LLVM optimizations can deduplicate
-functions if their bodies are the same, thus also making pointers to these functions point
-to the same location. Additionally functions may get duplicated if they are instantiated
-in different crates and not deduplicated again via LTO.</t>
+          <t>Rust的早期版本允许在模式中使用函数指针和宽原始指针。虽然这些指针在许多情况下都如用户所期望的那样工作，但由于优化，指针可能“不等于它们自己”，或者指向不同函数的指针在运行时间比较相等。这是因为LLVM优化可以在函数体相同的情况下消除重复，从而使指向这些函数的指针指向相同的位置。此外，如果函数被实例化在不同的板条箱中，并且没有通过LTO再次消除重复，则它们可能会被复制。</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -27478,10 +25936,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Previous versions of Rust accepted constants in patterns, even if those constants' types
-did not have PartialEq derived. Thus the compiler falls back to runtime execution of
-PartialEq, which can report that two constants are not equal even if they are
-bit-equivalent.</t>
+          <t>以前版本的Rust接受模式中的常量，即使这些常量的typesdid没有派生PartialEq。因此，编译器返回到运行时执行PartialEq，它可以报告两个常量不相等，即使它们是位等效的。</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -27515,16 +25970,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Previous versions of Rust did not allow accessing enum variants
-through type aliases. When this ability was added (see RFC 2338), this
-introduced some situations where it can be ambiguous what a type
-was referring to.
-To fix this ambiguity, you should use a qualified path to explicitly
-state which type to use. For example, in the above example the
-function can be written as fn f() -&gt; &lt;Self as Tr&gt;::V { 0 } to
-specifically refer to the associated type.
-This is a future-incompatible lint to transition this to a hard
-error in the future. See issue #57644 for more details.</t>
+          <t>Rust的早期版本不允许通过类型别名访问枚举变量。当添加此功能时（请参阅RFC 2338），这引入了一些情况，在这些情况下，类型所指的内容可能不明确。要解决这种不明确的问题，您应该使用一个限定路径来明确说明要使用的类型。例如，在上面的例子中，函数可以写为fn f（）-&gt;&lt;Self as Tr&gt;：：V｛0｝来指定引用关联的类型。这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第57644期。</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -27562,13 +26008,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>The bench attribute was accidentally allowed to be specified on
-the stable release channel. Turning this to a hard error would have
-broken some projects. This lint allows those projects to continue to
-build correctly when --cap-lints is used, but otherwise signal an
-error that #[bench] should not be used on the stable channel. This
-is a future-incompatible lint to transition this to a hard error in
-the future. See issue #64266 for more details.</t>
+          <t>意外地允许在稳定发布通道上指定bench属性。如果把它变成一个严重的错误，可能会破坏一些项目。当使用--cap lints时，此lint允许这些项目继续正确构建，但在其他情况下会发出一个错误信号，即不应在稳定通道上使用#[Beet]。这是一个未来不兼容的皮棉，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第64266期。</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -27599,9 +26039,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>The use of the #[inline(always)] attribute prevents the
-the #[no_sanitize(...)] attribute from working.
-Consider temporarily removing inline attribute.</t>
+          <t>使用#[inline（always）]特性会阻止#[no_sance（…）]特性工作。请考虑暂时删除inline特性。</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -27633,16 +26071,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Registers on some architectures can use different names to refer to a
-subset of the register. By default, the compiler will use the name for
-the full register size. To explicitly use a subset of the register,
-you can override the default by using a modifier on the template
-string operand to specify when subregister to use. This lint is issued
-if you pass in a value with a smaller data type than the default
-register size, to alert you of possibly using the incorrect width. To
-fix this, add the suggested modifier to the template, or cast the
-value to the correct size.
-See register template modifiers in the reference for more details.</t>
+          <t>某些体系结构上的寄存器可以使用不同的名称来引用寄存器的子集。默认情况下，编译器将使用完整寄存器大小的名称。若要显式使用寄存器的子集，可以通过在模板操作数上使用修饰符指定何时使用子寄存器来覆盖默认值。如果您传入的值的数据类型小于默认寄存器大小，则会发出此lint，以提醒您可能使用了不正确的宽度。要解决此问题，请将建议的修饰符添加到模板中，或将值强制转换为正确的大小。有关详细信息，请参阅参考中的注册模板修饰符。</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -27685,10 +26114,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>On x86, asm! uses the intel assembly syntax by default. While this
-can be switched using assembler directives like .att_syntax, using the
-att_syntax option is recommended instead because it will also properly
-prefix register placeholders with % as required by AT&amp;T syntax.</t>
+          <t>在x86上，asm！默认情况下使用intel汇编语法。虽然这可以使用诸如.att_syntax之类的汇编指令进行切换，但建议使用tt_syntax选项，因为它还可以根据AT&amp;T语法的要求，将寄存器占位符正确地前缀为%。</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -27732,18 +26158,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Currently, an unsafe fn allows any unsafe operation within its
-body. However, this can increase the surface area of code that needs
-to be scrutinized for proper behavior. The unsafe block provides a
-convenient way to make it clear exactly which parts of the code are
-performing unsafe operations. In the future, it is desired to change
-it so that unsafe operations cannot be performed in an unsafe fn
-without an unsafe block.
-The fix to this is to wrap the unsafe code in an unsafe block.
-This lint is "allow" by default since this will affect a large amount
-of existing code, and the exact plan for increasing the severity is
-still being considered. See RFC #2585 and issue #71668 for more
-details.</t>
+          <t>目前，不安全fn允许在其体内进行任何不安全的操作。然而，这可能会增加代码的表面积，需要仔细检查代码的正确行为。不安全块提供了一种方便的方法，可以明确代码的哪些部分正在执行不安全操作。将来，希望对其进行更改，以便在没有不安全块的情况下，无法在不安全的fn中执行不安全操作。解决此问题的方法是将不安全代码包装在不安全块中。此lint默认为“允许”，因为这将影响大量现有代码，并且提高严重性的确切计划尚待考虑。有关更多详细信息，请参阅RFC#2585和问题#71668。</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -27774,14 +26189,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Casting a field-less enum that does not implement Copy to an
-integer moves the value without calling drop. This can result in
-surprising behavior if it was expected that drop should be called.
-Calling drop automatically would be inconsistent with other move
-operations. Since neither behavior is clear or consistent, it was
-decided that a cast of this nature will no longer be allowed.
-This is a future-incompatible lint to transition this to a hard error
-in the future. See issue #73333 for more details.</t>
+          <t>将不实现Copy的无字段枚举强制转换为一个枚举将在不调用drop的情况下移动该值。如果预期应该调用drop，这可能会导致意外行为。自动调用drop将与其他移动操作不一致。由于这两种行为都不明确或一致，因此决定不再允许这种性质的强制转换。这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第73333期。</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -27819,20 +26227,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>This lint is part of the strict provenance effort, see issue #95228.
-Casting an integer to a pointer is considered bad style, as a pointer
-contains, besides the address also a provenance, indicating what
-memory the pointer is allowed to read/write. Casting an integer, which
-doesn't have provenance, to a pointer requires the compiler to assign
-(guess) provenance. The compiler assigns "all exposed valid" (see the
-docs of ptr::from_exposed_addr for more information about this
-"exposing"). This penalizes the optimiser and is not well suited for
-dynamic analysis/dynamic program verification (e.g. Miri or CHERI
-platforms).
-It is much better to use ptr::with_addr instead to specify the
-provenance you want. If using this function is not possible because the
-code relies on exposed provenance then there is as an escape hatch
-ptr::from_exposed_addr.</t>
+          <t>这个lint是严格出处工作的一部分，请参阅问题#95228。将整数投射到指针被认为是糟糕的风格，因为指针除了包含地址之外，还包含出处，指示允许指针读取/写入的内存。将一个没有出处的整数转换为指针需要编译器指定（猜测）出处。编译器分配“所有公开的有效”（有关此“公开”的更多信息，请参阅ptr:：from_exposed_addr的文档）。这会惩罚优化器，不太适合动态分析/动态程序验证（例如Miri或CHERIplatforms）。最好使用ptr:：with_addr来指定您想要的程序。如果由于代码依赖于暴露的出处而无法使用此函数，则存在转义hatchptr:：from_exposed_addr。</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -27862,20 +26257,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>This lint is part of the strict provenance effort, see issue #95228.
-Casting a pointer to an integer is a lossy operation, because beyond
-just an address a pointer may be associated with a particular
-provenance. This information is used by the optimiser and for dynamic
-analysis/dynamic program verification (e.g. Miri or CHERI platforms).
-Since this cast is lossy, it is considered good style to use the
-ptr::addr method instead, which has a similar effect, but doesn't
-"expose" the pointer provenance. This improves optimisation potential.
-See the docs of ptr::addr and ptr::expose_addr for more information
-about exposing pointer provenance.
-If your code can't comply with strict provenance and needs to expose
-the provenance, then there is ptr::expose_addr as an escape hatch,
-which preserves the behaviour of as usize casts while being explicit
-about the semantics.</t>
+          <t>此lint是严格出处工作的一部分，请参阅问题#95228。将指针投射到整数是一种有损操作，因为除了地址之外，指针可能与特定的地址相关联。这些信息被优化器用于动态分析/动态程序验证（例如Miri或CHERI平台）。由于这种转换是有损耗的，因此使用tr:：addr方法被认为是一种好的方式，它具有类似的效果，但不会“暴露”指针出处。这提高了优化潜力。有关公开指针出处的更多信息，请参阅ptr:：addr和ptr:：expose_addr的文档。如果您的代码不能遵守严格的出处，并且需要公开出处，那么有ptr:∶expose_add作为转义填充，它在明确语义的同时保留了as usinize强制转换的行为。</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -27906,10 +26288,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>In the 1.43 release, some uses of generic parameters in array repeat
-expressions were accidentally allowed. This is a future-incompatible
-lint to transition this to a hard error in the future. See issue
-#76200 for a more detailed description and possible fixes.</t>
+          <t>在1.43版本中，意外地允许在数组重复表达式中使用一些泛型参数。这是一个不可兼容的未来，将其转变为未来的一个硬错误。有关更详细的描述和可能的修复程序，请参阅问题#76200。</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -27944,11 +26323,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Taking a reference to a function may be mistaken as a way to obtain a
-pointer to that function. This can give unexpected results when
-formatting the reference as a pointer or transmuting it. This lint is
-issued when function references are formatted as pointers, passed as
-arguments bound by fmt::Pointer or transmuted.</t>
+          <t>引用一个函数可能会被误认为是获取该函数的一种方法。这可能会在将引用格式化为指针或转换时产生意外结果。当函数引用格式化为指示器、作为fmt:：pointer绑定的参数传递或转换时，会发出此lint。</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -27977,10 +26352,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Statics with an uninhabited type can never be initialized, so they are impossible to define.
-However, this can be side-stepped with an extern static, leading to problems later in the
-compiler which assumes that there are no initialized uninhabited places (such as locals or
-statics). This was accidentally allowed, but is being phased out.</t>
+          <t>具有无人居住类型的Statics永远无法初始化，因此无法定义。然而，这可能会与外部static并行，导致编译器稍后出现问题，该编译器假设没有初始化的无人居住位置（如locals或Statics）。这是意外允许的，但正在逐步取消。</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -28009,7 +26381,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Deprecation attributes have no effect on trait implementations.</t>
+          <t>Deprecation属性对trait实现没有影响。</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -28041,8 +26413,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>The Rust ABI is currently undefined. Therefore, naked functions should
-specify a non-Rust ABI.</t>
+          <t>Rust ABI当前未定义。因此，裸函数应该指定一个非Rust ABI。</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -28077,8 +26448,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>staged_api does not currently support using a stability attribute on impl blocks.
-impls are always stable if both the type and trait are stable, and always unstable otherwise.</t>
+          <t>staged_api目前不支持在impl块上使用稳定性属性。如果类型和特性都是稳定的，impl总是稳定的，否则总是不稳定的。</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -28109,14 +26479,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Previous, Rust ignored trailing semicolon in a macro
-body when a macro was invoked in expression position.
-However, this makes the treatment of semicolons in the language
-inconsistent, and could lead to unexpected runtime behavior
-in some circumstances (e.g. if the macro author expects
-a value to be dropped).
-This is a future-incompatible lint to transition this
-to a hard error in the future. See issue #79813 for more details.</t>
+          <t>以前，当在表达式位置调用宏时，Rust忽略了宏体中的尾部分号。然而，这使得语言中对分号的处理不一致，并可能在某些情况下导致意外的运行时行为（例如，如果宏作者期望删除值）。这是一个未来不兼容的lint，可以在将来将其转换为一个硬错误。有关更多详细信息，请参阅第79813期。</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -28151,14 +26514,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Attributes like this work for historical reasons, but attribute expansion works in
-left-to-right order in general, so, to resolve #[serde], compiler has to try to "look
-into the future" at not yet expanded part of the item , but such attempts are not always
-reliable.
-To fix the warning place the helper attribute after its corresponding derive.
-#[derive(Deserialize)]
-#[serde(rename_all = "camelCase")]
-struct S { /* fields */ }</t>
+          <t>由于历史原因，类似这样的属性可以工作，但属性扩展通常以左到右的顺序工作，因此，为了解决#[serde]，编译器必须尝试在项目的尚未扩展部分“展望未来”，但这种尝试并不总是可靠的。要修复警告，请将helper属性放在其相应的派生之后#[driven（Deserialize）]#[serde（rename_all=“camelCase”）]struct S｛/*fields*/｝</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -28195,12 +26551,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>When using a large type in a plain assignment or in a function
-argument, idiomatic code can be inefficient.
-Ideally appropriate optimizations would resolve this, but such
-optimizations are only done in a best-effort manner.
-This lint will trigger on all sites of large moves and thus allow the
-user to resolve them in code.</t>
+          <t>当在纯赋值或函数参数中使用大型类型时，惯用代码可能效率低下。理想情况下，适当的优化可以解决此问题，但此类优化只能以尽最大努力的方式进行。此lint将在所有大型移动的站点上触发，从而允许用户在代码中解决这些问题。</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -28232,15 +26583,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>The #![crate_type] and #![crate_name] attributes require a hack in
-the compiler to be able to change the used crate type and crate name
-after macros have been expanded. Neither attribute works in combination
-with Cargo as it explicitly passes --crate-type and --crate-name on
-the commandline. These values must match the value used in the source
-code to prevent an error.
-To fix the warning use --crate-type on the commandline when running
-rustc instead of #![cfg_attr(..., crate_type = "...")] and
---crate-name instead of #![cfg_attr(..., crate_name = "...")].</t>
+          <t>#！[crate_type]和#！[板条箱名称]属性需要在编译器中进行破解，才能在宏扩展后更改使用的板条箱类型和板条箱名称。这两个属性都不能与Cargo结合使用，因为它在命令行上显式传递--crate type和--crate name。这些值必须与源代码中使用的值匹配，以防止出现错误。若要修复警告，请在运行grustc时在命令行中使用--crate类型，而不是#！[cfg_attr（…，crate_type=“…”）]和--机箱名称，而不是#！[cfg_attr（…，crate_name=“…”）]。</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -28266,10 +26609,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>This lint is only active when a --check-cfg='names(...)' option has been passed
-to the compiler and triggers whenever an unknown condition name or value is used.
-The known condition include names or values passed in --check-cfg, --cfg, and some
-well-knows names and values built into the compiler.</t>
+          <t>只有当--check cfg='names（…）'选项已传递给编译器时，此lint才处于活动状态，并在使用未知条件名称或值时触发。已知条件包括传入的名称或值--check cfg、--cfg，以及一些众所周知的编译器中内置的名称和值。</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -28305,11 +26645,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Previous, Rust accepted fields that contain external private zero-sized types,
-even though it should not be a breaking change to add a non-zero-sized field to
-that private type.
-This is a future-incompatible lint to transition this
-to a hard error in the future. See issue #78586 for more details.</t>
+          <t>以前，Rust接受包含外部私有零大小类型的字段，尽管在该私有类型中添加非零大小字段不应该是一个突破性的更改。这是一个未来不兼容的lint，将其转换为未来的一个硬错误。有关更多详细信息，请参阅第78586期。</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -28353,23 +26689,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>The input to active attributes such as #[cfg] or procedural macro
-attributes is required to be valid syntax. Previously, the compiler only
-gated the use of unstable syntax features after resolving #[cfg] gates
-and expanding procedural macros.
-To avoid relying on unstable syntax, move the use of unstable syntax
-into a position where the compiler does not parse the syntax, such as a
-functionlike macro.
-# #![deny(unstable_syntax_pre_expansion)]
-macro_rules! identity {
-   ( $($tokens:tt)* ) =&gt; { $($tokens)* }
-}
-#[cfg(FALSE)]
-identity! {
-   macro foo() {}
-}
-This is a future-incompatible lint to transition this
-to a hard error in the future. See issue #65860 for more details.</t>
+          <t>活动属性（如#[cfg]或过程宏属性）的输入必须是有效语法。以前，编译器只有在解析#[cfg]门并扩展过程宏之后才允许使用不稳定的语法功能。为了避免依赖不稳定的句法，请将不稳定语法的使用移到编译器不解析语法的位置，例如函数式宏。##！[deniy（unstatible_syntax_pre_expansion）]macro_rules！identity｛（$（$tokens:tt）*）=&gt;｛$（$tokens）*｝#[cfg（FALSE）]identity！｛macro foo（）｛｝｝这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第65860期。</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -28396,11 +26716,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>This was previously accepted but it could silently break a crate's downstream users code.
-For example, if foo::* and bar::* were re-exported before bar::X was added to the
-re-exports, down stream users could use this_crate::X without problems. However, adding
-bar::X would cause compilation errors in downstream crates because X is defined
-multiple times in the same namespace of this_crate.</t>
+          <t>这是以前接受的，但它可能会无声地破坏机箱的下游用户代码。例如，如果在将bar:：X添加到导出之前重新导出了foo:：*和bar:：*，则下游用户可以毫无问题地使用This_rate:：X。但是，添加bar:：X会导致下游板条箱中的编译错误，因为X在this_rate的同一命名空间中被多次定义。</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -28436,9 +26752,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>rustdoc does not use doc comments in all positions, and so the doc
-comment will be ignored. Try changing it to a normal comment with //
-to avoid the warning.</t>
+          <t>rustdoc并没有在所有位置使用doc注释，因此doccomment将被忽略。尝试用//将其更改为普通注释以避免出现警告。</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
@@ -28465,9 +26779,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>In the above example, only fptr.0 is captured in Rust 2021.
-The field is of type *mut i32, which doesn't implement Send,
-making the code invalid as the field cannot be sent between threads safely.</t>
+          <t>在上面的例子中，Rust 2021中只捕获了fptr.0。该字段的类型为*mut i32，它没有实现Send，这使得代码无效，因为该字段无法在线程之间安全发送。</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -28503,10 +26815,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>Historically, Rust implicitly selected C as the ABI for extern
-declarations. We expect to add new ABIs, like C-unwind, in the future,
-though this has not yet happened, and especially with their addition
-seeing the ABI easily will make code review easier.</t>
+          <t>从历史上看，Rust隐式地选择C作为外部声明的ABI。我们预计在未来会添加新的ABI，如C-unflow，尽管这还没有发生，尤其是随着它们的添加，ABI将使代码审查变得更容易。</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -28533,12 +26842,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Previously, incorrect usage of the #[doc(..)] attribute was not
-being validated. Usually these should be rejected as a hard error,
-but this lint was introduced to avoid breaking any existing
-crates which included them.
-This is a [future-incompatible] lint to transition this to a hard
-error in the future. See issue #82730 for more details.</t>
+          <t>以前，没有验证#[doc（..）]属性的错误用法。通常，这些应该被视为硬错误而拒绝，但引入这种lint是为了避免破坏包括它们在内的任何现有速率。这是一种[未来不兼容]lint，可以在未来将其转变为硬错误。有关更多详细信息，请参阅第82730期。</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -28567,10 +26871,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Eventually, the backwards-compatibility hacks present in the compiler will be removed,
-causing older versions of certain crates to stop compiling.
-This is a future-incompatible lint to ease the transition to an error.
-See issue #83125 for more details.</t>
+          <t>最终，编译器中存在的向后兼容性黑客将被删除，导致某些crate的旧版本停止编译。这是一个未来不兼容的lint，以简化向错误的转换。有关更多详细信息，请参阅问题#83125。</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -28610,7 +26911,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>In Rust 2021, the pat matcher will match additional patterns, which include the | character.</t>
+          <t>在Rust 2021中，pat匹配器将匹配其他图案，其中包括|字符。</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -28650,11 +26951,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>In Rust 2021, one of the important introductions is the prelude changes, which add
-TryFrom, TryInto, and FromIterator into the standard library's prelude. Since this
-results in an ambiguity as to which method/function to call when an existing try_into
-method is called via dot-call syntax or a try_from/from_iter associated function
-is called directly on a type.</t>
+          <t>在Rust 2021中，重要的介绍之一是序曲更改，它将TryFrom、TryInto和FromIterator添加到标准库的序曲中。由于当通过点调用语法调用现有的try_inmethod或直接对类型调用try_from/from_iter关联函数时，这会导致调用哪个方法/函数的模糊性。</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -28695,11 +26992,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>In Rust 2015 and 2018, z"hey" is two tokens: the identifier z
-followed by the string literal "hey". In Rust 2021, the z is
-considered a prefix for "hey".
-This lint suggests to add whitespace between the z and "hey" tokens
-to keep them separated in Rust 2021.</t>
+          <t>在Rust 2015和2018中，z“嘿”是两个标记：标识符z后面跟着字符串“嘿”。在Rust 2021中，z被认为是“嘿”的前缀。这个lint建议在z和“嘿”标记之间添加空白，以在Rust 2021。</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -28729,9 +27022,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>On most of the targets the behaviour of stdcall and similar calling conventions is not
-defined at all, but was previously accepted due to a bug in the implementation of the
-compiler.</t>
+          <t>在大多数目标上，stdcall和类似调用约定的行为根本没有定义，但由于编译器实现中的一个错误，以前被接受了。</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -28768,14 +27059,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>In Rust, loops can have a label, and break expressions can refer to that label to
-break out of specific loops (and not necessarily the innermost one). break expressions
-can also carry a value expression, which can be another loop. A labeled break with an
-unlabeled loop as its value expression is easy to confuse with an unlabeled break with
-a labeled loop and is thus discouraged (but allowed for compatibility); use parentheses
-around the loop expression to silence this warning. Unlabeled break expressions with
-labeled loops yield a hard error, which can also be silenced by wrapping the expression
-in parentheses.</t>
+          <t>在Rust中，循环可以有一个标签，break表达式可以引用该标签来断开特定的循环（不一定是最里面的循环）。breakexpressionscan还携带一个值表达式，它可以是另一个循环。以无标记循环作为其值表达式的标记中断很容易与带标记循环的无标记中断混淆，因此不鼓励使用（但允许兼容性）；在循环表达式中使用括号可以使此警告静音。带有标记循环的未标记break表达式会产生一个硬错误，也可以通过将表达式包装在圆括号中来消除该错误。</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -28803,12 +27087,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>Structs and enums tagged with #[non_exhaustive] force the user to add a
-(potentially redundant) wildcard when pattern-matching, to allow for future
-addition of fields or variants. The non_exhaustive_omitted_patterns lint
-detects when such a wildcard happens to actually catch some fields/variants.
-In other words, when the match without the wildcard would not be exhaustive.
-This lets the user be informed if new fields/variants were added.</t>
+          <t>使用#[non_exhaustive]标记的结构和枚举强制用户在模式匹配时添加一个（可能冗余的）通配符，以允许字段或变体的未来状态。non_exhaustive_omitted_patters lint检测这样的通配符何时碰巧真正捕获某些字段/变体。换句话说，当没有通配符的匹配不会是完全匹配时。这可以让用户在添加新字段/变体时得到通知。</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
@@ -28860,11 +27139,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>Unicode allows changing the visual flow of text on screen in order to support scripts that
-are written right-to-left, but a specially crafted comment can make code that will be
-compiled appear to be part of a comment, depending on the software used to read the code.
-To avoid potential problems or confusion, such as in CVE-2021-42574, by default we deny
-their use.</t>
+          <t>Unicode允许更改屏幕上文本的视觉流，以支持从右到左编写的脚本，但根据用于读取代码的软件，特制的注释可以使将要编译的代码看起来是注释的一部分。为了避免潜在的问题或混淆，如CVE-2021-42574，默认情况下我们拒绝使用它。</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -28893,10 +27168,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>A duplicated attribute may erroneously originate from a copy-paste and the effect of it
-being duplicated may not be obvious or desirable.
-For instance, doubling the #[test] attributes registers the test to be run twice with no
-change to its environment.</t>
+          <t>重复的属性可能错误地源于复制粘贴，并且复制的效果可能不明显或不理想。例如，将#[test]属性加倍会注册要运行两次的测试，而不会更改其环境。</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -28932,14 +27204,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>A type can implement auto traits, e.g. Send, Sync and Unpin,
-in two different ways: either by writing an explicit impl or if
-all fields of the type implement that auto trait.
-The compiler disables the automatic implementation if an explicit one
-exists for given type constructor. The exact rules governing this
-are currently unsound, quite subtle, and will be modified in the future.
-This change will cause the automatic implementation to be disabled in more
-cases, potentially breaking some code.</t>
+          <t>类型可以通过两种不同的方式实现自动特征，例如Send、Sync和Unpin：通过编写显式impl，或者如果该类型的所有字段都实现该自动特征，则编译器将禁用自动实现。管理这一点的确切规则目前还不健全，非常微妙，将来还会修改。这一变化将导致自动实现在更多情况下被禁用，可能会破坏一些代码。</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -28966,12 +27231,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>The preferred location for where clauses on associated types in impls
-is after the type. However, for most of generic associated types development,
-it was only accepted before the equals. To provide a transition period and
-further evaluate this change, both are currently accepted. At some point in
-the future, this may be disallowed at an edition boundary; but, that is
-undecided currently.</t>
+          <t>关联类型上的where子句在类型后面的隐含中的首选位置。然而，对于大多数通用关联类型的开发，它只在平等之前被接受。为了提供一个过渡期并进一步评估这一变化，目前两者都被接受。在未来的某个时刻，这可能会在版本边界被禁止；但是，目前尚未确定。</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -29002,9 +27262,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>In order to test the behavior of unstable lints, a permanently-unstable
-lint is required. This lint can be used to trigger warnings and errors
-from the compiler related to unstable lints.</t>
+          <t>为了测试不稳定棉绒的性能，需要一个永久不稳定的棉绒。此lint可用于从编译器中触发与不稳定lint相关的警告和错误。</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -29030,9 +27288,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>For crates containing such calls, if they are compiled with -C panic=unwind then the
-produced library cannot be linked with crates compiled with -C panic=abort. For crates
-that desire this ability it is therefore necessary to avoid such calls.</t>
+          <t>对于包含此类调用的板条箱，如果它们是用-C panic=unlock编译的，则生成的库无法与用-C panic=abort编译的板条箱链接。因此，对于那些希望拥有这种能力的陨石坑来说，有必要避免这样的呼吁。</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -29066,10 +27322,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>Rust formatting strings can refer to named arguments by their position, but this usage is
-potentially confusing. In particular, readers can incorrectly assume that the declaration
-of named arguments is an assignment (which would produce the unit type).
-For backwards compatibility, this is not a hard error.</t>
+          <t>Rust格式的字符串可以根据其位置引用命名参数，但这种用法可能会令人困惑。特别是，读者可能会错误地认为命名参数的声明是一个赋值（这将产生单元类型）。为了向后兼容性，这不是一个硬性错误。</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -29101,10 +27354,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Neither the trait method, which provides no implied bounds about 's, nor the impl,
-requires the main function to prove that 's: 'static, but the impl method is allowed
-to assume that 's: 'static within its own body.
-This can be used to implement an unsound API if used incorrectly.</t>
+          <t>trait方法和impl都不需要主函数来证明's:'static，但允许impl方法在自己的主体中假设's:'静态。如果使用不正确，这可用于实现不健全的API。</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -29140,9 +27390,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>This was previously accepted but is being phased out, because fields in packed structs are
-now required to implement Copy for derive to work. Byte slices and string slices are a
-temporary exception because certain crates depended on them.</t>
+          <t>这以前被接受，但现在正在逐步取消，因为压缩结构中的字段不需要实现Copy才能派生。字节切片和字符串切片是一个罕见的例外，因为某些板条箱依赖于它们。</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -29173,8 +27421,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>The only valid argument is #[macro_export(local_inner_macros)] or no argument (#[macro_export]).
-You can't have multiple arguments in a #[macro_export(..)], or mention arguments other than local_inner_macros.</t>
+          <t>唯一有效的参数是#[mmacro_export（local_inner_macros）]或没有参数（#[mmacro _export]）。一个#[macro_export[..]中不能有多个参数，也不能提及local_inner.macros以外的参数。</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>检查#[allow]属性的使用情况，并建议将其替换为#[expect]（请参阅RFC 2383）expect属性仍然不稳定，并且每晚都需要lint_reasonon。可以通过添加#来启用它！[feature（lint_reasons）]到机箱根。此lint仅警告外部属性（#[allow]），因为内部属性（#！[allow]]）通常用于在全局范围内启用或禁用lint。</t>
+          <t>检查#[allow]属性的使用情况，并建议将其替换为#[expect]（请参阅RFC 2383）expect属性仍然不稳定，并且每晚都需要lint_reasonon。可以通过添加#来启用它！[feature（lint_reasons）]到crate根。此lint仅警告外部属性（#[allow]），因为内部属性（#！[allow]]）通常用于在全局范围内启用或禁用lints。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>#[expect]属性会抑制皮棉的发射，但如果预期未实现，则会发出警告。这对于在不再触发该命令时得到通知非常有用。</t>
+          <t>#[expect]属性抑制lint发射，但如果预期未实现，则会发出警告。这对于在不再触发该命令时得到通知非常有用。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lint已被启用，表示首选AT&amp;T x86程序集语法。</t>
+          <t>已启用lint以指示首选AT&amp;T x86程序集语法。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>lint已被启用，以指示英特尔x86程序集语法的首选项。</t>
+          <t>lint已启用，表示首选英特尔x86程序集语法。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>检查异步块是否产生可等待的类型值。</t>
+          <t>检查是否有async块产生了可以等待的类型值。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>等待可能会丢失。</t>
+          <t>可能缺少wait。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>检查as转换的使用情况。请注意，无论是否存在好的替代品，该lint都专门用于对as的每次使用进行lint处理。如果您想要更精确的as lint，请考虑使用这些单独的lint：unnecessary_cast、cast_lossless/cast_possible_trunation/cast_possible _wrap/cast_precision_loss/cast_sign_loss、fn_to_numeric_cast（_with_trunation），char_lit_as_u8、ref_to_mut和ptr_as_ptr。这里有一个很好的解释，解释了为什么这个lint应该以这种方式工作，以及它在这个问题中是如何使用的。</t>
+          <t>检查as转换的使用情况。请注意，无论是否存在好的替代方案，这个lint都专门用于对as的每一次使用进行lints处理。如果您想对as使用更精确的lints，请考虑使用这些单独的lints：unnecessary_cast、cast_lossless/cast_possible_trunation/cast_possible _wrap/cast_prision_loss/cast_sign_loss、fn_to_numeric_cast（_with_trunation），char_lit_as_u8、ref_to_mut和ptr_as_ptr。下面很好地解释了这个lint应该以这种方式工作的原因，以及它在这个问题上的用处。</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>as转换将执行许多类型的转换，包括无声的有损转换和危险的强制转换。在某些情况下，使用as是有意义的，所以lint默认为Allow。</t>
+          <t>as转换将执行多种转换，包括无声有损转换和危险的强制转换。在某些情况下，使用as是有意义的，所以默认情况下lint为Allow。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>检查外部板条箱和使用带lint属性注释的物品。此lint允许物品本身发出的lint属性。对于使用物品，这些lint为：depletedunreachable_pubunused_importsclippy:：enum_glob_useclippy:：macro_use_importsclippy::：wildcard_import对于外部板条箱物品，这些lint为：unused_mports on items with#[mmacro_use</t>
+          <t>检查externcrate和使用带lint属性注释的项。此lint允许在项本身上发出的lints具有linnt属性。对于使用项，这些lints为：depletedunreachable_pubunused_importsclippy:：enum_glob_useclippy:：macro_use_importsclippy::：wildcard_import对于extern_crate项，这些[ments]为：在带#[mmacro_use的项上未使用_imports</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>绒毛属性对板条箱导入没有影响。大多数情况下！被遗忘了。</t>
+          <t>Lint属性对crate导入没有影响。大多数情况下！被遗忘了。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>限制性短绒有时会与其他短绒形成对比，甚至会产生习惯性锈蚀。这些短绒只能在逐个短绒的基础上使用，并经过仔细考虑。</t>
+          <t>限制性lints有时与其他lint形成对比，甚至与惯用的铁锈相反。这些linth只能在逐个皮棉的基础上启用，并经过仔细考虑。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>检查在目标族位置中是否使用了操作系统的cfg属性。</t>
+          <t>检查cfg属性是否在目标系列位置中使用了操作系统。</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>检查允许无理由进行lint的属性。（这需要lint_reasons功能）</t>
+          <t>检查允许无理由使用lints的属性。（这需要lint_reasons功能）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>允许棉绒总是有原因的。应记录此原因，以确保其他人理解其原因</t>
+          <t>允许lint应该总是有原因的。应记录此原因，以确保其他人理解其原因</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>在持有非异步感知MutexGuard时检查等待的调用。</t>
+          <t>在持有非异步感知MutexGuard时，检查对wait的调用。</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>std:：sync和parking_lot中的Mutex类型并不是为了在等待点之间的异步上下文中操作而设计的。有两种潜在的解决方案。一种是使用异步感知Mutextype。许多异步基础板条箱都提供这种Mutex类型。另一种解决方案是通过引入作用域或显式调用Drop:：Drop来确保互斥锁在调用wait之前解锁。</t>
+          <t>std:：sync和parking_lot中的Mutex类型并不是为了在await点之间的async上下文中操作而设计的。有两种潜在的解决方案。一种是使用异步感知Mutextype。许多异步基础crates都提供这种Mutex类型。另一种解决方案是通过引入作用域或显式调用Drop:：Drop来确保互斥锁在调用wait之前解锁。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>在持有RefCell Ref或RefMut时检查等待的调用。</t>
+          <t>在持有RefCell Ref或RefMut时检查是否调用了wait。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RefCell引用仅在运行时检查独占可变访问。在等待挂起点上保留一个RefCell引用可能会导致在其他引用未完成时共享的可变引用引发恐慌。</t>
+          <t>RefCell引用仅在运行时检查独占可变访问。在wait挂起点上保持RefCell引用可能会导致在其他引用未完成时共享的可变引用引发恐慌。</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>在宏定义中检查crate与$crate的使用情况。</t>
+          <t>检查宏定义中crate与$crate的用法。</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>crate指宏调用的crate，而$crate指的是宏定义的crate。前者的意图很少。请参阅：https://doc.rust-lang.org/reference/macros-by-example.html#hygiene</t>
+          <t>crate是指宏调用的crate，而$crate是指宏定义的crate。前者的意图很少。请参阅：https://doc.rust-lang.org/reference/macros-by-example.html#hygiene</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>检查dbg的使用情况！宏。</t>
+          <t>检查dbg！宏的使用情况。</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>dbg！宏是一个调试工具。它不应出现在已发布的软件中，也不应提交到版本控制系统中。</t>
+          <t>dbg！宏用作调试工具。它不应出现在已发布的软件中，也不应提交到版本控制系统中。</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>使用默认值检查单元结构的构造。</t>
+          <t>使用默认值检查单元struct的构造。</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>使用默认表示形式（不带#[repr（C）]属性）声明并集时显示警告。</t>
+          <t>当使用默认表示形式（不带#[repr（C）]属性）声明union时，显示警告。</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rust中的工会默认情况下有未指定的布局，尽管许多人认为他们在工会开始时就布局了每个字段（就像C一样）。也就是说，对于具有多个非ZST字段而没有明确指定布局的并集，无法保证字段的偏移量。这些情况可能导致不安全块中的未定义行为。</t>
+          <t>Rust中的联合默认情况下有未指定的布局，尽管许多人认为它们在union的开头布局每个字段（就像C一样）。也就是说，对于具有多个非ZST字段而没有明确指定布局的并集，无法保证字段的偏移量。这些情况可能导致不安全块中的未定义行为。</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>拒绝在clippy.toml中配置的宏注意：即使此lint在默认情况下是警告的，但只有在clippy.toml文件中定义了宏时，它才会触发。</t>
+          <t>拒绝在clippy.toml中配置的宏注意：即使默认情况下此lint是警告，但只有在clippy.toml文件中定义了宏时才会触发。</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>拒绝在clippy.toml中配置的方法和函数注意：即使此lint在默认情况下是警告的，但只有在clippy.toml文件中定义了方法时，它才会触发。</t>
+          <t>拒绝在clippy.toml中配置的方法和函数注意：即使默认情况下此lint是警告的，但只有在clippy.toml文件中定义了方法时，它才会触发。</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>检查unicode脚本的使用情况，而不是lint配置明确允许的脚本。此lint不考虑Unknown和Linear_A等非文本脚本。它还忽略Common脚本类型。配置时，请确保使用支持脚本列表中的正式脚本名称别名。另请参阅：non_ascii_identits。</t>
+          <t>检查除lint配置明确允许的unicode脚本之外的其他脚本的使用情况。此linnt不考虑Unknown和Linear_A等非文本脚本。它还忽略Common脚本类型。配置时，请确保使用支持脚本列表中的正式脚本名别名。另请参阅：non_ascii_identits。</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>可能不希望在代码库中有许多不同的标识符脚本。请注意，如果您只想使用纯英语，则可能需要使用内置的non_ascii_identits lint。</t>
+          <t>可能不希望在代码库中有许多不同的标识符脚本。请注意，如果您只想使用纯英语，则可能需要使用内置的non_ascii_identitslint。</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>拒绝在clippy.toml中配置的类型。注意：即使此lint在默认情况下是警告的，它也只会在clippy.toml文件中定义类型时触发。</t>
+          <t>拒绝clippy.toml中配置的类型。注意：尽管默认情况下此lint是警告，但它只会在clippy.toml文件中定义类型时触发。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rustdoc支持markdown格式，_，：：和camel大小写可能表示一些应该包含在记号之间的代码也可以用于降价中的强调，这个lint试图考虑到这一点。</t>
+          <t>Rustdoc支持markdown格式，_，：：和camel大小写可能表示一些应该包含在记号之间的代码也可以用于markdown中的强调，thislint试图考虑这一点。</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>不安全功能应记录其安全修复，以便用户能够确保他们安全使用它们。</t>
+          <t>不安全功能应记录其安全修复，以便用户能够确保他们安全使用这些功能。</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2938,12 +2938,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>检查doctest中的fn main（）｛..｝</t>
+          <t>检查doctest中的fnmain（）｛..｝</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>如果将fn main（）保持为隐式，则测试可以更短（而且可能更可读）。</t>
+          <t>如果fnmain（）保持隐式，则测试可以更短（并且可能更可读）。</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>检查没有变体的枚举。截至本文撰写之时，never_type仍然是唯一的实验性API。因此，只有在启用never_type时才会触发此lint。</t>
+          <t>检查没有变体的枚举。截至本文撰写之时，never_type仍然是唯一的实验性API。因此，只有启用了never_type，才会触发此lint。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>结构声明后的空括号可以省略。</t>
+          <t>可以省略struct声明后的空括号。</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>一个典型的初学者错误是拥有mod foo；andagain mod foo｛..｝在foo.rs中。期望的是，内部mod foo｛.｝中的项通过foo：：x可用，但它们只能通过foo:：foo:：x可用。如果这是故意的，最好选择一个更具代表性的模块名称。</t>
+          <t>一个典型的初学者错误是有modfoo；andagainmodfoo｛..｝在foo.rs中。期望的是，内部modfoo{..｝中的项通过foo:：x是可用的，但它们只能通过foo:：foo:：x.使用。如果这是故意的，最好选择一个更具代表性的模块名称。</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>检查二进制运算符右侧的一元运算符的格式。如果二进制运算符和一元运算符之间没有空格，但一元运算符和其操作数之间有空格，则它将进行lints。</t>
+          <t>检查二进制运算符右侧的一元运算符的格式。如果二进制运算符和一元运算符之间没有空格，但一元运算符及其操作数之间有空格，则为lints。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>检查else的格式。它判断elseis后面是否紧跟着一行换行符，或者else似乎不见了。</t>
+          <t>检查else的格式。它lints如果else后面紧跟一个换行符，或者else似乎丢失了。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>检查数组中是否可能缺少逗号。它表示ifan数组元素是一个二进制运算符表达式，它位于两行上。</t>
+          <t>检查数组中是否可能缺少逗号。ifan数组元素是一个二进制运算符表达式，它位于两行上。</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>检测格式！在另一个进行格式化的宏的参数中，例如format！本身，写！或println！。建议更改格式！呼叫</t>
+          <t>检测格式！在另一个进行格式化的宏的参数中，例如format！本身，write！或println！。建议更改格式！呼叫</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>通过对self的递归调用来检查格式特征实现（例如Display），该调用使用self作为参数。这通常是通过write！宏或使用to_string（）。</t>
+          <t>使用self作为参数的递归调用来检查格式特征实现（例如Display）。这通常是通过write！宏或to_string（）间接完成的。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>在处理FFI中的c_void原始指针时，很容易遇到用c_void指针调用from_raw的陷阱。Box:：from_law的类型签名是fn from_raw（raw:*mut T）-&gt;Box&lt;T&gt;，所以如果你传递一个*mut c_void，你会得到一个Box&lt;c_void&gt;（Rc、Arc和Weak也是如此）。为了安全起见，c_void需要与原始类型具有相同的内存布局，通常情况并非如此。</t>
+          <t>在处理FFI中的c_void原始指针时，很容易遇到用c_void指针调用from_raw的陷阱。Box:：from_law的类型签名是fnfrom_raw（raw:*mut T）-&gt;Box&lt;T&gt;，所以如果你传递*mut c_void，你会得到一个Box&lt;c_void&gt;（类似于Rc、Arc和Weak）。为了安全起见，c_void需要与原始类型具有相同的内存布局，通常情况并非如此。</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>检查所有字段都是简写的结构构造函数，并且构造函数中字段init简写的顺序与结构定义中的顺序不一致。</t>
+          <t>检查所有字段都是简写的struct构造函数，并且构造函数中字段init简写的顺序与struct定义中的顺序不一致。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>检查结构的多个固有实现</t>
+          <t>检查struct的多个固有实现</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>检查使用字段语法初始化的元组结构。但是，如果存在基初始值设定项，它将不会lint。lint还会忽略宏中的代码。</t>
+          <t>检查是否使用字段语法初始化的元组结构。但是，如果存在基初始值设定项，则不会执行lint。lind也将忽略宏中的代码。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>很容易意外地写入prev_instant-instant:：now（），它将始终为0nsas。instant减法饱和。prev_intant.elapsed（）也更清楚地表示意图。</t>
+          <t>很容易意外地写入prev_instant-instant:：now（），它将始终是0nsasinstant减法饱和。prev_intant.elapsed（）也更清楚地表示意图。</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>它检查async fn或async｛｝创建的Future的大小。</t>
+          <t>它检查由asyncfn或async｛｝创建的Future的大小。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>两种方法都有是很好的自定义，因为对于某些数据结构，询问长度将是一项代价高昂的操作，而.is_empty（）通常可以在恒定时间内回答。此外，它曾在len_zero lint上导致误报——目前lint将忽略此类实体。</t>
+          <t>两种方法都有是很好的自定义，因为对于某些数据结构，询问长度将是一项代价高昂的操作，而.is_empty（）通常可以在恒定时间内回答。此外，它曾在len_zerolint上导致误报——目前lint将忽略此类实体。</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>必须对未来的工作进行调查。最初的意图很可能是等待未来，而忽略由此产生的价值。</t>
+          <t>必须对未来的工作进行调查。最初的意图很可能是wait未来，而忽略由此产生的价值。</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>如果积分或浮点常量的数字分组过大，则发出警告。</t>
+          <t>如果积分或浮点常量的数字分组太大，则发出警告。</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>明确肯定比如果那么恐慌更简单！。</t>
+          <t>assert！比if-then-panic！简单！。</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>它检查异步函数的手动实现。</t>
+          <t>它检查async函数的手动实现。</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>写入时间更短消除了人员和编译器对多路复用中溢出的担忧在运行时可能会更快，因为rust在计算字节长度时会发出特殊的无包装标志减少了涡轮捕鱼</t>
+          <t>写入时间更短消除了人员和编译器对多路复用中溢出的担忧可能在运行时更快，因为rust在计算字节长度时会发出特殊的无包装标志减少了涡轮捕鱼</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Doc很好。rustc为公共成员提供了一个MISSING_DOCSallowed-by-default lint，但无法强制执行私有项的文档。这个lint解决了这个问题。</t>
+          <t>Doc很好。rustc为公共成员提供了一个MISSING_OCSallowed-by-defaultlint，但无法强制执行私有项的文档。此lint修复了此问题。</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>它检测导出的函数、方法、具有默认impl的trait方法或trait方法impl是否不是#[inline]。</t>
+          <t>如果导出的函数、方法、具有默认impl的trait方法或trait方法impl不是#[inline]，则为lints。</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>总的来说，事实并非如此。只要使用任何形式的LTO，只要有利可图，函数就可以跨脚本内联。当LTO被禁用时，非#[inline]的函数不能跨板条箱内联。某些类型的cratesmith打算使其公共API中的大多数方法能够跨crates内联，即使LTO被禁用。对于这些类型的板条箱，启用这种棉绒可能是有意义的。它允许机箱默认要求所有导出的方法都是#[inline]，然后在可能没有意义的情况下选择退出特定的方法。</t>
+          <t>总的来说，事实并非如此。只要使用任何形式的LTO，只要有利可图，函数就可以跨脚本内联。当LTO被禁用时，非#[inline]的函数不能跨板条箱内联。某些类型的cratesmith打算使其公共API中的大多数方法能够跨crates内联，即使LTO被禁用。对于这些类型的板条箱，启用这种lint可能是有意义的。它允许crate在默认情况下要求所有导出的方法都是#[inline]，然后在可能没有意义的情况下选择退出特定的方法。</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>检查所提供的方法是否被跟踪实现隐式使用。一个使用示例是包装器，其中每个方法都应该在委托给内部类型的simplementation之前执行一些操作。该lint通常应该在特定的trait impl项上启用，而不是全局启用。</t>
+          <t>检查所提供的方法是否被跟踪实现隐式使用。一个使用示例是一个包装器，其中每个方法都应该在委托给内部类型“simplementation”之前执行一些操作。该lint通常应该在特定的trait impl项上启用，而不是全局启用。</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>该lint与undocumented_unsaf.blocks相结合，确保每个不安全的操作都必须独立证明。与unused_unsafe相结合，该lint还确保通过重构消除不必要的不安全块。</t>
+          <t>此lint与undocumented_unsaf.blocks结合，确保每个不安全的操作都必须独立证明。与unused_unsafe结合，也确保通过重构消除不必要的不安全块。</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>lint检查循环中出现的if语句是否在其主块或else块中包含continue语句，而省略else块可能会使代码更容易理解。</t>
+          <t>lint检查循环中出现的语句是否在其主块或else块中包含continue语句，而省略else块可能会使代码更容易理解。</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>lint检查范围语句中的文本上是否有括号。</t>
+          <t>lint检查范围语句中超级模糊的文字上的括号。</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>当所有字段都发生更改时，检查是否在更新时不必要地包含基结构。此lint不应用于标记为non_exhaustive的结构。</t>
+          <t>当所有字段都更改时，检查是否在更新时不必要地包含基struct。此lint不应用于标记为non_exhaustive的结构。</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>使用pub-fn-new（）-&gt;Self方法检查公共类型，并且不执行默认值。</t>
+          <t>使用pubfnnew（）-&gt;Self方法检查公共类型，并且不实现默认值。</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>这主要是一个一致性lint，尽管使用（）或[]不会在项位置给您一个分号，这可能是出乎意料的。</t>
+          <t>这主要是一种一致性lint，尽管使用（）或[]不会在项位置使用分号，这可能是出乎意料的。</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>const被复制到引用的任何地方，也就是说，每次引用const时，都会创建一个新的Cell或Mutemor AtomicXxxx实例，这从一开始就违背了使用这些类型的全部目的。如果需要全局变量，const最好用静态项替换，如果需要构造函数，则最好用const fn替换。</t>
+          <t>const被复制到引用的任何地方，也就是说，每次引用const时，都会创建一个新的Cell或Mutemor AtomicXxxx实例，这从一开始就违背了使用这些类型的全部目的。如果需要全局变量，const最好用静态项替换，如果需要构造函数，则最好用constfn替换。</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8898,12 +8898,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>此lint警告一个类型的Send实现，该类型包含在线程之间发送不安全的字段。它试图检测在发送到另一个线程（例如，Rc）时可能导致可靠性问题的字段，同时允许！发送类型中应存在的发送字段，例如原始指针。</t>
+          <t>此lint警告一个类型的Send实现，该类型包含在线程间发送不安全的字段。它试图检测在发送到另一个线程（例如Rc）时可能导致可靠性问题的字段，同时允许！发送类型中应存在的发送字段，例如原始指针。</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>将结构发送到另一个线程可以有效地发送其所有字段，而不实现Send的字段可能会导致健全性错误，例如在与创建它的线程不同的线程中访问数据时会发生争用。请参阅：关于Send和Sync的Rustonomicon Send文档</t>
+          <t>将struct发送到另一个线程可以有效地发送它的所有字段，而不实现Send的字段可能会导致健全性错误，例如在与创建它的线程不同的线程中访问数据时会发生争用。请参阅：关于Send和Sync的Rustonomicon Send文档</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>检查恐慌的使用情况！，未实现！，todo！，无法访问！或result类型函数中的断言。</t>
+          <t>检查恐慌的使用情况！，未实现！，todo！，reachable！或result类型函数中的断言。</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>惊恐将停止执行可执行文件</t>
+          <t>panic！将停止执行可执行文件</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>检查结构的部分字段是否为公共字段。将某个类型的所有字段设置为公共字段，或者不设置任何公共字段</t>
+          <t>检查struct的部分字段是否为公共字段。将某个类型的所有字段设为公共字段，或者不设任何字段为公共字段</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>检查不是应用到的类型的精确表示的模式。要满足此lint，您必须调整与匹配的表达式或模式本身，以及调整后的模式引入的绑定。为了进行匹配，您必须使用*运算符取消对表达式的引用，或者根据引用的可变性修改模式以显式匹配&amp;&lt;pattern&gt;或&amp;mut&lt;pattern&gt;。对于绑定，您需要使用相反的方法。如果您希望复制值，可以将它们保留为纯绑定，但必须使用ref mut＜variable＞或ref＜variable＜在匹配的结构中构造引用。如果您正在寻找更详细地了解所有权语义的方法，建议您查看可用的IDE选项，以突出显示代码中的类型、生命周期和引用语义。即使在各种模式匹配机制之外，可用的工具也会以通用的方式暴露这些东西。当然，这个lint仍然可以用来突出感兴趣的领域，并确保对所有权语义有很好的理解。</t>
+          <t>检查不是应用到的类型的精确表示的模式。要满足此lint，您必须调整与匹配的表达式或模式本身，以及调整后的模式引入的绑定。为了进行匹配，您必须使用*运算符取消对表达式的引用，或者根据引用的可变性修改模式以显式匹配&amp;&lt;pattern&gt;或&amp;mut&lt;pattern&gt;。对于绑定，您需要使用相反的方法。如果您希望复制值，可以将它们保留为纯绑定，但必须使用ref mut＜variable＞或ref＜variable＜在匹配的结构中构造引用。如果您正在寻找更详细地了解所有权语义的方法，建议您查看可用的IDE选项，以突出显示代码中的类型、生命周期和引用语义。即使在各种模式匹配机制之外，可用的工具也会以通用的方式暴露这些东西。当然，这个lint仍然可以用来突出感兴趣的领域，并确保很好地理解所有权语义。</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>此lint检查类型为&amp;String、&amp;Vec、&amp;PathBuf和Cow＜_＞的函数参数。它还建议您将.clone（）调用替换为适当的.to_owned（）/to_string（）调用。</t>
+          <t>此lint检查类型为&amp;String、&amp;Vec、&amp;PathBuf和Cow&lt;_&gt;的函数参数。它还建议您将.clone（）调用替换为适当的.to_owned（）/to_string（）调用。</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>此lint捕获对零长度Vec的读取。特别是在调用with_capacity的情况下，此lint警告readgets是从Vec的长度而非容量中获取字节数。</t>
+          <t>这个lint捕获对零长度Vec的读取。特别是在调用with_capacity的情况下，这个linet警告read从Vec的长度而不是容量中获取字节数。</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>检查只返回等待未来的异步块。</t>
+          <t>检查只在将来返回await的async块。</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>检查冗余克隆（）（及其亲属），该克隆克隆将被丢弃而不再使用的所有者值。</t>
+          <t>检查一个冗余克隆（）（及其亲属），该克隆克隆将被丢弃而不再使用的所有者值。</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>检查结构文本中可以使用shorthands的字段。</t>
+          <t>检查struct文本中可以使用shorthands的字段。</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>检查声明为pub（板条箱）的物品，这些物品由于在专用模块内而不可见。</t>
+          <t>检查声明为pub（crate）的项目，这些项目由于在私有模块内而不可见。</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>它检测一个结构是否有两个同名的方法：一个来自trait，另一个不来自trait。</t>
+          <t>如果一个struct有两个同名的方法：一个来自trait，另一个不来自trait。</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，这个lint建议在块内部。看看另一种选择的分号outside_block。</t>
+          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，lint都建议在块内部。另一种选择是分号outside_block。</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，这个lint建议在块外。看看另一种选择的分号_inside_block。</t>
+          <t>为了保持一致性，最好在块内部/外部使用分号。无论哪种方式都很好，lint建议在块外。另一种选择请查看分号_inside_block。</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>具有no-std兼容性的机箱可能希望确保从核心导入类型，以确保重新编译std不会导致机箱编译失败。这种皮棉也有助于板条箱迁移，使其与no-std兼容。</t>
+          <t>具有no-std兼容性的板条箱可能希望确保从核心导入类型，以确保重新编译std不会导致crate编译失败。此lint也可用于板条箱迁移，使其与no-std兼容。</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>具有no-std兼容性并需要alloc的机箱可能希望确保从alloc导入类型，以确保禁用std不会导致机箱编译失败。这种皮棉也适用于迁移到no-std兼容的板条箱。</t>
+          <t>具有no-std兼容性并需要alloc的机箱可能希望确保从alloc导入类型，以确保禁用std不会导致crate编译失败。这个lint也适用于crates迁移到no-std兼容。</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>具有no-std兼容性并可能需要alloc的机箱可能希望确保从核心导入类型，以确保禁用alloc不会导致机箱编译失败。这种短绒也适用于迁移到no-std兼容的板条箱。</t>
+          <t>具有no-std兼容性并可能需要alloc的机箱可能希望确保从核心导入类型，以确保禁用alloc不会导致crate编译失败。这个lint对于crates迁移到no_std兼容也很有用。</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>检查手动交换。注意，lint不会在const块中发出，因为该建议不适用。</t>
+          <t>检查手动交换。请注意，lint不会在const块中发出，因为该建议不适用。</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>铁锈风格指南提倡使用空格而不是制表符进行缩进。为了保持对源代码的一致看法，文档注释也不应该有制表符。此外，当作者和读者的显示设置不同时，解释包含制表符的ascii图可能会显示不正确。</t>
+          <t>rust样式指南提倡使用空格而不是制表符进行缩进。为了保持对源代码的一致性，文档注释也不应该有制表符。此外，当作者和读者的显示设置不同时，解释包含制表符的ascii图可能会不正确地显示。</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12045,12 +12045,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>当在没有repr属性的情况下声明具有尾随零大小数组的结构时，显示警告。</t>
+          <t>当声明带有尾随零大小数组的struct而没有repr属性时，显示警告。</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>零大小的数组在Rust本身中不是很有用，因此创建这样的结构很可能是为了传递给C代码，或者在其他对内存布局的控制很重要的情况下（例如，结合手动分配，可以轻松计算数组的偏移量）。无论哪种方式，都需要#[repr（C）]（或另一个repr属性）。</t>
+          <t>零大小的数组在Rust本身中不是很有用，所以创建这样的struct很可能是为了传递给C代码，或者在其他对内存布局的控制很重要的情况下（例如，结合手动分配，可以轻松计算数组的偏移量）。无论哪种方式，都需要#[repr（C）]（或另一个repr属性）。</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>该lint警告在特征范围内不必要的类型重复</t>
+          <t>此lint警告特征边界中不必要的类型重复</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>检查包含Box＜T＞的返回类型，其中T实现SizedLint忽略Box＜T&gt;，其中T大于unnecessary_Box_size，因为直接返回大T可能会对性能不利。</t>
+          <t>检查包含Box＜T＞的返回类型，其中T实现Sizedlint忽略Box＜T&gt;，其中T大于unnecessary_Box_size，因为直接返回大T可能会对性能不利。</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -12506,12 +12506,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>通过复制基而不设置任何字段来检查结构的初始化。</t>
+          <t>通过复制基而不设置任何字段来检查struct的初始化。</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>可读性受到不必要的结构构建的影响。</t>
+          <t>可读性受到不必要的struct构建的影响。</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>没有异步代码的异步函数在心理和计算上都会产生开销。异步方法的调用方要么需要自己从异步函数调用，要么在执行器上运行，这两者都会给调用方带来运行时开销和麻烦。</t>
+          <t>没有Async代码的异步函数在心理和计算上都会产生开销。Async方法的调用方要么需要自己从assync函数调用，要么在执行器上运行，这两种情况都会给调用方带来运行时开销和麻烦。</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>在CamelCase中，首字母缩略词算作一个单词。有关更多信息，请参阅命名惯例。默认情况下，lint仅在全大写名称上触发。您可以使用大写首字母缩写词aggressive：true config选项在所有camel大小写名称上启用lintin</t>
+          <t>在CamelCase中，首字母缩略词算作一个单词。有关更多信息，请参阅命名惯例。默认情况下，lint仅在全大写名称上触发。您可以使用大写首字母缩略语aggressive：true config选项在所有camel大小写名称上启用linting</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>在创建新的Vec后立即检查对push的调用。如果使用with_capacity创建Vec，则只有在容量保持不变且推送次数大于或等于初始容量时，才会进行lint。如果Vec在初始推送序列之后扩展，并且它是默认初始化的，则至少有四次推送后，才会进行linet。这个数字将来可能会改变。</t>
+          <t>在创建新的Vec后立即检查对push的调用。如果使用with_capacity创建Vec，则只有在容量不变且推送次数大于或等于初始容量的情况下，此调用才会lint。如果Vec在初始推送序列之后扩展，并且它是默认初始化的，则至少有四次推送后，此调用才lind。这个数字将来可能会改变。</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>使用println时，此皮棉会发出警告！（“”）打印新行。</t>
+          <t>当您使用println时，此lint会发出警告！（“”）打印新行。</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>当你使用印花时，这种棉绒会发出警告！（），格式字符串以换行符结尾。</t>
+          <t>当您使用打印时，此lint会发出警告！（），格式字符串以换行符结尾。</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>使用文字作为println！args是低效的（c.f。，https://github.com/matthiaskrgr/rust-str-bench)和不必要的（即，只需将文本放在格式字符串中）</t>
+          <t>使用文本作为println！参数是低效的（c.f。，https://github.com/matthiaskrgr/rust-str-bench)和不必要的（即，只需将文本放在格式字符串中）</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>当你使用write时，这个lint会发出警告！（），格式字符串以换行结束。</t>
+          <t>当您使用write时，此lint会发出警告！（），格式字符串以换行结束。</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>检查是否安装了多个版本的板条箱。</t>
+          <t>检查是否安装了crate的多个版本。</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>检查从任何数字类型到浮点类型的强制转换，如果接收类型无法存储原始类型中的所有值而没有超出范围的错误。这种可能的舍入是意料之中的，所以这个lint在默认情况下是Allow。基本上，这会警告将任何32位或更多位的整数强制转换为f32，或将任何64位整数强制转换成f64。</t>
+          <t>检查从任何数字类型到浮点类型的强制转换，如果接收类型无法存储原始类型中的所有值而没有超出范围的错误。这种可能的四舍五入是意料之中的，所以默认情况下，这个lint是Allow。基本上，当将任何32位或更多位的整数强制转换为f32或将任何64位的整数转换为f64时，这会发出警告。</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>检查从有符号数字类型到无符号数字类型的强制转换。在这种情况下，负值会变成大的正值，这在实践中可能会非常令人惊讶。但是，由于强制转换按定义工作，该lint在默认情况下为“允许”。</t>
+          <t>检查从有符号数字类型到无符号数字类型的强制转换。在这种情况下，负值会变成大的正值，这在实践中可能会非常令人惊讶。但是，由于强制转换按定义工作，默认情况下此lint为Allow。</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>在某些问题领域，避免截断是一种很好的做法。这种棉绒可以被激活，以帮助评估额外检查可能有益的地方。</t>
+          <t>在某些问题领域，避免截断是一种很好的做法。该lint可以被激活，以帮助评估额外检查可能有益的地方。</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>检查是否从枚举类型强制转换为肯定会截断值的整型。</t>
+          <t>检查是否从enum类型转换为肯定会截断值的整型。</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -14213,12 +14213,12 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>检查从枚举元组构造函数到整数的强制转换。</t>
+          <t>检查从enum元组构造函数到整数的强制转换。</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>强制转换很容易与将类似c的枚举值强制转换为整数混淆。</t>
+          <t>强制转换很容易与将类似c的enum值强制转换为整数混淆。</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>该函数几乎肯定应该被标记为不安全，因为对于一个rbitrary原始指针，没有办法确定它是否有效。通常，除非它是肯定的（如果是，请提交一个问题），否则永远不应该禁用此lint，因为它破坏了Rust的健全性保证，直接使API用户面临潜在的危险程序行为。对于内部API也是如此，因为它很容易泄漏。</t>
+          <t>该函数几乎肯定应该被标记为不安全，因为对于一个原始指针，没有办法确定它是否有效。通常，除非它肯定是肯定的（如果是，请提交一个问题），否则永远不应该禁用这个lint，因为它破坏了Rust的可靠性保证，直接使API用户面临潜在的危险程序行为。对于内部API也是如此，因为它很容易泄漏。</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>一点也不坏，这个lint只是显示了可以添加属性的地方。</t>
+          <t>不错，这个lint只是显示了可以添加属性的地方。</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>这些繁忙的循环在不做任何事情的情况下消耗CPU周期。恐慌几乎总是一个更好的主意！如果恐慌是不可能的，考虑一下环境，要么：阻塞一些东西，让线程休眠几微秒，要么暂停线程。对于std目标，这可以承受：：thread:：sleep或std:：thread：：yield_now。对于no-std目标，这样做更复杂，尤其是因为#[pacil_handler]s不能恐慌。要停止/暂停线程，您可能需要调用一些特定于目标的内在函数。示例包括：x86_64:：instructions:：hltcortex_m:：asm:：wfi</t>
+          <t>这些繁忙的循环在不做任何事情的情况下消耗CPU周期。panic！几乎总是比有一个繁忙的循环更好的主意。如果恐慌是不可能的，考虑一下环境，要么：阻塞一些东西，让线程休眠几微秒，要么暂停线程。对于std目标，这可以在：thread:：sleep或std:：thread：：yield_now下完成。对于no-std目标，这样做更复杂，尤其是因为#[panic_handler]不会恐慌。要停止/暂停线程，您可能需要调用一些特定于目标的内在函数。示例包括：x86_64:：instructions:：hltcortex_m:：asm:：wfi</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -15698,12 +15698,12 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>使用_检查通配符枚举匹配。</t>
+          <t>使用_检查通配符enum匹配项。</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>库更新添加的新枚举变体可能会丢失。</t>
+          <t>库更新添加的新enum变体可能会丢失。</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -15738,12 +15738,12 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>检查单个变体的通配符枚举匹配项。</t>
+          <t>检查单个变体的通配符enum匹配项。</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>库更新添加的新枚举变体可能会丢失。</t>
+          <t>库更新添加的新enum变体可能会丢失。</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>检查用于销毁单个变量枚举元组结构的匹配项，其中let就足够了。</t>
+          <t>检查用于销毁单个变量枚举元组struct的匹配项，其中let就足够了。</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -15896,12 +15896,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>检查是否存在不必要的“..”当所有字段都显式匹配时，结构上的模式绑定。</t>
+          <t>检查是否存在不必要的“..”当所有字段都显式匹配时，struct上的模式绑定。</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>正确性和可读性。这就像在显式匹配所有枚举变体后使用通配符模式一样。</t>
+          <t>正确性和可读性。这就像在显式匹配所有enum变体之后有一个通配符模式。</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>在不添加任何分支的情况下，查找模式可能“折叠”在一起的嵌套匹配或if let表达式。请注意，此lint并不是用于查找所有可以合并嵌套匹配模式的情况，而是仅用于合并最有可能使代码更可读的情况。</t>
+          <t>在不添加任何分支的情况下，查找模式可能“折叠”在一起的嵌套匹配或if let表达式。请注意，此lint并不是要查找所有可以合并嵌套匹配模式的情况，而是仅用于合并最有可能使代码更具可读性的情况。</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>最好处理None或Err的情况，或者至少调用.expect（_）并返回更有用的消息。尽管如此，对于许多快速且肮脏的代码，unwrap是一个不错的选择，这就是为什么这个lint默认为Allow.result.unwrap（）会让线程对Err值感到恐慌。通常，你想实现更复杂的错误处理，并用？操作员。即使你想对错误感到恐慌，也不是所有的错误都能在显示中实现好消息。因此，查看它们可能显示的位置可能是有益的。激活这个棉绒就可以做到这一点。</t>
+          <t>最好处理None或Err的情况，或者至少调用.expect（_）并返回更有用的消息。尽管如此，对于许多快速且肮脏的代码，unwrap是一个不错的选择，这就是为什么这个lint默认为Allow.result.unwrap（）会让线程对Err值感到恐慌。通常，你想实现更复杂的错误处理，并用向上传播错误？操作员。即使你想对错误感到恐慌，也不是所有的错误都能在显示中实现好消息。因此，查看它们可能显示的位置可能是有益的。激活此lint即可执行此操作。</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>通常最好处理None或Err的情况。不过，对于许多快速且脏的代码，expect是一个不错的选择，这就是为什么lint默认为Allow的原因。result.expect（）会让线程在Errvalues上死机。通常，您希望实现更复杂的错误处理，并使用向上传播错误？操作人员</t>
+          <t>通常最好处理None或Err的情况。不过，对于许多快速且肮脏的代码，expect是一个不错的选择，这就是为什么默认情况下lint为Allow。result.expect（）会让线程在Errvalues上死机。通常，您希望实现更复杂的错误处理，并使用向上传播错误？操作人员</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>检查具有特定名称前缀或后缀的方法，并且不遵守关于如何获取self的标准约定。实际规则为：|Prefix |Postfix |self-take|self-type||-------|--------------------------------------------||as_|none|&amp;self或&amp;mut-self|any|from_|none|none|any||into_|none|self|any||is_|none|&amp;mut-self或&amp;self或none|any|to_|_mut |&amp;mut-self|any|to_|not_mut |self|Copy||to_| not_mut |&amp;self|notCopy|注意：Clippy不会触发在：特征定义中带有to_前缀的方法trait是否为Copy。当采用&amp;self时，实现Traits。方法签名由trait控制，并且通常实现trait的所有类型都需要&amp;self（例如，请参阅std:：string:：ToString trait）。如果需要&amp;selve和&amp;mut self，Clippy允许Pin＜&amp;self＞和Pin＜&amp;mut self＞。请在此处查找更多信息：https://rust-lang.github.io/api-guidelines/naming.html#ad-hoc-conversions-follow-as-to-into-conventions-c-conv</t>
+          <t>检查具有特定名称前缀或后缀的方法，并且不遵守关于如何获取self的标准约定。实际规则为：|Prefix|Postfix|self-take|self-type||--------------------------------------------|------------------------------||as_|none|&amp;self或&amp;mut self|any||from_|none|any|into_|none|self|any|Copy||to_|not_mut|&amp;self|notCopy|注意：Clippy在：Traits定义中不触发带有to_前缀的方法。Clippy无法判断实现trait的类型是否为Copy。Traits实现，当使用&amp;self时。方法签名由trait控制，并且通常实现trait的所有类型都需要&amp;self（例如，请参见std:：string:：ToString trait）。如果需要&amp;selve和&amp;mut self，Clippy允许Pin＜&amp;self＞和Pin＜&amp;mut self＞。请在此处查找更多信息：https://rust-lang.github.io/api-guidelines/naming.html#ad-hoc-conversions-follow-as-to-into-conventions-c-conv</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>使用x.last（）更容易阅读，并且具有相同的结果。注意，使用x[x.len（）-1]在语义上与x.last。</t>
+          <t>使用x.last（）更容易阅读，并且具有相同的结果。请注意，使用x[x.len（）-1]在语义上与x.last。</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>作为or_fun_call的对应项，此lint在Option和Result上查找不必要的求值闭包。当在示例代码中得到急切的求值结果时，此linnt建议更改以下函数：unwrap_or_else到unwrap_orand_then到andor_other到orget_or_insert_with到get_or_inserterk_or_elsen到ok_orthen到then_some（对于msrv&gt;=1.62.0）</t>
+          <t>作为or_fun_call的对应项，此lint在Option和Result上查找不必要的求值闭包。当在简单代码中得到急切的求值结果时，此_lint建议更改以下函数：unwrap_or_else到unwrap_orand_then到andor_olset到orget_or_insert_with到get_or_inserterk_or_els到ok_orthen到then_some（对于msrv&gt;=1.62.0）</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>在Iterator或Option上检查map（|x|x.clone（））orderreference闭包对Copy类型的使用情况，并建议改用cloned（）或copied（）</t>
+          <t>在Iterator或Option上检查map（|x|x.clone（））ordereferencing闭包对Copy类型的使用情况，并建议改用cloned（）或copied（）</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>此map_err丢弃原始错误，而不允许枚举包含并报告错误原因</t>
+          <t>此map_err丢弃原始错误，而不允许enum包含并报告错误原因</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>检查重复（1）的用法，并为每种类型建议以下方法。。to_string（）for str.clone（）for string.to_vec（）for sliceLint将计算常量表达式和值作为.reeat（..）的参数，并在它们等于1时发出消息。（在锈夹子#7306中的相关讨论）</t>
+          <t>检查重复（1）的用法，并为每种类型建议以下方法。。to_string（）for str.clone（）for string。to_vec（）for slicelint将计算常量表达式和值作为.reeat（..）的参数，并在它们等于1时发出消息。（在锈夹子#7306中的相关讨论）</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>检查比较中是否存在不兼容的位掩码。可以从下表中确定用于检测类型为_&lt;bit_op&gt;m&lt;cmp_op&gt;c的表达式（其中&lt;bit_op&gt;是｛&amp;，|｝之一，&lt;cmp_oop&gt;是｛！=，&gt;=，&gt;，！=，&gt;&gt;｝之一）的公式：|Comparison|bit-op|示例|始终为|formula ||---------------|---------------|---------------|===或！=|&amp;|x&amp;2==3|false|c&amp;m！=c||&lt;或&gt;=|&amp;|x&amp;2&lt;3|true|m&lt;c||&gt;或&lt;=|&amp;| x&amp;1&gt;1|false|m&lt;=c||==或！=|\||x\|1==0|false|c\|m！=c||&lt;或&gt;=|\|x\|1&lt;1|false|m&gt;=c||&lt;=或&gt;||x\|1&gt;0|true|m&gt;c|</t>
+          <t>检查比较中是否存在不兼容的位掩码。可以从下表中确定用于检测类型为_&lt;bit_op&gt;m&lt;cmp_op&gt;c的表达式（其中&lt;bit_op&gt;是｛&amp;，|｝之一，&lt;cmp_oop&gt;是｛！=，&gt;=，&gt;，！=，&gt;&gt;｝之一）的公式：|比较|位操作|示例|始终为|公式||--------------|--------------|--------------------------------------------|===或！=|&amp;|x&amp;2==3|false|c&amp;m！=c||&lt;或&gt;=|&amp;|x&amp;2&lt;3|true|m&lt;c||&gt;或&lt;=|&amp;| x&amp;1&gt;1|false|m&lt;=c||==或！=|\||x\|1==0|false|c\|m！=c||&lt;或&gt;=|\|x\|1&lt;1|false|m&gt;=c||&lt;=或&gt;||x\|1&gt;0|true|m&gt;c|</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -21045,7 +21045,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>位运算符不支持短路，因此可能会阻碍代码性能。此外，布尔逻辑“屏蔽”为位逻辑不会被unnecessary_fold等lint捕获</t>
+          <t>逐位运算符不支持短路，因此可能会阻碍代码性能。此外，布尔逻辑“屏蔽”为逐位逻辑不会被lints捕获，如unnecessary_fold</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>选项&lt;_&gt;表示一个可选值。Option＜Option＜_＞表示一个可选值，该值本身封装了一个可选。这在逻辑上与可选值相同，但有一个不必要的额外包装级别。如果您的案例中Some（Some（_））、Some（None）和None是不同的案例，请考虑使用自定义枚举，每个案例都有明确的名称。</t>
+          <t>选项&lt;_&gt;表示一个可选值。Option＜Option＜_＞表示一个可选值，该值本身封装了一个可选。这在逻辑上与可选值相同，但有一个不必要的额外包装级别。如果您的案例中Some（Some（_））、Some（None）和None是不同的案例，请考虑使用自定义enum，每个案例都有明确的名称。</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -22069,7 +22069,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>array_into_iter lint检测在数组上调用into_ter。</t>
+          <t>array_into_iterlint检测在数组上调用into_ter。</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>while_true lint检测while为true｛｝。</t>
+          <t>while_truelint检测到while-true｛｝。</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -22123,12 +22123,12 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>box_pointers lints使用box类型。</t>
+          <t>box_pointerslints使用box类型。</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>这种皮棉大多是历史性的，并不是特别有用。Box＜T＞曾经被内置到该语言中，也是进行堆分配的唯一方法。今天的Rust可以调用其他分配器等。</t>
+          <t>这个lint主要是历史性的，并不是特别有用。Box＜T＞曾经被内置到该语言中，也是进行堆分配的唯一方法。今天的Rust可以调用其他分配器等。</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -22152,7 +22152,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>non_shorthand_field_patterns lint在模式中使用Struct｛x:x｝而不是Struct{x｝进行检测。</t>
+          <t>non_shorthand_field_patternslint检测到在模式中使用Struct｛x:x｝而不是Struct{x｝。</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -22190,12 +22190,12 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>unsafecode lint捕获不安全代码的使用。</t>
+          <t>unsafecodelint捕获不安全代码的使用。</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>这种棉绒旨在限制不安全的使用，这可能会使正确使用变得困难。</t>
+          <t>此lint旨在限制不安全的使用，这可能会使正确使用变得困难。</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -22220,12 +22220,12 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>missing_docs lint检测到公共项目缺少文档。</t>
+          <t>missing_docslint检测到公共项目缺少文档。</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>此lint旨在确保库具有良好的文档。没有文档的项目可能很难让用户理解如何正确使用。此lint默认为“允许”，因为它可能会发出噪音，并且并非所有项目都希望强制所有内容都要文档化。</t>
+          <t>此lint旨在确保库具有良好的文档。没有文档的项目可能很难让用户理解如何正确使用。默认情况下，此linet是“允许”的，因为它可能很嘈杂，并且并非所有项目都希望强制所有内容都有文档。</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -22247,12 +22247,12 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>missing_copy_implementations lint检测公共类型可能放弃的copy实现。</t>
+          <t>missing_copy_implementationslint检测到公共类型可能放弃的copy实现。</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>历史上（在1.0之前），如果可能的话，类型会自动标记为Copy。这一点已经改变，因此它需要一个明确的选择加入来实现复制特性。作为此更改的一部分，如果可复制类型没有标记为Copy，则添加了一个lint以提醒。此lint默认为“允许”，因为此代码还不错；通常会专门编写这样的新类型，这样Copy类型就不再是Copy了。复制类型可能会导致意外复制大数据，从而影响性能。</t>
+          <t>历史上（在1.0之前），如果可能的话，类型会自动标记为Copy。这一点已经改变，因此它需要一个明确的选择加入来实现复制特性。作为此更改的一部分，如果可复制类型未标记为Copy，则添加了一个lint以发出警报。默认情况下，此linnt为“允许”，因为此代码还不错；通常会专门编写这样的新类型，这样Copy类型就不再是Copy了。复制类型可能会导致意外复制大数据，从而影响性能。</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -22305,12 +22305,12 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>anonymous_parameters lint检测训练定义中的匿名参数。</t>
+          <t>匿名参数lint检测训练定义中的匿名参数。</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>这种语法大多是历史上的意外，可以通过添加_模式或描述性标识符来轻松解决：trait Foo｛fn Foo（_:usize）；｝这种语法现在在2018版中是一个严重错误。在2015版中，此lint默认为“警告”。此Lint使带有--edition标志的货物修复工具能够自动将旧代码从2015版转换到2018版。该工具将运行此lint并自动应用编译器建议的修复程序（即向每个参数添加_）。这提供了一种完全自动化的方式来为新版本更新旧代码。有关更多详细信息，请参阅第41686期。</t>
+          <t>这种语法大多是历史上的意外，可以通过添加_模式或描述性标识符来轻松解决：trait Foo｛fnFoo（_:usize）；｝这种语法现在在2018版中是一个严重错误。在2015版中，默认情况下，此lint为“警告”。此Lint使带有--edition标志的carge修复工具能够自动将旧代码从2015版转换到2018版。该工具将运行此lint并自动应用编译器建议的修复程序（即向每个参数添加_）。这提供了一种完全自动化的方式来为新版本更新旧代码。有关更多详细信息，请参阅第41686期。</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>no_mangle_const_items lint检测具有no_mangle属性的任何常量项。</t>
+          <t>no_mangle_const_itemslint检测具有no_mangle属性的任何常量项。</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>no_mangle_generic_items lint检测必须混淆的泛型项。</t>
+          <t>no_mangle_generic_itemslint检测必须混淆的泛型项。</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>mutable_transmutes lint捕获从&amp;T转换为&amp;mut T的过程，因为这是未定义的行为。</t>
+          <t>mutable_transmuteslint捕获了从&amp;T到&amp;mut T的转换，因为这是未定义的行为。</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>当在异步函数、方法或闭包上使用#[track_caller]属性，而没有启用相应的不稳定功能标志时，unsted_async_fn_track_caller lint会发出警告。</t>
+          <t>当#[track_caller]属性用于async函数、方法或闭包时，unsted_async_fn_track_callerlint会发出警告，而不会启用相应的不稳定功能标志。</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -22464,12 +22464,12 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>无法从机箱根目录访问pub项目的unreachable_pub lint触发器。</t>
+          <t>无法从crate根访问的pub项目的unreachable_publint触发器。</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>如果商品实际上不是从板条箱中公开出口的，那么裸露的酒吧可见性可能会产生误导。建议使用pub（板条箱）可见性，这更清楚地表达了物品只在自己的板条箱中可见的意图。该lint默认为“允许”，因为它会触发大量现有的Rust代码，并且有一些误报。最终，它希望在默认情况下成为警告。</t>
+          <t>如果商品实际上不是从板条箱中公开出口的，那么裸露的酒吧可见性可能会产生误导。建议使用pub（板条箱）可见性，这更清楚地表达了物品只在自己的板条箱中可见的意图。默认情况下，这个lint是“允许”的，因为它会触发大量现有的Rust代码，并且有一些误报。最终，它希望在默认情况下成为警告。</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -22494,7 +22494,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>type_alias_bounds lint检测类型别名中的边界。</t>
+          <t>type_alias_boundslint检测类型别名中的边界。</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>平凡边界lint检测不依赖于任何类型参数的特征边界。</t>
+          <t>trivial_boundslint检测不依赖于任何类型参数的特征边界。</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>ellipsis_inclusive_range_patterns lint检测到。。。rangepattern，已弃用。</t>
+          <t>ellipsis_inclusive_range_patternslint检测。。。rangepattern，已弃用。</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -22577,12 +22577,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>unnameable_test_items lint检测#[test]函数，这些函数无法由测试线束运行，因为它们位于不可命名的位置。</t>
+          <t>unnameable_test_itemslint检测#[test]函数，这些函数无法由测试线束运行，因为它们位于不可命名的位置。</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>为了让测试线束运行测试，测试函数必须位于可以从机箱根访问的位置。这通常意味着它必须在模块中定义，而不是在其他任何地方，例如在另一个函数中。编译器以前允许这样做而没有错误，因此添加了一个lint作为没有使用测试的警告。这是否应该被允许还没有决定，请参阅RFC 2471和问题#36629。</t>
+          <t>为了让测试线束运行测试，测试函数必须位于可以从crate根访问的位置。这通常意味着它必须在模块中定义，而不是在其他任何位置定义，例如在另一个函数中。编译器以前允许这样做而没有出现错误，因此添加了lint作为没有使用测试的警告。这是否应该被允许还没有决定，请参阅RFC 2471和问题#36629。</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -22609,12 +22609,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>keyword_idents lint检测用作标识符的版本关键字。</t>
+          <t>关键字word_identslint检测用作标识符的版本关键字。</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。这个lint捕获使用新关键字的代码，这些关键字被添加到用作标识符的语言中（如可用名称、函数名称等）。如果你在不更新代码的情况下将编译器切换到新版本，那么如果你使用新关键字作为标识符，它将无法编译。你可以手动将标识符更改为非关键字，或者使用araw标识符，例如r#dyn，转换到新版本。这个lint自动解决了问题。默认情况下它是“允许”的，因为代码在旧版本中完全有效。带有--edition标志的货物修复工具将把这个lint切换到“warn”，并自动应用编译器建议的修复（它将使用原始标识符）。这提供了一种为新版本更新旧代码的完全自动化的方式。</t>
+          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。此lint捕获使用新关键字的代码，这些关键字将添加到用作标识符的语言中（如可用名称、函数名称等）。如果您在不更新代码的情况下将编译器切换到新版本，则如果您使用新关键字作为标识符，则它将无法编译。您可以手动将标识符更改为非关键字，或使用新标识符，例如r#dyn，转换到新版本。这lint自动解决了问题。默认情况下它是“允许”的，因为代码在旧版本中完全有效。带有--edition标志的carge修复工具将把这个lint切换到“警告”，并自动应用编译器建议的修复（它将使用原始标识符）。这提供了一种为新版本更新旧代码的完全自动化的方式。</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>不完整_功能lint检测使用功能属性启用的不稳定功能，这些功能在某些或所有情况下可能无法正常工作。</t>
+          <t>不完整功能lint检测到使用功能属性启用的不稳定功能，这些功能在某些或所有情况下可能无法正常工作。</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -22663,12 +22663,12 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>invalid_value lint检测创建的值无效，例如null引用。</t>
+          <t>invalid_valuelint检测创建的值无效，例如null引用。</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>在某些情况下，编译器可以检测到代码创建了一个无效值，这应该避免。特别是，此lint将检查是否使用了可能导致未定义行为的mem:：zered、mem:：uninitialized、mem：：transmite和MaybeUninit:：assume_init。lint应该提供额外的信息来说明问题所在以及可能的解决方案。</t>
+          <t>在某些情况下，编译器可以检测到代码正在创建一个无效值，这应该避免。特别是，此lint将检查是否不正确使用了可能导致未定义行为的mem:：zered、mem:：uninitialized、mem：：transmite和MaybeUninit:：assume_init。lint应该提供额外的信息来说明问题所在以及可能的解决方案。</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -22692,12 +22692,12 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>当使用相同名称但不同类型声明外部fn时，clashing_extern_declarations lint会检测到。</t>
+          <t>clashing_extern_declarationslint检测何时使用相同名称但不同类型声明了外部fn。</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>由于同一名称的两个符号在链接时无法解析为两个不同的函数，并且一个函数不可能具有两种类型，因此几乎可以肯定，使用冲突的外部声明是错误的。检查以确保外部定义是正确和等效的，并可能考虑将它们统一在一个位置。此lint不会在板条箱之间运行，因为一个项目可能具有依赖项，它们都依赖于相同的外部函数，但以不同的（但有效的）方式解密。例如，它们既可以为一个或多个参数声明不透明类型（这将结束更新类型），也可以使用在定义extern fn的语言中有效转换的类型。在这些情况下，编译器不会说冲突声明是不正确的。</t>
+          <t>由于同一名称的两个符号在链接时无法解析为两个不同的函数，并且一个函数不可能具有两种类型，因此几乎可以肯定，使用冲突的外部声明是错误的。检查以确保外部定义是正确和等效的，并可能考虑将它们统一在一个位置。此lint不会在crates之间运行，因为项目可能具有依赖项，它们都依赖于相同的外部函数，但以不同的（但有效的）方式解密。例如，它们既可以为一个或多个参数声明不透明类型（这将结束更新类型），也可以使用在定义externfn的语言中有效转换的类型。在这些情况下，编译器不会说冲突声明是不正确的。</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -22725,7 +22725,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>deref_nullptr lint检测何时取消引用空指针，这会导致未定义的行为。</t>
+          <t>deref_nullptrlint检测何时取消引用空指针，这会导致未定义的行为。</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>named_asm_labels lint检测到在线asm中使用了命名标签！宏。</t>
+          <t>named_asm_labelslint检测到在线asm中使用了命名标签！宏。</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -22789,12 +22789,12 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>special_module_name lint检测具有特殊意义的文件的模块声明。</t>
+          <t>special_module_namelint检测具有特殊含义的文件的模块声明。</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Cargo将lib.rs和main.rs识别为alibrary或二进制机箱的根，因此除非配置正确，否则将它们声明为模块将导致机箱编译错误。要从同一机箱内的二进制目标访问库，使用your_crate_name:：作为路径，而不是lib:：//bar/src/lib.rsfn run（）｛//…｝//bar/src/main.rsfn main（）｛bar:：run（）；｝二进制目标不能用作库，因此不允许将declarginone作为模块。</t>
+          <t>Cargo将lib.rs和main.rs识别为alibrary或二进制机箱的根，因此除非进行了正确配置，否则将它们声明为模块将导致crate的编译错误。要从同一机箱内的二进制目标访问库，使用your_crate_name:：作为路径，而不是lib:：//bar/src/lib.rsfn run（）｛//…｝//bar/src/main.rsfn main（）｛bar:：run（）；｝二进制目标不能用作库，因此不允许将declarginone作为模块。</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>每当使用dyn supertrait类型为output的deref实现时，就会输出deref_into_dyn_suptrait lint。当trait_upcasting功能稳定时，这些实现将变为阴影。deref函数将不再被隐式调用，因此可能会发生行为更改。</t>
+          <t>只要使用dyn supertrait类型为output的deref实现，就会输出deref_into_dyn_suptraitlint。当trait_upcasting功能稳定时，这些实现将变为阴影。deref函数将不再被隐式调用，因此可能会发生行为更改。</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>dropping_references lint检查对std：：mem：：drop的调用是否带有一个所属值的referenceinstead。</t>
+          <t>dropping_referenceslint检查对std:：mem:：drop的调用是否具有所属值的referenceinstead。</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>forgeting_references lint检查对std：：mem：：forget的调用是否带有一个所属值的referenceinstead。</t>
+          <t>forgetting_referenceslint检查对std：：mem：：forget的调用是否带有所属值的referenceinstead。</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>dropping_copy_types lint检查对std:：mem:：drop的调用是否具有派生copy特性的值。</t>
+          <t>dropping_copy_typeslint检查对std:：mem:：drop的调用是否具有派生copy特性的值。</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>forgeting_copy_types lint检查对std:：mem:：forget的调用，该调用的值派生copy特性。</t>
+          <t>forgetting_copy_typeslint使用派生copy特性的值来检查对std:：mem:：forget的调用。</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -22972,12 +22972,12 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>enum_intrinsics_non_enums-lint检测对需要枚举（core:：mem:：differential，core:：mem:：variant_count）但使用非枚举类型调用的intrinsic函数的调用。</t>
+          <t>enum_intrinsics_non_enumslint检测对需要enum（core:：mem:：differential，core:：mem:：variant_count）但使用非枚举类型调用的intrinsic函数的调用。</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>为了接受任何枚举，mem:：differential和mem:：variant_count函数在类型T上是泛型的。这使得T在技术上可以是非枚举，在这种情况下返回值是未指定的。此lint可以防止这些函数的错误使用。</t>
+          <t>为了接受任何枚举，mem:：differential和mem:：variant_count函数在类型T上是泛型的。这使得T在技术上可以是非枚举，在这种情况下返回值是未指定的。这lint防止了这些函数的错误使用。</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>for_loops_over_fallibles lint检查Option或Result值上的循环。</t>
+          <t>for_loops_over_fallibleslint检查Option或Result值上的循环。</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -23026,12 +23026,12 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>text_direction_codepoint_in_litrial lint检测Unicode代码点，这些代码点以与内存表示不一致的方式更改屏幕上文本的视觉表示。</t>
+          <t>text_direction_codepoint_in_litriallint检测Unicode代码点，这些代码点以与内存表示不一致的方式更改屏幕上文本的视觉表示。</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>unicode字符\u 202A｝、\u 202B｝、/u 202D｝、\u 202E｝、\ u 2066｝、\\u 2067｝、\\ u 2068｝、%u 202C｝和\u 2069｝使屏幕上的文本流在支持这些代码点的软件上改变了方向。这使得文本“abc”在屏幕上显示为“cba”。通过利用支持这些功能的软件，人们可以编写专门编写的文字，使周围的代码看起来像是在执行一个动作，而实际上它正在执行另一个动作。正因为如此，我们主动抵制他们的出现，以避免意外。</t>
+          <t>unicode字符\u 202A｝、\u 202B｝、/u 202D｝、\u 202E｝、\ u 2066｝、\\u 2067｝、\\ u 2068｝、%u 202C｝和\u 2069｝使屏幕上的文本流在支持这些代码点的软件上改变了方向。这使得文本“abc”在屏幕上显示为“cba”。通过利用支持这些功能的软件，人们可以编写专门编写的文字，使周围的代码看起来像是在执行一个动作，而实际上它正在执行另一个动作。正因为如此，我们主动lint反对他们的存在，以避免意外。</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -23055,7 +23055,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>let_underscore_drop-lint检查那些不将具有非平凡drop实现的表达式绑定到任何内容的语句，从而导致表达式立即被丢弃，而不是在作用域结束时。</t>
+          <t>let_underscore_droplint检查那些没有将具有非平凡drop实现的表达式绑定到任何内容的语句，从而导致该表达式立即被丢弃，而不是在作用域结束时。</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -23095,7 +23095,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>let_underscore_lock lint检查那些没有将互斥锁绑定到任何东西的语句，导致锁在作用域结束时立即释放，这通常是不正确的。</t>
+          <t>let_underscore_locklint检查不将互斥锁绑定到任何东西的语句，导致锁立即释放，而不是在作用域结束时释放，这通常是不正确的。</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>map_unit_fn lint检查Iterator:：map是否接收到返回（）的可调用项。</t>
+          <t>map_unit_fnlint检查Iterator:：map是否接收到返回（）的可调用项。</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -23166,7 +23166,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>temporary_cstring_as_ptr lint检测是否获取临时cstring的内部指针。</t>
+          <t>temporary_cstring_as_ptrlint检测是否获取临时cstring的内部指针。</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -23194,12 +23194,12 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>multiple_superstrait_upplast lint检测对象安全特性何时具有多个超级特性。</t>
+          <t>multiple_superstrait_upplastlint检测对象安全特征何时具有多个超级特征。</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>为了支持具有多个超特性的上行，我们需要存储多个vtable，这可能会导致额外的空间开销，即使没有代码实际使用上行。这个lint允许用户识别何时发生这种情况，并决定额外的开销是否合理。</t>
+          <t>为了支持具有多个超特性的上行，我们需要存储多个vtable，这可能会导致额外的空间开销，即使没有代码实际使用上行。这lint允许用户识别此类场景何时发生，并决定额外的开销是否合理。</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>non_camel_case_types lint检测没有camel大小写名称的类型、变体、特征和类型参数。</t>
+          <t>non_camel_case_typeslint检测没有camel大小写名称的类型、变体、特征和类型参数。</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>non_snake_case lint检测没有snake大小写名称的变量、方法、函数、生存期参数和模块。</t>
+          <t>non_snake_caselint检测没有snake大小写名称的变量、方法、函数、生存期参数和模块。</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -23275,7 +23275,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>non_upper_case_globals lint检测没有大写标识符的静态项。</t>
+          <t>non_upper_case_globalslint检测没有大写标识符的静态项。</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -23301,12 +23301,12 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>non_ascii_identits lint检测非ascii标识符。</t>
+          <t>non_ascii_identitslint检测非ascii标识符。</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>此lint允许希望保留仅使用ASCII字符的限制的项目将此lint切换为“禁止”（例如，为了便于协作或出于安全原因）。有关更多详细信息，请参阅RFC 2457。</t>
+          <t>此lint允许希望保留仅使用ASCII字符的限制的项目将此linet切换为“禁止”（例如，为了便于协作或出于安全原因）。有关更多详细信息，请参阅RFC 2457。</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -23331,12 +23331,12 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>uncommon_cdepoints lint在标识符中检测到不常见的Unicode代码点。</t>
+          <t>uncommon_cdepointslint在标识符中检测到不常见的Unicode代码点。</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>该lint警告不要使用不常用的字符，和可能导致视觉混乱。此lint是由包含不属于Unicode®技术标准#39 Unicode安全机制第3.1节标识符的通用安全配置文件所述的“允许”代码点集的代码点的标识符触发的。请注意，不常见代码点集可能会随时间变化。请注意，如果你“禁止”这个lint，那么现有的代码将来可能会失败。</t>
+          <t>此lint警告不要使用不常用的字符，并且可能导致视觉混乱。此lint是由包含不属于Unicode®技术标准#39 Unicode安全机制第3.1节标识符的通用安全配置文件所述的“允许”代码点集的代码点的标识符触发的。请注意，不常见代码点集可能会随时间变化。请注意，如果你“禁止”这个lint，那么现有的代码将来可能会失败。</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -23358,12 +23358,12 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>confusable_idents lint检测标识符之间视觉上可混淆的对。</t>
+          <t>可混淆的标识符lint检测标识符之间视觉上可混淆的对。</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>当不同的标识符在视觉上可能相似时，此lint会发出警告，这可能会导致混淆。可混淆检测算法基于Unicode®技术标准#39 Unicode安全机制第4节可混淆检测。对于每个不同的标识符X，执行函数骨架（X）。如果在同一个机箱中存在两个不同的标识符Xan和Y，其中skeleton（X）=skeleton。</t>
+          <t>当不同的标识符可能在视觉上看起来相似时，会发出警告，这可能会导致混淆。可混淆检测算法基于Unicode®技术标准#39 Unicode安全机制第4节可混淆检测。对于每个不同的标识符X，执行函数骨架（X）。如果在同一个crate中存在两个不同的标识符Xan和Y，其中skeleton（X）=skeleton。</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -23387,12 +23387,12 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>mixed_script_confusables lint检测不同脚本之间标识符中视觉上可混淆的字符。</t>
+          <t>mixed_script_confusableslint检测不同脚本之间标识符中视觉上可混淆的字符。</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>当不同脚本之间的字符看起来可能相似时，此lint会发出警告，这可能会导致混淆。如果板条箱在同一脚本中包含具有不可混淆字符的其他标识符，则不会发出此lint。例如，如果上面给出的例子有另一个带有片假名字符的标识符（例如letカタカナ = 123；），那么这表明你有意使用片假名，它不会对此发出警告。注意，易混淆的字符集可能会随着时间的推移而变化。注意，如果你“禁止”这个lint，现有的代码将来可能会失败。</t>
+          <t>当不同脚本之间的字符看起来可能相似时，此lint会发出警告，这可能会导致混淆。如果crate在同一脚本中包含具有不可混淆字符的其他标识符，则不会发出此linet。例如，如果上面给出的例子有另一个带有片假名字符的标识符（例如letカタカナ = 123；），那么这表明你有意使用片假名，它不会对此发出警告。注意，易混淆的字符集可能会随着时间的推移而变化。注意，如果你“禁止”这个lint，那么现有的代码将来可能会失败。</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>non_fmt_panics lint检测到死机！（..）调用，其中第一个参数不是格式化字符串。</t>
+          <t>non_fmt_panicslint检测到死机！（..）调用，其中第一个参数不是格式化字符串。</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -23441,12 +23441,12 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>noop_method_call lint检测对noop方法的特定调用，将其作为调用&lt;&amp;T as Clone&gt;：：Clone，其中T:！克隆</t>
+          <t>noop_method_calllint检测对noop方法的特定调用，将其作为调用&lt;&amp;T as Clone&gt;：：Clone，其中T:！克隆</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>有些方法调用是noop，这意味着它们什么都不做。通常，这样的方法是一揽子实现的结果，这些实现碰巧创建了一些方法调用，但最终什么都不做。例如，克隆在所有&amp;T上都实现了，但在一个&amp;T上调用克隆，其中T没有实现克隆，实际上什么都不做，因为引用是复制的。此lint检测到这些呼叫并向用户发出警告。</t>
+          <t>有些方法调用是noop，这意味着它们什么都不做。通常，这样的方法是一揽子实现的结果，这些实现碰巧创建了一些方法调用，但最终什么都不做。例如，克隆在所有&amp;T上都实现了，但在一个&amp;T上调用克隆，其中T没有实现克隆，实际上什么都不做，因为引用是复制的。此lint检测到这些调用并向用户发出警告。</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -23500,12 +23500,12 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>opaque_hidden_inferred_bound lint检测关联类型边界中的nestedimpl Trait通常未被写入以满足关联类型的边界的情况。</t>
+          <t>opaque_hidden_inferred_boundlint检测关联类型边界中的nestedimpl Trait通常未被写入以满足关联类型的边界的情况。</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>这个功能在#97346中被删除，但后来在#99860中被回滚，因为它导致了倒退。我们计划将其作为一个硬错误重新引入，但同时，这个lint可以警告并建议修复任何依赖此行为的用例。</t>
+          <t>该功能在#97346中被删除，但随后在#99860中被回滚，因为它导致了倒退。我们计划将其作为一个硬错误重新引入，但同时，该lint用于警告并建议修复依赖该行为的任何用例。</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>redundant_name分号lint检测不必要的trailing分号。</t>
+          <t>冗余分号lint检测不必要的跟踪分号。</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>drop_bounds lint使用std:：ops:：drop-asbounds检查泛型。</t>
+          <t>drop_boundslint检查std:：ops:：drop-asbounds的泛型。</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -23597,7 +23597,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>dyn_drop lint使用std:：ops:：drop检查trait对象。</t>
+          <t>dyn_droplint使用std:：ops:：drop检查trait对象。</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>unused_comparisons lint检测由于所涉及类型的限制而变得无用的比较。</t>
+          <t>unused_comparisonslint检测由于所涉及类型的限制而变得无用的比较。</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -23651,7 +23651,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>overlowing_literals lint检测到其类型的文字超出范围。</t>
+          <t>overrowing_literalslint检测到文本超出了其类型的范围。</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -23677,12 +23677,12 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>variant_size_differences lint检测具有广泛变化的变量大小的枚举。</t>
+          <t>variant_size_differenceslint检测具有广泛变化的变量大小的枚举。</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>将一个变体添加到比其他变体大得多的枚举中可能是错误的，这会使所有变体所需的总体大小膨胀。这可能会影响性能和内存使用率。如果一个变量比第二大变量大3倍以上，就会触发这种情况。可以考虑将大变量的内容放在堆上（例如，levia Box），以保持枚举本身的整体大小。默认情况下，这个lint是“允许”的，因为它可能有噪声，并且可能不会产生实际问题。有关这方面的决策应以分析和基准测试为指导。</t>
+          <t>将一个变体添加到比其他变体大得多的enum中可能是错误的，这会使所有变体所需的总体大小膨胀。这可能会影响性能和内存使用率。如果一个变体比第二大变体大3倍以上，就会触发这种情况。考虑将大变体的内容放在堆上（例如，Levia Box），以降低enum本身的整体大小。默认情况下，这个lint是“允许”的，因为它可能有噪声，并且可能不会产生实际问题。有关这方面的决策应以分析和基准测试为指导。</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -23707,12 +23707,12 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>improver_types lint检测到在foreignmodule中不正确使用类型。</t>
+          <t>improver_typeslint检测到在foreignmodule中不正确使用类型。</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>编译器有几个检查来验证外部块中使用的类型是否安全，并遵循某些规则以确保与外部接口的适当兼容性。当检测到定义中可能存在错误时，就会发出此lint。lint通常应该提供问题的描述，并可能提供如何解决问题的提示。</t>
+          <t>编译器有几个检查来验证外部块中使用的类型是否安全，并遵循某些规则以确保与外部接口的适当兼容性。当它检测到定义中可能存在错误时，就会发出此lint。lint通常应该提供问题的描述，并可能提供如何解决问题的提示。</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -23735,12 +23735,12 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>improver_types_definitions lint检测到外部函数定义的错误使用。</t>
+          <t>improver_types_definitionslint检测到外部函数定义的使用不正确。</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>外部函数中可能指定了许多与给定ABI不兼容的参数和返回类型。Thislint是一个警告，不应使用这些类型。lint通常应该提供问题的描述，并可能提示如何解决问题。</t>
+          <t>外部函数中可能指定了许多与给定ABI不兼容的参数和返回类型。Thislint是一个警告，不应使用这些类型。lint通常应该提供该问题的描述，并可能提示如何解决该问题。</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -23762,7 +23762,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>invalid_atomic_ordering lint检测将ordering传递给不支持该排序的原子操作。</t>
+          <t>invalid_atomic_orderinglint检测将ordering传递给不支持该排序的原子操作。</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -23791,7 +23791,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>unused_must_use lint检测标记为#[must_use]的类型的未使用结果。</t>
+          <t>unused_must_uselint检测标记为#[must_use]的类型的未使用结果。</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -23822,12 +23822,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>unused_results lint检查语句中表达式的未使用结果。</t>
+          <t>unused_resultslint检查语句中表达式的未使用结果。</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>忽略函数的返回值可能表示错误。如果几乎可以确定应该使用结果，建议使用must_use属性对函数进行注释。如果不使用这样的返回值，将触发unused_must_userint，默认情况下会发出警告。unused_results lint本质上是相同的，但会触发所有返回值。默认情况下，这个lint是“允许”的，因为它可能有噪音，而且可能不是真正的问题。例如，调用VecorHashMap的remove方法会返回上一个值，您可能不关心这个值。使用这个lint需要显式忽略或丢弃这些值。</t>
+          <t>忽略函数的返回值可能表示错误。如果几乎可以确定应该使用结果，建议使用must_use属性对函数进行注释。如果不使用这样的返回值，将触发unused_must_userint，默认情况下会发出警告。unused_resultslint本质上是相同的，但会触发所有返回值。默认情况下，这个linnt是“允许”的，因为它可能有噪音，可能不会产生实际问题。例如，调用Vecor HashMap的remove方法会返回上一个值，您可能不关心这个值。使用这个lint需要显式忽略或丢弃这些值。</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -23852,7 +23852,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>path_statements lint检测到无效的路径语句。</t>
+          <t>path_statementslint检测到无效的路径语句。</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>unused_rens lint检测if、match、while，并用括号返回；他们不需要它们。</t>
+          <t>unused_renslint检测if、match、while，并用括号返回；他们不需要它们。</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -23905,7 +23905,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>unused_bracing lint检测表达式周围不必要的大括号。</t>
+          <t>unused_raceslint检测表达式周围不必要的大括号。</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -23933,12 +23933,12 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>unused_import_braces lint在所移植的项目周围捕获不必要的大括号。</t>
+          <t>unused_import_braceslint捕获了一个移植项目周围不必要的大括号。</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>如果只有一个项目，那么删除大括号（例如，使用test:：a）。这个lint默认为“允许”，因为它只是强制执行astylistic选项。</t>
+          <t>如果只有一个项目，那么删除大括号（例如，使用test:：a）。默认情况下，这个lint是“允许”的，因为它只是强制执行astylistic选项。</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -23964,7 +23964,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>unused_allocation lint检测可以消除的不必要的分配。</t>
+          <t>unused_allocationlint检测可以消除的不必要的分配。</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -23992,12 +23992,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>forbidden_lint_groups lint检测应用于lint组的边界冲突。由于编译器中的一个错误，这些过去都被完全忽略了。它们现在生成一个警告。</t>
+          <t>forbidden_lint_groupslint检测应用于lint组的orbid的冲突。由于编译器中的一个错误，这些过去都被完全忽略了。它们现在生成一个警告。</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>由于编译器的错误，对lint组应用禁止显然没有效果。这个错误现在已经修复，但我们没有强制禁止，而是发布这个未来的兼容性警告，以避免破坏现有的板条箱。</t>
+          <t>由于编译器错误，对lint组广泛应用禁止没有任何效果。这个错误现在已经修复，但我们没有强制禁止，而是发布这个未来的兼容性警告，以避免破坏现有的板条箱。</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>ill_formed_attribute_input lint检测以前在实践中接受和使用的不正确的attributeinputs。</t>
+          <t>ill_formed_attribute_inputlint检测以前在实践中接受和使用的格式错误的attributeinputs。</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>以前，许多内置属性的输入没有经过验证，并且接受了无意义的属性输入。经过验证后，确定一些现有项目使用了这些无效表格。这是一个未来不兼容的皮棉，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第57571期。有关属性的有效输入，请查看属性引用。</t>
+          <t>以前，许多内置属性的输入没有经过验证，并且接受了无意义的属性输入。经过验证后，确定一些现有项目使用了这些无效表格。这是一个未来不兼容的lint，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第57571期。有关属性的有效输入，请查看属性引用。</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -24047,12 +24047,12 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>conflicting_rer_hits lint检测具有冲突提示的repr属性。</t>
+          <t>conflicting_rer_hitslint检测具有冲突提示的repr属性。</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>编译器过去错误地接受了这些相互冲突的表示。这是一个未来不兼容的lint，以便在未来将其转换为一个hard错误。有关更多详细信息，请参阅问题#68585。若要更正此问题，请删除其中一个冲突提示。</t>
+          <t>编译器过去错误地接受了这些相互冲突的表示。这是一个未来不兼容的lint，以便在未来将其转换为一个严重错误。有关更多详细信息，请参阅问题#68585。若要更正此问题，请删除其中一个冲突提示。</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -24076,12 +24076,12 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>meta_variable_misuse lint检测宏定义中可能存在的元变量误用。</t>
+          <t>meta_variable_misuselint检测宏定义中可能存在的元变量误用。</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>macro_rules宏有很多不同的定义方式。这些错误中的许多以前只有在宏被扩展或根本没有被扩展时才被检测到。此lint是在定义宏时尝试发现其中一些问题。此lint默认为“允许”，因为它可能存在误报和其他问题。有关更多详细信息，请参阅第61053期。</t>
+          <t>macro_rules宏有很多不同的定义方式。这些错误中的许多以前只有在宏被扩展或根本没有被扩展时才被检测到。此lint是在定义宏时尝试发现其中一些问题。此linet默认为“允许”，因为它可能存在误报和其他问题。有关更多详细信息，请参阅第61053期。</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -24109,12 +24109,12 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>incomplete_include lint检测到使用了include！具有包含多个表达式的文件的宏。</t>
+          <t>incomplete_includelint检测include的使用！具有包含多个表达式的文件的宏。</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>包括！宏当前仅用于包含单个表达式或多个项。从历史上看，它会忽略第一个表达式之后的任何内容，但这可能会造成混淆。在上面的例子中，println！表达式在分号之前结束，使分号成为被忽略的“额外”信息。也许更令人惊讶的是，如果包含的文件有多个print语句，那么后面的语句将被忽略！一种解决方法是将内容放在大括号中以创建块表达式。还要考虑其他选择，比如使用函数来封装表达式，或者使用proc-macros。这是一个lint错误，而不是一个硬错误，因为发现现有项目遇到了这个错误。需要谨慎的是，这只是暂时的问题。include的未来语义！宏观经济也不确定，见第35560号问题。</t>
+          <t>包括！宏当前仅用于包含单个表达式或多个项。从历史上看，它会忽略第一个表达式之后的任何内容，但这可能会造成混淆。在上面的示例中，println！表达式正好在分号之前结束，从而使分号成为被忽略的“额外”信息。也许更令人惊讶的是，如果包含的文件有多个print语句，那么后面的语句将被忽略！一种解决方法是将内容放在大括号中以创建块表达式。还要考虑其他选择，比如使用函数封装表达式，或者使用proc-macros。这是一个lint错误，而不是一个硬错误，因为发现现有项目遇到了这个错误。需要谨慎的是，目前这是一个lint。include的未来语义！宏观经济也不确定，见第35560号问题。</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -24173,12 +24173,12 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>uncconditional_palace lint检测到一个将在运行时导致apanic的操作。</t>
+          <t>unconditional_apaniclint检测到一个将在运行时导致故障的操作。</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>这个lint检测到很可能不正确的代码，因为它总是会死机，比如除以零和越界数组处理。如果这是一个bug，请考虑调整您的代码，或者使用anic！或无法访问！宏，以防恐慌。</t>
+          <t>这个lint检测到很可能不正确的代码，因为它总是死机，比如除以零和越界数组处理。如果这是一个bug，请考虑调整您的代码，或者使用anic！或者reachable！宏，以防出现恐慌。</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -24200,7 +24200,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>unused_imports lint检测从未使用过的导入。</t>
+          <t>unused_importslint检测从未使用过的导入。</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -24226,12 +24226,12 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>must_not_suspend lint保护不应该在挂起点（.await）之间保留的值</t>
+          <t>must_not_suspendlint保护不应该在挂起点（.await）之间保留的值</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>must_not_suspend lint检测标记有#[must_not_suspend]属性的值，该属性在挂起点之间保持。“suspend”点通常是asyncfunction中的.await。此属性可用于标记在suspend中语义不正确的值（如某些类型的计时器）、具有异步替代项的值以及经常导致async-fn返回的futures的发送性问题的值（例如MutexGuard）</t>
+          <t>must_not_suspendlint检测标记有#[must_not_suspend]属性的值，该属性在挂起点之间保持。“suspend”点通常是async函数中的.await。此属性可用于标记在suspend中语义不正确的值（如某些类型的计时器）、具有async替代项的值，以及经常导致asyncfn返回期货的发送性问题的值（例如MutexGuard）</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -24260,12 +24260,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>未使用的_extern_crates皮棉可防止从未使用过的外部板条箱物品。</t>
+          <t>未使用的_extern_crateslint可防止从未使用过的外部crate项目。</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>未使用的外部板条箱物品没有任何影响，应予以移除。请注意，在某些情况下，为了确保给定的板条箱被链接的副作用，即使没有直接引用，也需要指定外部板条箱。lint可以通过将crate别名为下划线来静音，例如_之类的xtern crate foo。还要注意的是，在2018年的版本中，它不再是惯用的外部板条箱，因为外部板条箱现在自动添加到范围中。默认情况下，这个皮棉是“允许”的，因为它可能会发出噪音，并产生假阳性。如果要从项目中删除依赖项，建议将其从构建配置（如Cargo.toml）中删除，以确保不会留下过时的构建条目。</t>
+          <t>未使用的外部crate物品没有任何效果，应予以移除。请注意，在某些情况下，为了确保给定的crate被链接的副作用，即使没有直接引用，也需要指定外部crates。lint可以通过将crate别名为下划线来静音，例如xterncratesfoo为_。还要注意的是，在2018年的版本中，它不再是惯用的externcrates，因为extern_crates现在自动添加到scope中。默认情况下，这个lint是“允许”的，因为它可能会发出噪音，并产生假阳性。如果要从项目中删除依赖项，建议将其从构建配置（如Cargo.toml）中删除，以确保不会留下过时的构建条目。</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -24288,12 +24288,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>unused_rate_dependences lint检测从未使用过的机箱依赖项。</t>
+          <t>unused_rate_dependenceslint检测从未使用过的crate依赖项。</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>删除使用依赖项的代码后，通常还需要从生成配置中删除依赖项。但是，有时可能会错过这一步骤，从而导致生成不再使用的依赖项，从而浪费时间。此lint可以检测从未使用过的依赖项（更具体地说，任何通过use、extern crate或任何路径引用的带有--extern命令行标志的依赖项）。此lint默认为“允许”，因为它可以根据构建系统的配置方式提供假阳性。例如，当使用Cargo时，一个“包裹”由多个板条箱组成（例如不合格品和二进制），但依赖关系是为整个包裹定义的。如果有一个依赖项只在二进制中使用，而在库中没有使用，那么lint将在库中错误地发出。</t>
+          <t>删除使用依赖项的代码后，通常还需要从生成配置中删除依赖项。但是，有时可能会错过这一步骤，从而导致生成不再使用的依赖项，从而浪费时间。这个lint可以检测从未使用过的依赖项（更具体地说，任何通过use、extern crate或任何路径引用的带有--extern命令行标志的依赖项）。默认情况下，这个linet是“允许”的，因为它可以根据构建系统的配置方式提供误报。例如，当使用Cargo时，一个“包裹”由多个crates（如不在场和二进制）组成，但依赖关系是为整个包裹定义的。如果有一个依赖项只在二进制文件中使用，而在库中没有使用，那么lint将在库中被错误地发出。</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -24322,12 +24322,12 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>unused_qualifications lint检测不必要的限定名称。</t>
+          <t>unused_qualificationslint检测不必要的限定名称。</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>如果来自另一个模块的项目已经进入范围，那么在这种情况下就不需要对其进行限定。你可以直接调用bar（），不需要foo:：。这个lint在默认情况下是“允许”的，因为它有点迂腐，并不表示实际的问题，而是一种风格选择，并且在重构或移动代码时可能会很吵。</t>
+          <t>如果来自另一个模块的项目已经进入范围，那么在这种情况下就不需要对其进行限定。您可以直接调用bar（），而不使用foo:：。默认情况下，这个lint是“允许”的，因为它有点迂腐，并不表示实际的问题，而是一种风格选择，并且在重构或移动代码时可能会很吵。</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -24355,12 +24355,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>unknown_lints lint检测到无法识别的lint属性。</t>
+          <t>unknown_lintslint检测到无法识别的linnt属性。</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>指定不存在的皮棉通常是错误的。检查拼写，并检查lint列表中的正确名称。如果您使用的是旧版本的编译器，而lint仅在新版本中可用，则使用Alsoconsider。</t>
+          <t>指定不存在的lint通常是错误的。检查拼写，并在lint列表中查找正确的名称。如果您使用的是旧版本的编译器，而lint仅在新版本中可用，则使用Alsoconsider。</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -24381,12 +24381,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>未完成的lint_expectations lint检测到尚未完成的lint触发预期。</t>
+          <t>未实现的lint_expectationslint检测到尚未实现的触发器预期。</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>预计标记的代码会发出一个lint。此预期尚未实现。如果这是预期行为，则可以删除expect属性，否则应调查不再发出预期lint的原因。在极少数情况下，预期可能会在与所示代码段中显示的位置不同的位置发出。在大多数情况下，#[expect]属性在添加到外部作用域时起作用。在一个板条箱级别上只能预期几个短绒。RFC 2383的一部分。54503号中正在跟踪进度</t>
+          <t>预计标记的代码会发出一个lint。此预期尚未实现。如果这是预期行为，则可以删除expect属性，否则应调查不再发出预期lint的原因。在极少数情况下，预期可能会在与所示代码段中显示的位置不同的位置发出。在大多数情况下，#[expect]属性在添加到外部作用域时起作用。几个lint只能在crate级别上预期。RFC 2383的一部分。54503号中正在跟踪进度</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>unused_variables lint检测未以任何方式使用的变量。</t>
+          <t>unused_variableslint检测未以任何方式使用的变量。</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>unused_assignments lint检测永远不会读取的分配。</t>
+          <t>unused_assignmentslint检测到永远不会读取的分配。</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>dead_code lint检测未使用、未过期的项目。</t>
+          <t>dead_codelint检测未使用、未过期的项目。</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -24489,7 +24489,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>unused_attributes lint检测编译器未使用的属性。</t>
+          <t>unused_attributeslint检测编译器未使用的属性。</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -24515,12 +24515,12 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>unused_tuple_struct_fields lint检测从未读取的元组结构的字段。</t>
+          <t>unused_tuple_struct_fieldslint检测从未读取的元组结构的字段。</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>从不在任何地方读取的元组结构字段可能指示错误或未完成的代码。若要使此警告静音，请考虑移动未使用的字段，或者，若要保留保留字段的编号，请将未使用字段更改为单位类型。</t>
+          <t>从不在任何地方读取的元组struct字段可能指示错误或未完成的代码。若要使此警告静音，请考虑移动未使用的字段，或者，若要保留保留字段的编号，请将未使用字段更改为单位类型。</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>unreachable_code lint检测不可访问的代码路径。</t>
+          <t>unreachable_codelint检测不可访问的代码路径。</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>unreachable_patterns lint检测不可访问的模式。</t>
+          <t>无法访问的_patternslint检测无法访问的模式。</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>overlaping_range_endpoints lint检测在其端点上具有重叠范围模式的匹配臂。</t>
+          <t>overlaping_range_endpointslint检测在其端点上具有重叠范围模式的比赛臂。</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -24631,12 +24631,12 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>bindings_with_variant_name lint检测与匹配变体之一具有相同名称的模式绑定。</t>
+          <t>bindings_with_variant_namelint检测与匹配变体之一具有相同名称的模式绑定。</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>将枚举变体名称指定为标识符模式通常是错误的。在上面的例子中，匹配arms指定了一个变量名来将x值绑定到。第二个armis被忽略，因为第一个armis匹配所有值。可能的意图是arm打算在枚举变体上匹配。两种可能的解决方案是：使用路径模式指定枚举变体，例如enum:：Foo。将枚举变体绑定到本地范围，例如添加use enum:；到上面示例中foo函数的开头。</t>
+          <t>将enum变体名称指定为标识符模式通常是错误的。在上面的例子中，匹配arms指定了一个变量名来将x值绑定到。第二个armis被忽略，因为第一个armis匹配所有值。可能的意图是arm打算在enum变体上匹配。两种可能的解决方案是：使用路径模式指定enum变体，例如enum:：Foo。将enu姆变体绑定到本地作用域中，例如添加use enum：：*；到上面示例中foo函数的开头。</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -24666,7 +24666,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>unused_macros-lint检测未使用的宏。请注意，此lint与unused_acros_rules lint不同，后者检查从未与其他使用的宏匹配的单个规则，因此永远不会展开。</t>
+          <t>unused_macroslint检测未使用的宏。请注意，此linnt与unused_acro_rules lint不同，后者检查从未与其他使用的宏匹配的单个规则，因此从未展开。</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>未使用的_macro_rules lint检测未使用的宏规则。请注意，lint与未使用的.macros lint不同，后者在从未调用整个宏的情况下会激发，而此lint则会激发宏中未使用的单个规则。只有在未使用的/macros不会激发时，nused_macro_rules才会激发。</t>
+          <t>unused_macro_ruleslint检测未使用的宏规则。请注意，linnt与未使用的macro-lint不同，后者在从未调用整个宏的情况下会激发，而此lint则为未使用的、以其他方式使用的宏的单个未使用规则激发。只有在未使用的_macros不会激发时，才会激发nused_macro_rules。</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>警告lint有点特别；通过更改其级别，您可以将每一个会产生警告的警告更改为您想要的任何值。因此，您永远不会直接在代码中触发此lint。</t>
+          <t>警告lint有点特别；通过更改其级别，您可以将每一个会产生警告的警告更改为您想要的任何值。因此，您永远不会在代码中直接触发这个lint。</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>unused_features lint检测未使用或未知的功能，发现这些功能会增加级别的功能属性。注意：此lint当前不起作用，有关详细信息，请参阅问题#44232。</t>
+          <t>unused_featureslint检测到未使用或未知的功能，这些功能已在高级功能属性中找到。注意：此lint当前不起作用，有关详细信息，请参阅问题#44232。</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
@@ -24774,7 +24774,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>stable_features lint检测一个已稳定的特征属性。</t>
+          <t>stable_featureslint检测一个已稳定的特征属性。</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -24801,7 +24801,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>unknown_crate_types lint检测到在crate_type属性中发现的未知板条箱类型。</t>
+          <t>unknown_crate_typeslint检测到在crate_type属性中发现的未知crate类型。</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -24828,12 +24828,12 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>trivil_casts lint检测可以用强制替换的琐碎强制，强制可能需要一个临时变量。</t>
+          <t>trivil_castslint检测可以用强制替换的琐碎类型转换，强制可能需要一个临时变量。</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>琐碎的强制转换是将e强制转换为T，其中e的类型为U，U的类型为T。通常可以推断出，这种类型的强制转换通常是不必要的。默认情况下，这个lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂类型别名时，它会正确触发，或者在更难清楚地表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
+          <t>琐碎的强制转换是将e强制转换为T，其中e的类型为U，U的类型为T。通常可以推断出，这种类型的强制转换通常是不必要的。默认情况下，这个lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂的类型别名，它会正确触发，或者在更难清楚地表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -24856,12 +24856,12 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>trivial_numeric_casts lint检测可以删除的类型的琐碎数字类型转换。</t>
+          <t>trivial_numeric_castslint检测可以删除的类型的琐碎数字类型转换。</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>琐碎的数字强制转换是将一个数字类型强制转换为相同的数字类型。这种类型的强制转换通常是不必要的。默认情况下，此lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂类型别名时，它会正确触发，或者在更难清楚地表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
+          <t>琐碎的数字强制转换是将一个数字类型强制转换为相同的数字类型。这种类型的强制转换通常是不必要的。默认情况下，这个lint是“允许”的，因为在某些情况下，例如使用FFI接口或复杂类型别名时，它会正确触发，或者在更难清晰表达意图的情况下。这可能会在未来引起人们的注意，可能会有一个明确的强制语法，为解决当前问题提供了一种方便的方法。有关历史上下文，请参阅RFC 401（强制）、RFC 803（类型归属）和RFC 3307（删除类型归属）。</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -24883,12 +24883,12 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>private_in_public lint检测未被旧实现捕获的公共接口中的私有项。</t>
+          <t>private_in_publiclint检测公共接口中未被旧实现捕获的私有项。</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>可见性规则旨在防止在公共接口中暴露私有项。这是一个未来不兼容的lint，它将在未来转变为一个硬错误。有关更多详细信息，请参阅第34537期。</t>
+          <t>可见性规则旨在防止在公共接口中暴露私有项。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第34537期。</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>invalid_aligent lint在常量求值期间检测未对齐指针的取消引用。</t>
+          <t>invalid_alignmentlint在常量求值期间检测未对齐指针的取消引用。</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -24950,7 +24950,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>exported_private_dependencies lint检测在公共接口中公开的私有依赖关系。</t>
+          <t>exported_private_dependencieslint检测在公共接口中公开的私有依赖关系。</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -24986,12 +24986,12 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>pub_use_of_private_extern_crate lint检测到重新导出专用外部机箱的特定情况。</t>
+          <t>pub_use_of_private_extern_cratelint检测到重新导出专用外部机箱的特定情况。</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>公共用途声明不应用于公开再出口aprivate外部板条箱。应该使用pub-externate。这在历史上是允许的，但根据可见性规则，这不是预期的行为。这是一个不可兼容的未来，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第34537期。</t>
+          <t>公共用途声明不应用于公开再出口aprivate外部板条箱。应该使用pub-externcrate。这在历史上是允许的，但根据可见性规则，这不是预期的行为。这是一个不可兼容的未来，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第34537期。</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -25013,12 +25013,12 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>invalid_type_param_default lint检测到类型参数defaultserront在无效位置被允许。</t>
+          <t>invalid_type_param_defaultlint检测到类型参数defaultserront在无效位置被允许。</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>默认类型参数只在某些情况下被允许，但从历史上看，编译器在任何地方都允许它们。这是一个未来不兼容的lint，将来会将其转换为硬错误。有关更多详细信息，请参阅第36887期。</t>
+          <t>默认类型参数只在某些情况下被允许，但从历史上看，编译器在任何地方都允许它们。这是未来不兼容的lint，将来会将其转换为硬错误。有关更多详细信息，请参阅第36887期。</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -25039,12 +25039,12 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>renamed_and_removed_lints lint检测已重命名或删除的lints。</t>
+          <t>renamed_and_removed_lintslint检测已重命名或删除的lints。</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>要解决此问题，请删除皮棉或使用新名称。这有助于避免对不再有效的lint产生混淆，并有助于保持重命名的lint的一致性。</t>
+          <t>要解决此问题，请删除lint或使用新名称。这有助于避免对已失效的lints的混淆，并有助于保持重命名的lints的一致性。</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -25065,12 +25065,12 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>const_item_mutation lint检测对组成项进行变异的尝试。</t>
+          <t>const_item_mutationlint检测对组成项进行变异的尝试。</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>试图直接变异const项几乎总是一个错误。上面的例子中发生的情况是，const的临时副本发生了变异，但原始const没有。每次按名称引用const（如上例中的FOO）时，该值的一个单独副本都会在该位置内联。此lint检查是否直接写入字段（FOO.field=some_value）或数组项（FOO[0]=val），或获取const项的可变引用（&amp;mut FOO），包括通过anautoderef（FOO.some_mut_self_method（））。根据您试图实现的内容，有各种替代方案：首先，始终重新考虑使用可变全局变量，因为它们很难正确使用，并且会使代码更难使用或理解。如果您试图对全局变量执行一次性初始化：如果值可以在编译时计算，考虑使用const兼容的值（请参阅Constant Evaluation）。对于更复杂的单次初始化情况，请考虑使用第三方机箱，如lazy_static或once_cell。如果您使用的是夜间通道，请考虑标准库中的newlazy模块。如果您真的需要一个可变的全局，它有多种选项：简单的数据类型可以直接定义，并与解剖类型一起突变。更复杂的类型可以放在同步原语中，如Mutex，可以用上面列出的选项之一初始化。可变静态是一种低级原语，需要不安全。通常，应该避免这种情况，而不是像上面列出的更高级别的类型。</t>
+          <t>试图直接变异const项几乎总是一个错误。上面的例子中发生的情况是，const的临时副本发生了变异，但原始const没有。每次按名称引用const（如上例中的FOO）时，该值的一个单独副本都会在该位置内联。此lint检查是否直接写入字段（FOO.field=some_value）或数组项（FOO[0]=val），或对const项进行可变引用（&amp;mut FOO），包括通过anautoderef（FOO.some_mut_self_method（））。根据您试图实现的内容，有各种替代方案：首先，始终重新考虑使用可变全局变量，因为它们很难正确使用，并且会使代码更难使用或理解。如果您试图对全局变量执行一次性初始化：如果值可以在编译时计算，考虑使用const兼容的值（请参阅Constant Evaluation）。对于更复杂的单次初始化情况，请考虑使用第三方机箱，如lazy_static或once_cell。如果您使用的是夜间通道，请考虑标准库中的newlazy模块。如果您真的需要一个可变的全局，它有多种选项：简单的数据类型可以直接定义，并与解剖类型一起突变。更复杂的类型可以放在同步原语中，如Mutex，可以用上面列出的选项之一初始化。可变静态是一种低级原语，需要不安全。通常，应该避免这种情况，而不是像上面列出的更高级别的类型。</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -25096,12 +25096,12 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>patterns_in_fns_without_body lint将mut标识符模式检测为没有主体的函数中的参数。</t>
+          <t>patterns_in_fns_without_bodylint将mut标识符模式检测为无正文函数中的参数。</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>要解决此问题，请从特征定义中的参数中删除mut；它可以在实现中使用。也就是说，以下内容是可以的：trait trait{fn foo（arg:u8）；//删除了i32的impl trait{fn foo。无正文函数中的参数名称只能是_或用于文档目的的标识符（只有类型是相关的）。以前版本的编译器错误地允许使用out关键字的标识符模式，但这是不允许的。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第35203期。</t>
+          <t>要解决此问题，请从特征定义中的参数中删除mut；它可以在实现中使用。也就是说，以下内容是可以的：trait trait｛fnfoo（arg:u8）；//删除了此处的“mut”｝impl针对i32的trait{fnfoo（mut-arg:u8。无正文函数中的参数名称只能是_或用于文档目的的标识符（只有类型是相关的）。以前版本的编译器错误地允许使用out关键字的标识符模式，但这是不允许的。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第35203期。</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -25124,7 +25124,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>当amacro_rules中出现未使用的模式时，会发出missing_fragment_specifier lint！宏定义有一个元变量（例如$e），后面没有片段说明符（例如：expr）。可以通过删除macro_rules中未使用的模式来修复此警告！宏定义。</t>
+          <t>当amacro_rules中出现未使用的模式时，会发出missing_fragment_specifierlint！宏定义有一个元变量（例如$e），后面没有片段说明符（例如：expr）。可以通过删除macro_rules中未使用的模式来修复此警告！宏定义。</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>late_bound_lifetime_arguments lint检测具有后期绑定生存期参数的路径段中的通用生存期参数。</t>
+          <t>late_bound_lifetime_argumentslint检测具有后期绑定生存期参数的路径段中的通用生存期参数。</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -25188,12 +25188,12 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>order_dependent_ttrait_objects lint检测到一个特征一致性违反，这将允许为涉及标记特征的同一动态特征对象创建两个特征impl。</t>
+          <t>order_dependent_ttrait_objectslint检测到一个特征一致性违反，该违反将允许为涉及标记特征的同一动态特征对象创建两个特征impl。</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>以前的一个错误导致编译器将具有不同标识符的特征（如Send+Sync和Sync+Send）解释为不同的类型，而它们本应被相同对待。这允许代码在出现一致性错误时定义单独的特征实现。这是一个未来不兼容的lint，以便在未来将其转换为一个hard错误。有关更多详细信息，请参阅第56484期。</t>
+          <t>以前的一个错误导致编译器将具有不同标识符的特征（如Send+Sync和Sync+Send）解释为不同的类型，而它们本应被相同对待。这允许代码在出现一致性错误时定义单独的特征实现。这是一个未来不兼容的lint，以便在未来将其转换为一个严重错误。有关更多详细信息，请参阅第56484期。</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -25216,12 +25216,12 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>coherence_leak_check lint检测到只有旧的泄漏检查代码才能区分的特征的冲突实现。</t>
+          <t>coherence_leak_checklint检测一个只有旧的泄漏检查代码才能区分的特征的冲突实现。</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>在过去，编译器会接受相同函数的特征实现，这些函数的不同之处仅在于存在生存期绑定。由于借用检查器实现中的更改修复了几个错误，因此不再允许这样做。然而，由于这影响了代码的性别，这是一个未来不兼容的lint，将其转换为未来的一个硬错误。依赖于此模式的代码应该引入“新类型”，如structFoo（用于&lt;'a&gt;fn（&amp;'au8））。有关更多详细信息，请参阅第56105期。</t>
+          <t>在过去，编译器会接受相同函数的特征实现，这些函数的不同之处仅在于存在生存期绑定。由于借用检查器实现中的更改修复了几个错误，因此不再允许这样做。然而，由于这种影响性别的代码，这是一个未来不兼容的lint，以在未来将其转换为一个硬错误。依赖于这种模式的代码应该引入“新类型”，如structFoo（用于&lt;'a&gt;fn（&amp;'au8））。有关更多详细信息，请参阅第56105期。</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -25244,7 +25244,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>不推荐使用的lint检测不推荐使用项目的情况。</t>
+          <t>弃用的lint检测到使用了弃用的项。</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -25274,7 +25274,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>unused_unsafe lint检测到不必要地使用了不安全的块。</t>
+          <t>unused_unsafelint检测不必要地使用不安全块。</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>unused_mut-lint检测不需要可变的mut变量。</t>
+          <t>unused_mutlint检测不需要可变的mut变量。</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>非条件递归lint检测不调用自身就无法返回的函数。</t>
+          <t>无条件递归lint检测不调用自身就无法返回的函数。</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -25354,12 +25354,12 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>single_use_lifetimes lint检测只使用一次的寿命。</t>
+          <t>single_use_lifetimeslint检测只使用一次的寿命。</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>在函数或impl中指定类似“a”的显式生存期只能用于将两件事链接在一起。否则，你应该只使用'_来表示生存期与任何东西都没有关联，或者如果可能的话，完全取消生存期。这个lint默认为“允许”，因为它是在首次引入'_和取消的生存期时引入的，而这个lint太吵了。此外，它还产生了一些已知的假阳性。有关历史上下文，请参阅RFC 2115，有关更多详细信息，请参阅#44752。</t>
+          <t>在函数或impl中指定类似“a”的显式生存期只能用于将两件事链接在一起。否则，您应该只使用'_来表示生存期与任何东西都没有关联，或者如果可能的话，完全取消生存期。默认情况下，这个lint是“允许”的，因为它是在首次引入'_和取消的生存期时引入的，而这个lint太吵了。此外，它还产生了一些已知的假阳性。有关历史上下文，请参阅RFC 2115，有关更多详细信息，请参阅#44752。</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>unused_lifetimes lint检测从未使用过的寿命参数。</t>
+          <t>unused_lifetimeslint检测从未使用过的寿命参数。</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -25408,12 +25408,12 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>tyvar_behind_raw_pointer lint检测指向引用变量的原始指针。</t>
+          <t>tyvar_behind_raw_pointerlint检测指向引用变量的原始指针。</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>这种推理以前是允许的，但由于未来任意自我类型的竞争对手，这可能会引入歧义。为了解决这个问题，请使用显式类型，而不是依赖类型推理。这是一个未来不兼容的lint，可以在2018年版本中将其转换为硬错误。有关更多详细信息，请参阅第46906期。这在2018版中是一个严重错误，在2015版中默认为“警告”。</t>
+          <t>这种推理以前是允许的，但由于未来任意自我类型的竞争对手，这可能会引入歧义。为了解决这个问题，请使用显式类型，而不是依赖类型推理。这是一个未来不兼容的lint，可以在2018版中将其转换为硬错误。有关更多详细信息，请参阅第46906期。这在2018版中是一个严重错误，在2015版中默认为“警告”。</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -25437,12 +25437,12 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>elided_lifetimes_in_paths lint检测hiddenlifetime参数的使用情况。</t>
+          <t>elided_lifetimes_in_pathslint检测hiddenlifetime参数的使用。</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>被排除的寿命参数可能会使人们很难在一个节点上看到借款的发生。此lint确保始终显式声明lifetimeparameters，即使它是“_placeholder lifetime”。此lint默认为“允许”，因为它存在一些已知问题，并且可能需要对旧代码进行重大转换。</t>
+          <t>被排除的寿命参数可能会使人们很难在一个节点上看到借款的发生。此lint确保始终显式声明lifetimeparameters，即使它是'_placeholder lifetime'。此linet默认为“允许”，因为它存在一些已知问题，并且可能需要对旧代码进行重大转换。</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -25469,7 +25469,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>bare_trait_objects lint建议对traitobjects使用dyn trait。</t>
+          <t>bare_trait_objectslint建议对traitobjects使用dyn trait。</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -25497,12 +25497,12 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>absolute_paths_not_starting_with_crate lint检测以模块名称而非机箱、自身或外部机箱名称开头的完全限定路径</t>
+          <t>absolute_paths_not_starting_with_cratelint检测以模块名称而非crate、self或externcrate名称开头的完全限定路径</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。这个lint捕获了2015年版本风格中使用绝对值的代码。在2015年的版本中，absolutepaths（以：开头的）指的是板条箱根或外部板条箱。在2018年的版本中，它被更改为仅指外部板条箱。应该使用路径前缀crate:：来引用来自crate根目录的项。如果您在不更新代码的情况下将编译器从2015版切换到2018版，那么如果使用旧式路径，它将无法编译。您可以手动更改路径以使用crate:：前缀转换到2018版本。此lint自动解决了问题。默认情况下它是“允许”的，因为该代码在2015版本中完全有效。带有--edition标志的货物修复工具会将此lint切换为“warn”，并自动应用编译器建议的修复。这提供了一种完全自动化的方式来将旧代码更新到2018版。</t>
+          <t>Rust版本允许语言在不破坏向后兼容性的情况下进行发展。这个lint捕获了2015版风格中使用绝对值的代码。在2015年的版本中，absolutepaths（以：开头的）指的是crate根或外部板条箱。在2018年的版本中，它被更改为仅指外部板条箱。应该使用路径前缀crate:：来引用crate根目录中的项。如果您在不更新代码的情况下将编译器从2015版切换到2018版，那么如果使用旧式路径，它将无法编译。您可以手动更改路径以使用crate:：前缀转换到2018版本。这lint自动解决了问题。默认情况下它是“允许”的，因为该代码在2015版本中完全有效。带有--edition标志的carge修复工具会将此lint切换为“警告”，并自动应用编译器建议的修复。这提供了一种完全自动化的方式来将旧代码更新到2018版。</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -25529,12 +25529,12 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>illegal_floating_point_literal_pattern lint检测模式中使用的浮点文字。</t>
+          <t>illegal_floating_point_literal_patternlint检测模式中使用的浮点文字。</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>以前版本的编译器接受模式中的浮点文字，但后来确定这是一个错误。与“结构相等”相比，比较浮点值的要求在模式中可能不明确。通常，您可以使用火柴保护来解决此问题，例如：#let x=42.0；match x｛y if y==5.0=&gt;｛｝_=&gt;｛}｝这是一个未来不兼容的lint，将来会将其转换为硬错误。有关更多详细信息，请参阅第41620期。</t>
+          <t>以前版本的编译器接受模式中的浮点文字，但后来确定这是一个错误。与“结构相等”相比，比较浮点值的要求在模式中可能不明确。通常，您可以使用火柴保护来解决此问题，例如：#let x=42.0；match x｛y if y==5.0=&gt;｛｝_=&gt;｛}｝这是一个未来不兼容的lint，将来将其转换为硬错误。有关更多详细信息，请参阅第41620期。</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -25591,12 +25591,12 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>无可辩驳的_let_patterns lint在if let、while let和if let guards中检测无可辩驳模式。</t>
+          <t>无可辩驳的let模式lint检测if let、while let和if let guards中的无可辩驳模式。</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>通常没有理由在anif-let或while let语句中使用无可辩驳的模式，因为该模式总是能够成功匹配。let或loop语句就足够了。然而，当使用宏生成代码时，在宏不知道模式是否可拒绝的情况下，禁止无可辩驳的模式将需要尴尬的解决方案。这个lint允许小程序接受这个表单，同时警告正常代码中可能存在的错误。有关更多详细信息，请参阅RFC 2086。</t>
+          <t>通常没有理由在anif-let或while let语句中使用无可辩驳的模式，因为该模式总是能够成功匹配。let或loop语句就足够了。然而，当使用宏生成代码时，在宏不知道模式是否可拒绝的情况下，禁止无可辩驳的模式将需要尴尬的解决方案。这lint允许小程序接受此表单，同时警告正常代码中可能存在的错误。有关更多详细信息，请参阅RFC 2086。</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>unused_labels lint检测从未使用过的标签。</t>
+          <t>unused_labelslint检测从未使用过的标签。</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>whire_clauses_object_safety lint检测其中子句的对象安全性。</t>
+          <t>whire_clauses_object_safetylint检测其中子句的对象安全性。</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -25676,12 +25676,12 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>proc_macro_derive_resolution_fallback lint使用父模块中不可访问的名称检测proc宏派生。</t>
+          <t>proc_macro_derive_resolution_ffalllint使用父模块中不可访问的名称检测proc宏派生。</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>如果proc宏生成了一个模块，编译器会意外地允许该模块中的项引用机箱根中的项，而不导入它们。这是一个未来不兼容的lint，将其转换为未来的一个硬错误。有关详细信息，请参阅第50504期。</t>
+          <t>如果proc宏生成了一个模块，编译器会意外地允许该模块中的项引用crate根中的项，而不导入它们。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关详细信息，请参阅第50504期。</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -25727,12 +25727,12 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>macro_use_extern_crate lint检测macro_use属性的使用。</t>
+          <t>macro_use_extern_cratelint检测macro_use属性的使用。</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[extern crate]项上的macro_use属性导致该外部板条箱中的宏被带到速率的前奏中，从而使宏无处不在。作为【2018年版】中简化依赖关系处理的努力的一部分，外部机箱的使用正在逐步取消。要将外部cratesi中的宏放入作用域，建议使用use导入。此lint默认为“允许”，因为这是一种尚未解决的风格选择，请参阅问题#52043以了解更多信息。</t>
+          <t>[extern crate]项上的macro_use属性导致该外部crate中的宏被带到速率的前奏中，从而使宏无处不在。作为2018年版中简化依赖关系处理的努力的一部分，外部crate的使用正在逐步取消。要将外部cratesi中的宏引入作用域，建议使用use import。默认情况下，此lint为“允许”，因为这是一种尚未解决的风格选择，有关详细信息，请参阅问题#52043。</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>macro_expanded_macro_exports_accessed_by_absolute_paths lint检测到当前板条箱中的宏扩展宏_export宏，该宏无法由绝对路径引用。</t>
+          <t>macro_expanded_macro_exports_accessed_by_absolute_paths lint检测到当前crat中的宏扩展macro_export宏，该宏不能被绝对路径引用。</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -25807,12 +25807,12 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>explicit_outlives_requirements lint检测可以推断的不必要的生存时间界限。</t>
+          <t>explicit_outlives_requirementslint检测可以推断的不必要的生存时间界限。</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>如果一个结构包含引用，如&amp;‘a T，则compiler要求T的寿命超过生存期‘a。这在历史上要求写一个明确的生命周期来表明这一要求。然而，这可能过于明确，导致混乱和不必要的复杂性。如果未指定绑定，语言已更改为自动推断绑定。具体地说，如果该结构包含对具有lifetime'x的T的直接或间接引用，那么它将推断出T:'x是一个需求。该lint默认为“允许”，因为对于已经具有这些需求的现有代码来说，它可能是有噪声的。这是一种风格上的选择，因为明确地说明界限仍然有效。它也有一些可能引起混淆的误报。请参阅RFC 2093了解更多详细信息。</t>
+          <t>如果struct包含引用，如&amp;'a T，则compiler要求T超过生存期'a。这在历史上要求写一个明确的生命周期来表明这一要求。然而，这可能过于明确，导致混乱和不必要的复杂性。如果未指定绑定，语言已更改为自动推断绑定。具体地说，如果结构包含对具有lifetime'x的T的直接或间接引用，那么它将推断出T:'x是一个要求。默认情况下，这个lint是“允许”的，因为对于已经具有这些要求的现有代码来说，它可能是有噪声的。这是一种风格上的选择，因为明确地说明界限仍然有效。它也有一些可能引起混淆的误报。请参阅RFC 2093了解更多详细信息。</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>indirect_structural_match lint检测手动实现PartialEq和Eq的模式中的常量。</t>
+          <t>indirect_structural_matchlint检测手动实现PartialEq和Eq的模式中的常量。</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>depleted_in_future lint是rustc内部的，用户代码不应该使用它。这个lint只在标准库中启用。它可以在将来的版本中使用#[approved]和一个since字段。这允许在未来的版本中将某些内容标记为不推荐使用，然后此lint将确保该项不再在标准库中使用。有关更多详细信息，请参阅稳定性文档。</t>
+          <t>depleted_in_futurelint是rustc内部的，用户代码不应使用它。此lint仅在标准库中启用。它可以在将来的版本的since字段中使用#[已弃用]。这允许在未来的版本中将某些内容标记为已弃用，然后此lint将确保该项不再在标准库中使用。有关更多详细信息，请参阅稳定性文档。</t>
         </is>
       </c>
       <c r="D754" t="inlineStr"/>
@@ -25897,12 +25897,12 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>pointer_structural_match lint检测在编译器版本和优化级别中不能依赖其行为的模式中使用的指针。</t>
+          <t>pointer_structural_matchlint检测模式中使用的指针，这些模式的行为在编译器版本和优化级别之间是不可依赖的。</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Rust的早期版本允许在模式中使用函数指针和宽原始指针。虽然这些指针在许多情况下都如用户所期望的那样工作，但由于优化，指针可能“不等于它们自己”，或者指向不同函数的指针在运行时间比较相等。这是因为LLVM优化可以在函数体相同的情况下消除重复，从而使指向这些函数的指针指向相同的位置。此外，如果函数被实例化在不同的板条箱中，并且没有通过LTO再次消除重复，则它们可能会被复制。</t>
+          <t>Rust的早期版本允许在模式中使用函数指针和宽原始指针。虽然这些指针在许多情况下都如用户所期望的那样工作，但由于优化，指针可能“不等于它们自己”，或者指向不同函数的指针在运行时间比较相等。这是因为LLVM优化可以在函数体相同的情况下消除重复，从而使指向这些函数的指针指向相同的位置。此外，如果函数在不同的crates中实例化，并且没有通过LTO再次消除重复，则它们可能会重复。</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -25931,7 +25931,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>非平凡的structural_match lint检测模式中使用的常量，这些常量的类型不是结构匹配的，并且其初始值设定项主体实际使用的值不是结构匹配。因此，如果常量仅为None，则Option＜NotStructuralMatch＞是可以的。</t>
+          <t>非平凡_结构化_匹配lint检测模式中使用的常量，这些常量的类型与结构不匹配，初始值设定项主体实际使用的值与结构不一致。因此，如果常量仅为None，则Option＜NotStructuralMatch＞是可以的。</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -25965,12 +25965,12 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>模糊_关联项lint检测关联项和枚举变量之间的模糊性。</t>
+          <t>模糊_关联项lint检测关联项和enum变体之间的模糊性。</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Rust的早期版本不允许通过类型别名访问枚举变量。当添加此功能时（请参阅RFC 2338），这引入了一些情况，在这些情况下，类型所指的内容可能不明确。要解决这种不明确的问题，您应该使用一个限定路径来明确说明要使用的类型。例如，在上面的例子中，函数可以写为fn f（）-&gt;&lt;Self as Tr&gt;：：V｛0｝来指定引用关联的类型。这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第57644期。</t>
+          <t>Rust的早期版本不允许通过类型别名访问enumvariantsthrough。当添加此功能时（请参阅RFC 2338），这引入了一些情况，在这些情况下，类型所指的内容可能不明确。要解决这种不明确的问题，您应该使用一个限定路径来明确说明要使用的类型。例如，在上面的例子中，函数可以写为fnf（）-&gt;&lt;Self as Tr&gt;：：V｛0｝来指定引用关联的类型。这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第57644期。</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -26003,12 +26003,12 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>soft_unstable lint检测到在stable上无意中允许的不稳定功能。</t>
+          <t>soft_unstablelint检测到在stable上无意允许的不稳定功能。</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>意外地允许在稳定发布通道上指定bench属性。如果把它变成一个严重的错误，可能会破坏一些项目。当使用--cap lints时，此lint允许这些项目继续正确构建，但在其他情况下会发出一个错误信号，即不应在稳定通道上使用#[Beet]。这是一个未来不兼容的皮棉，将其转变为未来的一个硬错误。有关更多详细信息，请参阅第64266期。</t>
+          <t>意外地允许在稳定发布通道上指定bench属性。如果把它变成一个严重的错误，可能会破坏一些项目。当使用--cap lints时，此lint允许这些项目继续正确构建，但在其他情况下会发出一个错误信号，即不应在稳定通道上使用#[bent]。这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第64266期。</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>inline_no_sanitive lint检测#[inline（always）]和#[no_sanitize（…）]的不兼容使用。</t>
+          <t>inline_no_sanizelint检测#[inline（always）]和#[no_sanize（…）]的不兼容使用。</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -26066,12 +26066,12 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>asm_sub_register lint仅使用寄存器的子集来检测内联asm输入。</t>
+          <t>asm_sub_registerlint仅使用寄存器的子集来检测内联asm输入。</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>某些体系结构上的寄存器可以使用不同的名称来引用寄存器的子集。默认情况下，编译器将使用完整寄存器大小的名称。若要显式使用寄存器的子集，可以通过在模板操作数上使用修饰符指定何时使用子寄存器来覆盖默认值。如果您传入的值的数据类型小于默认寄存器大小，则会发出此lint，以提醒您可能使用了不正确的宽度。要解决此问题，请将建议的修饰符添加到模板中，或将值强制转换为正确的大小。有关详细信息，请参阅参考中的注册模板修饰符。</t>
+          <t>某些体系结构上的寄存器可以使用不同的名称来引用寄存器的子集。默认情况下，编译器将使用完整寄存器大小的名称。若要显式使用寄存器的子集，可以通过在模板操作数上使用修饰符指定何时使用子寄存器来覆盖默认值。如果您传入的值的数据类型小于默认寄存器大小，则会出现此lint，以提醒您可能使用了不正确的宽度。要解决此问题，请将建议的修饰符添加到模板中，或将值强制转换为正确的大小。有关详细信息，请参阅参考中的注册模板修饰符。</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -26109,7 +26109,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>bad_asm_style lint检测.intel_syntax和.att_syntay指令的使用。</t>
+          <t>bad_asm_stylelint检测.intel_syntax和.att_syntay指令的使用。</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -26153,12 +26153,12 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>unsaf.op_in_unsaf_fn lint在没有显式不安全块的情况下检测不安全函数中的不安全操作。</t>
+          <t>unsaf.op_in_unsaf_fnlint在没有显式不安全块的情况下检测不安全函数中的不安全操作。</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>目前，不安全fn允许在其体内进行任何不安全的操作。然而，这可能会增加代码的表面积，需要仔细检查代码的正确行为。不安全块提供了一种方便的方法，可以明确代码的哪些部分正在执行不安全操作。将来，希望对其进行更改，以便在没有不安全块的情况下，无法在不安全的fn中执行不安全操作。解决此问题的方法是将不安全代码包装在不安全块中。此lint默认为“允许”，因为这将影响大量现有代码，并且提高严重性的确切计划尚待考虑。有关更多详细信息，请参阅RFC#2585和问题#71668。</t>
+          <t>目前，不安全的fn允许在其体内进行任何不安全的操作。然而，这可能会增加代码的表面积，需要仔细检查代码的正确行为。不安全块提供了一种方便的方法，可以明确代码的哪些部分正在执行不安全操作。将来，希望对其进行更改，以便在没有不安全块的情况下，无法在不安全的fn中执行不安全操作。解决此问题的方法是将不安全代码包装在不安全块中。默认情况下，此lint为“允许”，因为这将影响大量现有代码，并且提高严重性的确切计划尚待考虑。有关更多详细信息，请参阅RFC#2585和问题#71668。</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -26184,12 +26184,12 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>cenum_impl_drop_cast lint检测实现drop的字段lessnum的强制转换。</t>
+          <t>cenum_impl_drop_castlint检测实现drop的字段lessnum的强制转换。</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>将不实现Copy的无字段枚举强制转换为一个枚举将在不调用drop的情况下移动该值。如果预期应该调用drop，这可能会导致意外行为。自动调用drop将与其他移动操作不一致。由于这两种行为都不明确或一致，因此决定不再允许这种性质的强制转换。这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第73333期。</t>
+          <t>将不实现Copy的无字段enum强制转换为一个整数将在不调用drop的情况下移动该值。如果预期应该调用drop，这可能会导致意外行为。自动调用drop将与其他移动操作不一致。由于这两种行为都不明确或一致，因此决定不再允许这种性质的强制转换。这是未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第73333期。</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -26222,12 +26222,12 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>fuzzy_provenance_cast lint检测整数和指针之间的强制转换。</t>
+          <t>fuzzy_provenance_castlint检测整数和指针之间的强制转换。</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>这个lint是严格出处工作的一部分，请参阅问题#95228。将整数投射到指针被认为是糟糕的风格，因为指针除了包含地址之外，还包含出处，指示允许指针读取/写入的内存。将一个没有出处的整数转换为指针需要编译器指定（猜测）出处。编译器分配“所有公开的有效”（有关此“公开”的更多信息，请参阅ptr:：from_exposed_addr的文档）。这会惩罚优化器，不太适合动态分析/动态程序验证（例如Miri或CHERIplatforms）。最好使用ptr:：with_addr来指定您想要的程序。如果由于代码依赖于暴露的出处而无法使用此函数，则存在转义hatchptr:：from_exposed_addr。</t>
+          <t>这lint是严格出处工作的一部分，请参阅问题#95228。将整数投射到指针被认为是不好的风格，因为指针除了包含地址之外，还包含出处，指示允许指针读取/写入的内存。将一个没有出处的整数转换为指针需要编译器指定（猜测）出处。编译器分配“所有公开的有效”（有关此“公开”的更多信息，请参阅ptr:：from_exposed_addr的文档）。这会惩罚优化器，不太适合动态分析/动态程序验证（例如Miri或CHERIplatforms）。最好使用ptr:：with_addr来指定您想要的程序。如果由于代码依赖于暴露的出处而无法使用此函数，则存在转义hatchptr:：from_exposed_addr。</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -26252,12 +26252,12 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>loss_provenance_casts lint检测指针和整数之间的强制转换。</t>
+          <t>loss_provenance_castlint检测指针和整数之间的强制转换。</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>此lint是严格出处工作的一部分，请参阅问题#95228。将指针投射到整数是一种有损操作，因为除了地址之外，指针可能与特定的地址相关联。这些信息被优化器用于动态分析/动态程序验证（例如Miri或CHERI平台）。由于这种转换是有损耗的，因此使用tr:：addr方法被认为是一种好的方式，它具有类似的效果，但不会“暴露”指针出处。这提高了优化潜力。有关公开指针出处的更多信息，请参阅ptr:：addr和ptr:：expose_addr的文档。如果您的代码不能遵守严格的出处，并且需要公开出处，那么有ptr:∶expose_add作为转义填充，它在明确语义的同时保留了as usinize强制转换的行为。</t>
+          <t>这lint是严格出处工作的一部分，请参阅问题#95228。将指针投射到整数是一种有损操作，因为除了地址之外，指针可能与特定的移动相关联。这些信息被优化器用于动态分析/动态程序验证（例如Miri或CHERI平台）。由于这种转换是有损耗的，因此使用tr:：addr方法被认为是一种好的方式，它具有类似的效果，但不会“暴露”指针出处。这提高了优化潜力。有关公开指针出处的更多信息，请参阅ptr:：addr和ptr:：expose_addr的文档。如果您的代码不能遵守严格的出处，并且需要公开出处，那么有ptr:∶expose_add作为转义填充，它在明确语义的同时保留了as usinize强制转换的行为。</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>const_evaluatable_unchecked lint检测类型中使用的泛型常量。</t>
+          <t>const_evaluatable_uncheckedlint检测类型中使用的泛型常量。</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -26318,12 +26318,12 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>function_item_references lint检测使用fmt:：Pointer格式化或已转换的函数引用。</t>
+          <t>function_item_referenceslint检测使用fmt:：Pointer格式化或已转换的函数引用。</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>引用一个函数可能会被误认为是获取该函数的一种方法。这可能会在将引用格式化为指针或转换时产生意外结果。当函数引用格式化为指示器、作为fmt:：pointer绑定的参数传递或转换时，会发出此lint。</t>
+          <t>引用一个函数可能会被误认为是获取该函数的一种方法。将引用格式化为指针或转换时，这可能会产生意外结果。当函数引用格式化为指示器、作为fmt:：pointer绑定的参数传递或转换时会出现此lint。</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>未占用静态lint检测未占用静态。</t>
+          <t>无人静态lint检测无人静态。</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>useless_deprecated lint检测无效的弃用属性。</t>
+          <t>useless_deprecatedlint检测无效的弃用属性。</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>undefined_naked_function_abi lint检测不指定abi或指定Rust abi的裸函数定义。</t>
+          <t>undefined_naked_function_abilint检测不指定abi或指定Rust abi的裸函数定义。</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>invalid_unstable_trait_impl lint检测未使用的#[不稳定]属性。</t>
+          <t>invalidate_unstable_trait_impllint检测未使用的#[不稳定]属性。</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -26474,12 +26474,12 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>当在表达式位置调用宏时，分号_in_expressions_from_macros lint在宏体中检测到尾随分号。这是以前接受的，但正在逐步取消。</t>
+          <t>当在表达式位置调用宏时，分号_in_expressions_from_macroslint在宏体中检测到尾随分号。这是以前接受的，但正在逐步取消。</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>以前，当在表达式位置调用宏时，Rust忽略了宏体中的尾部分号。然而，这使得语言中对分号的处理不一致，并可能在某些情况下导致意外的运行时行为（例如，如果宏作者期望删除值）。这是一个未来不兼容的lint，可以在将来将其转换为一个硬错误。有关更多详细信息，请参阅第79813期。</t>
+          <t>以前，当在表达式位置调用宏时，Rust忽略了宏体中的尾部分号。然而，这使得语言中对分号的处理不一致，并可能在某些情况下导致意外的运行时行为（例如，如果宏作者期望删除值）。这是未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第79813期。</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>legacy_derive_helpers lint检测在引入之前使用的派生助手属性。</t>
+          <t>legacy_derive_helperslint检测在引入之前使用的派生助手属性。</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -26546,12 +26546,12 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>large_assignments lint检测何时移动大型对象。</t>
+          <t>large_assignmentslint检测大型对象何时移动。</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>当在纯赋值或函数参数中使用大型类型时，惯用代码可能效率低下。理想情况下，适当的优化可以解决此问题，但此类优化只能以尽最大努力的方式进行。此lint将在所有大型移动的站点上触发，从而允许用户在代码中解决这些问题。</t>
+          <t>当在纯赋值或函数参数中使用大类型时，惯用代码可能效率低下。理想情况下，适当的优化可以解决此问题，但此类优化只能以尽最大努力的方式进行。这lint将在所有大移动的站点上触发，从而允许用户在代码中解决它们。</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -26578,12 +26578,12 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>depleted_cfg_attr_crate_type_name lint检测#！[cfg_attr（…，crate_type=“…”）]和#！[cfg_attr（…，crate_name=“…”）]属性在源代码中有条件地指定板条箱类型和名称。</t>
+          <t>depleted_cfg_attr_crate_type_namelint检测#！[cfg_attr（…，crate_type=“…”）]和#！[cfg_attr（…，crate_name=“…”）]属性在源代码中有条件地指定crate类型和名称。</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>#！[crate_type]和#！[板条箱名称]属性需要在编译器中进行破解，才能在宏扩展后更改使用的板条箱类型和板条箱名称。这两个属性都不能与Cargo结合使用，因为它在命令行上显式传递--crate type和--crate name。这些值必须与源代码中使用的值匹配，以防止出现错误。若要修复警告，请在运行grustc时在命令行中使用--crate类型，而不是#！[cfg_attr（…，crate_type=“…”）]和--机箱名称，而不是#！[cfg_attr（…，crate_name=“…”）]。</t>
+          <t>#！[crate_type]和#！[crate_name]属性需要在编译器中进行破解，才能在宏扩展后更改所使用的crate类型和crat名称。这两个属性都不能与Cargo结合使用，因为它在命令行上显式传递--crate type和--crate name。这些值必须与源代码中使用的值匹配，以防止出现错误。若要修复警告，请在运行grustc时在命令行中使用--crate类型，而不是#！[cfg_attr（…，crate_type=“…”）]和--机箱名称，而不是#！[cfg_attr（…，crate_name=“…”）]。</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -26604,12 +26604,12 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>意外的_cfgs lint检测到意外的条件编译条件。</t>
+          <t>意外的_cfgslint检测到意外的条件编译条件。</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>只有当--check cfg='names（…）'选项已传递给编译器时，此lint才处于活动状态，并在使用未知条件名称或值时触发。已知条件包括传入的名称或值--check cfg、--cfg，以及一些众所周知的编译器中内置的名称和值。</t>
+          <t>此lint仅在将--check cfg='names（…）'选项传递给编译器时才处于活动状态，并在使用未知条件名称或值时触发。已知条件包括传入的名称或值--check cfg、--cfg，以及一些众所周知的编译器中内置的名称和值。</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>以前，Rust接受包含外部私有零大小类型的字段，尽管在该私有类型中添加非零大小字段不应该是一个突破性的更改。这是一个未来不兼容的lint，将其转换为未来的一个硬错误。有关更多详细信息，请参阅第78586期。</t>
+          <t>以前，Rust接受包含外部私有零大小类型的字段，尽管在该私有类型中添加非零大小字段不应该是一个突破性的更改。这是未来不兼容的lint，将其转换为未来的一个硬错误。有关更多详细信息，请参阅第78586期。</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -26684,12 +26684,12 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>unstatible_syntax_pre_expansion lint检测到在属性扩展期间丢弃的unstatiblesyntax的使用。</t>
+          <t>unstatible_syntax_pre_expansionlint检测到在属性扩展期间丢弃的unstatiblesyntax的使用。</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>活动属性（如#[cfg]或过程宏属性）的输入必须是有效语法。以前，编译器只有在解析#[cfg]门并扩展过程宏之后才允许使用不稳定的语法功能。为了避免依赖不稳定的句法，请将不稳定语法的使用移到编译器不解析语法的位置，例如函数式宏。##！[deniy（unstatible_syntax_pre_expansion）]macro_rules！identity｛（$（$tokens:tt）*）=&gt;｛$（$tokens）*｝#[cfg（FALSE）]identity！｛macro foo（）｛｝｝这是一个未来不兼容的lint，将其转换为未来的硬错误。有关更多详细信息，请参阅第65860期。</t>
+          <t>活动属性（如#[cfg]或过程宏属性）的输入必须是有效语法。以前，编译器只有在解析#[cfg]门并扩展过程宏之后才允许使用不稳定的语法功能。为了避免依赖不稳定的句法，请将不稳定语法的使用移到编译器不解析语法的位置，例如函数式宏。##！[deniy（unstatible_syntax_pre_expansion）]macro_rules！identity｛（$（$tokens:tt）*）=&gt;｛$（$tokens）*｝#[cfg（FALSE）]identity！｛macro foo（）｛｝｝这是一个未来不兼容的lint，可以在未来将其转换为一个硬错误。有关更多详细信息，请参阅第65860期。</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -26711,12 +26711,12 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>模糊_glob_reexports lint检测通过globscollide重新导出名称的情况。下游用户试图使用从多个globswire重新导出的相同名称，将收到一条警告，指出重新定义了相同的名称。</t>
+          <t>模糊_glob_reexportslint检测名称通过globscollide重新导出的情况。下游用户试图使用从多个globswire重新导出的相同名称，将收到一条警告，指出重新定义了相同的名称。</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>这是以前接受的，但它可能会无声地破坏机箱的下游用户代码。例如，如果在将bar:：X添加到导出之前重新导出了foo:：*和bar:：*，则下游用户可以毫无问题地使用This_rate:：X。但是，添加bar:：X会导致下游板条箱中的编译错误，因为X在this_rate的同一命名空间中被多次定义。</t>
+          <t>这是以前接受的，但它可能会无声地破坏机箱的下游用户代码。例如，如果在将bar:：X添加到导出之前重新导出了foo:：*和bar:：*，则下游用户可以毫无问题地使用This_rate:：X。但是，添加bar:：X会导致下游crates中的编译错误，因为X在this_rate的同一命名空间中被多次定义。</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>unused_doc_comments lint检测rustdoc未使用的文档注释。</t>
+          <t>unused_doc_commentslint检测rustdoc未使用的文档注释。</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -26774,7 +26774,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>rust_2021_incomptible_closure_captures lint检测在rust 2021中未完全捕获的变量，因此它们的字段的Drop顺序在rust 2018和2021之间可能不同。它还可以检测变量何时实现了类似Send的特性，但它的一个字段没有，并且该字段由闭包捕获并且在假设所述字段实现与根变量相同的特性的情况下使用。</t>
+          <t>rust_2021_incomptible_closure_captureslint检测在rust 2021中未完全捕获的变量，因此它们的字段的Drop顺序在rust 2018和2021之间可能不同。它还可以检测变量何时实现了类似Send的特性，但它的一个字段没有，并且该字段由闭包捕获并且在假设所述字段实现与根变量相同的特性的情况下使用。</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>missing_abi lint检测从外部声明中省略abi的情况。</t>
+          <t>missing_abilint检测从外部声明中省略abi的情况。</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -26837,12 +26837,12 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>invalid_doc_attributes lint检测#[doc（…）]何时被使用。</t>
+          <t>invalid_doc_attributeslint检测#[doc（…）]何时被使用。</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>以前，没有验证#[doc（..）]属性的错误用法。通常，这些应该被视为硬错误而拒绝，但引入这种lint是为了避免破坏包括它们在内的任何现有速率。这是一种[未来不兼容]lint，可以在未来将其转变为硬错误。有关更多详细信息，请参阅第82730期。</t>
+          <t>以前，没有验证#[doc（..）]属性的错误用法。通常，这些应该作为硬错误被拒绝，但引入lint是为了避免破坏包括它们在内的任何现有速率。这是一个[future-incompatible]lint来将其转换为将来的硬错误。有关更多详细信息，请参阅第82730期。</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -26866,12 +26866,12 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>proc_macro_back_compat lint检测某些proc宏crate的旧版本的使用，这些旧版本在编译器中有硬编码的解决方案。</t>
+          <t>proc_macro_back_compatlint检测某些proc宏crate的旧版本的使用，这些旧版本在编译器中具有硬编码的解决方案。</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>最终，编译器中存在的向后兼容性黑客将被删除，导致某些crate的旧版本停止编译。这是一个未来不兼容的lint，以简化向错误的转换。有关更多详细信息，请参阅问题#83125。</t>
+          <t>最终，编译器中存在的向后兼容性黑客将被删除，导致某些crates的旧版本停止编译。这是一个未来不兼容的lint，以简化向错误的转换。有关更多详细信息，请参阅问题#83125。</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -26906,7 +26906,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>rust_2012_incompatible_or_patterns lint检测旧版本或模式的使用情况。</t>
+          <t>rust_2012_incompatible_or_patternslint检测旧版本或模式的使用情况。</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -26946,7 +26946,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>rust_2021_prelude_collisions lint检测到trait方法的使用，这些方法与未来版本中添加到前奏中的trait不明确。</t>
+          <t>rust_2021_prelude_collisionslint检测到特征方法的使用，这些方法与未来版本中添加到前奏中的特征不明确。</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -26987,12 +26987,12 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>rust_2012_prefixes_compatible_syntax-lint检测到的标识符将在rust 2021中被解析为aprefix。</t>
+          <t>rust_2021 _prefixes_compatible_syntaxlint检测到将在rust 2021中解析为aprefix的标识符。</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>在Rust 2015和2018中，z“嘿”是两个标记：标识符z后面跟着字符串“嘿”。在Rust 2021中，z被认为是“嘿”的前缀。这个lint建议在z和“嘿”标记之间添加空白，以在Rust 2021。</t>
+          <t>在Rust 2015和2018中，z“嘿”是两个标记：标识符z后面跟着字符串“嘿”。在Rust 2021中，z被认为是“嘿”的前缀。这lint建议在z和“嘿”标记之间添加空格，以在Rust 2021。</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>只要在目标上使用了请求的目标无法有效支持的stsdcall、fastcall、thiscall、vectorcall调用约定（或其undundvariant），就会输出unsupported_calling_conventions lint。例如，stdcall对x86_64或更明显的powerpcode没有多大意义，因为从未为这些目标指定过这种调用约定。从历史上看，MSVC工具链在x86以外的目标上已经回到了常规的C调用约定，但Rust并没有真正看到在更多目标上引入类似的黑客攻击的类似需求。</t>
+          <t>只要在目标上使用了请求的目标无法有效支持的stsdcall、fastcall、thiscall、vectorcall调用约定（或其undundvariation），就会输出unsupported_calling_conventionslint。例如，stdcall对x86_64或更明显的powerpcode没有多大意义，因为从未为这些目标指定过这种调用约定。从历史上看，MSVC工具链在x86以外的目标上已经回到了常规的C调用约定，但Rust并没有真正看到在更多目标上引入类似的黑客攻击的类似需求。</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -27054,7 +27054,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>break_with_label_and_loop lint检测标记的break表达式，并将未标记的循环作为其值表达式。</t>
+          <t>break_with_label_and_looplint检测标记的break表达式，其中一个未标记的循环作为其值表达式。</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>non_exhaustive_omitted_patters lint检测#[non_exhaustive]结构或枚举的模式中的通配符（_或..）何时可访问。</t>
+          <t>non_exhaustive_omitted_patteringslint检测#[non_exhausive]struct或enum的模式中的通配符（_或..）何时可访问。</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -27134,7 +27134,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>text_direction_codepoint_in_comment lint检测注释中的Unicode代码点，这些代码点以与内存上的文本表示不一致的方式更改屏幕上文本的视觉表示。</t>
+          <t>text_direction_codepoint_in_commentlint检测注释中的Unicode代码点，这些代码点以与内存上的文本表示不一致的方式更改屏幕上文本的视觉表示。</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -27163,7 +27163,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>duplicate_macro_attributes lint检测类似#[test]的内置宏属性何时在项目上重复。此lint可能在bench、cfg_eval、testand test_case上触发。</t>
+          <t>duplicate_macro_attributeslint检测类似#[test]的内置宏属性何时在项上重复。此lint可能在bench、cfg_eval、testand test_case上触发。</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>可疑的auto_trait_impls lint检查自动特征的潜在错误实现。</t>
+          <t>可疑的auto_trait_implslint检查自动特征的潜在错误实现。</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -27226,7 +27226,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>depleted_where_clause_location lint检测equals前面的where子句何时为关联类型。</t>
+          <t>depleted_where_clause_locationlint检测前面的where子句何时等于关联类型。</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>test_unstable_lint lint测试不稳定的lint，并且是永久不稳定的。</t>
+          <t>test_unstable_lintlint测试不稳定lints并且是永久不稳定的。</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -27283,12 +27283,12 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>ffi_unwind_calls lint检测对具有C展开或其他ffi展开ABI的外部函数或函数指针的调用。</t>
+          <t>ffi_unwind_callslint检测对具有C展开或其他ffi展开ABI的外部函数或函数指针的调用。</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>对于包含此类调用的板条箱，如果它们是用-C panic=unlock编译的，则生成的库无法与用-C panic=abort编译的板条箱链接。因此，对于那些希望拥有这种能力的陨石坑来说，有必要避免这样的呼吁。</t>
+          <t>对于包含此类调用的crates，如果它们是用-C panic=unvent编译的，则生成的库无法与用-C panic=abort编译的clates链接。因此，对于那些希望拥有这种能力的陨石坑来说，有必要避免这样的呼吁。</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -27317,7 +27317,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>named_arguments_used_positionally lint检测命名参数仅在格式字符串中位置使用的情况。这种用法是有效的，但可能非常令人困惑。</t>
+          <t>named_arguments_used_positionallylint检测命名参数仅在格式化字符串中位置使用的情况。这种用法是有效的，但可能非常令人困惑。</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -27349,7 +27349,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>implied_bounds_entailment lint检测impl方法的参数比其实现的trait方法的参数具有更强的隐含边界的情况。</t>
+          <t>implied_bounds_entailmentlint检测impl方法的参数比其实现的trait方法的参数具有更强的隐含边界的情况。</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -27385,12 +27385,12 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>byte_slice_in_packed_struct_with_derive lint检测在导出一个或多个内置特征的压缩结构中使用字节切片字段（[u8]）或字符串切片字段（str）的情况。</t>
+          <t>byte_slice_in_packed_struct_with_derivelint检测在导出一个或多个内置特征的压缩struct中使用字节切片字段（[u8]）或字符串切片字段（str）的情况。</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>这以前被接受，但现在正在逐步取消，因为压缩结构中的字段不需要实现Copy才能派生。字节切片和字符串切片是一个罕见的例外，因为某些板条箱依赖于它们。</t>
+          <t>这以前被接受，但现在正在逐步取消，因为压缩结构中的字段不需要实现Copy才能派生。字节切片和字符串切片是一个罕见的例外，因为某些crates依赖于它们。</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>invalid_macro_export_arguments lint检测#[mmacro_export]与无效参数一起使用的情况。</t>
+          <t>invalid_macro_export_argumentslint检测#[mmacro_export]与无效参数一起使用的情况。</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -481,8 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>#[allow(unused_mut)]
-fn foo() -&gt; usize {
+          <t>fn foo() -&gt; usize {
    let mut a = Vec::new();
    a.len()
 }</t>
@@ -490,9 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#![feature(lint_reasons)]
-#[expect(unused_mut)]
-fn foo() -&gt; usize {
+          <t>fn foo() -&gt; usize {
     let mut a = Vec::new();
     a.len()
 }</t>
@@ -582,22 +579,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t># #![feature(asm)]
-# #[cfg(any(target_arch = "x86", target_arch = "x86_64"))]
-# unsafe { let ptr = "".as_ptr();
-# use std::arch::asm;
-asm!("lea {}, [{}]", lateout(reg) _, in(reg) ptr);
-# }</t>
+          <t>asm!("lea {}, [{}]", lateout(reg) _, in(reg) ptr);</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t># #![feature(asm)]
-# #[cfg(any(target_arch = "x86", target_arch = "x86_64"))]
-# unsafe { let ptr = "".as_ptr();
-# use std::arch::asm;
-asm!("lea ({}), {}", in(reg) ptr, lateout(reg) _, options(att_syntax));
-# }</t>
+          <t>asm!("lea ({}), {}", in(reg) ptr, lateout(reg) _, options(att_syntax));</t>
         </is>
       </c>
     </row>
@@ -622,22 +609,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t># #![feature(asm)]
-# #[cfg(any(target_arch = "x86", target_arch = "x86_64"))]
-# unsafe { let ptr = "".as_ptr();
-# use std::arch::asm;
-asm!("lea ({}), {}", in(reg) ptr, lateout(reg) _, options(att_syntax));
-# }</t>
+          <t>asm!("lea ({}), {}", in(reg) ptr, lateout(reg) _, options(att_syntax));</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t># #![feature(asm)]
-# #[cfg(any(target_arch = "x86", target_arch = "x86_64"))]
-# unsafe { let ptr = "".as_ptr();
-# use std::arch::asm;
-asm!("lea {}, [{}]", lateout(reg) _, in(reg) ptr);
-# }</t>
+          <t>asm!("lea {}, [{}]", lateout(reg) _, in(reg) ptr);</t>
         </is>
       </c>
     </row>
@@ -691,9 +668,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t># let r = Ok::&lt;_, ()&gt;(());
-assert!(r.is_ok());
-# let r = Err::&lt;_, ()&gt;(());
+          <t>assert!(r.is_ok());
 assert!(r.is_err());</t>
         </is>
       </c>
@@ -794,8 +769,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>#[inline(always)]
-fn not_quite_hot_code(..) { ... }</t>
+          <t>fn not_quite_hot_code(..) { ... }</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -821,18 +795,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>#[deny(dead_code)]
-extern crate foo;
-#[forbid(dead_code)]
+          <t>extern crate foo;
 use foo::bar;</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>#[allow(unused_imports)]
-use foo::baz;
-#[allow(unused_imports)]
-#[macro_use]
+          <t>use foo::baz;
 extern crate baz;</t>
         </is>
       </c>
@@ -858,8 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>#[deprecated(since = "forever")]
-fn something_else() { /* ... */ }</t>
+          <t>fn something_else() { /* ... */ }</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -885,18 +853,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>#[allow(dead_code)]
-fn not_quite_good_code() { }</t>
+          <t>fn not_quite_good_code() { }</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>// Good (as inner attribute)
-#![allow(dead_code)]
 fn this_is_fine() { }
 // or
 // Good (as outer attribute)
-#[allow(dead_code)]
 fn this_is_fine_too() { }</t>
         </is>
       </c>
@@ -956,16 +921,8 @@
           <t>限制性lints有时与其他lint形成对比，甚至与惯用的铁锈相反。这些linth只能在逐个皮棉的基础上启用，并经过仔细考虑。</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>#![deny(clippy::restriction)]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>#![deny(clippy::as_conversions)]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -988,14 +945,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>#[cfg_attr(rustfmt, rustfmt_skip)]
-fn main() { }</t>
+          <t>fn main() { }</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>#[rustfmt::skip]
-fn main() { }</t>
+          <t>fn main() { }</t>
         </is>
       </c>
     </row>
@@ -1020,18 +975,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>#[cfg(linux)]
-fn conditional() { }</t>
+          <t>fn conditional() { }</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t># mod hidden {
-#[cfg(target_os = "linux")]
-fn conditional() { }
-# }
+          <t>fn conditional() { }
 // or
-#[cfg(unix)]
 fn conditional() { }
 Check the Rust Reference for more details.</t>
         </is>
@@ -1056,18 +1006,8 @@
           <t>允许lint应该总是有原因的。应记录此原因，以确保其他人理解其原因</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>#![feature(lint_reasons)]
-#![allow(clippy::some_lint)]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>#![feature(lint_reasons)]
-#![allow(clippy::some_lint, reason = "False positive rust-lang/rust-clippy#1002020")]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1090,14 +1030,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>#[cfg(any(unix))]
-pub struct Bar;</t>
+          <t>pub struct Bar;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>#[cfg(unix)]
-pub struct Bar;</t>
+          <t>pub struct Bar;</t>
         </is>
       </c>
     </row>
@@ -1122,9 +1060,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t># use std::sync::Mutex;
-# async fn baz() {}
-async fn foo(x: &amp;Mutex&lt;u32&gt;) {
+          <t>async fn foo(x: &amp;Mutex&lt;u32&gt;) {
   let mut guard = x.lock().unwrap();
   *guard += 1;
   baz().await;
@@ -1139,9 +1075,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t># use std::sync::Mutex;
-# async fn baz() {}
-async fn foo(x: &amp;Mutex&lt;u32&gt;) {
+          <t>async fn foo(x: &amp;Mutex&lt;u32&gt;) {
   {
     let mut guard = x.lock().unwrap();
     *guard += 1;
@@ -1179,9 +1113,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t># use std::cell::RefCell;
-# async fn baz() {}
-async fn foo(x: &amp;RefCell&lt;u32&gt;) {
+          <t>async fn foo(x: &amp;RefCell&lt;u32&gt;) {
   let mut y = x.borrow_mut();
   *y += 1;
   baz().await;
@@ -1196,9 +1128,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t># use std::cell::RefCell;
-# async fn baz() {}
-async fn foo(x: &amp;RefCell&lt;u32&gt;) {
+          <t>async fn foo(x: &amp;RefCell&lt;u32&gt;) {
   {
      let mut y = x.borrow_mut();
      *y += 1;
@@ -1242,7 +1172,6 @@
   # You can (optionally) specify a reason
   { path = "OtherCustomLockType", reason = "Relies on a thread local" }
 ]
-# async fn baz() {}
 struct CustomLockType;
 struct OtherCustomLockType;
 async fn foo() {
@@ -1275,15 +1204,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t># fn somefunc() -&gt; bool { true };
-if { true } { /* ... */ }
+          <t>if { true } { /* ... */ }
 if { let x = somefunc(); x } { /* ... */ }</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t># fn somefunc() -&gt; bool { true };
-if true { /* ... */ }
+          <t>if true { /* ... */ }
 let res = { let x = somefunc(); x };
 if res { /* ... */ }</t>
         </is>
@@ -1404,8 +1331,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t># let condition = false;
-if condition {
+          <t>if condition {
     1_i64
 } else {
     0
@@ -1414,10 +1340,8 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t># let condition = false;
-i64::from(condition);
+          <t>i64::from(condition);
 or
-# let condition = false;
 condition as i64;</t>
         </is>
       </c>
@@ -1449,8 +1373,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t># let s = &amp;String::new();
-let a: &amp;String = s;</t>
+          <t>let a: &amp;String = s;</t>
         </is>
       </c>
     </row>
@@ -1505,15 +1428,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t># let foo: u32 = 5;
-foo &lt;= i32::MAX as u32;</t>
+          <t>foo &lt;= i32::MAX as u32;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t># let foo = 1;
-# #[allow(unused)]
-i32::try_from(foo).is_ok();</t>
+          <t>i32::try_from(foo).is_ok();</t>
         </is>
       </c>
     </row>
@@ -1564,8 +1484,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t># let (x, y) = (true, true);
-if x {
+          <t>if x {
     if y {
         // …
     }
@@ -1574,8 +1493,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t># let (x, y) = (true, true);
-if x &amp;&amp; y {
+          <t>if x &amp;&amp; y {
     // …
 }</t>
         </is>
@@ -1642,8 +1560,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t># let samples = vec![3, 1, 2];
-let mut sorted_samples = samples.clone();
+          <t>let mut sorted_samples = samples.clone();
 sorted_samples.sort();
 for sample in &amp;samples { // Oops, meant to use `sorted_samples`.
     println!("{sample}");
@@ -1652,8 +1569,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t># let samples = vec![3, 1, 2];
-let mut sorted_samples = samples.clone();
+          <t>let mut sorted_samples = samples.clone();
 sorted_samples.sort();
 for sample in &amp;sorted_samples {
     println!("{sample}");
@@ -1682,10 +1598,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t># fn a() {}
-# fn b() {}
-# fn c() {}
-fn f(x: u8, y: u8) {
+          <t>fn f(x: u8, y: u8) {
     if x &gt; y {
         a()
     } else if x &lt; y {
@@ -1699,9 +1612,6 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>use std::cmp::Ordering;
-# fn a() {}
-# fn b() {}
-# fn c() {}
 fn f(x: u8, y: u8) {
      match x.cmp(&amp;y) {
          Ordering::Greater =&gt; a(),
@@ -1889,8 +1799,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>#[derive(Copy, Clone)]
-struct Countdown(u8);
+          <t>struct Countdown(u8);
 impl Iterator for Countdown {
     // ...
 }
@@ -1921,8 +1830,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>#[macro_export]
-macro_rules! print_message {
+          <t>macro_rules! print_message {
     () =&gt; {
         println!("{}", crate::MESSAGE);
     };
@@ -1932,8 +1840,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>#[macro_export]
-macro_rules! print_message {
+          <t>macro_rules! print_message {
     () =&gt; {
         println!("{}", $crate::MESSAGE);
     };
@@ -1941,7 +1848,6 @@
 pub const MESSAGE: &amp;str = "Hello!";
 Note that if the use of crate is intentional, an allow attribute can be applied to the
 macro definition, e.g.:
-#[allow(clippy::crate_in_macro_def)]
 macro_rules! ok { ... crate::foo ... }</t>
         </is>
       </c>
@@ -2057,17 +1963,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t># #[derive(Default)]
-# struct A { i: i32 }
-let mut a: A = Default::default();
+          <t>let mut a: A = Default::default();
 a.i = 42;</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t># #[derive(Default)]
-# struct A { i: i32 }
-let a = A {
+          <t>let a = A {
     i: 42,
     .. Default::default()
 };</t>
@@ -2095,9 +1997,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t># use std::marker::PhantomData;
-#[derive(Default)]
-struct S&lt;T&gt; {
+          <t>struct S&lt;T&gt; {
     _marker: PhantomData&lt;T&gt;
 }
 let _: S&lt;i32&gt; = S {
@@ -2107,8 +2007,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t># use std::marker::PhantomData;
-struct S&lt;T&gt; {
+          <t>struct S&lt;T&gt; {
     _marker: PhantomData&lt;T&gt;
 }
 let _: S&lt;i32&gt; = S {
@@ -2215,8 +2114,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>#[repr(C)]
-union Foo {
+          <t>union Foo {
     a: i32,
     b: u32,
 }
@@ -2291,8 +2189,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t># fn fun(_a: &amp;i32) {}
-let x: &amp;i32 = &amp;5;
+          <t>let x: &amp;i32 = &amp;5;
 fun(x);</t>
         </is>
       </c>
@@ -2400,8 +2297,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>#[derive(Default)]
-struct Foo {
+          <t>struct Foo {
     bar: bool
 }</t>
         </is>
@@ -2428,8 +2324,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>#[derive(Hash)]
-struct Foo;
+          <t>struct Foo;
 impl PartialEq for Foo {
     ...
 }</t>
@@ -2458,8 +2353,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>#[derive(Ord, PartialEq, Eq)]
-struct Foo;
+          <t>struct Foo;
 impl PartialOrd for Foo {
     ...
 }</t>
@@ -2467,8 +2361,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>#[derive(PartialEq, Eq)]
-struct Foo;
+          <t>struct Foo;
 impl PartialOrd for Foo {
     fn partial_cmp(&amp;self, other: &amp;Foo) -&gt; Option&lt;Ordering&gt; {
        Some(self.cmp(other))
@@ -2478,7 +2371,6 @@
     ...
 }
 or, if you don't need a custom ordering:
-#[derive(Ord, PartialOrd, PartialEq, Eq)]
 struct Foo;</t>
         </is>
       </c>
@@ -2504,8 +2396,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>#[derive(Copy)]
-struct Foo;
+          <t>struct Foo;
 impl Clone for Foo {
     // ..
 }</t>
@@ -2535,7 +2426,6 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>use serde::Deserialize;
-#[derive(Deserialize)]
 pub struct Foo {
     // ..
 }
@@ -2572,8 +2462,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>#[derive(PartialEq)]
-struct Foo {
+          <t>struct Foo {
     i_am_eq: i32,
     i_am_eq_too: Vec&lt;String&gt;,
 }</t>
@@ -2581,8 +2470,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>#[derive(PartialEq, Eq)]
-struct Foo {
+          <t>struct Foo {
     i_am_eq: i32,
     i_am_eq_too: Vec&lt;String&gt;,
 }</t>
@@ -2611,7 +2499,6 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>An example clippy.toml configuration:
-# clippy.toml
 disallowed-macros = [
     # Can use a string as the path of the disallowed macro.
     "std::print",
@@ -2625,7 +2512,6 @@
 // Example code where clippy issues a warning
 println!("warns");
 // The diagnostic will contain the message "no serializing"
-#[derive(Serialize)]
 struct Data {
     name: String,
     value: usize,
@@ -2656,7 +2542,6 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>An example clippy.toml configuration:
-# clippy.toml
 disallowed-methods = [
     # Can use a string as the path of the disallowed method.
     "std::boxed::Box::new",
@@ -2761,7 +2646,6 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>An example clippy.toml configuration:
-# clippy.toml
 disallowed-types = [
     # Can use a string as the path of the disallowed type.
     "std::collections::BTreeMap",
@@ -3059,7 +2943,6 @@
           <t>fn simple_double_parens() -&gt; i32 {
     ((0))
 }
-# fn foo(bar: usize) {}
 foo((0));</t>
         </is>
       </c>
@@ -3068,7 +2951,6 @@
           <t>fn simple_no_parens() -&gt; i32 {
     0
 }
-# fn foo(bar: usize) {}
 foo(0);</t>
         </is>
       </c>
@@ -3188,7 +3070,6 @@
 mod a;
 mod b;
 // a.rs
-#[path = "./b.rs"]
 mod b;</t>
         </is>
       </c>
@@ -3223,10 +3104,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t># fn a() {}
-# fn b() {}
-# let x: i32 = 1;
-if x.is_positive() {
+          <t>if x.is_positive() {
     a();
 } else if x.is_negative() {
     b();
@@ -3235,10 +3113,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t># fn a() {}
-# fn b() {}
-# let x: i32 = 1;
-if x.is_positive() {
+          <t>if x.is_positive() {
     a();
 } else if x.is_negative() {
     b();
@@ -3307,8 +3182,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>#![feature(never_type)]
-struct Test(!);</t>
+          <t>struct Test(!);</t>
         </is>
       </c>
     </row>
@@ -3363,22 +3237,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-# let mut map = HashMap::new();
-# let k = 1;
-# let v = 1;
-if !map.contains_key(&amp;k) {
+          <t>if !map.contains_key(&amp;k) {
     map.insert(k, v);
 }</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-# let mut map = HashMap::new();
-# let k = 1;
-# let v = 1;
-map.entry(k).or_insert(v);</t>
+          <t>map.entry(k).or_insert(v);</t>
         </is>
       </c>
     </row>
@@ -3403,9 +3269,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t># #[cfg(target_pointer_width = "64")]
-#[repr(usize)]
-enum NonPortable {
+          <t>enum NonPortable {
     X = 0x1_0000_0000,
     Y = 0,
 }</t>
@@ -3744,8 +3608,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>#[non_exhaustive]
-enum Foo {
+          <t>enum Foo {
     Bar,
     Baz
 }</t>
@@ -3781,8 +3644,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>#[non_exhaustive]
-struct Foo {
+          <t>struct Foo {
     bar: u8,
     baz: String,
 }</t>
@@ -3845,17 +3707,13 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t># use std::io::Write;
-# let bar = "furchtbar";
-writeln!(&amp;mut std::io::stderr(), "foo: {:?}", bar).unwrap();
+          <t>writeln!(&amp;mut std::io::stderr(), "foo: {:?}", bar).unwrap();
 writeln!(&amp;mut std::io::stdout(), "foo: {:?}", bar).unwrap();</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t># use std::io::Write;
-# let bar = "furchtbar";
-eprintln!("foo: {:?}", bar);
+          <t>eprintln!("foo: {:?}", bar);
 println!("foo: {:?}", bar);</t>
         </is>
       </c>
@@ -4207,17 +4065,13 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t># let foo = true;
-# let bar = false;
-// &amp;&amp;! looks like a different operator
+          <t>// &amp;&amp;! looks like a different operator
 if foo &amp;&amp;! bar {}</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t># let foo = true;
-# let bar = false;
-if foo &amp;&amp; !bar {}</t>
+          <t>if foo &amp;&amp; !bar {}</t>
         </is>
       </c>
     </row>
@@ -4310,14 +4164,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t># use std::panic::Location;
-println!("error: {}", format!("something failed at {}", Location::caller()));</t>
+          <t>println!("error: {}", format!("something failed at {}", Location::caller()));</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t># use std::panic::Location;
-println!("error: something failed at {}", Location::caller());</t>
+          <t>println!("error: something failed at {}", Location::caller());</t>
         </is>
       </c>
     </row>
@@ -4342,14 +4194,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t># use std::panic::Location;
-println!("error: something failed at {}", Location::caller().to_string());</t>
+          <t>println!("error: something failed at {}", Location::caller().to_string());</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t># use std::panic::Location;
-println!("error: something failed at {}", Location::caller());</t>
+          <t>println!("error: something failed at {}", Location::caller());</t>
         </is>
       </c>
     </row>
@@ -4374,10 +4224,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t># let var = 42;
-# let width = 1;
-# let prec = 2;
-format!("{}", var);
+          <t>format!("{}", var);
 format!("{v:?}", v = var);
 format!("{0} {0}", var);
 format!("{0:1$}", var, width);
@@ -4386,8 +4233,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t># let var = 42;
-format!("{var} {}", 1+2);</t>
+          <t>format!("{var} {}", 1+2);</t>
         </is>
       </c>
     </row>
@@ -4606,16 +4452,13 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t># use std::ffi::c_void;
-let ptr = Box::into_raw(Box::new(42usize)) as *mut c_void;
+          <t>let ptr = Box::into_raw(Box::new(42usize)) as *mut c_void;
 let _ = unsafe { Box::from_raw(ptr) };</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t># use std::ffi::c_void;
-# let ptr = Box::into_raw(Box::new(42usize)) as *mut c_void;
-let _ = unsafe { Box::from_raw(ptr as *mut usize) };</t>
+          <t>let _ = unsafe { Box::from_raw(ptr as *mut usize) };</t>
         </is>
       </c>
     </row>
@@ -4739,10 +4582,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t># let v: Vec&lt;usize&gt; = vec![];
-# fn a() {}
-# fn b() {}
-if !v.is_empty() {
+          <t>if !v.is_empty() {
     a()
 } else {
     b()
@@ -4751,10 +4591,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t># let v: Vec&lt;usize&gt; = vec![];
-# fn a() {}
-# fn b() {}
-if v.is_empty() {
+          <t>if v.is_empty() {
     b()
 } else {
     a()
@@ -4783,8 +4620,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t># let v = vec![0];
-let a = if v.is_empty() {
+          <t>let a = if v.is_empty() {
     println!("true!");
     Some(42)
 } else {
@@ -4794,8 +4630,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t># let v = vec![0];
-let a = v.is_empty().then(|| {
+          <t>let a = v.is_empty().then(|| {
     println!("true!");
     42
 });</t>
@@ -4823,15 +4658,9 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-# use std::hash::{Hash, BuildHasher};
-# trait Serialize {};
-impl&lt;K: Hash + Eq, V&gt; Serialize for HashMap&lt;K, V&gt; { }
+          <t>impl&lt;K: Hash + Eq, V&gt; Serialize for HashMap&lt;K, V&gt; { }
 pub fn foo(map: &amp;mut HashMap&lt;i32, i32&gt;) { }
 could be rewritten as
-# use std::collections::HashMap;
-# use std::hash::{Hash, BuildHasher};
-# trait Serialize {};
 impl&lt;K: Hash + Eq, V, S: BuildHasher&gt; Serialize for HashMap&lt;K, V, S&gt; { }
 pub fn foo&lt;S: BuildHasher&gt;(map: &amp;mut HashMap&lt;i32, i32, S&gt;) { }</t>
         </is>
@@ -4925,9 +4754,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t># let end: u32 = 10;
-# let start: u32 = 5;
-let mut i: u32 = end - start;
+          <t>let mut i: u32 = end - start;
 if i != 0 {
     i -= 1;
 }</t>
@@ -4935,9 +4762,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t># let end: u32 = 10;
-# let start: u32 = 5;
-let mut i: u32 = end - start;
+          <t>let mut i: u32 = end - start;
 i = i.saturating_sub(1);</t>
         </is>
       </c>
@@ -4974,13 +4799,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t># struct Foo {
-#     x: i32,
-#     y: i32,
-# }
-# let x = 1;
-# let y = 2;
-Foo { x, y };</t>
+          <t>Foo { x, y };</t>
         </is>
       </c>
     </row>
@@ -5012,8 +4831,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t># let x = [1, 2, 3, 4];
-// Index within bounds
+          <t>// Index within bounds
 x[0];
 x[3];</t>
         </is>
@@ -5052,10 +4870,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-# let x = vec![0; 5];
-# let y = [0, 1, 2, 3];
-x.get(2);
+          <t>x.get(2);
 x.get(2..100);
 y.get(10);
 y.get(10..100);</t>
@@ -5147,7 +4962,6 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>let infinite_iter = 0..;
-# #[allow(unused)]
 [0..].iter().zip(infinite_iter.take_while(|x| *x &gt; 5));</t>
         </is>
       </c>
@@ -5401,14 +5215,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t># use std::time::{Instant, Duration};
-let time_passed = Instant::now() - Duration::from_secs(5);</t>
+          <t>let time_passed = Instant::now() - Duration::from_secs(5);</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t># use std::time::{Instant, Duration};
-let time_passed = Instant::now().checked_sub(Duration::from_secs(5));</t>
+          <t>let time_passed = Instant::now().checked_sub(Duration::from_secs(5));</t>
         </is>
       </c>
     </row>
@@ -5433,16 +5245,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t># let x = 1;
-# let y = 1;
-if x &gt;= y + 1 {}</t>
+          <t>if x &gt;= y + 1 {}</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t># let x = 1;
-# let y = 1;
-if x &gt; y {}</t>
+          <t>if x &gt; y {}</t>
         </is>
       </c>
     </row>
@@ -5494,8 +5302,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t># #[allow(unused)]
-unsafe {
+          <t>unsafe {
     std::str::from_utf8_unchecked(b"cl\x82ippy");
 }</t>
         </is>
@@ -5571,8 +5378,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>#[cfg(test)]
-mod tests {
+          <t>mod tests {
     // [...]
 }
 fn my_function() {
@@ -5585,7 +5391,6 @@
           <t>fn my_function() {
     // [...]
 }
-#[cfg(test)]
 mod tests {
     // [...]
 }</t>
@@ -6043,12 +5848,10 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t># async fn context() {
-async fn foo() -&gt; Result&lt;(), ()&gt; {
+          <t>async fn foo() -&gt; Result&lt;(), ()&gt; {
     Ok(())
 }
-let _ = foo().await;
-# }</t>
+let _ = foo().await;</t>
         </is>
       </c>
     </row>
@@ -6212,21 +6015,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t># use std::{fs::File, io::{self, BufRead, BufReader}};
-# let _ = || -&gt; io::Result&lt;()&gt; {
-let mut lines = BufReader::new(File::open("some-path")?).lines().filter_map(Result::ok);
+          <t>let mut lines = BufReader::new(File::open("some-path")?).lines().filter_map(Result::ok);
 // If "some-path" points to a directory, the next statement never terminates:
-let first_line: Option&lt;String&gt; = lines.next();
-# Ok(()) };</t>
+let first_line: Option&lt;String&gt; = lines.next();</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t># use std::{fs::File, io::{self, BufRead, BufReader}};
-# let _ = || -&gt; io::Result&lt;()&gt; {
-let mut lines = BufReader::new(File::open("some-path")?).lines().map_while(Result::ok);
-let first_line: Option&lt;String&gt; = lines.next();
-# Ok(()) };</t>
+          <t>let mut lines = BufReader::new(File::open("some-path")?).lines().map_while(Result::ok);
+let first_line: Option&lt;String&gt; = lines.next();</t>
         </is>
       </c>
     </row>
@@ -6251,16 +6048,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t># let _: u64 =
-61864918973511
-# ;</t>
+          <t>61864918973511</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t># let _: u64 =
-61_864_918_973_511
-# ;</t>
+          <t>61_864_918_973_511</t>
         </is>
       </c>
     </row>
@@ -6312,16 +6105,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t># let _: u64 =
-618_64_9189_73_511
-# ;</t>
+          <t>618_64_9189_73_511</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t># let _: u64 =
-61_864_918_973_511
-# ;</t>
+          <t>61_864_918_973_511</t>
         </is>
       </c>
     </row>
@@ -6427,8 +6216,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>#[macro_use]
-use some_macro;</t>
+          <t>use some_macro;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -6577,26 +6365,19 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t># let (input, min, max) = (0, -2, 1);
-if input &gt; max {
+          <t>if input &gt; max {
     max
 } else if input &lt; min {
     min
 } else {
     input
 }
-# ;
-# let (input, min, max) = (0, -2, 1);
 input.max(min).min(max)
-# ;
-# let (input, min, max) = (0, -2, 1);
 match input {
     x if x &gt; max =&gt; max,
     x if x &lt; min =&gt; min,
     x =&gt; x,
 }
-# ;
-# let (input, min, max) = (0, -2, 1);
 let mut x = input;
 if x &lt; min { x = min; }
 if x &gt; max { x = max; }</t>
@@ -6604,9 +6385,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t># let (input, min, max) = (0, -2, 1);
-input.clamp(min, max)
-# ;</t>
+          <t>input.clamp(min, max)</t>
         </is>
       </c>
     </row>
@@ -6677,16 +6456,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t># let w = Some(0);
-let v = if let Some(v) = w { v } else { return };</t>
+          <t>let v = if let Some(v) = w { v } else { return };</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t># fn main () {
-# let w = Some(0);
-let Some(v) = w else { return };
-# }</t>
+          <t>let Some(v) = w else { return };</t>
         </is>
       </c>
     </row>
@@ -6757,17 +6532,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>#[non_exhaustive]
-struct S {
+          <t>struct S {
     pub a: i32,
     pub b: i32,
 }
-#[non_exhaustive]
 enum E {
     A,
     B,
 }
-#[non_exhaustive]
 struct T(pub i32, pub i32);</t>
         </is>
       </c>
@@ -6858,14 +6630,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t># let data : &amp;[i32] = &amp;[1, 2, 3];
-let newlen = data.len() * std::mem::size_of::&lt;i32&gt;();</t>
+          <t>let newlen = data.len() * std::mem::size_of::&lt;i32&gt;();</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t># let data : &amp;[i32] = &amp;[1, 2, 3];
-let newlen = std::mem::size_of_val(data);</t>
+          <t>let newlen = std::mem::size_of_val(data);</t>
         </is>
       </c>
     </row>
@@ -6958,25 +6728,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t># fn do_stuff() -&gt; Option&lt;String&gt; { Some(String::new()) }
-# fn log_err_msg(foo: String) -&gt; Option&lt;String&gt; { Some(foo) }
-# fn format_msg(foo: String) -&gt; String { String::new() }
-let x: Option&lt;String&gt; = do_stuff();
+          <t>let x: Option&lt;String&gt; = do_stuff();
 x.map(log_err_msg);
-# let x: Option&lt;String&gt; = do_stuff();
 x.map(|msg| log_err_msg(format_msg(msg)));</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t># fn do_stuff() -&gt; Option&lt;String&gt; { Some(String::new()) }
-# fn log_err_msg(foo: String) -&gt; Option&lt;String&gt; { Some(foo) }
-# fn format_msg(foo: String) -&gt; String { String::new() }
-let x: Option&lt;String&gt; = do_stuff();
+          <t>let x: Option&lt;String&gt; = do_stuff();
 if let Some(msg) = x {
     log_err_msg(msg);
 }
-# let x: Option&lt;String&gt; = do_stuff();
 if let Some(msg) = x {
     log_err_msg(format_msg(msg));
 }</t>
@@ -7004,25 +6766,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t># fn do_stuff() -&gt; Result&lt;String, String&gt; { Ok(String::new()) }
-# fn log_err_msg(foo: String) -&gt; Result&lt;String, String&gt; { Ok(foo) }
-# fn format_msg(foo: String) -&gt; String { String::new() }
-let x: Result&lt;String, String&gt; = do_stuff();
+          <t>let x: Result&lt;String, String&gt; = do_stuff();
 x.map(log_err_msg);
-# let x: Result&lt;String, String&gt; = do_stuff();
 x.map(|msg| log_err_msg(format_msg(msg)));</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t># fn do_stuff() -&gt; Result&lt;String, String&gt; { Ok(String::new()) }
-# fn log_err_msg(foo: String) -&gt; Result&lt;String, String&gt; { Ok(foo) }
-# fn format_msg(foo: String) -&gt; String { String::new() }
-let x: Result&lt;String, String&gt; = do_stuff();
+          <t>let x: Result&lt;String, String&gt; = do_stuff();
 if let Ok(msg) = x {
     log_err_msg(msg);
 };
-# let x: Result&lt;String, String&gt; = do_stuff();
 if let Ok(msg) = x {
     log_err_msg(format_msg(msg));
 };</t>
@@ -7090,9 +6844,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t># use std::mem;
-# use std::rc::Rc;
-mem::forget(Rc::new(55))</t>
+          <t>mem::forget(Rc::new(55))</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -7151,7 +6903,6 @@
         <is>
           <t>use std::mem;
 ///# fn may_panic(v: Vec&lt;i32&gt;) -&gt; Vec&lt;i32&gt; { v }
-#[allow(deprecated, invalid_value)]
 fn myfunc (v: &amp;mut Vec&lt;i32&gt;) {
     let taken_v = unsafe { mem::replace(v, mem::uninitialized()) };
     let new_v = may_panic(taken_v); // undefined behavior on panic
@@ -7398,16 +7149,14 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t># struct Service { ready: bool }
-fn call(service: Service) {
+          <t>fn call(service: Service) {
     assert!(service.ready);
 }</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t># struct Service { ready: bool }
-fn call(service: Service) {
+          <t>fn call(service: Service) {
     assert!(service.ready, "`service.poll_ready()` must be called first to ensure that service is ready to receive requests");
 }</t>
         </is>
@@ -7434,23 +7183,13 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t># struct Foo {
-#     random_number: usize,
-# }
-# impl Foo {
-fn new() -&gt; Self {
+          <t>fn new() -&gt; Self {
     Self { random_number: 42 }
 }
-# }
 Could be a const fn:
-# struct Foo {
-#     random_number: usize,
-# }
-# impl Foo {
 const fn new() -&gt; Self {
     Self { random_number: 42 }
-}
-# }</t>
+}</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -7499,7 +7238,6 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>An example clippy.toml configuration:
-# clippy.toml
 enforced-import-renames = [ { path = "serde_json::Value", rename = "JsonValue" }]
 use serde_json::Value;</t>
         </is>
@@ -7533,8 +7271,6 @@
         <is>
           <t>pub fn foo() {} // missing #[inline]
 fn ok() {} // ok
-#[inline] pub fn bar() {} // ok
-#[inline(always)] pub fn baz() {} // ok
 pub trait Bar {
   fn bar(); // ok
   fn def_bar() {} // missing #[inline]
@@ -7584,8 +7320,6 @@
     fn required();
     fn provided() {}
 }
-# struct Type;
-#[warn(clippy::missing_trait_methods)]
 impl Trait for Type {
     fn required() { /* ... */ }
 }</t>
@@ -7597,8 +7331,6 @@
     fn required();
     fn provided() {}
 }
-# struct Type;
-#[warn(clippy::missing_trait_methods)]
 impl Trait for Type {
     fn required() { /* ... */ }
     fn provided() { /* ... */ }
@@ -7637,8 +7369,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t># let mut x = 0;
-let tmp = {
+          <t>let tmp = {
     x = 1;
     1
 };
@@ -7667,9 +7398,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t># fn b() -&gt; bool { true }
-# fn c() -&gt; bool { true }
-let a = b() || panic!() || c();
+          <t>let a = b() || panic!() || c();
 // `c()` is dead, `panic!()` is only called if `b()` returns `false`
 let x = (a, b, c, panic!());
 // can simply be replaced by `panic!()`</t>
@@ -7864,8 +7593,6 @@
         <is>
           <t>debug_assert_eq!(vec![3].pop(), Some(3));
 // or
-# let mut x = 5;
-# fn takes_a_mut_parameter(_: &amp;mut u32) -&gt; bool { unimplemented!() }
 debug_assert!(takes_a_mut_parameter(&amp;mut x));</t>
         </is>
       </c>
@@ -7892,16 +7619,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t># let y = true;
-# use std::sync::Mutex;
-let x = Mutex::new(&amp;y);</t>
+          <t>let x = Mutex::new(&amp;y);</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t># let y = true;
-# use std::sync::atomic::AtomicBool;
-let x = AtomicBool::new(y);</t>
+          <t>let x = AtomicBool::new(y);</t>
         </is>
       </c>
     </row>
@@ -7926,14 +7649,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t># use std::sync::Mutex;
-let x = Mutex::new(0usize);</t>
+          <t>let x = Mutex::new(0usize);</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t># use std::sync::atomic::AtomicUsize;
-let x = AtomicUsize::new(0usize);</t>
+          <t>let x = AtomicUsize::new(0usize);</t>
         </is>
       </c>
     </row>
@@ -8005,8 +7726,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t># let mut y = 1;
-let x = &amp;mut &amp;mut y;</t>
+          <t>let x = &amp;mut &amp;mut y;</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -8032,16 +7752,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t># let mut vec = Vec::new();
-# let mut value = 5;
-vec.push(&amp;mut value);</t>
+          <t>vec.push(&amp;mut value);</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t># let mut vec = Vec::new();
-# let value = 5;
-vec.push(&amp;value);</t>
+          <t>vec.push(&amp;value);</t>
         </is>
       </c>
     </row>
@@ -8120,20 +7836,16 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t># let x = true;
-if x {
+          <t>if x {
     false
 } else {
     true
-}
-# ;</t>
+}</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t># let x = true;
-!x
-# ;</t>
+          <t>!x</t>
         </is>
       </c>
     </row>
@@ -8188,10 +7900,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t># fn must_keep(x: i32, y: i32) -&gt; bool { x == y }
-# let x = 32; let y = 10;
-# let mut skip: bool;
-if must_keep(x, y) {
+          <t>if must_keep(x, y) {
     skip = false;
 } else {
     skip = true;
@@ -8200,10 +7909,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t># fn must_keep(x: i32, y: i32) -&gt; bool { x == y }
-# let x = 32; let y = 10;
-# let mut skip: bool;
-skip = !must_keep(x, y);</t>
+          <t>skip = !must_keep(x, y);</t>
         </is>
       </c>
     </row>
@@ -8262,10 +7968,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t># fn condition() -&gt; bool { false }
-# fn update_condition() {}
-# let x = false;
-while condition() {
+          <t>while condition() {
     update_condition();
     if x {
         // ...
@@ -8275,9 +7978,6 @@
     println!("Hello, world");
 }
 Could be rewritten as
-# fn condition() -&gt; bool { false }
-# fn update_condition() {}
-# let x = false;
 while condition() {
     update_condition();
     if x {
@@ -8286,7 +7986,6 @@
     }
 }
 As another example, the following code
-# fn waiting() -&gt; bool { false }
 loop {
     if waiting() {
         continue;
@@ -8296,7 +7995,6 @@
     # break;
 }
 Could be rewritten as
-# fn waiting() -&gt; bool { false }
 loop {
     if waiting() {
         continue;
@@ -8536,13 +8234,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t># struct Point {
-#     x: i32,
-#     y: i32,
-#     z: i32,
-# }
-# let zero_point = Point { x: 0, y: 0, z: 0 };
-Point {
+          <t>Point {
     x: 1,
     y: 1,
     z: 1,
@@ -8590,8 +8282,6 @@
       <c r="F227" t="inlineStr">
         <is>
           <t>use std::cmp::Ordering;
-# let a = 1.0;
-# let b = f64::NAN;
 let _not_less_or_equal = match a.partial_cmp(&amp;b) {
     None | Some(Ordering::Greater) =&gt; true,
     _ =&gt; false,
@@ -8726,8 +8416,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t># use std::sync::atomic::{AtomicUsize, Ordering::SeqCst};
-static STATIC_ATOM: AtomicUsize = AtomicUsize::new(15);
+          <t>static STATIC_ATOM: AtomicUsize = AtomicUsize::new(15);
 STATIC_ATOM.store(9, SeqCst);
 assert_eq!(STATIC_ATOM.load(SeqCst), 9); // use a `static` item to refer to the same instance</t>
         </is>
@@ -9089,10 +8778,7 @@
     } else {
         f(a - 1, b + 1)
     }
-}
-# fn main() {
-#     print!("{}", f(1, 1));
-# }</t>
+}</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9103,10 +8789,7 @@
     } else {
         f(a - 1)
     }
-}
-# fn main() {
-#     print!("{}", f(1));
-# }</t>
+}</t>
         </is>
       </c>
     </row>
@@ -9159,9 +8842,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t># let optional: Option&lt;u32&gt; = Some(0);
-# fn do_complicated_function() -&gt; u32 { 5 };
-let _ = if let Some(foo) = optional {
+          <t>let _ = if let Some(foo) = optional {
     foo
 } else {
     5
@@ -9177,8 +8858,6 @@
     y*y
 };
 should be
-# let optional: Option&lt;u32&gt; = Some(0);
-# fn do_complicated_function() -&gt; u32 { 5 };
 let _ = optional.map_or(5, |foo| foo);
 let _ = optional.map_or(5, |val| val + 1);
 let _ = optional.map_or_else(||{
@@ -9210,9 +8889,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t># let a = 1;
-# let b = 2;
-a + b &lt; a;</t>
+          <t>a + b &lt; a;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -9509,16 +9186,13 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>#[derive(Clone, Copy)]
-struct TooLarge([u8; 2048]);
+          <t>struct TooLarge([u8; 2048]);
 fn foo(v: TooLarge) {}</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t># #[derive(Clone, Copy)]
-# struct TooLarge([u8; 2048]);
-fn foo(v: &amp;TooLarge) {}</t>
+          <t>fn foo(v: &amp;TooLarge) {}</t>
         </is>
       </c>
     </row>
@@ -9917,18 +9591,14 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t># let x = 0;
-# let y = 1;
-for i in x..(y+1) {
+          <t>for i in x..(y+1) {
     // ..
 }</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t># let x = 0;
-# let y = 1;
-for i in x..=y {
+          <t>for i in x..=y {
     // ..
 }</t>
         </is>
@@ -9955,18 +9625,14 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t># let x = 0;
-# let y = 1;
-for i in x..=(y-1) {
+          <t>for i in x..=(y-1) {
     // ..
 }</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t># let x = 0;
-# let y = 1;
-for i in x..y {
+          <t>for i in x..y {
     // ..
 }</t>
         </is>
@@ -10174,14 +9840,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t># use std::path::Path;
-# #[derive(Clone)]
-# struct Foo;
-# impl Foo {
-#     fn new() -&gt; Self { Foo {} }
-# }
-# fn call(x: Foo) {}
-{
+          <t>{
     let x = Foo::new();
     call(x.clone());
     call(x.clone()); // this can just pass `x`
@@ -10671,8 +10330,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t># {
-// It's better to have the `#[must_use]` attribute on the method like this:
+          <t>// It's better to have the `#[must_use]` attribute on the method like this:
 pub struct Bar;
 impl Bar {
     #[must_use]
@@ -10680,17 +10338,13 @@
         Self
     }
 }
-# }
-# {
 // Or on the type definition like this:
-#[must_use]
 pub struct Bar;
 impl Bar {
     pub fn bar(&amp;self) -&gt; Self {
         Self
     }
-}
-# }</t>
+}</t>
         </is>
       </c>
     </row>
@@ -10790,16 +10444,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t># fn f(_: u32) {}
-# let x = 0;
-unsafe { f(x) };</t>
+          <t>unsafe { f(x) };</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t># fn f(_: u32) {}
-# let x = 0;
-unsafe { f(x); }</t>
+          <t>unsafe { f(x); }</t>
         </is>
       </c>
     </row>
@@ -10824,16 +10474,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t># fn f(_: u32) {}
-# let x = 0;
-unsafe { f(x); }</t>
+          <t>unsafe { f(x); }</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t># fn f(_: u32) {}
-# let x = 0;
-unsafe { f(x) };</t>
+          <t>unsafe { f(x) };</t>
         </is>
       </c>
     </row>
@@ -10919,14 +10565,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t># let x = 1;
-let x = &amp;x;</t>
+          <t>let x = &amp;x;</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t># let x = 1;
-let y = &amp;x; // use different variable name</t>
+          <t>let y = &amp;x; // use different variable name</t>
         </is>
       </c>
     </row>
@@ -10981,17 +10625,13 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t># let y = 1;
-# let z = 2;
-let x = y;
+          <t>let x = y;
 let x = z; // shadows the earlier binding</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t># let y = 1;
-# let z = 2;
-let x = y;
+          <t>let x = y;
 let w = z; // use different variable name</t>
         </is>
       </c>
@@ -11122,9 +10762,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t># use std::ptr::copy_nonoverlapping;
-# use std::mem::size_of;
-const SIZE: usize = 128;
+          <t>const SIZE: usize = 128;
 let x = [2u8; SIZE];
 let mut y = [2u8; SIZE];
 unsafe { copy_nonoverlapping(x.as_ptr(), y.as_mut_ptr(), size_of::&lt;u8&gt;() * SIZE) };</t>
@@ -11202,9 +10840,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t># use core::iter::repeat;
-# let len = 4;
-let mut vec1 = Vec::with_capacity(len);
+          <t>let mut vec1 = Vec::with_capacity(len);
 vec1.resize(len, 0);
 let mut vec1 = Vec::with_capacity(len);
 vec1.resize(vec1.capacity(), 0);
@@ -11214,8 +10850,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t># let len = 4;
-let mut vec1 = vec![0; len];
+          <t>let mut vec1 = vec![0; len];
 let mut vec2 = vec![0; len];</t>
         </is>
       </c>
@@ -11276,8 +10911,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t># extern crate alloc;
-use alloc::vec::Vec;</t>
+          <t>use alloc::vec::Vec;</t>
         </is>
       </c>
     </row>
@@ -11302,8 +10936,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t># extern crate alloc;
-use alloc::slice::from_ref;</t>
+          <t>use alloc::slice::from_ref;</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -11664,12 +11297,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t># struct Vec3 {
-#     x: f64,
-#     y: f64,
-#     z: f64,
-# }
-// same as above except:
+          <t>// same as above except:
 impl PartialEq for Vec3 {
     fn eq(&amp;self, other: &amp;Self) -&gt; bool {
         // Note we now compare other.x to self.x
@@ -11825,17 +11453,13 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t># let mut a = 1;
-# let mut b = 2;
-a = b;
+          <t>a = b;
 b = a;</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t># let mut a = 1;
-# let mut b = 2;
-std::mem::swap(&amp;mut a, &amp;mut b);</t>
+          <t>std::mem::swap(&amp;mut a, &amp;mut b);</t>
         </is>
       </c>
     </row>
@@ -11978,11 +11602,9 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>#[test]
-fn my_cool_test() {
+          <t>fn my_cool_test() {
     // [...]
 }
-#[cfg(test)]
 mod tests {
     // [...]
 }</t>
@@ -11990,8 +11612,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>#[cfg(test)]
-mod tests {
+          <t>mod tests {
     #[test]
     fn my_cool_test() {
         // [...]
@@ -12021,16 +11642,12 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t># let c = 'c';
-# let radix = 10;
-let is_digit = c.to_digit(radix).is_some();</t>
+          <t>let is_digit = c.to_digit(radix).is_some();</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t># let c = 'c';
-# let radix = 10;
-let is_digit = c.is_digit(radix);</t>
+          <t>let is_digit = c.is_digit(radix);</t>
         </is>
       </c>
     </row>
@@ -12063,8 +11680,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>#[repr(C)]
-struct MoreOftenUseful {
+          <t>struct MoreOftenUseful {
     some_field: usize,
     last: [u32; 0],
 }</t>
@@ -12861,18 +12477,14 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t># let option = Some(0);
-# fn do_something_with(_x: usize) {}
-if option.is_some() {
+          <t>if option.is_some() {
     do_something_with(option.unwrap())
 }</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t># let option = Some(0);
-# fn do_something_with(_x: usize) {}
-if let Some(value) = option {
+          <t>if let Some(value) = option {
     do_something_with(value)
 }</t>
         </is>
@@ -12899,9 +12511,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t># let option = Some(0);
-# fn do_something_with(_x: usize) {}
-if option.is_none() {
+          <t>if option.is_none() {
     do_something_with(option.unwrap())
 }
 This code will always panic. The if condition should probably be inverted.</t>
@@ -13082,8 +12692,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t># fn foo(_x: &amp;[u8]) {}
-foo(&amp;[1, 2]);</t>
+          <t>foo(&amp;[1, 2]);</t>
         </is>
       </c>
     </row>
@@ -13140,14 +12749,12 @@
       <c r="E363" t="inlineStr">
         <is>
           <t>use std::cmp::Ordering::*;
-# fn foo(_: std::cmp::Ordering) {}
 foo(Less);</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
           <t>use std::cmp::Ordering;
-# fn foo(_: Ordering) {}
 foo(Ordering::Less)</t>
         </is>
       </c>
@@ -13235,10 +12842,8 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t># let name = "World";
-print!("Hello {}!\n", name);
+          <t>print!("Hello {}!\n", name);
 use println!() instead
-# let name = "World";
 println!("Hello {}!", name);</t>
         </is>
       </c>
@@ -13317,8 +12922,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t># let foo = "bar";
-println!("{:?}", foo);</t>
+          <t>println!("{:?}", foo);</t>
         </is>
       </c>
       <c r="F369" t="inlineStr"/>
@@ -13372,16 +12976,12 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-writeln!(buf, "");</t>
+          <t>writeln!(buf, "");</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-writeln!(buf);</t>
+          <t>writeln!(buf);</t>
         </is>
       </c>
     </row>
@@ -13406,18 +13006,12 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-# let name = "World";
-write!(buf, "Hello {}!\n", name);</t>
+          <t>write!(buf, "Hello {}!\n", name);</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-# let name = "World";
-writeln!(buf, "Hello {}!", name);</t>
+          <t>writeln!(buf, "Hello {}!", name);</t>
         </is>
       </c>
     </row>
@@ -13442,16 +13036,12 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-writeln!(buf, "{}", "foo");</t>
+          <t>writeln!(buf, "{}", "foo");</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t># use std::fmt::Write;
-# let mut buf = String::new();
-writeln!(buf, "foo");</t>
+          <t>writeln!(buf, "foo");</t>
         </is>
       </c>
     </row>
@@ -13506,16 +13096,14 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-fn unique_words(text: &amp;str) -&gt; HashMap&lt;&amp;str, ()&gt; {
+          <t>fn unique_words(text: &amp;str) -&gt; HashMap&lt;&amp;str, ()&gt; {
     todo!();
 }</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t># use std::collections::HashSet;
-fn unique_words(text: &amp;str) -&gt; HashSet&lt;&amp;str&gt; {
+          <t>fn unique_words(text: &amp;str) -&gt; HashSet&lt;&amp;str&gt; {
     todo!();
 }</t>
         </is>
@@ -13542,8 +13130,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t># This `Cargo.toml` is missing a description field:
-[package]
+          <t>[package]
 name = "clippy"
 version = "0.0.212"
 repository = "https://github.com/rust-lang/rust-clippy"
@@ -13552,7 +13139,6 @@
 keywords = ["clippy", "lint", "plugin"]
 categories = ["development-tools", "development-tools::cargo-plugins"]
 Should include a description field like:
-# This `Cargo.toml` includes all common metadata
 [package]
 name = "clippy"
 version = "0.0.212"
@@ -13587,8 +13173,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t># The `Cargo.toml` with feature name redundancy
-[features]
+          <t>[features]
 default = ["use-abc", "with-def", "ghi-support"]
 use-abc = []  // redundant
 with-def = []   // redundant
@@ -13626,8 +13211,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t># The `Cargo.toml` with negative feature names
-[features]
+          <t>[features]
 default = []
 no-abc = []
 not-def = []</t>
@@ -13663,8 +13247,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t># This will pull in both winapi v0.3.x and v0.2.x, triggering a warning.
-[dependencies]
+          <t>[dependencies]
 ctrlc = "=3.1.0"
 ansi_term = "=0.11.0"</t>
         </is>
@@ -13788,7 +13371,6 @@
     }
 }
 // Or
-#[allow(clippy::cast_possible_truncation)]
 fn as_u16(x: u64) -&gt; u16 {
     x as u16
 }</t>
@@ -13941,8 +13523,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t># fn fun() -&gt; i32 { 1 }
-let _ = fun as usize;</t>
+          <t>let _ = fun as usize;</t>
         </is>
       </c>
     </row>
@@ -14448,8 +14029,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t># struct Color;
-fn foo(x: u32, y: u32, name: &amp;str, c: Color, w: f32, h: f32, a: f32, b: f32) {
+          <t>fn foo(x: u32, y: u32, name: &amp;str, c: Color, w: f32, h: f32, a: f32, b: f32) {
     // ..
 }</t>
         </is>
@@ -14547,8 +14127,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>#[must_use]
-fn useless() { }</t>
+          <t>fn useless() { }</t>
         </is>
       </c>
       <c r="F406" t="inlineStr"/>
@@ -14574,8 +14153,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>#[must_use]
-fn double_must_use() -&gt; Result&lt;(), ()&gt; {
+          <t>fn double_must_use() -&gt; Result&lt;(), ()&gt; {
     unimplemented!();
 }</t>
         </is>
@@ -14633,7 +14211,6 @@
           <t>pub fn read_u8() -&gt; Result&lt;u8, ()&gt; { Err(()) }
 should become
 use std::fmt;
-#[derive(Debug)]
 pub struct EndOfStream;
 impl fmt::Display for EndOfStream {
     fn fmt(&amp;self, f: &amp;mut fmt::Formatter&lt;'_&gt;) -&gt; fmt::Result {
@@ -14796,18 +14373,14 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t># let src = vec![1];
-# let mut dst = vec![0; 65];
-for i in 0..src.len() {
+          <t>for i in 0..src.len() {
     dst[i + 64] = src[i];
 }</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t># let src = vec![1];
-# let mut dst = vec![0; 65];
-dst[64..(src.len() + 64)].clone_from_slice(&amp;src[..]);</t>
+          <t>dst[64..(src.len() + 64)].clone_from_slice(&amp;src[..]);</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14442,6 @@
       <c r="E415" t="inlineStr">
         <is>
           <t>// with `y` a `Vec` or slice:
-# let y = vec![1];
 for x in y.iter() {
     // ..
 }</t>
@@ -14877,8 +14449,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t># let y = vec![1];
-for x in &amp;y {
+          <t>for x in &amp;y {
     // ..
 }</t>
         </is>
@@ -14905,13 +14476,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t># let y = vec![1];
-// with `y` a `Vec` or slice:
+          <t>// with `y` a `Vec` or slice:
 for x in y.into_iter() {
     // ..
 }
 can be rewritten to
-# let y = vec![1];
 for x in y {
     // ..
 }</t>
@@ -14968,8 +14537,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t># let y = Some(1);
-loop {
+          <t>loop {
     let x = match y {
         Some(x) =&gt; x,
         None =&gt; break,
@@ -15005,9 +14573,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t># let v = vec![1];
-# fn bar(bar: usize, baz: usize) {}
-let mut i = 0;
+          <t>let mut i = 0;
 for item in &amp;v {
     bar(i, *item);
     i += 1;
@@ -15016,9 +14582,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t># let v = vec![1];
-# fn bar(bar: usize, baz: usize) {}
-for (i, item) in v.iter().enumerate() { bar(i, *item); }</t>
+          <t>for (i, item) in v.iter().enumerate() { bar(i, *item); }</t>
         </is>
       </c>
     </row>
@@ -15450,9 +15014,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t># fn bar(stool: &amp;str) {}
-# let x = Some("abc");
-match x {
+          <t>match x {
     Some(ref foo) =&gt; bar(foo),
     _ =&gt; (),
 }</t>
@@ -15460,9 +15022,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t># fn bar(stool: &amp;str) {}
-# let x = Some("abc");
-if let Some(ref foo) = x {
+          <t>if let Some(ref foo) = x {
     bar(foo);
 }</t>
         </is>
@@ -15490,17 +15050,11 @@
       <c r="E433" t="inlineStr">
         <is>
           <t>Using match:
-# fn bar(foo: &amp;usize) {}
-# let other_ref: usize = 1;
-# let x: Option&lt;&amp;usize&gt; = Some(&amp;1);
 match x {
     Some(ref foo) =&gt; bar(foo),
     _ =&gt; bar(&amp;other_ref),
 }
 Using if let with else:
-# fn bar(foo: &amp;usize) {}
-# let other_ref: usize = 1;
-# let x: Option&lt;&amp;usize&gt; = Some(&amp;1);
 if let Some(ref foo) = x {
     bar(foo);
 } else {
@@ -15569,9 +15123,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t># fn foo() {}
-# fn bar() {}
-let condition: bool = true;
+          <t>let condition: bool = true;
 match condition {
     true =&gt; foo(),
     false =&gt; bar(),
@@ -15580,9 +15132,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t># fn foo() {}
-# fn bar() {}
-let condition: bool = true;
+          <t>let condition: bool = true;
 if condition {
     foo();
 } else {
@@ -15708,9 +15258,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t># enum Foo { A(usize), B(usize) }
-# let x = Foo::B(1);
-match x {
+          <t>match x {
     Foo::A(_) =&gt; {},
     _ =&gt; {},
 }</t>
@@ -15718,9 +15266,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t># enum Foo { A(usize), B(usize) }
-# let x = Foo::B(1);
-match x {
+          <t>match x {
     Foo::A(_) =&gt; {},
     Foo::B(_) =&gt; {},
 }</t>
@@ -15748,9 +15294,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t># enum Foo { A, B, C }
-# let x = Foo::B;
-match x {
+          <t>match x {
     Foo::A =&gt; {},
     Foo::B =&gt; {},
     _ =&gt; {},
@@ -15759,9 +15303,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t># enum Foo { A, B, C }
-# let x = Foo::B;
-match x {
+          <t>match x {
     Foo::A =&gt; {},
     Foo::B =&gt; {},
     Foo::C =&gt; {},
@@ -15790,8 +15332,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t># let s = "foo";
-match s {
+          <t>match s {
     "a" =&gt; {},
     "bar" | _ =&gt; {},
 }</t>
@@ -15799,8 +15340,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t># let s = "foo";
-match s {
+          <t>match s {
     "a" =&gt; {},
     _ =&gt; {},
 }</t>
@@ -15868,9 +15408,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t># let a = 1;
-# let b = 2;
-match (a, b) {
+          <t>match (a, b) {
     (c, d) =&gt; {
         // useless match
     }
@@ -15879,9 +15417,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t># let a = 1;
-# let b = 2;
-let (c, d) = (a, b);</t>
+          <t>let (c, d) = (a, b);</t>
         </is>
       </c>
     </row>
@@ -15906,8 +15442,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t># struct A { a: i32 }
-let a = A { a: 5 };
+          <t>let a = A { a: 5 };
 match a {
     A { a: 5, .. } =&gt; {},
     _ =&gt; {},
@@ -15916,9 +15451,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t># struct A { a: i32 }
-# let a = A { a: 5 };
-match a {
+          <t>match a {
     A { a: 5 } =&gt; {},
     _ =&gt; {},
 }</t>
@@ -15946,9 +15479,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t># use std::task::Poll;
-# use std::net::{IpAddr, Ipv4Addr, Ipv6Addr};
-if let Ok(_) = Ok::&lt;i32, i32&gt;(42) {}
+          <t>if let Ok(_) = Ok::&lt;i32, i32&gt;(42) {}
 if let Err(_) = Err::&lt;i32, i32&gt;(42) {}
 if let None = None::&lt;()&gt; {}
 if let Some(_) = Some(42) {}
@@ -15964,9 +15495,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t># use std::task::Poll;
-# use std::net::{IpAddr, Ipv4Addr, Ipv6Addr};
-if Ok::&lt;i32, i32&gt;(42).is_ok() {}
+          <t>if Ok::&lt;i32, i32&gt;(42).is_ok() {}
 if Err::&lt;i32, i32&gt;(42).is_err() {}
 if None::&lt;()&gt;.is_none() {}
 if Some(42).is_some() {}
@@ -16245,8 +15774,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t># let text = "Foo";
-match &amp;*text.to_ascii_lowercase() {
+          <t>match &amp;*text.to_ascii_lowercase() {
     "foo" =&gt; {},
     "Bar" =&gt; {},
     _ =&gt; {},
@@ -16255,8 +15783,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t># let text = "Foo";
-match &amp;*text.to_ascii_lowercase() {
+          <t>match &amp;*text.to_ascii_lowercase() {
     "foo" =&gt; {},
     "bar" =&gt; {},
     _ =&gt; {},
@@ -16285,15 +15812,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t># use std::sync::Mutex;
-# struct State {}
-# impl State {
-#     fn foo(&amp;self) -&gt; bool {
-#         true
-#     }
-#     fn bar(&amp;self) {}
-# }
-let mutex = Mutex::new(State {});
+          <t>let mutex = Mutex::new(State {});
 match mutex.lock().unwrap().foo() {
     true =&gt; {
         mutex.lock().unwrap().bar(); // Deadlock!
@@ -16305,15 +15824,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t># use std::sync::Mutex;
-# struct State {}
-# impl State {
-#     fn foo(&amp;self) -&gt; bool {
-#         true
-#     }
-#     fn bar(&amp;self) {}
-# }
-let mutex = Mutex::new(State {});
+          <t>let mutex = Mutex::new(State {});
 let is_foo = mutex.lock().unwrap().foo();
 match is_foo {
     true =&gt; {
@@ -16519,15 +16030,13 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t># let vec = vec!["string".to_string()];
-vec.iter().cloned().take(10);
+          <t>vec.iter().cloned().take(10);
 vec.iter().cloned().last();</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t># let vec = vec!["string".to_string()];
-vec.iter().take(10).cloned();
+          <t>vec.iter().take(10).cloned();
 vec.iter().last().cloned();</t>
         </is>
       </c>
@@ -16583,17 +16092,13 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-option.unwrap();
+          <t>option.unwrap();
 result.unwrap();</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-option?;
+          <t>option?;
 // or
 result?;</t>
         </is>
@@ -16620,17 +16125,13 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-option.expect("one");
+          <t>option.expect("one");
 result.expect("one");</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-option?;
+          <t>option?;
 // or
 result?;</t>
         </is>
@@ -16661,7 +16162,6 @@
 impl X {
     fn add(&amp;self, other: &amp;X) -&gt; X {
         // ..
-# X
     }
 }</t>
         </is>
@@ -16689,11 +16189,9 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t># struct X;
-impl X {
+          <t>impl X {
     fn as_str(self) -&gt; &amp;'static str {
         // ..
-# ""
     }
 }</t>
         </is>
@@ -16721,14 +16219,12 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t># let x = Ok::&lt;_, ()&gt;(());
-x.ok().expect("why did I do this again?");</t>
+          <t>x.ok().expect("why did I do this again?");</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t># let x = Ok::&lt;_, ()&gt;(());
-x.expect("why did I do this again?");</t>
+          <t>x.expect("why did I do this again?");</t>
         </is>
       </c>
     </row>
@@ -16785,15 +16281,13 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t># let x = Some(1);
-x.unwrap_or_else(Default::default);
+          <t>x.unwrap_or_else(Default::default);
 x.unwrap_or_else(u32::default);</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t># let x = Some(1);
-x.unwrap_or_default();</t>
+          <t>x.unwrap_or_default();</t>
         </is>
       </c>
     </row>
@@ -16818,19 +16312,13 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-# fn some_function(foo: ()) -&gt; usize { 1 }
-option.map(|a| a + 1).unwrap_or(0);
+          <t>option.map(|a| a + 1).unwrap_or(0);
 result.map(|a| a + 1).unwrap_or_else(some_function);</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t># let option = Some(1);
-# let result: Result&lt;usize, ()&gt; = Ok(1);
-# fn some_function(foo: ()) -&gt; usize { 1 }
-option.map_or(0, |a| a + 1);
+          <t>option.map_or(0, |a| a + 1);
 result.map_or_else(some_function, |a| a + 1);</t>
         </is>
       </c>
@@ -16856,14 +16344,12 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t># let opt = Some(1);
-opt.map_or(None, |a| Some(a + 1));</t>
+          <t>opt.map_or(None, |a| Some(a + 1));</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t># let opt = Some(1);
-opt.and_then(|a| Some(a + 1));</t>
+          <t>opt.and_then(|a| Some(a + 1));</t>
         </is>
       </c>
     </row>
@@ -16888,14 +16374,12 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t># let r: Result&lt;u32, &amp;str&gt; = Ok(1);
-assert_eq!(Some(1), r.map_or(None, Some));</t>
+          <t>assert_eq!(Some(1), r.map_or(None, Some));</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t># let r: Result&lt;u32, &amp;str&gt; = Ok(1);
-assert_eq!(Some(1), r.ok());</t>
+          <t>assert_eq!(Some(1), r.ok());</t>
         </is>
       </c>
     </row>
@@ -16920,18 +16404,14 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t># fn opt() -&gt; Option&lt;&amp;'static str&gt; { Some("42") }
-# fn res() -&gt; Result&lt;&amp;'static str, &amp;'static str&gt; { Ok("42") }
-let _ = opt().and_then(|s| Some(s.len()));
+          <t>let _ = opt().and_then(|s| Some(s.len()));
 let _ = res().and_then(|s| if s.len() == 42 { Ok(10) } else { Ok(20) });
 let _ = res().or_else(|s| if s.len() == 42 { Err(10) } else { Err(20) });</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t># fn opt() -&gt; Option&lt;&amp;'static str&gt; { Some("42") }
-# fn res() -&gt; Result&lt;&amp;'static str, &amp;'static str&gt; { Ok("42") }
-let _ = opt().map(|s| s.len());
+          <t>let _ = opt().map(|s| s.len());
 let _ = res().map(|s| if s.len() == 42 { 10 } else { 20 });
 let _ = res().map_err(|s| if s.len() == 42 { 10 } else { 20 });</t>
         </is>
@@ -16958,14 +16438,12 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t># let vec = vec![1];
-vec.iter().filter(|x| **x == 0).next();</t>
+          <t>vec.iter().filter(|x| **x == 0).next();</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t># let vec = vec![1];
-vec.iter().find(|x| **x == 0);</t>
+          <t>vec.iter().find(|x| **x == 0);</t>
         </is>
       </c>
     </row>
@@ -16990,14 +16468,12 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t># let vec = vec![1];
-vec.iter().skip_while(|x| **x == 0).next();</t>
+          <t>vec.iter().skip_while(|x| **x == 0).next();</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t># let vec = vec![1];
-vec.iter().find(|x| **x != 0);</t>
+          <t>vec.iter().find(|x| **x != 0);</t>
         </is>
       </c>
     </row>
@@ -17030,9 +16506,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t># let vec = vec![vec![1]];
-# let opt = Some(5);
-vec.iter().flat_map(|x| x.iter());
+          <t>vec.iter().flat_map(|x| x.iter());
 opt.and_then(|x| Some(x * 2));</t>
         </is>
       </c>
@@ -17058,16 +16532,14 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-(0_i32..10)
+          <t>(0_i32..10)
     .filter(|n| n.checked_add(1).is_some())
     .map(|n| n.checked_add(1).unwrap());</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t># #[allow(unused)]
-(0_i32..10).filter_map(|n| n.checked_add(1));</t>
+          <t>(0_i32..10).filter_map(|n| n.checked_add(1));</t>
         </is>
       </c>
     </row>
@@ -17152,10 +16624,8 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t># let iter = vec![vec![0]].into_iter();
-iter.flat_map(|x| x);
+          <t>iter.flat_map(|x| x);
 Can be written as
-# let iter = vec![vec![0]].into_iter();
 iter.flatten();</t>
         </is>
       </c>
@@ -17178,8 +16648,7 @@
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-let vec = vec![1];
+          <t>let vec = vec![1];
 vec.iter().find(|x| **x == 0).is_some();
 "hello world".find("world").is_none();</t>
         </is>
@@ -17188,7 +16657,6 @@
         <is>
           <t>let vec = vec![1];
 vec.iter().any(|x| *x == 0);
-# #[allow(unused)]
 !"hello world".contains("world");</t>
         </is>
       </c>
@@ -17246,14 +16714,12 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t># let foo = Some(String::new());
-foo.unwrap_or(String::from("empty"));</t>
+          <t>foo.unwrap_or(String::from("empty"));</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t># let foo = Some(String::new());
-foo.unwrap_or_else(|| String::from("empty"));</t>
+          <t>foo.unwrap_or_else(|| String::from("empty"));</t>
         </is>
       </c>
     </row>
@@ -17278,24 +16744,17 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t># let fallback = "fallback";
-// Result
-# type Error = &amp;'static str;
-# let result: Result&lt;&amp;str, Error&gt; = Err("error");
+          <t>// Result
 let value = result.or::&lt;Error&gt;(Ok(fallback)).unwrap();
 // Option
-# let option: Option&lt;&amp;str&gt; = None;
 let value = option.or(Some(fallback)).unwrap();</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t># let fallback = "fallback";
-// Result
-# let result: Result&lt;&amp;str, &amp;str&gt; = Err("error");
+          <t>// Result
 let value = result.unwrap_or(fallback);
 // Option
-# let option: Option&lt;&amp;str&gt; = None;
 let value = option.unwrap_or(fallback);</t>
         </is>
       </c>
@@ -17321,21 +16780,14 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t># let foo = Some(String::new());
-# let err_code = "418";
-# let err_msg = "I'm a teapot";
-foo.expect(&amp;format!("Err {}: {}", err_code, err_msg));
+          <t>foo.expect(&amp;format!("Err {}: {}", err_code, err_msg));
 // or
-# let foo = Some(String::new());
 foo.expect(format!("Err {}: {}", err_code, err_msg).as_str());</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t># let foo = Some(String::new());
-# let err_code = "418";
-# let err_msg = "I'm a teapot";
-foo.unwrap_or_else(|| panic!("Err {}: {}", err_code, err_msg));</t>
+          <t>foo.unwrap_or_else(|| panic!("Err {}: {}", err_code, err_msg));</t>
         </is>
       </c>
     </row>
@@ -17386,16 +16838,13 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t># use std::rc::Rc;
-let x = Rc::new(1);
+          <t>let x = Rc::new(1);
 x.clone();</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t># use std::rc::Rc;
-# let x = Rc::new(1);
-Rc::clone(&amp;x);</t>
+          <t>Rc::clone(&amp;x);</t>
         </is>
       </c>
     </row>
@@ -17450,27 +16899,19 @@
       <c r="E487" t="inlineStr">
         <is>
           <t>In an impl block:
-# struct Foo;
-# struct NotAFoo;
 impl Foo {
     fn new() -&gt; NotAFoo {
-# NotAFoo
     }
 }
-# struct Foo;
 struct Bar(Foo);
 impl Foo {
     // Bad. The type name must contain `Self`
     fn new() -&gt; Bar {
-# Bar(Foo)
     }
 }
-# struct Foo;
-# struct FooError;
 impl Foo {
     // Good. Return type contains `Self`
     fn new() -&gt; Result&lt;Foo, FooError&gt; {
-# Ok(Foo)
     }
 }
 Or in a trait definition:
@@ -17595,18 +17036,12 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t># use std::collections::HashSet;
-# let mut s = HashSet::new();
-# s.insert(1);
-let x = s.iter().nth(0);</t>
+          <t>let x = s.iter().nth(0);</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t># use std::collections::HashSet;
-# let mut s = HashSet::new();
-# s.insert(1);
-let x = s.iter().next();</t>
+          <t>let x = s.iter().next();</t>
         </is>
       </c>
     </row>
@@ -17699,15 +17134,13 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t># use std::collections::HashSet;
-let mut foo = vec![0, 1, 2, 3];
+          <t>let mut foo = vec![0, 1, 2, 3];
 let bar: HashSet&lt;usize&gt; = foo.drain(..).collect();</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t># use std::collections::HashSet;
-let foo = vec![0, 1, 2, 3];
+          <t>let foo = vec![0, 1, 2, 3];
 let bar: HashSet&lt;usize&gt; = foo.into_iter().collect();</t>
         </is>
       </c>
@@ -17903,14 +17336,12 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t># let name = "_";
-name.chars().last() == Some('_') || name.chars().next_back() == Some('-');</t>
+          <t>name.chars().last() == Some('_') || name.chars().next_back() == Some('-');</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t># let name = "_";
-name.ends_with('_') || name.ends_with('-');</t>
+          <t>name.ends_with('_') || name.ends_with('-');</t>
         </is>
       </c>
     </row>
@@ -17935,15 +17366,13 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t># fn do_stuff(x: &amp;[i32]) {}
-let x: &amp;[i32] = &amp;[1, 2, 3, 4, 5];
+          <t>let x: &amp;[i32] = &amp;[1, 2, 3, 4, 5];
 do_stuff(x.as_ref());</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t># fn do_stuff(x: &amp;[i32]) {}
-let x: &amp;[i32] = &amp;[1, 2, 3, 4, 5];
+          <t>let x: &amp;[i32] = &amp;[1, 2, 3, 4, 5];
 do_stuff(x);</t>
         </is>
       </c>
@@ -17969,8 +17398,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t># #[allow(unused)]
-(0..3).fold(false, |acc, x| acc || x &gt; 2);</t>
+          <t>(0..3).fold(false, |acc, x| acc || x &gt; 2);</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -18062,14 +17490,12 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t># let vec = vec![3, 4, 5];
-(&amp;vec).into_iter();</t>
+          <t>(&amp;vec).into_iter();</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t># let vec = vec![3, 4, 5];
-(&amp;vec).iter();</t>
+          <t>(&amp;vec).iter();</t>
         </is>
       </c>
     </row>
@@ -18153,17 +17579,13 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t># let y: u32 = 0;
-# let x: u32 = 100;
-let add = x.checked_add(y).unwrap_or(u32::MAX);
+          <t>let add = x.checked_add(y).unwrap_or(u32::MAX);
 let sub = x.checked_sub(y).unwrap_or(u32::MIN);</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t># let y: u32 = 0;
-# let x: u32 = 100;
-let add = x.saturating_add(y);
+          <t>let add = x.saturating_add(y);
 let sub = x.saturating_sub(y);</t>
         </is>
       </c>
@@ -18215,26 +17637,20 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t># || {
-let metadata = std::fs::metadata("foo.txt")?;
+          <t>let metadata = std::fs::metadata("foo.txt")?;
 let filetype = metadata.file_type();
 if filetype.is_file() {
     // read file
-}
-# Ok::&lt;_, std::io::Error&gt;(())
-# };</t>
+}</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t># || {
-let metadata = std::fs::metadata("foo.txt")?;
+          <t>let metadata = std::fs::metadata("foo.txt")?;
 let filetype = metadata.file_type();
 if !filetype.is_dir() {
     // read file
-}
-# Ok::&lt;_, std::io::Error&gt;(())
-# };</t>
+}</t>
         </is>
       </c>
     </row>
@@ -18259,13 +17675,9 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t># let opt = Some("".to_string());
-opt.as_ref().map(String::as_str)
-# ;
+          <t>opt.as_ref().map(String::as_str)
 Can be written as
-# let opt = Some("".to_string());
-opt.as_deref()
-# ;</t>
+opt.as_deref()</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -18291,17 +17703,13 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t># let a = [1, 2, 3];
-# let b = vec![1, 2, 3];
-a[2..].iter().next();
+          <t>a[2..].iter().next();
 b.iter().next();</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t># let a = [1, 2, 3];
-# let b = vec![1, 2, 3];
-a.get(2);
+          <t>a.get(2);
 b.get(0);</t>
         </is>
       </c>
@@ -18327,15 +17735,13 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t># let mut string = String::new();
-string.insert_str(0, "R");
+          <t>string.insert_str(0, "R");
 string.push_str("R");</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t># let mut string = String::new();
-string.insert(0, 'R');
+          <t>string.insert(0, 'R');
 string.push('R');</t>
         </is>
       </c>
@@ -18494,14 +17900,12 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t># let iter = vec![Some(1)].into_iter();
-iter.filter_map(|x| x);</t>
+          <t>iter.filter_map(|x| x);</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t># let iter = vec![Some(1)].into_iter();
-iter.flatten();</t>
+          <t>iter.flatten();</t>
         </is>
       </c>
     </row>
@@ -18558,14 +17962,12 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t># #[allow(unused)]
-"Hello".bytes().nth(3);</t>
+          <t>"Hello".bytes().nth(3);</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t># #[allow(unused)]
-"Hello".as_bytes().get(3);</t>
+          <t>"Hello".as_bytes().get(3);</t>
         </is>
       </c>
     </row>
@@ -18624,8 +18026,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-let some_vec = vec![0, 1, 2, 3];
+          <t>let some_vec = vec![0, 1, 2, 3];
 some_vec.iter().count();
 &amp;some_vec[..].iter().count();</t>
         </is>
@@ -18659,8 +18060,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t># use std::borrow::Cow;
-let s = "Hello world!";
+          <t>let s = "Hello world!";
 let cow = Cow::Borrowed(s);
 let data = cow.to_owned();
 assert!(matches!(data, Cow::Borrowed(_)))</t>
@@ -18668,13 +18068,11 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t># use std::borrow::Cow;
-let s = "Hello world!";
+          <t>let s = "Hello world!";
 let cow = Cow::Borrowed(s);
 let data = cow.clone();
 assert!(matches!(data, Cow::Borrowed(_)))
 or
-# use std::borrow::Cow;
 let s = "Hello world!";
 let cow = Cow::Borrowed(s);
 let _data: String = cow.into_owned();</t>
@@ -18702,16 +18100,14 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t># let s = "";
-for x in s.splitn(1, ":") {
+          <t>for x in s.splitn(1, ":") {
     // ..
 }</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t># let s = "";
-for x in s.splitn(2, ":") {
+          <t>for x in s.splitn(2, ":") {
     // ..
 }</t>
         </is>
@@ -19130,14 +18526,12 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t># let vec = vec![1_u8];
-let count = vec.iter().filter(|x| **x == 0u8).count();</t>
+          <t>let count = vec.iter().filter(|x| **x == 0u8).count();</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t># let vec = vec![1_u8];
-let count = bytecount::count(&amp;vec, 0u8);</t>
+          <t>let count = bytecount::count(&amp;vec, 0u8);</t>
         </is>
       </c>
     </row>
@@ -19330,7 +18724,6 @@
         <is>
           <t>Before:
 use std::fmt;
-#[derive(Debug)]
 enum Error {
     Indivisible,
     Remainder(u8),
@@ -19366,7 +18759,6 @@
       <c r="F543" t="inlineStr">
         <is>
           <t>use std::{fmt, num::ParseIntError};
-#[derive(Debug)]
 enum Error {
    Indivisible(ParseIntError),
    Remainder(u8),
@@ -19529,14 +18921,12 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t># let x = vec![1];
-let _ = x.iter().zip(0..x.len());</t>
+          <t>let _ = x.iter().zip(0..x.len());</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t># let x = vec![1];
-let _ = x.iter().enumerate();</t>
+          <t>let _ = x.iter().enumerate();</t>
         </is>
       </c>
     </row>
@@ -19627,13 +19017,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t># use std::hash::Hash;
-# use std::collections::hash_map::DefaultHasher;
-# enum Foo { Empty, WithValue(u8) }
-# use Foo::*;
-# let mut state = DefaultHasher::new();
-# let my_enum = Foo::Empty;
-match my_enum {
+          <t>match my_enum {
 	Empty =&gt; ().hash(&amp;mut state),
 	WithValue(x) =&gt; x.hash(&amp;mut state),
 }</t>
@@ -19641,13 +19025,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t># use std::hash::Hash;
-# use std::collections::hash_map::DefaultHasher;
-# enum Foo { Empty, WithValue(u8) }
-# use Foo::*;
-# let mut state = DefaultHasher::new();
-# let my_enum = Foo::Empty;
-match my_enum {
+          <t>match my_enum {
 	Empty =&gt; 0_u8.hash(&amp;mut state),
 	WithValue(x) =&gt; x.hash(&amp;mut state),
 }</t>
@@ -19675,18 +19053,12 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t># struct A;
-# impl A { fn foo(&amp;self) {} }
-# let mut vec: Vec&lt;A&gt; = Vec::new();
-vec.sort_by(|a, b| a.foo().cmp(&amp;b.foo()));</t>
+          <t>vec.sort_by(|a, b| a.foo().cmp(&amp;b.foo()));</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t># struct A;
-# impl A { fn foo(&amp;self) {} }
-# let mut vec: Vec&lt;A&gt; = Vec::new();
-vec.sort_by_key(|a| a.foo());</t>
+          <t>vec.sort_by_key(|a| a.foo());</t>
         </is>
       </c>
     </row>
@@ -19741,13 +19113,10 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t># use std::io::Read;
-# use std::fs::File;
-let mut f = File::open("foo.txt").unwrap();
+          <t>let mut f = File::open("foo.txt").unwrap();
 let mut bytes = Vec::new();
 f.read_to_end(&amp;mut bytes).unwrap();
 Can be written more concisely as
-# use std::fs;
 let mut bytes = fs::read("foo.txt").unwrap();</t>
         </is>
       </c>
@@ -19774,15 +19143,13 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-let map: HashMap&lt;u32, u32&gt; = HashMap::new();
+          <t>let map: HashMap&lt;u32, u32&gt; = HashMap::new();
 let values = map.iter().map(|(_, value)| value).collect::&lt;Vec&lt;_&gt;&gt;();</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t># use std::collections::HashMap;
-let map: HashMap&lt;u32, u32&gt; = HashMap::new();
+          <t>let map: HashMap&lt;u32, u32&gt; = HashMap::new();
 let values = map.values().collect::&lt;Vec&lt;_&gt;&gt;();</t>
         </is>
       </c>
@@ -19852,16 +19219,14 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t># use std::io;
-fn foo&lt;T: io::Seek&gt;(t: &amp;mut T) {
+          <t>fn foo&lt;T: io::Seek&gt;(t: &amp;mut T) {
     t.seek(io::SeekFrom::Start(0));
 }</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t># use std::io;
-fn foo&lt;T: io::Seek&gt;(t: &amp;mut T) {
+          <t>fn foo&lt;T: io::Seek&gt;(t: &amp;mut T) {
     t.rewind();
 }</t>
         </is>
@@ -19888,14 +19253,12 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t># let iterator = vec![1].into_iter();
-let len = iterator.collect::&lt;Vec&lt;_&gt;&gt;().len();</t>
+          <t>let len = iterator.collect::&lt;Vec&lt;_&gt;&gt;().len();</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t># let iterator = vec![1].into_iter();
-let len = iterator.count();</t>
+          <t>let len = iterator.count();</t>
         </is>
       </c>
     </row>
@@ -19982,14 +19345,12 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t># let foo = [0; 10];
-foo.iter().rev().next();</t>
+          <t>foo.iter().rev().next();</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t># let foo = [0; 10];
-foo.iter().next_back();</t>
+          <t>foo.iter().next_back();</t>
         </is>
       </c>
     </row>
@@ -20014,12 +19375,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t># struct Foo {
-#     a: i32,
-#     b: i32,
-#     c: i32,
-# }
-let f = Foo { a: 0, b: 0, c: 0 };
+          <t>let f = Foo { a: 0, b: 0, c: 0 };
 match f {
     Foo { a: _, b: 0, .. } =&gt; {},
     Foo { a: _, b: _, c: _ } =&gt; {},
@@ -20028,12 +19384,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t># struct Foo {
-#     a: i32,
-#     b: i32,
-#     c: i32,
-# }
-let f = Foo { a: 0, b: 0, c: 0 };
+          <t>let f = Foo { a: 0, b: 0, c: 0 };
 match f {
     Foo { b: 0, .. } =&gt; {},
     Foo { .. } =&gt; {},
@@ -20119,16 +19470,12 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t># let _ =
-0x1a9BAcD
-# ;</t>
+          <t>0x1a9BAcD</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t># let _ =
-0x1A9BACD
-# ;</t>
+          <t>0x1A9BACD</t>
         </is>
       </c>
     </row>
@@ -20153,16 +19500,12 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t># let _ =
-123832i32
-# ;</t>
+          <t>123832i32</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t># let _ =
-123832_i32
-# ;</t>
+          <t>123832_i32</t>
         </is>
       </c>
     </row>
@@ -20187,16 +19530,12 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t># let _ =
-123832_i32
-# ;</t>
+          <t>123832_i32</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t># let _ =
-123832i32
-# ;</t>
+          <t>123832i32</t>
         </is>
       </c>
     </row>
@@ -20227,7 +19566,6 @@
     println!("{}", a);
 }
 prints 123, while in C:
-#include &lt;stdio.h&gt;
 int main() {
     int a = 0123;
     printf("%d\n", a);
@@ -20288,8 +19626,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t># let v = Some("abc");
-match v {
+          <t>match v {
     Some(x) =&gt; (),
     y @ _ =&gt; (),
 }</t>
@@ -20297,8 +19634,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t># let v = Some("abc");
-match v {
+          <t>match v {
     Some(x) =&gt; (),
     y =&gt; (),
 }</t>
@@ -20326,9 +19662,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t># struct TupleStruct(u32, u32, u32);
-# let t = TupleStruct(1, 2, 3);
-match t {
+          <t>match t {
     TupleStruct(0, .., _) =&gt; (),
     _ =&gt; (),
 }</t>
@@ -20336,9 +19670,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t># struct TupleStruct(u32, u32, u32);
-# let t = TupleStruct(1, 2, 3);
-match t {
+          <t>match t {
     TupleStruct(0, ..) =&gt; (),
     _ =&gt; (),
 }</t>
@@ -20428,8 +19760,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t># let a = 0.0;
-a + 1.0;</t>
+          <t>a + 1.0;</t>
         </is>
       </c>
       <c r="F573" t="inlineStr"/>
@@ -20520,8 +19851,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t># let x = 1;
-if (x &amp; 1 == 2) { }</t>
+          <t>if (x &amp; 1 == 2) { }</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
@@ -20547,8 +19877,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t># let x = 1;
-if (x | 1 &gt; 3) {  }</t>
+          <t>if (x | 1 &gt; 3) {  }</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
@@ -20574,8 +19903,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t># let x = 1;
-if x &amp; 0b1111 == 0 { }</t>
+          <t>if x &amp; 0b1111 == 0 { }</t>
         </is>
       </c>
       <c r="F578" t="inlineStr"/>
@@ -20601,16 +19929,12 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t># let x = 1;
-# let y = 2;
-if x == y || x &lt; y {}</t>
+          <t>if x == y || x &lt; y {}</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t># let x = 1;
-# let y = 2;
-if x &lt;= y {}</t>
+          <t>if x &lt;= y {}</t>
         </is>
       </c>
     </row>
@@ -20635,17 +19959,13 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t># use std::time::Duration;
-# let duration = Duration::new(5, 0);
-let micros = duration.subsec_nanos() / 1_000;
+          <t>let micros = duration.subsec_nanos() / 1_000;
 let millis = duration.subsec_nanos() / 1_000_000;</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t># use std::time::Duration;
-# let duration = Duration::new(5, 0);
-let micros = duration.subsec_micros();
+          <t>let micros = duration.subsec_micros();
 let millis = duration.subsec_millis();</t>
         </is>
       </c>
@@ -20671,11 +19991,8 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t># let x = 1;
-if x + 1 == x + 1 {}
+          <t>if x + 1 == x + 1 {}
 // or
-# let a = 3;
-# let b = 4;
 assert_eq!(a, a);</t>
         </is>
       </c>
@@ -20795,8 +20112,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t># let x = 1;
-x / 1 + 0 * 1 - 0 | 0;</t>
+          <t>x / 1 + 0 * 1 - 0 | 0;</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
@@ -20854,14 +20170,12 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t># let x = 1.0;
-if x == f32::NAN { }</t>
+          <t>if x == f32::NAN { }</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t># let x = 1.0f32;
-if x.is_nan() { }</t>
+          <t>if x.is_nan() { }</t>
         </is>
       </c>
     </row>
@@ -20886,16 +20200,12 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t># let x = "foo";
-# let y = String::from("foo");
-if x.to_owned() == y {}</t>
+          <t>if x.to_owned() == y {}</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t># let x = "foo";
-# let y = String::from("foo");
-if x == y {}</t>
+          <t>if x == y {}</t>
         </is>
       </c>
     </row>
@@ -20928,9 +20238,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t># let x = 1.2331f64;
-# let y = 1.2332f64;
-let error_margin = f64::EPSILON; // Use an epsilon for comparison
+          <t>let error_margin = f64::EPSILON; // Use an epsilon for comparison
 // Or, if Rust &lt;= 1.42, use `std::f64::EPSILON` constant instead.
 // let error_margin = std::f64::EPSILON;
 if (y - 1.23f64).abs() &lt; error_margin { }
@@ -20966,9 +20274,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t># let x: f64 = 1.0;
-# const ONE: f64 = 1.00;
-let error_margin = f64::EPSILON; // Use an epsilon for comparison
+          <t>let error_margin = f64::EPSILON; // Use an epsilon for comparison
 // Or, if Rust &lt;= 1.42, use `std::f64::EPSILON` constant instead.
 // let error_margin = std::f64::EPSILON;
 if (x - ONE).abs() &lt; error_margin { }</t>
@@ -20996,8 +20302,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t># let x = 1;
-let a = x % 1;
+          <t>let a = x % 1;
 let a = x % -1;</t>
         </is>
       </c>
@@ -21206,14 +20511,12 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t># let p: *const [i32] = &amp;[];
-unsafe { std::mem::transmute::&lt;*const [i32], *const [u16]&gt;(p) };</t>
+          <t>unsafe { std::mem::transmute::&lt;*const [i32], *const [u16]&gt;(p) };</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t># let p: *const [i32] = &amp;[];
-p as *const [u16];</t>
+          <t>p as *const [u16];</t>
         </is>
       </c>
     </row>
@@ -21428,14 +20731,12 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t># use core::num::NonZeroU32;
-let _non_zero: NonZeroU32 = unsafe { std::mem::transmute(123) };</t>
+          <t>let _non_zero: NonZeroU32 = unsafe { std::mem::transmute(123) };</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t># use core::num::NonZeroU32;
-let _non_zero = unsafe { NonZeroU32::new_unchecked(123) };</t>
+          <t>let _non_zero = unsafe { NonZeroU32::new_unchecked(123) };</t>
         </is>
       </c>
     </row>
@@ -21601,8 +20902,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>#[repr(C)]
-struct Foo&lt;T&gt;(u32, T);
+          <t>struct Foo&lt;T&gt;(u32, T);
 let _ = unsafe { core::mem::transmute::&lt;Foo&lt;u32&gt;, Foo&lt;i32&gt;&gt;(Foo(0u32, 0u32)) };</t>
         </is>
       </c>
@@ -21791,8 +21091,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t># use std::collections::LinkedList;
-let x: LinkedList&lt;usize&gt; = LinkedList::new();</t>
+          <t>let x: LinkedList&lt;usize&gt; = LinkedList::new();</t>
         </is>
       </c>
       <c r="F616" t="inlineStr"/>
@@ -21848,8 +21147,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t># use std::rc::Rc;
-fn foo(bar: Rc&lt;&amp;usize&gt;) {}</t>
+          <t>fn foo(bar: Rc&lt;&amp;usize&gt;) {}</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -21879,8 +21177,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t># use std::rc::Rc;
-fn foo(interned: Rc&lt;String&gt;) { ... }</t>
+          <t>fn foo(interned: Rc&lt;String&gt;) { ... }</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -21910,8 +21207,7 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t># use std::rc::Rc;
-struct Foo {
+          <t>struct Foo {
     inner: Rc&lt;Vec&lt;Vec&lt;Box&lt;(u32, u32, u32, u32)&gt;&gt;&gt;&gt;,
 }</t>
         </is>
@@ -22001,10 +21297,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t># fn foo() {};
-# fn bar() {};
-# fn baz() {};
-if {
+          <t>if {
     foo();
 } == {
     bar();
@@ -22012,17 +21305,12 @@
     baz();
 }
 is equal to
-# fn foo() {};
-# fn bar() {};
-# fn baz() {};
 {
     foo();
     bar();
     baz();
 }
 For asserts:
-# fn foo() {};
-# fn bar() {};
 assert_eq!({ foo(); }, { bar(); });
 will always succeed</t>
         </is>
@@ -22079,8 +21367,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-[1, 2, 3].into_iter().for_each(|n| { *n; });</t>
+          <t>[1, 2, 3].into_iter().for_each(|n| { *n; });</t>
         </is>
       </c>
       <c r="F625" t="inlineStr"/>
@@ -22133,8 +21420,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>#![deny(box_pointers)]
-struct Foo {
+          <t>struct Foo {
     x: Box&lt;isize&gt;,
 }</t>
         </is>
@@ -22200,8 +21486,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>#![deny(unsafe_code)]
-fn main() {
+          <t>fn main() {
     unsafe {
     }
 }</t>
@@ -22230,8 +21515,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>#![deny(missing_docs)]
-pub fn foo() {}</t>
+          <t>pub fn foo() {}</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
@@ -22257,11 +21541,9 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>#![deny(missing_copy_implementations)]
-pub struct Foo {
+          <t>pub struct Foo {
     pub field: i32
-}
-# fn main() {}</t>
+}</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
@@ -22287,9 +21569,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>#![deny(missing_debug_implementations)]
-pub struct Foo;
-# fn main() {}</t>
+          <t>pub struct Foo;</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
@@ -22315,8 +21595,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>#![deny(anonymous_parameters)]
-// edition 2015
+          <t>// edition 2015
 pub trait Foo {
     fn foo(usize);
 }
@@ -22346,8 +21625,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>#[no_mangle]
-const FOO: i32 = 5;</t>
+          <t>const FOO: i32 = 5;</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
@@ -22373,8 +21651,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>#[no_mangle]
-fn foo&lt;T&gt;(t: T) {
+          <t>fn foo&lt;T&gt;(t: T) {
 }</t>
         </is>
       </c>
@@ -22447,8 +21724,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>#[track_caller]
-async fn foo() {}</t>
+          <t>async fn foo() {}</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
@@ -22474,8 +21750,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>#![deny(unreachable_pub)]
-mod foo {
+          <t>mod foo {
     pub mod bar {
     }
 }</t>
@@ -22530,8 +21805,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>#![feature(trivial_bounds)]
-pub struct A where i32: Copy;</t>
+          <t>pub struct A where i32: Copy;</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
@@ -22619,8 +21893,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>#![deny(keyword_idents)]
-// edition 2015
+          <t>// edition 2015
 fn dyn() {}</t>
         </is>
       </c>
@@ -22645,11 +21918,7 @@
           <t>尽管鼓励人们尝试不稳定的特征，但其中一些特征是不完整或有缺陷的。此lint表示该功能尚未完成，您可能会遇到问题。</t>
         </is>
       </c>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>#![feature(generic_const_exprs)]</t>
-        </is>
-      </c>
+      <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
     </row>
     <row r="646">
@@ -22673,8 +21942,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-unsafe {
+          <t>unsafe {
     let x: &amp;'static i32 = std::mem::zeroed();
 }</t>
         </is>
@@ -22735,8 +22003,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-use std::ptr;
+          <t>use std::ptr;
 unsafe {
     let x = &amp;*ptr::null::&lt;i32&gt;();
     let x = ptr::addr_of!(*ptr::null::&lt;i32&gt;());
@@ -22767,8 +22034,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t># #![feature(asm_experimental_arch)]
-use std::arch::asm;
+          <t>use std::arch::asm;
 fn main() {
     unsafe {
         asm!("foo: bar");
@@ -22828,9 +22094,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>#![deny(deref_into_dyn_supertrait)]
-#![allow(dead_code)]
-use core::ops::Deref;
+          <t>use core::ops::Deref;
 trait A {}
 trait B: A {}
 impl&lt;'a&gt; Deref for dyn 'a + B {
@@ -22868,9 +22132,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t># fn operation_that_requires_mutex_to_be_unlocked() {} // just to make it compile
-# let mutex = std::sync::Mutex::new(1); // just to make it compile
-let mut lock_guard = mutex.lock();
+          <t>let mut lock_guard = mutex.lock();
 std::mem::drop(&amp;lock_guard); // Should have been drop(lock_guard), mutex
 // still locked
 operation_that_requires_mutex_to_be_unlocked();</t>
@@ -22982,8 +22244,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>#![deny(enum_intrinsics_non_enums)]
-core::mem::discriminant::&lt;i32&gt;(&amp;123);</t>
+          <t>core::mem::discriminant::&lt;i32&gt;(&amp;123);</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
@@ -23036,8 +22297,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>#![deny(text_direction_codepoint_in_literal)]
-fn main() {
+          <t>fn main() {
     println!("{:?}", '‮');
 }</t>
         </is>
@@ -23176,9 +22436,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-# use std::ffi::CString;
-let c_str = CString::new("foo").unwrap().as_ptr();</t>
+          <t>let c_str = CString::new("foo").unwrap().as_ptr();</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
@@ -23206,7 +22464,6 @@
         <is>
           <t>trait A {}
 trait B {}
-#[warn(multiple_supertrait_upcastable)]
 trait C: A + B {}</t>
         </is>
       </c>
@@ -23311,9 +22568,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-#![deny(non_ascii_idents)]
-fn main() {
+          <t>fn main() {
     let föö = 1;
 }</t>
         </is>
@@ -23341,8 +22596,7 @@
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-const µ: f64 = 0.000001;</t>
+          <t>const µ: f64 = 0.000001;</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
@@ -23451,9 +22705,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-#![warn(noop_method_call)]
-struct Foo;
+          <t>struct Foo;
 let foo = &amp;Foo;
 let clone: &amp;Foo = foo.clone();</t>
         </is>
@@ -23481,8 +22733,7 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-struct Foo;
+          <t>struct Foo;
 let foo = &amp;&amp;Foo;
 let clone: &amp;Foo = foo.clone();</t>
         </is>
@@ -23510,8 +22761,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>#![feature(type_alias_impl_trait)]
-trait Duh {}
+          <t>trait Duh {}
 impl Duh for i32 {}
 trait Trait {
     type Assoc: Duh;
@@ -23687,8 +22937,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>#![deny(variant_size_differences)]
-enum En {
+          <t>enum En {
     V0(u8),
     VBig([u8; 1024]),
 }</t>
@@ -23745,8 +22994,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-pub extern "C" fn str_type(p: &amp;str) { }</t>
+          <t>pub extern "C" fn str_type(p: &amp;str) { }</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
@@ -23772,10 +23020,8 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t># use core::sync::atomic::{AtomicU8, Ordering};
-let atom = AtomicU8::new(0);
-let value = atom.load(Ordering::Release);
-# let _ = value;</t>
+          <t>let atom = AtomicU8::new(0);
+let value = atom.load(Ordering::Release);</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
@@ -23832,8 +23078,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>#![deny(unused_results)]
-fn foo&lt;T&gt;() -&gt; T { panic!() }
+          <t>fn foo&lt;T&gt;() -&gt; T { panic!() }
 fn main() {
     foo::&lt;usize&gt;();
 }</t>
@@ -23943,12 +23188,10 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>#![deny(unused_import_braces)]
-use test::{A};
+          <t>use test::{A};
 pub mod test {
     pub struct A;
-}
-# fn main() {}</t>
+}</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
@@ -24002,9 +23245,7 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>#![forbid(warnings)]
-#![deny(bad_style)]
-fn main() {}</t>
+          <t>fn main() {}</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
@@ -24030,8 +23271,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>#[inline = "this is not valid"]
-fn foo() {}</t>
+          <t>fn foo() {}</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
@@ -24057,8 +23297,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>#[repr(u32, u64)]
-enum Foo {
+          <t>enum Foo {
     Variant1,
 }</t>
         </is>
@@ -24086,8 +23325,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>#![deny(meta_variable_misuse)]
-macro_rules! foo {
+          <t>macro_rules! foo {
     () =&gt; {};
     ($( $i:ident = $($j:ident),+ );*) =&gt; { $( $( $i = $k; )+ )* };
 }
@@ -24183,8 +23421,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-let x = 1 / 0;</t>
+          <t>let x = 1 / 0;</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
@@ -24236,10 +23473,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>#![feature(must_not_suspend)]
-#![warn(must_not_suspend)]
-#[must_not_suspend]
-struct SyncThing {}
+          <t>struct SyncThing {}
 async fn yield_now() {}
 pub async fn uhoh() {
     let guard = SyncThing {};
@@ -24270,9 +23504,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>#![deny(unused_extern_crates)]
-#![deny(warnings)]
-extern crate proc_macro;</t>
+          <t>extern crate proc_macro;</t>
         </is>
       </c>
       <c r="F700" t="inlineStr"/>
@@ -24298,8 +23530,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>#![deny(unused_crate_dependencies)]
-This will produce:
+          <t>This will produce:
 error: external crate `regex` unused in `lint_example`: remove the dependency or add `use regex as _;`
   |
 note: the lint level is defined here
@@ -24332,8 +23563,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>#![deny(unused_qualifications)]
-mod foo {
+          <t>mod foo {
     pub fn bar() {}
 }
 fn main() {
@@ -24363,11 +23593,7 @@
           <t>指定不存在的lint通常是错误的。检查拼写，并在lint列表中查找正确的名称。如果您使用的是旧版本的编译器，而lint仅在新版本中可用，则使用Alsoconsider。</t>
         </is>
       </c>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>#![allow(not_a_real_lint)]</t>
-        </is>
-      </c>
+      <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr"/>
     </row>
     <row r="704">
@@ -24391,9 +23617,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>#![feature(lint_reasons)]
-#[expect(unused_variables)]
-let x = 10;
+          <t>let x = 10;
 println!("{}", x);</t>
         </is>
       </c>
@@ -24497,11 +23721,7 @@
           <t>未使用的属性可能表明该属性被放置在错误的位置。请考虑将其删除或放置在正确的位置。还要考虑您是打算使用应用于属性所在项的内部属性（带！，如#！[allow（unused）]），还是要使用应用于该属性后面项的外部属性（不带！，例如#[allow）]）。</t>
         </is>
       </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>#![ignore]</t>
-        </is>
-      </c>
+      <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
     </row>
     <row r="709">
@@ -24525,8 +23745,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>#[warn(unused_tuple_struct_fields)]
-struct S(i32, i32, i32);
+          <t>struct S(i32, i32, i32);
 let s = S(1, 2, 3);
 let _ = (s.0, s.2);</t>
         </is>
@@ -24706,8 +23925,7 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>#[warn(unused_macro_rules)]
-macro_rules! unused_empty {
+          <t>macro_rules! unused_empty {
     (hello) =&gt; { println!("Hello, world!") }; // This rule is unused
     () =&gt; { println!("empty") }; // This rule is used
 }
@@ -24739,8 +23957,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>#![deny(warnings)]
-fn foo() {}</t>
+          <t>fn foo() {}</t>
         </is>
       </c>
       <c r="F716" t="inlineStr"/>
@@ -24784,8 +24001,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>#![feature(test_accepted_feature)]
-fn main() {}</t>
+          <t>fn main() {}</t>
         </is>
       </c>
       <c r="F718" t="inlineStr"/>
@@ -24811,8 +24027,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>#![crate_type="lol"]
-fn main() {}</t>
+          <t>fn main() {}</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
@@ -24838,8 +24053,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>#![deny(trivial_casts)]
-let x: &amp;u32 = &amp;42;
+          <t>let x: &amp;u32 = &amp;42;
 let y = x as *const u32;</t>
         </is>
       </c>
@@ -24866,8 +24080,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>#![deny(trivial_numeric_casts)]
-let x = 42_i32 as i32;</t>
+          <t>let x = 42_i32 as i32;</t>
         </is>
       </c>
       <c r="F721" t="inlineStr"/>
@@ -24893,15 +24106,13 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-struct SemiPriv;
+          <t>struct SemiPriv;
 mod m1 {
     struct Priv;
     impl super::SemiPriv {
         pub fn f(_: Priv) {}
     }
-}
-# fn main() {}</t>
+}</t>
         </is>
       </c>
       <c r="F722" t="inlineStr"/>
@@ -24927,8 +24138,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>#![feature(const_mut_refs)]
-const FOO: () = unsafe {
+          <t>const FOO: () = unsafe {
     let x = &amp;[0_u8; 4];
     let y = x.as_ptr().cast::&lt;u32&gt;();
     let mut z = 123;
@@ -25047,11 +24257,7 @@
           <t>要解决此问题，请删除lint或使用新名称。这有助于避免对已失效的lints的混淆，并有助于保持重命名的lints的一致性。</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>#![deny(raw_pointer_derive)]</t>
-        </is>
-      </c>
+      <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
     </row>
     <row r="728">
@@ -25254,8 +24460,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>#[deprecated]
-fn foo() {}
+          <t>fn foo() {}
 fn bar() {
     foo();
 }</t>
@@ -25364,8 +24569,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>#![deny(single_use_lifetimes)]
-fn foo&lt;'a&gt;(x: &amp;'a u32) {}</t>
+          <t>fn foo&lt;'a&gt;(x: &amp;'a u32) {}</t>
         </is>
       </c>
       <c r="F738" t="inlineStr"/>
@@ -25391,8 +24595,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>#[deny(unused_lifetimes)]
-pub fn foo&lt;'a&gt;() {}</t>
+          <t>pub fn foo&lt;'a&gt;() {}</t>
         </is>
       </c>
       <c r="F739" t="inlineStr"/>
@@ -25447,9 +24650,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>#![deny(elided_lifetimes_in_paths)]
-#![deny(warnings)]
-struct Foo&lt;'a&gt; {
+          <t>struct Foo&lt;'a&gt; {
     x: &amp;'a u32
 }
 fn foo(x: &amp;Foo) {
@@ -25507,8 +24708,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>#![deny(absolute_paths_not_starting_with_crate)]
-mod foo {
+          <t>mod foo {
     pub fn bar() {}
 }
 fn main() {
@@ -25687,19 +24887,15 @@
       <c r="E749" t="inlineStr">
         <is>
           <t>// foo.rs
-#![crate_type = "proc-macro"]
 extern crate proc_macro;
 use proc_macro::*;
-#[proc_macro_derive(Foo)]
 pub fn foo1(a: TokenStream) -&gt; TokenStream {
     drop(a);
     "mod __bar { static mut BAR: Option&lt;Something&gt; = None; }".parse().unwrap()
 }
 // bar.rs
-#[macro_use]
 extern crate foo;
 struct Something;
-#[derive(Foo)]
 struct Another;
 fn main() {}
 This will produce:
@@ -25737,9 +24933,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>#![deny(macro_use_extern_crate)]
-#[macro_use]
-extern crate serde_json;
+          <t>extern crate serde_json;
 fn main() {
     let _ = json!{{}};
 }
@@ -25817,10 +25011,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-#![deny(explicit_outlives_requirements)]
-#![deny(warnings)]
-struct SharedRef&lt;'a, T&gt;
+          <t>struct SharedRef&lt;'a, T&gt;
 where
     T: 'a,
 {
@@ -25851,11 +25042,9 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>#![deny(indirect_structural_match)]
-struct NoDerive(i32);
+          <t>struct NoDerive(i32);
 impl PartialEq for NoDerive { fn eq(&amp;self, _: &amp;Self) -&gt; bool { false } }
 impl Eq for NoDerive { }
-#[derive(PartialEq, Eq)]
 struct WrapParam&lt;T&gt;(T);
 const WRAP_INDIRECT_PARAM: &amp; &amp;WrapParam&lt;NoDerive&gt; = &amp; &amp;WrapParam(NoDerive(0));
 fn main() {
@@ -25907,8 +25096,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>#![deny(pointer_structural_match)]
-fn foo(a: usize, b: usize) -&gt; usize { a + b }
+          <t>fn foo(a: usize, b: usize) -&gt; usize { a + b }
 const FOO: fn(usize, usize) -&gt; usize = foo;
 fn main() {
     match FOO {
@@ -25941,9 +25129,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>#![deny(nontrivial_structural_match)]
-#[derive(Copy, Clone, Debug)]
-struct NoDerive(u32);
+          <t>struct NoDerive(u32);
 impl PartialEq for NoDerive { fn eq(&amp;self, _: &amp;Self) -&gt; bool { false } }
 impl Eq for NoDerive { }
 fn main() {
@@ -26013,9 +25199,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>#[cfg(test)]
-extern crate test;
-#[bench]
+          <t>extern crate test;
 fn name(b: &amp;mut test::Bencher) {
     b.iter(|| 123)
 }</t>
@@ -26044,10 +25228,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>#![feature(no_sanitize)]
-#[inline(always)]
-#[no_sanitize(address)]
-fn x() {}
+          <t>fn x() {}
 fn main() {
     x()
 }</t>
@@ -26076,8 +25257,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>#[cfg(target_arch="x86_64")]
-use std::arch::asm;
+          <t>use std::arch::asm;
 fn main() {
     #[cfg(target_arch="x86_64")]
     unsafe {
@@ -26119,8 +25299,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>#[cfg(target_arch="x86_64")]
-use std::arch::asm;
+          <t>use std::arch::asm;
 fn main() {
     #[cfg(target_arch="x86_64")]
     unsafe {
@@ -26163,8 +25342,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>#![deny(unsafe_op_in_unsafe_fn)]
-unsafe fn foo() {}
+          <t>unsafe fn foo() {}
 unsafe fn bar() {
     foo();
 }
@@ -26194,8 +25372,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t># #![allow(unused)]
-enum E {
+          <t>enum E {
     A,
 }
 impl Drop for E {
@@ -26232,9 +25409,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>#![feature(strict_provenance)]
-#![warn(fuzzy_provenance_casts)]
-fn main() {
+          <t>fn main() {
     let _dangling = 16_usize as *const u8;
 }</t>
         </is>
@@ -26262,9 +25437,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>#![feature(strict_provenance)]
-#![warn(lossy_provenance_casts)]
-fn main() {
+          <t>fn main() {
     let x: u8 = 37;
     let _addr: usize = &amp;x as *const u8 as usize;
 }</t>
@@ -26387,7 +25560,6 @@
       <c r="E769" t="inlineStr">
         <is>
           <t>struct X;
-#[deprecated = "message"]
 impl Default for X {
     fn default() -&gt; Self {
         X
@@ -26418,13 +25590,10 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>#![feature(asm_experimental_arch, naked_functions)]
-use std::arch::asm;
-#[naked]
+          <t>use std::arch::asm;
 pub fn default_abi() -&gt; u32 {
     unsafe { asm!("", options(noreturn)); }
 }
-#[naked]
 pub extern "Rust" fn rust_abi() -&gt; u32 {
     unsafe { asm!("", options(noreturn)); }
 }</t>
@@ -26453,11 +25622,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>#![feature(staged_api)]
-#[derive(Clone)]
-#[stable(feature = "x", since = "1")]
-struct S {}
-#[unstable(feature = "y", issue = "none")]
+          <t>struct S {}
 impl Copy for S {}</t>
         </is>
       </c>
@@ -26484,8 +25649,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>#![deny(semicolon_in_expressions_from_macros)]
-macro_rules! foo {
+          <t>macro_rules! foo {
     () =&gt; { true; }
 }
 fn main() {
@@ -26519,9 +25683,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>#[serde(rename_all = "camelCase")]
-#[derive(Deserialize)]
-struct S { /* fields */ }
+          <t>struct S { /* fields */ }
 produces:
 warning: derive helper attribute is used before it is introduced
   --&gt; $DIR/legacy-derive-helpers.rs:1:3
@@ -26586,11 +25748,7 @@
           <t>#！[crate_type]和#！[crate_name]属性需要在编译器中进行破解，才能在宏扩展后更改所使用的crate类型和crat名称。这两个属性都不能与Cargo结合使用，因为它在命令行上显式传递--crate type和--crate name。这些值必须与源代码中使用的值匹配，以防止出现错误。若要修复警告，请在运行grustc时在命令行中使用--crate类型，而不是#！[cfg_attr（…，crate_type=“…”）]和--机箱名称，而不是#！[cfg_attr（…，crate_name=“…”）]。</t>
         </is>
       </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>#![cfg_attr(debug_assertions, crate_type = "lib")]</t>
-        </is>
-      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr"/>
     </row>
     <row r="776">
@@ -26615,7 +25773,6 @@
       <c r="E776" t="inlineStr">
         <is>
           <t>rustc --check-cfg 'names()'
-#[cfg(widnows)]
 fn foo() {}
 This will produce:
 warning: unknown condition name used
@@ -26650,9 +25807,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>#![deny(repr_transparent_external_private_fields)]
-use foo::NonExhaustiveZst;
-#[repr(transparent)]
+          <t>use foo::NonExhaustiveZst;
 struct Bar(u32, ([u32; 0], NonExhaustiveZst));
 This will produce:
 error: zero-sized fields in repr(transparent) cannot contain external non-exhaustive types
@@ -26694,8 +25849,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>#[cfg(FALSE)]
-macro foo() {}</t>
+          <t>macro foo() {}</t>
         </is>
       </c>
       <c r="F778" t="inlineStr"/>
@@ -26721,8 +25875,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>#![deny(ambiguous_glob_reexports)]
-pub mod foo {
+          <t>pub mod foo {
     pub type X = u8;
 }
 pub mod bar {
@@ -26784,8 +25937,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>#![deny(rust_2021_incompatible_closure_captures)]
-use std::thread;
+          <t>use std::thread;
 struct Pointer(*mut i32);
 unsafe impl Send for Pointer {}
 fn main() {
@@ -26820,8 +25972,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>#![deny(missing_abi)]
-extern fn foo() {}</t>
+          <t>extern fn foo() {}</t>
         </is>
       </c>
       <c r="F782" t="inlineStr"/>
@@ -26847,8 +25998,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>#![deny(warnings)]
-pub mod submodule {
+          <t>pub mod submodule {
     #![doc(test(no_crate_inject))]
 }</t>
         </is>
@@ -26916,8 +26066,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>#![deny(rust_2021_incompatible_or_patterns)]
-macro_rules! match_any {
+          <t>macro_rules! match_any {
     ( $expr:expr , $( $( $pat:pat )|+ =&gt; $expr_arm:expr ),+ ) =&gt; {
         match $expr {
             $(
@@ -26956,8 +26105,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>#![deny(rust_2021_prelude_collisions)]
-trait Foo {
+          <t>trait Foo {
     fn try_into(self) -&gt; Result&lt;String, !&gt;;
 }
 impl Foo for &amp;str {
@@ -26997,8 +26145,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>#![deny(rust_2021_prefixes_incompatible_syntax)]
-macro_rules! m {
+          <t>macro_rules! m {
     (z $x:expr) =&gt; ();
 }
 m!(z"hey");</t>
@@ -27093,13 +26240,11 @@
       <c r="E790" t="inlineStr">
         <is>
           <t>// crate A
-#[non_exhaustive]
 pub enum Bar {
     A,
     B, // added variant in non breaking change
 }
 // in crate B
-#![feature(non_exhaustive_omitted_patterns_lint)]
 match Bar::A {
     Bar::A =&gt; {},
     #[warn(non_exhaustive_omitted_patterns)]
@@ -27144,8 +26289,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>#![deny(text_direction_codepoint_in_comment)]
-fn main() {
+          <t>fn main() {
     println!("{:?}"); // '‮');
 }</t>
         </is>
@@ -27173,9 +26317,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>#[test]
-#[test]
-fn foo() {}
+          <t>fn foo() {}
 This will produce:
 warning: duplicated attribute
  --&gt; src/lib.rs:2:1
@@ -27265,11 +26407,7 @@
           <t>为了测试不稳定棉绒的性能，需要一个永久不稳定的棉绒。此lint可用于从编译器中触发与不稳定lint相关的警告和错误。</t>
         </is>
       </c>
-      <c r="E795" t="inlineStr">
-        <is>
-          <t>#![allow(test_unstable_lint)]</t>
-        </is>
-      </c>
+      <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr"/>
     </row>
     <row r="796">
@@ -27293,8 +26431,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>#![warn(ffi_unwind_calls)]
-extern "C-unwind" {
+          <t>extern "C-unwind" {
     fn foo();
 }
 fn bar() {
@@ -27327,8 +26464,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>#![deny(named_arguments_used_positionally)]
-fn main() {
+          <t>fn main() {
     let _x = 5;
     println!("{}", _x = 1); // Prints 1, will trigger lint
     println!("{}", _x); // Prints 5, no lint emitted
@@ -27359,8 +26495,7 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>#![deny(implied_bounds_entailment)]
-trait Trait {
+          <t>trait Trait {
     fn get&lt;'s&gt;(s: &amp;'s str, _: &amp;'static &amp;'static ()) -&gt; &amp;'static str;
 }
 impl Trait for () {
@@ -27395,9 +26530,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>#[repr(packed)]
-#[derive(Hash)]
-struct FlexZeroSlice {
+          <t>struct FlexZeroSlice {
     width: u8,
     data: [u8],
 }</t>
@@ -27426,14 +26559,11 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>#![deny(invalid_macro_export_arguments)]
-#[macro_export(invalid_parameter)]
-macro_rules! myMacro {
+          <t>macro_rules! myMacro {
    () =&gt; {
         // [...]
    }
-}
-#[macro_export(too, many, items)]</t>
+}</t>
         </is>
       </c>
       <c r="F800" t="inlineStr"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3288,7 +3288,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>检查没有变体的枚举。截至本文撰写之时，never_type仍然是唯一的实验性API。因此，只有启用了never_type，才会触发此lint。</t>
+          <t>检查没有变体的枚举。截至本文撰写之时，never_type仍然是唯一的实验性API。因此，此lint仅在启用never_type时触发。</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>由于构造函数中字段的顺序不会影响结果实例，如下例所示，#[drivee（Debug，PartialEq，Eq）]struct Foo{x:i32，y:i32；}let x=1；设y=2；//这个断言永远不会失败：assert_eq！（Foo{x，y}，Foo{y，x}）；不一致的顺序可能会造成混乱，降低可读性和一致性。</t>
+          <t>由于构造函数中字段的顺序不会影响结果实例，如下例所示，structFoo｛x:i32，y:i32｝让x＝1；设y=2；//这个断言永远不会失败：assert_eq！（Foo{x，y}，Foo{y，x}）；不一致的顺序可能会造成混乱，降低可读性和一致性。</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9525,7 +9525,7 @@
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>检查不是应用到的类型的精确表示的模式。要满足此lint，您必须调整与匹配的表达式或模式本身，以及调整后的模式引入的绑定。为了进行匹配，您必须使用*运算符取消对表达式的引用，或者根据引用的可变性修改模式以显式匹配&amp;&lt;pattern&gt;或&amp;mut&lt;pattern&gt;。对于绑定，您需要使用相反的方法。如果您希望复制值，可以将它们保留为纯绑定，但必须使用ref mut＜variable＞或ref＜variable＜在匹配的结构中构造引用。如果您正在寻找更详细地了解所有权语义的方法，建议您查看可用的IDE选项，以突出显示代码中的类型、生命周期和引用语义。即使在各种模式匹配机制之外，可用的工具也会以通用的方式暴露这些东西。当然，这个lint仍然可以用来突出感兴趣的领域，并确保很好地理解所有权语义。</t>
+          <t>检查不是应用到的类型的精确表示的模式。要满足此lint，您必须调整与匹配的表达式或模式本身，以及调整后的模式引入的绑定。为了进行匹配，您必须使用*运算符取消对表达式的引用，或者根据引用的可变性修改模式以显式匹配&amp;&lt;pattern&gt;或&amp;mut&lt;pattern&gt;。对于绑定，您需要使用相反的方法。如果您希望复制值，可以将它们保留为纯绑定，但必须使用ref mut＜variable＞或ref＜variable＜在匹配的结构中构造引用。如果您正在寻找更详细地了解所有权语义的方法，建议您查看可用的IDE选项，以突出显示代码中的类型、生命周期和引用语义。即使在各种模式匹配机制之外，可用的工具也会以通用的方式暴露这些东西。当然，这个lint仍然可以用来突出感兴趣的领域，并确保对所有权语义有很好的理解。</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -19317,7 +19317,7 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>在Iterator或Option上检查map（|x|x.clone（））ordereferencing闭包对Copy类型的使用情况，并建议改用cloned（）或copied（）</t>
+          <t>在Iterator或Option上检查map（|x|x.clone（））orderreference闭包对Copy类型的使用情况，并建议改用cloned（）或copied（）</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>很容易错误地在一种类型和apointer之间转换为该类型。</t>
+          <t>很容易在一个类型和该类型的apointer之间错误地转换。</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>这种转化的结果是没有定义的。</t>
+          <t>这种transmite的结果没有定义。</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -21630,7 +21630,7 @@
       <c r="C611" t="inlineStr"/>
       <c r="D611" t="inlineStr">
         <is>
-          <t>检查将接收空指针的transmate调用。</t>
+          <t>检查将接收空指针的transmite调用。</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>通常情况下，你不会写一个你知道永远都是错误的或永远都不是真的特质。但是，当使用宏时，宏可能不知道在生成代码时约束是否成立。目前，如果约束始终为真，编译器不会提醒您，如果约束从不为真，则会生成错误。trivial_bounds功能在这两种情况下都会将其更改为警告，使宏在生成代码时具有更大的自由度和灵活性，同时在编写非宏代码时仍会发出出错的信号。有关更多详细信息，请参阅RFC 2056。此功能目前仅在夜间频道可用，请参阅跟踪问题#48214。</t>
+          <t>通常情况下，你不会写一个你知道永远都是错误的或永远都不是真的特质。但是，当使用宏时，宏可能不知道在生成代码时约束是否成立。目前，如果约束始终为真，编译器不会提醒您，如果约束从不为真，则会生成错误。trivial_bounds功能在这两种情况下都会将其更改为警告，使宏在生成代码时具有更大的自由度和灵活性，同时在编写非宏代码时仍会发出出错的信号。有关更多详细信息，请参阅RFC 2056。此功能目前仅在nighty频道上可用，请参阅跟踪问题#48214。</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -25056,7 +25056,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>依赖项可以标记为“私有”，表示它们不会在机箱的公共接口中导出。货航可以使用它来独立解决这些依赖关系，因为它可以假设不需要将它们与使用相同依赖关系的其他包统一。此lint表示违反了该约定。要解决此问题，请避免在公共接口中暴露依赖项。或者，将依赖项切换为公共依赖项。请注意，仅在夜间频道上提供对此的支持。有关更多详细信息，请参阅RFC 1977以及Cargo文档。</t>
+          <t>依赖项可以标记为“私有”，表示它们不会在机箱的公共接口中导出。货航可以使用它来独立解决这些依赖关系，因为它可以假设不需要将它们与使用相同依赖关系的其他包统一。此lint表示违反了该约定。要解决此问题，请避免在公共接口中暴露依赖项。或者，将依赖项切换为公共依赖项。请注意，仅在nighty频道上提供对此的支持。有关更多详细信息，请参阅RFC 1977以及Cargo文档。</t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>以前版本的编译器接受模式中的浮点文字，但后来确定这是一个错误。与“结构相等”相比，比较浮点值的要求在模式中可能不明确。通常，您可以使用火柴保护来解决此问题，例如：#let x=42.0；match x｛y if y==5.0=&gt;｛｝_=&gt;｛}｝这是一个未来不兼容的lint，将来将其转换为硬错误。有关更多详细信息，请参阅第41620期。</t>
+          <t>以前版本的编译器接受模式中的浮点文字，但后来确定这是一个错误。与“结构相等”相比，比较浮点值的要求在模式中可能不明确。通常，您可以使用匹配保护来解决此问题，例如：match x｛y if y==5.0=&gt;｛｝_=&gt;｛}｝这是一个未来不兼容的lint，可以在未来将其转换为硬错误。有关更多详细信息，请参阅第41620期。</t>
         </is>
       </c>
       <c r="F744" t="inlineStr">
@@ -26622,7 +26622,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>由于历史原因，类似这样的属性可以工作，但属性扩展通常以左到右的顺序工作，因此，为了解决#[serde]，编译器必须尝试在项目的尚未扩展部分“展望未来”，但这种尝试并不总是可靠的。要修复警告，请将helper属性放在其相应的派生之后#[driven（Deserialize）]#[serde（rename_all=“camelCase”）]struct S｛/*fields*/｝</t>
+          <t>由于历史原因，类似这样的属性可以工作，但属性扩展通常按左到右的顺序工作，因此，为了解决#[serde]问题，编译器必须尝试在项目的尚未扩展部分“展望未来”，但这种尝试并不总是可靠的。要修复警告，请将helper属性放在其相应的derive.struct S｛/*fields*/｝之后</t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
@@ -26793,7 +26793,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>活动属性（如#[cfg]或过程宏属性）的输入必须是有效语法。以前，编译器只有在解析#[cfg]门并扩展过程宏之后才允许使用不稳定的语法功能。为了避免依赖不稳定的句法，请将不稳定语法的使用移到编译器不解析语法的位置，例如函数式宏。##！[deniy（unstatible_syntax_pre_expansion）]macro_rules！identity｛（$（$tokens:tt）*）=&gt;｛$（$tokens）*｝#[cfg（FALSE）]identity！｛macro foo（）｛｝｝这是一个未来不兼容的lint，可以在未来将其转换为一个硬错误。有关更多详细信息，请参阅第65860期。</t>
+          <t>活动属性（如#[cfg]或过程宏属性）的输入必须是有效语法。以前，编译器只有在解析#[cfg]门并扩展过程宏之后才允许使用不稳定的语法功能。为了避免依赖不稳定的句法，请将不稳定语法的使用移到编译器不解析语法的位置，例如函数类macro.macro_rules！身份｛（$（$tokens:tt）*）=&gt;｛$（$tokens）*｝｝身份！｛macro foo（）｛｝｝这是一个未来不兼容的lint，可以在未来将其转换为一个硬错误。有关更多详细信息，请参阅第65860期。</t>
         </is>
       </c>
       <c r="F778" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -487,7 +487,8 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fn foo() -&gt; usize {
+          <t>#[allow(unused_mut)]
+fn foo() -&gt; usize {
    let mut a = Vec::new();
    a.len()
 }</t>
@@ -495,7 +496,9 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>fn foo() -&gt; usize {
+          <t>#![feature(lint_reasons)]
+#[expect(unused_mut)]
+fn foo() -&gt; usize {
     let mut a = Vec::new();
     a.len()
 }</t>
@@ -788,7 +791,8 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fn not_quite_hot_code(..) { ... }</t>
+          <t>#[inline(always)]
+fn not_quite_hot_code(..) { ... }</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,13 +819,18 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>extern crate foo;
+          <t>#[deny(dead_code)]
+extern crate foo;
+#[forbid(dead_code)]
 use foo::bar;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>use foo::baz;
+          <t>#[allow(unused_imports)]
+use foo::baz;
+#[allow(unused_imports)]
+#[macro_use]
 extern crate baz;</t>
         </is>
       </c>
@@ -848,7 +857,8 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fn something_else() { /* ... */ }</t>
+          <t>#[deprecated(since = "forever")]
+fn something_else() { /* ... */ }</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -875,15 +885,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fn not_quite_good_code() { }</t>
+          <t>#[allow(dead_code)]
+fn not_quite_good_code() { }</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>// Good (as inner attribute)
+#![allow(dead_code)]
 fn this_is_fine() { }
 // or
 // Good (as outer attribute)
+#[allow(dead_code)]
 fn this_is_fine_too() { }</t>
         </is>
       </c>
@@ -945,8 +958,16 @@
           <t>限制性lints有时与其他lint形成对比，甚至与惯用的铁锈相反。这些linth只能在逐个皮棉的基础上启用，并经过仔细考虑。</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>#![deny(clippy::restriction)]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>#![deny(clippy::as_conversions)]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,12 +991,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fn main() { }</t>
+          <t>#[cfg_attr(rustfmt, rustfmt_skip)]
+fn main() { }</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>fn main() { }</t>
+          <t>#[rustfmt::skip]
+fn main() { }</t>
         </is>
       </c>
     </row>
@@ -1001,13 +1024,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fn conditional() { }</t>
+          <t>#[cfg(linux)]
+fn conditional() { }</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>fn conditional() { }
+          <t>#[cfg(target_os = "linux")]
+fn conditional() { }
 // or
+#[cfg(unix)]
 fn conditional() { }
 Check the Rust Reference for more details.</t>
         </is>
@@ -1033,8 +1059,18 @@
           <t>允许lint应该总是有原因的。应记录此原因，以确保其他人理解其原因</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>#![feature(lint_reasons)]
+#![allow(clippy::some_lint)]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>#![feature(lint_reasons)]
+#![allow(clippy::some_lint, reason = "False positive rust-lang/rust-clippy#1002020")]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,12 +1094,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>pub struct Bar;</t>
+          <t>#[cfg(any(unix))]
+pub struct Bar;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>pub struct Bar;</t>
+          <t>#[cfg(unix)]
+pub struct Bar;</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1899,8 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>struct Countdown(u8);
+          <t>#[derive(Copy, Clone)]
+struct Countdown(u8);
 impl Iterator for Countdown {
     // ...
 }
@@ -1893,7 +1932,8 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>macro_rules! print_message {
+          <t>#[macro_export]
+macro_rules! print_message {
     () =&gt; {
         println!("{}", crate::MESSAGE);
     };
@@ -1903,7 +1943,8 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>macro_rules! print_message {
+          <t>#[macro_export]
+macro_rules! print_message {
     () =&gt; {
         println!("{}", $crate::MESSAGE);
     };
@@ -1911,6 +1952,7 @@
 pub const MESSAGE: &amp;str = "Hello!";
 Note that if the use of crate is intentional, an allow attribute can be applied to the
 macro definition, e.g.:
+#[allow(clippy::crate_in_macro_def)]
 macro_rules! ok { ... crate::foo ... }</t>
         </is>
       </c>
@@ -2065,7 +2107,8 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>struct S&lt;T&gt; {
+          <t>#[derive(Default)]
+struct S&lt;T&gt; {
     _marker: PhantomData&lt;T&gt;
 }
 let _: S&lt;i32&gt; = S {
@@ -2185,7 +2228,8 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>union Foo {
+          <t>#[repr(C)]
+union Foo {
     a: i32,
     b: u32,
 }
@@ -2377,7 +2421,8 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>struct Foo {
+          <t>#[derive(Default)]
+struct Foo {
     bar: bool
 }</t>
         </is>
@@ -2409,7 +2454,8 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>struct Foo;
+          <t>#[derive(Hash)]
+struct Foo;
 impl PartialEq for Foo {
     ...
 }</t>
@@ -2439,7 +2485,8 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>struct Foo;
+          <t>#[derive(Ord, PartialEq, Eq)]
+struct Foo;
 impl PartialOrd for Foo {
     ...
 }</t>
@@ -2447,7 +2494,8 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>struct Foo;
+          <t>#[derive(PartialEq, Eq)]
+struct Foo;
 impl PartialOrd for Foo {
     fn partial_cmp(&amp;self, other: &amp;Foo) -&gt; Option&lt;Ordering&gt; {
        Some(self.cmp(other))
@@ -2457,6 +2505,7 @@
     ...
 }
 or, if you don't need a custom ordering:
+#[derive(Ord, PartialOrd, PartialEq, Eq)]
 struct Foo;</t>
         </is>
       </c>
@@ -2483,7 +2532,8 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>struct Foo;
+          <t>#[derive(Copy)]
+struct Foo;
 impl Clone for Foo {
     // ..
 }</t>
@@ -2514,6 +2564,7 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>use serde::Deserialize;
+#[derive(Deserialize)]
 pub struct Foo {
     // ..
 }
@@ -2551,7 +2602,8 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>struct Foo {
+          <t>#[derive(PartialEq)]
+struct Foo {
     i_am_eq: i32,
     i_am_eq_too: Vec&lt;String&gt;,
 }</t>
@@ -2559,7 +2611,8 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>struct Foo {
+          <t>#[derive(PartialEq, Eq)]
+struct Foo {
     i_am_eq: i32,
     i_am_eq_too: Vec&lt;String&gt;,
 }</t>
@@ -2602,6 +2655,7 @@
 // Example code where clippy issues a warning
 println!("warns");
 // The diagnostic will contain the message "no serializing"
+#[derive(Serialize)]
 struct Data {
     name: String,
     value: usize,
@@ -3188,6 +3242,7 @@
 mod a;
 mod b;
 // a.rs
+#[path = "./b.rs"]
 mod b;</t>
         </is>
       </c>
@@ -3303,7 +3358,8 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>struct Test(!);</t>
+          <t>#![feature(never_type)]
+struct Test(!);</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3449,8 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>enum NonPortable {
+          <t>#[repr(usize)]
+enum NonPortable {
     X = 0x1_0000_0000,
     Y = 0,
 }</t>
@@ -3746,7 +3803,8 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>enum Foo {
+          <t>#[non_exhaustive]
+enum Foo {
     Bar,
     Baz
 }</t>
@@ -3783,7 +3841,8 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>struct Foo {
+          <t>#[non_exhaustive]
+struct Foo {
     bar: u8,
     baz: String,
 }</t>
@@ -4718,9 +4777,12 @@
     do_thing();
 } else {
     mutex.lock();
-}
-Should be written
-let locked = mutex.lock();
+}</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>let locked = mutex.lock();
 if let Ok(thing) = locked {
     do_thing(thing);
 } else {
@@ -4728,7 +4790,6 @@
 }</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4831,13 +4892,15 @@
       <c r="F123" t="inlineStr">
         <is>
           <t>impl&lt;K: Hash + Eq, V&gt; Serialize for HashMap&lt;K, V&gt; { }
-pub fn foo(map: &amp;mut HashMap&lt;i32, i32&gt;) { }
-could be rewritten as
-impl&lt;K: Hash + Eq, V, S: BuildHasher&gt; Serialize for HashMap&lt;K, V, S&gt; { }
+pub fn foo(map: &amp;mut HashMap&lt;i32, i32&gt;) { }</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>impl&lt;K: Hash + Eq, V, S: BuildHasher&gt; Serialize for HashMap&lt;K, V, S&gt; { }
 pub fn foo&lt;S: BuildHasher&gt;(map: &amp;mut HashMap&lt;i32, i32, S&gt;) { }</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5571,7 +5634,8 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mod tests {
+          <t>#[cfg(test)]
+mod tests {
     // [...]
 }
 fn my_function() {
@@ -5584,6 +5648,7 @@
           <t>fn my_function() {
     // [...]
 }
+#[cfg(test)]
 mod tests {
     // [...]
 }</t>
@@ -5729,9 +5794,12 @@
 pub async fn test() {
     let fut = big_fut([0u8; 1024]);
     wait(fut).await;
-}
-Box::pin the big future instead.
-async fn wait(f: impl std::future::Future&lt;Output = ()&gt;) {}
+}</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>async fn wait(f: impl std::future::Future&lt;Output = ()&gt;) {}
 async fn big_fut(arg: [u8; 1024]) {}
 pub async fn test() {
     let fut = Box::pin(big_fut([0u8; 1024]));
@@ -5739,7 +5807,6 @@
 }</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5830,9 +5897,12 @@
 }
 if y.len() != 0 {
     ..
-}
-instead use
-if x.is_empty() {
+}</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>if x.is_empty() {
     ..
 }
 if !y.is_empty() {
@@ -5840,7 +5910,6 @@
 }</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5945,9 +6014,12 @@
 let mut baz = None;
 if bar() {
     baz = Some(42);
-}
-should be written
-let foo = if bar() {
+}</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>let foo = if bar() {
     42
 } else {
     0
@@ -5959,7 +6031,6 @@
 };</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6434,7 +6505,8 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>use some_macro;</t>
+          <t>#[macro_use]
+use some_macro;</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -6759,14 +6831,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>struct S {
+          <t>#[non_exhaustive]
+struct S {
     pub a: i32,
     pub b: i32,
 }
+#[non_exhaustive]
 enum E {
     A,
     B,
 }
+#[non_exhaustive]
 struct T(pub i32, pub i32);</t>
         </is>
       </c>
@@ -7145,6 +7220,7 @@
         <is>
           <t>use std::mem;
 ///# fn may_panic(v: Vec&lt;i32&gt;) -&gt; Vec&lt;i32&gt; { v }
+#[allow(deprecated, invalid_value)]
 fn myfunc (v: &amp;mut Vec&lt;i32&gt;) {
     let taken_v = unsafe { mem::replace(v, mem::uninitialized()) };
     let new_v = may_panic(taken_v); // undefined behavior on panic
@@ -7436,14 +7512,16 @@
         <is>
           <t>fn new() -&gt; Self {
     Self { random_number: 42 }
-}
-Could be a const fn:
-const fn new() -&gt; Self {
+}</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>const fn new() -&gt; Self {
     Self { random_number: 42 }
 }</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7525,6 +7603,8 @@
         <is>
           <t>pub fn foo() {} // missing #[inline]
 fn ok() {} // ok
+#[inline] pub fn bar() {} // ok
+#[inline(always)] pub fn baz() {} // ok
 pub trait Bar {
   fn bar(); // ok
   fn def_bar() {} // missing #[inline]
@@ -7575,6 +7655,7 @@
     fn required();
     fn provided() {}
 }
+#[warn(clippy::missing_trait_methods)]
 impl Trait for Type {
     fn required() { /* ... */ }
 }</t>
@@ -7586,6 +7667,7 @@
     fn required();
     fn provided() {}
 }
+#[warn(clippy::missing_trait_methods)]
 impl Trait for Type {
     fn required() { /* ... */ }
     fn provided() { /* ... */ }
@@ -8067,9 +8149,12 @@
             Self::I64 | Self::F64 =&gt; 8,
         }
     }
-}
-Could be rewritten as
-enum ValType {
+}</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>enum ValType {
     I32,
     I64,
     F32,
@@ -8085,7 +8170,6 @@
 }</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8253,26 +8337,12 @@
         continue;
     }
     println!("Hello, world");
-}
-Could be rewritten as
-while condition() {
-    update_condition();
-    if x {
-        // ...
-        println!("Hello, world");
-    }
-}
-As another example, the following code
-loop {
-    if waiting() {
-        continue;
-    } else {
-        // Do something useful
-    }
-    # break;
-}
-Could be rewritten as
-loop {
+}</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>loop {
     if waiting() {
         continue;
     }
@@ -8281,7 +8351,6 @@
 }</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9503,7 +9572,8 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>struct TooLarge([u8; 2048]);
+          <t>#[derive(Clone, Copy)]
+struct TooLarge([u8; 2048]);
 fn foo(v: TooLarge) {}</t>
         </is>
       </c>
@@ -10610,14 +10680,16 @@
           <t>fn foo() -&gt; String {
     let x = String::new();
     x
-}
-instead, use
-fn foo() -&gt; String {
+}</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>fn foo() -&gt; String {
     String::new()
 }</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10694,6 +10766,7 @@
     }
 }
 // Or on the type definition like this:
+#[must_use]
 pub struct Bar;
 impl Bar {
     pub fn bar(&amp;self) -&gt; Self {
@@ -11995,9 +12068,11 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>fn my_cool_test() {
+          <t>#[test]
+fn my_cool_test() {
     // [...]
 }
+#[cfg(test)]
 mod tests {
     // [...]
 }</t>
@@ -12005,7 +12080,8 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>mod tests {
+          <t>#[cfg(test)]
+mod tests {
     #[test]
     fn my_cool_test() {
         // [...]
@@ -12075,7 +12151,8 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>struct MoreOftenUseful {
+          <t>#[repr(C)]
+struct MoreOftenUseful {
     some_field: usize,
     last: [u32; 0],
 }</t>
@@ -13086,9 +13163,12 @@
     fn new() -&gt; Foo {
         Foo {}
     }
-}
-could be
-struct Foo;
+}</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>struct Foo;
 impl Foo {
     fn new() -&gt; Self {
         Self {}
@@ -13096,7 +13176,6 @@
 }</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13281,12 +13360,14 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>print!("Hello {}!\n", name);
-use println!() instead
-println!("Hello {}!", name);</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr"/>
+          <t>print!("Hello {}!\n", name);</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>println!("Hello {}!", name);</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13827,6 +13908,7 @@
     }
 }
 // Or
+#[allow(clippy::cast_possible_truncation)]
 fn as_u16(x: u64) -&gt; u16 {
     x as u16
 }</t>
@@ -14098,9 +14180,12 @@
     unsafe {
         *(r as *const _ as *mut _) += 1;
     }
-}
-Instead consider using interior mutability types.
-use std::cell::UnsafeCell;
+}</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>use std::cell::UnsafeCell;
 fn x(r: &amp;UnsafeCell&lt;i32&gt;) {
     unsafe {
         *r.get() += 1;
@@ -14108,7 +14193,6 @@
 }</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -14237,9 +14321,12 @@
 let p = &amp;a as *const [u8] as *const [u32];
 unsafe {
     println!("{:?}", &amp;*p);
-}
-Instead use ptr::slice_from_raw_parts to construct a slice from a data pointer and the correct length
-let a = [1_i32, 2, 3, 4];
+}</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>let a = [1_i32, 2, 3, 4];
 let old_ptr = &amp;a as *const [i32];
 // The data pointer is cast to a pointer to the target `u8` not `[u8]`
 // The length comes from the known length of 4 i32s times the 4 bytes per i32
@@ -14249,7 +14336,6 @@
 }</t>
         </is>
       </c>
-      <c r="G395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -14606,7 +14692,8 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>fn useless() { }</t>
+          <t>#[must_use]
+fn useless() { }</t>
         </is>
       </c>
       <c r="G406" t="inlineStr"/>
@@ -14633,7 +14720,8 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>fn double_must_use() -&gt; Result&lt;(), ()&gt; {
+          <t>#[must_use]
+fn double_must_use() -&gt; Result&lt;(), ()&gt; {
     unimplemented!();
 }</t>
         </is>
@@ -14660,13 +14748,12 @@
           <t>不错，这个lint只是显示了可以添加属性的地方。</t>
         </is>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>// this could be annotated with `#[must_use]`.
-pub fn id&lt;T&gt;(t: T) -&gt; T { t }</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>pub fn id&lt;T&gt;(t: T) -&gt; T { t }</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -14693,6 +14780,7 @@
           <t>pub fn read_u8() -&gt; Result&lt;u8, ()&gt; { Err(()) }
 should become
 use std::fmt;
+#[derive(Debug)]
 pub struct EndOfStream;
 impl fmt::Display for EndOfStream {
     fn fmt(&amp;self, f: &amp;mut fmt::Formatter&lt;'_&gt;) -&gt; fmt::Result {
@@ -15164,14 +15252,16 @@
         <is>
           <t>for (k, _) in &amp;map {
     ..
-}
-could be replaced by
-for k in map.keys() {
+}</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>for k in map.keys() {
     ..
 }</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -16142,9 +16232,12 @@
     } else {
         None
     }
-}
-Could be replaced as
-fn foo() -&gt; Result&lt;(), i32&gt; {
+}</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>fn foo() -&gt; Result&lt;(), i32&gt; {
     result
 }
 fn bar() -&gt; Option&lt;i32&gt; {
@@ -16152,7 +16245,6 @@
 }</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -17166,12 +17258,14 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>(0..3).filter_map(|x| if x == 2 { Some(x) } else { None }).next();
-Can be written as
- (0..3).find_map(|x| if x == 2 { Some(x) } else { None });</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr"/>
+          <t>(0..3).filter_map(|x| if x == 2 { Some(x) } else { None }).next();</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>(0..3).find_map(|x| if x == 2 { Some(x) } else { None });</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -17195,12 +17289,14 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>iter.flat_map(|x| x);
-Can be written as
-iter.flatten();</t>
-        </is>
-      </c>
-      <c r="G478" t="inlineStr"/>
+          <t>iter.flat_map(|x| x);</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>iter.flatten();</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -18024,15 +18120,14 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>let _ = (0..3).filter_map(|x| if x &gt; 2 { Some(x) } else { None });
-// As there is no transformation of the argument this could be written as:
-let _ = (0..3).filter(|&amp;x| x &gt; 2);
-let _ = (0..4).filter_map(|x| Some(x + 1));
-// As there is no conditional check on the argument this could be written as:
-let _ = (0..4).map(|x| x + 1);</t>
-        </is>
-      </c>
-      <c r="G503" t="inlineStr"/>
+          <t>let _ = (0..3).filter_map(|x| if x &gt; 2 { Some(x) } else { None });</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>let _ = (0..4).map(|x| x + 1);</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -18056,15 +18151,14 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>let _ = (0..3).find_map(|x| if x &gt; 2 { Some(x) } else { None });
-// As there is no transformation of the argument this could be written as:
-let _ = (0..3).find(|&amp;x| x &gt; 2);
-let _ = (0..4).find_map(|x| Some(x + 1));
-// As there is no conditional check on the argument this could be written as:
-let _ = (0..4).map(|x| x + 1).next();</t>
-        </is>
-      </c>
-      <c r="G504" t="inlineStr"/>
+          <t>let _ = (0..3).find_map(|x| if x &gt; 2 { Some(x) } else { None });</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>let _ = (0..4).map(|x| x + 1).next();</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -18279,12 +18373,14 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>opt.as_ref().map(String::as_str)
-Can be written as
-opt.as_deref()</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr"/>
+          <t>opt.as_ref().map(String::as_str)</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>opt.as_deref()</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -18482,16 +18578,18 @@
 .inspect(|&amp;x| println!("inspect the number: {}", x))
 .for_each(|&amp;x| {
     assert!(x &gt;= 0);
-});
-Can be written as
-[1,2,3,4,5].iter()
+});</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>[1,2,3,4,5].iter()
 .for_each(|&amp;x| {
     println!("inspect the number: {}", x);
     assert!(x &gt;= 0);
 });</t>
         </is>
       </c>
-      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -19364,6 +19462,7 @@
         <is>
           <t>Before:
 use std::fmt;
+#[derive(Debug)]
 enum Error {
     Indivisible,
     Remainder(u8),
@@ -19399,6 +19498,7 @@
       <c r="G543" t="inlineStr">
         <is>
           <t>use std::{fmt, num::ParseIntError};
+#[derive(Debug)]
 enum Error {
    Indivisible(ParseIntError),
    Remainder(u8),
@@ -19765,12 +19865,14 @@
         <is>
           <t>let mut f = File::open("foo.txt").unwrap();
 let mut bytes = Vec::new();
-f.read_to_end(&amp;mut bytes).unwrap();
-Can be written more concisely as
-let mut bytes = fs::read("foo.txt").unwrap();</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr"/>
+f.read_to_end(&amp;mut bytes).unwrap();</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>let mut bytes = fs::read("foo.txt").unwrap();</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -20230,6 +20332,7 @@
     println!("{}", a);
 }
 prints 123, while in C:
+#include &lt;stdio.h&gt;
 int main() {
     int a = 0123;
     printf("%d\n", a);
@@ -21613,7 +21716,8 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>struct Foo&lt;T&gt;(u32, T);
+          <t>#[repr(C)]
+struct Foo&lt;T&gt;(u32, T);
 let _ = unsafe { core::mem::transmute::&lt;Foo&lt;u32&gt;, Foo&lt;i32&gt;&gt;(Foo(0u32, 0u32)) };</t>
         </is>
       </c>
@@ -22156,7 +22260,8 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>struct Foo {
+          <t>#![deny(box_pointers)]
+struct Foo {
     x: Box&lt;isize&gt;,
 }</t>
         </is>
@@ -22224,7 +22329,8 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![deny(unsafe_code)]
+fn main() {
     unsafe {
     }
 }</t>
@@ -22254,7 +22360,8 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>pub fn foo() {}</t>
+          <t>#![deny(missing_docs)]
+pub fn foo() {}</t>
         </is>
       </c>
       <c r="G630" t="inlineStr"/>
@@ -22281,7 +22388,8 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>pub struct Foo {
+          <t>#![deny(missing_copy_implementations)]
+pub struct Foo {
     pub field: i32
 }</t>
         </is>
@@ -22310,7 +22418,8 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>pub struct Foo;</t>
+          <t>#![deny(missing_debug_implementations)]
+pub struct Foo;</t>
         </is>
       </c>
       <c r="G632" t="inlineStr"/>
@@ -22337,7 +22446,8 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>// edition 2015
+          <t>#![deny(anonymous_parameters)]
+// edition 2015
 pub trait Foo {
     fn foo(usize);
 }
@@ -22368,7 +22478,8 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>const FOO: i32 = 5;</t>
+          <t>#[no_mangle]
+const FOO: i32 = 5;</t>
         </is>
       </c>
       <c r="G634" t="inlineStr"/>
@@ -22395,7 +22506,8 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>fn foo&lt;T&gt;(t: T) {
+          <t>#[no_mangle]
+fn foo&lt;T&gt;(t: T) {
 }</t>
         </is>
       </c>
@@ -22471,7 +22583,8 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>async fn foo() {}</t>
+          <t>#[track_caller]
+async fn foo() {}</t>
         </is>
       </c>
       <c r="G638" t="inlineStr"/>
@@ -22498,7 +22611,8 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>mod foo {
+          <t>#![deny(unreachable_pub)]
+mod foo {
     pub mod bar {
     }
 }</t>
@@ -22555,7 +22669,8 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>pub struct A where i32: Copy;</t>
+          <t>#![feature(trivial_bounds)]
+pub struct A where i32: Copy;</t>
         </is>
       </c>
       <c r="G641" t="inlineStr"/>
@@ -22646,7 +22761,8 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>// edition 2015
+          <t>#![deny(keyword_idents)]
+// edition 2015
 fn dyn() {}</t>
         </is>
       </c>
@@ -22672,7 +22788,11 @@
           <t>尽管鼓励人们尝试不稳定的特征，但其中一些特征是不完整或有缺陷的。此lint表示该功能尚未完成，您可能会遇到问题。</t>
         </is>
       </c>
-      <c r="F645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>#![feature(generic_const_exprs)]</t>
+        </is>
+      </c>
       <c r="G645" t="inlineStr"/>
     </row>
     <row r="646">
@@ -22858,7 +22978,9 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>use core::ops::Deref;
+          <t>#![deny(deref_into_dyn_supertrait)]
+#![allow(dead_code)]
+use core::ops::Deref;
 trait A {}
 trait B: A {}
 impl&lt;'a&gt; Deref for dyn 'a + B {
@@ -23033,7 +23155,8 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>core::mem::discriminant::&lt;i32&gt;(&amp;123);</t>
+          <t>#![deny(enum_intrinsics_non_enums)]
+core::mem::discriminant::&lt;i32&gt;(&amp;123);</t>
         </is>
       </c>
       <c r="G656" t="inlineStr"/>
@@ -23094,7 +23217,8 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![deny(text_direction_codepoint_in_literal)]
+fn main() {
     println!("{:?}", '‮');
 }</t>
         </is>
@@ -23274,6 +23398,7 @@
         <is>
           <t>trait A {}
 trait B {}
+#[warn(multiple_supertrait_upcastable)]
 trait C: A + B {}</t>
         </is>
       </c>
@@ -23382,7 +23507,8 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![deny(non_ascii_idents)]
+fn main() {
     let föö = 1;
 }</t>
         </is>
@@ -23528,7 +23654,8 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>struct Foo;
+          <t>#![warn(noop_method_call)]
+struct Foo;
 let foo = &amp;Foo;
 let clone: &amp;Foo = foo.clone();</t>
         </is>
@@ -23590,7 +23717,8 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>trait Duh {}
+          <t>#![feature(type_alias_impl_trait)]
+trait Duh {}
 impl Duh for i32 {}
 trait Trait {
     type Assoc: Duh;
@@ -23776,7 +23904,8 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>enum En {
+          <t>#![deny(variant_size_differences)]
+enum En {
     V0(u8),
     VBig([u8; 1024]),
 }</t>
@@ -23926,7 +24055,8 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>fn foo&lt;T&gt;() -&gt; T { panic!() }
+          <t>#![deny(unused_results)]
+fn foo&lt;T&gt;() -&gt; T { panic!() }
 fn main() {
     foo::&lt;usize&gt;();
 }</t>
@@ -24040,7 +24170,8 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>use test::{A};
+          <t>#![deny(unused_import_braces)]
+use test::{A};
 pub mod test {
     pub struct A;
 }</t>
@@ -24099,7 +24230,9 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>fn main() {}</t>
+          <t>#![forbid(warnings)]
+#![deny(bad_style)]
+fn main() {}</t>
         </is>
       </c>
       <c r="G691" t="inlineStr"/>
@@ -24126,7 +24259,8 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>fn foo() {}</t>
+          <t>#[inline = "this is not valid"]
+fn foo() {}</t>
         </is>
       </c>
       <c r="G692" t="inlineStr"/>
@@ -24153,7 +24287,8 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>enum Foo {
+          <t>#[repr(u32, u64)]
+enum Foo {
     Variant1,
 }</t>
         </is>
@@ -24182,7 +24317,8 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>macro_rules! foo {
+          <t>#![deny(meta_variable_misuse)]
+macro_rules! foo {
     () =&gt; {};
     ($( $i:ident = $($j:ident),+ );*) =&gt; { $( $( $i = $k; )+ )* };
 }
@@ -24335,7 +24471,10 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>struct SyncThing {}
+          <t>#![feature(must_not_suspend)]
+#![warn(must_not_suspend)]
+#[must_not_suspend]
+struct SyncThing {}
 async fn yield_now() {}
 pub async fn uhoh() {
     let guard = SyncThing {};
@@ -24367,7 +24506,9 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>extern crate proc_macro;</t>
+          <t>#![deny(unused_extern_crates)]
+#![deny(warnings)]
+extern crate proc_macro;</t>
         </is>
       </c>
       <c r="G700" t="inlineStr"/>
@@ -24394,7 +24535,8 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>This will produce:
+          <t>#![deny(unused_crate_dependencies)]
+This will produce:
 error: external crate `regex` unused in `lint_example`: remove the dependency or add `use regex as _;`
   |
 note: the lint level is defined here
@@ -24428,7 +24570,8 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>mod foo {
+          <t>#![deny(unused_qualifications)]
+mod foo {
     pub fn bar() {}
 }
 fn main() {
@@ -24463,7 +24606,11 @@
           <t>指定不存在的lint通常是错误的。检查拼写，并在lint列表中查找正确的名称。如果您使用的是旧版本的编译器，而lint仅在新版本中可用，则使用Alsoconsider。</t>
         </is>
       </c>
-      <c r="F703" t="inlineStr"/>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>#![allow(not_a_real_lint)]</t>
+        </is>
+      </c>
       <c r="G703" t="inlineStr"/>
     </row>
     <row r="704">
@@ -24488,7 +24635,9 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>let x = 10;
+          <t>#![feature(lint_reasons)]
+#[expect(unused_variables)]
+let x = 10;
 println!("{}", x);</t>
         </is>
       </c>
@@ -24596,7 +24745,11 @@
           <t>未使用的属性可能表明该属性被放置在错误的位置。请考虑将其删除或放置在正确的位置。还要考虑您是打算使用应用于属性所在项的内部属性（带！，如#！[allow（unused）]），还是要使用应用于该属性后面项的外部属性（不带！，例如#[allow）]）。</t>
         </is>
       </c>
-      <c r="F708" t="inlineStr"/>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>#![ignore]</t>
+        </is>
+      </c>
       <c r="G708" t="inlineStr"/>
     </row>
     <row r="709">
@@ -24621,7 +24774,8 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>struct S(i32, i32, i32);
+          <t>#[warn(unused_tuple_struct_fields)]
+struct S(i32, i32, i32);
 let s = S(1, 2, 3);
 let _ = (s.0, s.2);</t>
         </is>
@@ -24807,7 +24961,8 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>macro_rules! unused_empty {
+          <t>#[warn(unused_macro_rules)]
+macro_rules! unused_empty {
     (hello) =&gt; { println!("Hello, world!") }; // This rule is unused
     () =&gt; { println!("empty") }; // This rule is used
 }
@@ -24840,7 +24995,8 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>fn foo() {}</t>
+          <t>#![deny(warnings)]
+fn foo() {}</t>
         </is>
       </c>
       <c r="G716" t="inlineStr"/>
@@ -24886,7 +25042,8 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>fn main() {}</t>
+          <t>#![feature(test_accepted_feature)]
+fn main() {}</t>
         </is>
       </c>
       <c r="G718" t="inlineStr"/>
@@ -24913,7 +25070,8 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>fn main() {}</t>
+          <t>#![crate_type="lol"]
+fn main() {}</t>
         </is>
       </c>
       <c r="G719" t="inlineStr"/>
@@ -24940,7 +25098,8 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>let x: &amp;u32 = &amp;42;
+          <t>#![deny(trivial_casts)]
+let x: &amp;u32 = &amp;42;
 let y = x as *const u32;</t>
         </is>
       </c>
@@ -24968,7 +25127,8 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>let x = 42_i32 as i32;</t>
+          <t>#![deny(trivial_numeric_casts)]
+let x = 42_i32 as i32;</t>
         </is>
       </c>
       <c r="G721" t="inlineStr"/>
@@ -25028,7 +25188,8 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>const FOO: () = unsafe {
+          <t>#![feature(const_mut_refs)]
+const FOO: () = unsafe {
     let x = &amp;[0_u8; 4];
     let y = x.as_ptr().cast::&lt;u32&gt;();
     let mut z = 123;
@@ -25151,7 +25312,11 @@
           <t>要解决此问题，请删除lint或使用新名称。这有助于避免对已失效的lints的混淆，并有助于保持重命名的lints的一致性。</t>
         </is>
       </c>
-      <c r="F727" t="inlineStr"/>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>#![deny(raw_pointer_derive)]</t>
+        </is>
+      </c>
       <c r="G727" t="inlineStr"/>
     </row>
     <row r="728">
@@ -25361,7 +25526,8 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>fn foo() {}
+          <t>#[deprecated]
+fn foo() {}
 fn bar() {
     foo();
 }</t>
@@ -25474,7 +25640,8 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>fn foo&lt;'a&gt;(x: &amp;'a u32) {}</t>
+          <t>#![deny(single_use_lifetimes)]
+fn foo&lt;'a&gt;(x: &amp;'a u32) {}</t>
         </is>
       </c>
       <c r="G738" t="inlineStr"/>
@@ -25501,7 +25668,8 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>pub fn foo&lt;'a&gt;() {}</t>
+          <t>#[deny(unused_lifetimes)]
+pub fn foo&lt;'a&gt;() {}</t>
         </is>
       </c>
       <c r="G739" t="inlineStr"/>
@@ -25558,7 +25726,9 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>struct Foo&lt;'a&gt; {
+          <t>#![deny(elided_lifetimes_in_paths)]
+#![deny(warnings)]
+struct Foo&lt;'a&gt; {
     x: &amp;'a u32
 }
 fn foo(x: &amp;Foo) {
@@ -25618,7 +25788,8 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>mod foo {
+          <t>#![deny(absolute_paths_not_starting_with_crate)]
+mod foo {
     pub fn bar() {}
 }
 fn main() {
@@ -25807,15 +25978,19 @@
       <c r="F749" t="inlineStr">
         <is>
           <t>// foo.rs
+#![crate_type = "proc-macro"]
 extern crate proc_macro;
 use proc_macro::*;
+#[proc_macro_derive(Foo)]
 pub fn foo1(a: TokenStream) -&gt; TokenStream {
     drop(a);
     "mod __bar { static mut BAR: Option&lt;Something&gt; = None; }".parse().unwrap()
 }
 // bar.rs
+#[macro_use]
 extern crate foo;
 struct Something;
+#[derive(Foo)]
 struct Another;
 fn main() {}
 This will produce:
@@ -25854,7 +26029,9 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>extern crate serde_json;
+          <t>#![deny(macro_use_extern_crate)]
+#[macro_use]
+extern crate serde_json;
 fn main() {
     let _ = json!{{}};
 }
@@ -25934,7 +26111,9 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>struct SharedRef&lt;'a, T&gt;
+          <t>#![deny(explicit_outlives_requirements)]
+#![deny(warnings)]
+struct SharedRef&lt;'a, T&gt;
 where
     T: 'a,
 {
@@ -25966,9 +26145,11 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>struct NoDerive(i32);
+          <t>#![deny(indirect_structural_match)]
+struct NoDerive(i32);
 impl PartialEq for NoDerive { fn eq(&amp;self, _: &amp;Self) -&gt; bool { false } }
 impl Eq for NoDerive { }
+#[derive(PartialEq, Eq)]
 struct WrapParam&lt;T&gt;(T);
 const WRAP_INDIRECT_PARAM: &amp; &amp;WrapParam&lt;NoDerive&gt; = &amp; &amp;WrapParam(NoDerive(0));
 fn main() {
@@ -26022,7 +26203,8 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>fn foo(a: usize, b: usize) -&gt; usize { a + b }
+          <t>#![deny(pointer_structural_match)]
+fn foo(a: usize, b: usize) -&gt; usize { a + b }
 const FOO: fn(usize, usize) -&gt; usize = foo;
 fn main() {
     match FOO {
@@ -26056,7 +26238,9 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>struct NoDerive(u32);
+          <t>#![deny(nontrivial_structural_match)]
+#[derive(Copy, Clone, Debug)]
+struct NoDerive(u32);
 impl PartialEq for NoDerive { fn eq(&amp;self, _: &amp;Self) -&gt; bool { false } }
 impl Eq for NoDerive { }
 fn main() {
@@ -26128,7 +26312,9 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>extern crate test;
+          <t>#[cfg(test)]
+extern crate test;
+#[bench]
 fn name(b: &amp;mut test::Bencher) {
     b.iter(|| 123)
 }</t>
@@ -26158,7 +26344,10 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>fn x() {}
+          <t>#![feature(no_sanitize)]
+#[inline(always)]
+#[no_sanitize(address)]
+fn x() {}
 fn main() {
     x()
 }</t>
@@ -26188,7 +26377,8 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>use std::arch::asm;
+          <t>#[cfg(target_arch="x86_64")]
+use std::arch::asm;
 fn main() {
     #[cfg(target_arch="x86_64")]
     unsafe {
@@ -26231,7 +26421,8 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>use std::arch::asm;
+          <t>#[cfg(target_arch="x86_64")]
+use std::arch::asm;
 fn main() {
     #[cfg(target_arch="x86_64")]
     unsafe {
@@ -26275,7 +26466,8 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>unsafe fn foo() {}
+          <t>#![deny(unsafe_op_in_unsafe_fn)]
+unsafe fn foo() {}
 unsafe fn bar() {
     foo();
 }
@@ -26344,7 +26536,9 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![feature(strict_provenance)]
+#![warn(fuzzy_provenance_casts)]
+fn main() {
     let _dangling = 16_usize as *const u8;
 }</t>
         </is>
@@ -26373,7 +26567,9 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![feature(strict_provenance)]
+#![warn(lossy_provenance_casts)]
+fn main() {
     let x: u8 = 37;
     let _addr: usize = &amp;x as *const u8 as usize;
 }</t>
@@ -26500,6 +26696,7 @@
       <c r="F769" t="inlineStr">
         <is>
           <t>struct X;
+#[deprecated = "message"]
 impl Default for X {
     fn default() -&gt; Self {
         X
@@ -26531,10 +26728,13 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>use std::arch::asm;
+          <t>#![feature(asm_experimental_arch, naked_functions)]
+use std::arch::asm;
+#[naked]
 pub fn default_abi() -&gt; u32 {
     unsafe { asm!("", options(noreturn)); }
 }
+#[naked]
 pub extern "Rust" fn rust_abi() -&gt; u32 {
     unsafe { asm!("", options(noreturn)); }
 }</t>
@@ -26564,7 +26764,11 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>struct S {}
+          <t>#![feature(staged_api)]
+#[derive(Clone)]
+#[stable(feature = "x", since = "1")]
+struct S {}
+#[unstable(feature = "y", issue = "none")]
 impl Copy for S {}</t>
         </is>
       </c>
@@ -26592,7 +26796,8 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>macro_rules! foo {
+          <t>#![deny(semicolon_in_expressions_from_macros)]
+macro_rules! foo {
     () =&gt; { true; }
 }
 fn main() {
@@ -26627,7 +26832,9 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>struct S { /* fields */ }
+          <t>#[serde(rename_all = "camelCase")]
+#[derive(Deserialize)]
+struct S { /* fields */ }
 produces:
 warning: derive helper attribute is used before it is introduced
   --&gt; $DIR/legacy-derive-helpers.rs:1:3
@@ -26694,7 +26901,11 @@
           <t>#！[crate_type]和#！[crate_name]属性需要在编译器中进行破解，才能在宏扩展后更改所使用的crate类型和crat名称。这两个属性都不能与Cargo结合使用，因为它在命令行上显式传递--crate type和--crate name。这些值必须与源代码中使用的值匹配，以防止出现错误。若要修复警告，请在运行grustc时在命令行中使用--crate类型，而不是#！[cfg_attr（…，crate_type=“…”）]和--机箱名称，而不是#！[cfg_attr（…，crate_name=“…”）]。</t>
         </is>
       </c>
-      <c r="F775" t="inlineStr"/>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>#![cfg_attr(debug_assertions, crate_type = "lib")]</t>
+        </is>
+      </c>
       <c r="G775" t="inlineStr"/>
     </row>
     <row r="776">
@@ -26720,6 +26931,7 @@
       <c r="F776" t="inlineStr">
         <is>
           <t>rustc --check-cfg 'names()'
+#[cfg(widnows)]
 fn foo() {}
 This will produce:
 warning: unknown condition name used
@@ -26755,7 +26967,9 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>use foo::NonExhaustiveZst;
+          <t>#![deny(repr_transparent_external_private_fields)]
+use foo::NonExhaustiveZst;
+#[repr(transparent)]
 struct Bar(u32, ([u32; 0], NonExhaustiveZst));
 This will produce:
 error: zero-sized fields in repr(transparent) cannot contain external non-exhaustive types
@@ -26798,7 +27012,8 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>macro foo() {}</t>
+          <t>#[cfg(FALSE)]
+macro foo() {}</t>
         </is>
       </c>
       <c r="G778" t="inlineStr"/>
@@ -26825,7 +27040,8 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>pub mod foo {
+          <t>#![deny(ambiguous_glob_reexports)]
+pub mod foo {
     pub type X = u8;
 }
 pub mod bar {
@@ -26889,7 +27105,8 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>use std::thread;
+          <t>#![deny(rust_2021_incompatible_closure_captures)]
+use std::thread;
 struct Pointer(*mut i32);
 unsafe impl Send for Pointer {}
 fn main() {
@@ -26925,7 +27142,8 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>extern fn foo() {}</t>
+          <t>#![deny(missing_abi)]
+extern fn foo() {}</t>
         </is>
       </c>
       <c r="G782" t="inlineStr"/>
@@ -26952,7 +27170,8 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>pub mod submodule {
+          <t>#![deny(warnings)]
+pub mod submodule {
     #![doc(test(no_crate_inject))]
 }</t>
         </is>
@@ -27022,7 +27241,8 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>macro_rules! match_any {
+          <t>#![deny(rust_2021_incompatible_or_patterns)]
+macro_rules! match_any {
     ( $expr:expr , $( $( $pat:pat )|+ =&gt; $expr_arm:expr ),+ ) =&gt; {
         match $expr {
             $(
@@ -27062,7 +27282,8 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>trait Foo {
+          <t>#![deny(rust_2021_prelude_collisions)]
+trait Foo {
     fn try_into(self) -&gt; Result&lt;String, !&gt;;
 }
 impl Foo for &amp;str {
@@ -27103,7 +27324,8 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>macro_rules! m {
+          <t>#![deny(rust_2021_prefixes_incompatible_syntax)]
+macro_rules! m {
     (z $x:expr) =&gt; ();
 }
 m!(z"hey");</t>
@@ -27201,11 +27423,13 @@
       <c r="F790" t="inlineStr">
         <is>
           <t>// crate A
+#[non_exhaustive]
 pub enum Bar {
     A,
     B, // added variant in non breaking change
 }
 // in crate B
+#![feature(non_exhaustive_omitted_patterns_lint)]
 match Bar::A {
     Bar::A =&gt; {},
     #[warn(non_exhaustive_omitted_patterns)]
@@ -27251,7 +27475,8 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![deny(text_direction_codepoint_in_comment)]
+fn main() {
     println!("{:?}"); // '‮');
 }</t>
         </is>
@@ -27280,7 +27505,9 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>fn foo() {}
+          <t>#[test]
+#[test]
+fn foo() {}
 This will produce:
 warning: duplicated attribute
  --&gt; src/lib.rs:2:1
@@ -27373,7 +27600,11 @@
           <t>为了测试不稳定棉绒的性能，需要一个永久不稳定的棉绒。此lint可用于从编译器中触发与不稳定lint相关的警告和错误。</t>
         </is>
       </c>
-      <c r="F795" t="inlineStr"/>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>#![allow(test_unstable_lint)]</t>
+        </is>
+      </c>
       <c r="G795" t="inlineStr"/>
     </row>
     <row r="796">
@@ -27398,7 +27629,8 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>extern "C-unwind" {
+          <t>#![warn(ffi_unwind_calls)]
+extern "C-unwind" {
     fn foo();
 }
 fn bar() {
@@ -27436,7 +27668,8 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>fn main() {
+          <t>#![deny(named_arguments_used_positionally)]
+fn main() {
     let _x = 5;
     println!("{}", _x = 1); // Prints 1, will trigger lint
     println!("{}", _x); // Prints 5, no lint emitted
@@ -27468,7 +27701,8 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>trait Trait {
+          <t>#![deny(implied_bounds_entailment)]
+trait Trait {
     fn get&lt;'s&gt;(s: &amp;'s str, _: &amp;'static &amp;'static ()) -&gt; &amp;'static str;
 }
 impl Trait for () {
@@ -27504,7 +27738,9 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>struct FlexZeroSlice {
+          <t>#[repr(packed)]
+#[derive(Hash)]
+struct FlexZeroSlice {
     width: u8,
     data: [u8],
 }</t>
@@ -27534,11 +27770,14 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>macro_rules! myMacro {
+          <t>#![deny(invalid_macro_export_arguments)]
+#[macro_export(invalid_parameter)]
+macro_rules! myMacro {
    () =&gt; {
         // [...]
    }
-}</t>
+}
+#[macro_export(too, many, items)]</t>
         </is>
       </c>
       <c r="G800" t="inlineStr"/>
